--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Desktop\Udemy\sibica\documentacion\desarrollo\cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D524D21E-209E-41FF-AED4-951D390D1C50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B95E57-CC43-4484-8E3D-CB08A81F3BF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="337">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2817,6 +2817,9 @@
   </si>
   <si>
     <t xml:space="preserve">Generar autorizacion </t>
+  </si>
+  <si>
+    <t>En progeso</t>
   </si>
 </sst>
 </file>
@@ -3183,7 +3186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3395,14 +3398,14 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3422,13 +3425,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3438,6 +3435,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3458,15 +3464,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3483,6 +3480,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3816,11 +3822,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3914,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3932,61 +3938,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5353,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:F56"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5369,56 +5375,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5458,9 +5464,9 @@
         <v>5</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="80"/>
@@ -5775,7 +5781,7 @@
         <v>267</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>111</v>
+        <v>336</v>
       </c>
       <c r="F32" s="44" t="s">
         <v>306</v>
@@ -6869,6 +6875,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="A48:B52"/>
+    <mergeCell ref="A54:B60"/>
+    <mergeCell ref="A62:B68"/>
+    <mergeCell ref="A118:B124"/>
     <mergeCell ref="A126:B132"/>
     <mergeCell ref="A40:B46"/>
     <mergeCell ref="A70:B76"/>
@@ -6877,16 +6893,6 @@
     <mergeCell ref="A94:B100"/>
     <mergeCell ref="A102:B108"/>
     <mergeCell ref="A110:B116"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="A48:B52"/>
-    <mergeCell ref="A54:B60"/>
-    <mergeCell ref="A62:B68"/>
-    <mergeCell ref="A118:B124"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A24:B30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6895,10 +6901,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6913,56 +6919,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -7002,9 +7008,9 @@
         <v>7</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="80"/>
@@ -7910,44 +7916,262 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="90" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="92"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="80"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="82"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="82"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="82"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="82"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="82"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="84"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A82" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="80"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="82"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="82"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="82"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="82"/>
+      <c r="B87" s="83"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="82"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="84"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>164</v>
+        <v>29</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="E90" s="25"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
+      <c r="F90" s="90"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="92"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="80"/>
-      <c r="B91" s="81"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F91" s="44" t="s">
+        <v>306</v>
+      </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="82"/>
-      <c r="B92" s="83"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E92" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" s="77" t="s">
+        <v>306</v>
+      </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="82"/>
-      <c r="B93" s="83"/>
+      <c r="B93" s="88"/>
       <c r="C93" s="25"/>
       <c r="D93" s="1"/>
       <c r="E93" s="25"/>
@@ -7957,7 +8181,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="82"/>
-      <c r="B94" s="83"/>
+      <c r="B94" s="88"/>
       <c r="C94" s="25"/>
       <c r="D94" s="1"/>
       <c r="E94" s="25"/>
@@ -7967,7 +8191,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="82"/>
-      <c r="B95" s="83"/>
+      <c r="B95" s="88"/>
       <c r="C95" s="25"/>
       <c r="D95" s="1"/>
       <c r="E95" s="25"/>
@@ -7977,7 +8201,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="82"/>
-      <c r="B96" s="83"/>
+      <c r="B96" s="88"/>
       <c r="C96" s="25"/>
       <c r="D96" s="1"/>
       <c r="E96" s="25"/>
@@ -7987,89 +8211,110 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="84"/>
-      <c r="B97" s="85"/>
+      <c r="B97" s="89"/>
       <c r="C97" s="10"/>
-      <c r="D97" s="23"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="25"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
+    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="90"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="92"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="80"/>
-      <c r="B99" s="81"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
+      <c r="B99" s="87"/>
+      <c r="C99" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99" s="44" t="s">
+        <v>303</v>
+      </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="82"/>
-      <c r="B100" s="83"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E100" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100" s="44" t="s">
+        <v>303</v>
+      </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="82"/>
-      <c r="B101" s="83"/>
-      <c r="C101" s="25"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="82"/>
-      <c r="B102" s="83"/>
-      <c r="C102" s="25"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="82"/>
-      <c r="B103" s="83"/>
-      <c r="C103" s="25"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="82"/>
-      <c r="B104" s="83"/>
-      <c r="C104" s="25"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="84"/>
-      <c r="B105" s="85"/>
+      <c r="B105" s="89"/>
       <c r="C105" s="10"/>
-      <c r="D105" s="23"/>
+      <c r="D105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
@@ -8235,103 +8480,27 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="25"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="80"/>
-      <c r="B123" s="81"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="82"/>
-      <c r="B124" s="83"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="82"/>
-      <c r="B125" s="83"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="82"/>
-      <c r="B126" s="83"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="82"/>
-      <c r="B127" s="83"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="82"/>
-      <c r="B128" s="83"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="84"/>
-      <c r="B129" s="85"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A115:B121"/>
-    <mergeCell ref="A123:B129"/>
-    <mergeCell ref="A91:B97"/>
-    <mergeCell ref="A99:B105"/>
-    <mergeCell ref="A107:B113"/>
+  <mergeCells count="19">
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="A75:B81"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="A39:B43"/>
+    <mergeCell ref="A51:B57"/>
+    <mergeCell ref="A59:B65"/>
+    <mergeCell ref="A67:B73"/>
+    <mergeCell ref="A45:B49"/>
     <mergeCell ref="A16:B22"/>
     <mergeCell ref="A24:B30"/>
     <mergeCell ref="A1:H5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="A8:B14"/>
-    <mergeCell ref="A39:B43"/>
-    <mergeCell ref="A51:B57"/>
-    <mergeCell ref="A59:B65"/>
-    <mergeCell ref="A67:B73"/>
-    <mergeCell ref="A45:B49"/>
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A115:B121"/>
+    <mergeCell ref="A83:B89"/>
+    <mergeCell ref="A91:B97"/>
+    <mergeCell ref="A99:B105"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8341,10 +8510,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B31" sqref="A31:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8359,56 +8528,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -8447,13 +8616,13 @@
         <v>135</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="80"/>
-      <c r="B8" s="89"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="6" t="s">
         <v>115</v>
       </c>
@@ -8471,7 +8640,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="82"/>
-      <c r="B9" s="90"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="32" t="s">
         <v>116</v>
       </c>
@@ -8489,7 +8658,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="82"/>
-      <c r="B10" s="90"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="32" t="s">
         <v>117</v>
       </c>
@@ -8507,7 +8676,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
-      <c r="B11" s="90"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -8517,7 +8686,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="82"/>
-      <c r="B12" s="90"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -8527,7 +8696,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
-      <c r="B13" s="90"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -8537,7 +8706,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="84"/>
-      <c r="B14" s="91"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8556,13 +8725,13 @@
         <v>136</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="80"/>
-      <c r="B16" s="89"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="49" t="s">
         <v>115</v>
       </c>
@@ -8580,7 +8749,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="82"/>
-      <c r="B17" s="90"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="49" t="s">
         <v>116</v>
       </c>
@@ -8598,7 +8767,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="82"/>
-      <c r="B18" s="90"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="49" t="s">
         <v>117</v>
       </c>
@@ -8616,7 +8785,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
-      <c r="B19" s="90"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -8626,7 +8795,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
-      <c r="B20" s="90"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -8636,7 +8805,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
-      <c r="B21" s="90"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -8646,7 +8815,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="84"/>
-      <c r="B22" s="91"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -8665,13 +8834,13 @@
         <v>144</v>
       </c>
       <c r="E23" s="25"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="80"/>
-      <c r="B24" s="89"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="32" t="s">
         <v>115</v>
       </c>
@@ -8689,7 +8858,7 @@
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
-      <c r="B25" s="90"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="32" t="s">
         <v>116</v>
       </c>
@@ -8707,7 +8876,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="82"/>
-      <c r="B26" s="90"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="32"/>
       <c r="D26" s="1"/>
       <c r="E26" s="25"/>
@@ -8717,7 +8886,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="82"/>
-      <c r="B27" s="90"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="25"/>
       <c r="D27" s="1"/>
       <c r="E27" s="25"/>
@@ -8727,7 +8896,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="82"/>
-      <c r="B28" s="90"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="25"/>
       <c r="D28" s="1"/>
       <c r="E28" s="25"/>
@@ -8737,7 +8906,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="82"/>
-      <c r="B29" s="90"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="25"/>
       <c r="D29" s="1"/>
       <c r="E29" s="25"/>
@@ -8747,7 +8916,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="84"/>
-      <c r="B30" s="91"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -8755,96 +8924,88 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="E31" s="25"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88"/>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="80"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="49" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="E32" s="44" t="s">
+      <c r="D32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="82"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="49" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" s="44" t="s">
+      <c r="D33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="82"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="49" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="44" t="s">
+      <c r="D34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="82"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>307</v>
-      </c>
+      <c r="B35" s="88"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="82"/>
-      <c r="B36" s="90"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="25"/>
       <c r="D36" s="1"/>
       <c r="E36" s="25"/>
@@ -8854,7 +9015,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="82"/>
-      <c r="B37" s="90"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="25"/>
       <c r="D37" s="1"/>
       <c r="E37" s="25"/>
@@ -8864,7 +9025,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="84"/>
-      <c r="B38" s="91"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -8874,86 +9035,94 @@
     </row>
     <row r="39" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E39" s="25"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="92"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="80"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="87"/>
+      <c r="C40" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>302</v>
+      <c r="D40" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>306</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="82"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="32" t="s">
+      <c r="B41" s="88"/>
+      <c r="C41" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E41" s="43" t="s">
+      <c r="D41" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="82"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="88"/>
+      <c r="C42" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="43" t="s">
+      <c r="D42" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="82"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>306</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="82"/>
-      <c r="B44" s="90"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="25"/>
       <c r="D44" s="1"/>
       <c r="E44" s="25"/>
@@ -8963,7 +9132,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="82"/>
-      <c r="B45" s="90"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="25"/>
       <c r="D45" s="1"/>
       <c r="E45" s="25"/>
@@ -8973,7 +9142,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="84"/>
-      <c r="B46" s="91"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -8981,96 +9150,72 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="88"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="90"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="92"/>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="80"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="49" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>306</v>
+      <c r="D48" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>305</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="82"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>306</v>
-      </c>
+      <c r="B49" s="88"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="82"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s">
-        <v>276</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>306</v>
-      </c>
+      <c r="B50" s="88"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="82"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="44" t="s">
-        <v>306</v>
-      </c>
+      <c r="B51" s="88"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="82"/>
-      <c r="B52" s="90"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="25"/>
       <c r="D52" s="1"/>
       <c r="E52" s="25"/>
@@ -9080,7 +9225,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="82"/>
-      <c r="B53" s="90"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="25"/>
       <c r="D53" s="1"/>
       <c r="E53" s="25"/>
@@ -9090,7 +9235,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="84"/>
-      <c r="B54" s="91"/>
+      <c r="B54" s="89"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -9100,60 +9245,76 @@
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E55" s="25"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="88"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="92"/>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="80"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="32" t="s">
+      <c r="B56" s="87"/>
+      <c r="C56" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" s="25" t="s">
+      <c r="D56" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F56" s="44" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="82"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>307</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="82"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>307</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="82"/>
-      <c r="B59" s="90"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="25"/>
       <c r="D59" s="1"/>
       <c r="E59" s="25"/>
@@ -9163,7 +9324,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="82"/>
-      <c r="B60" s="90"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="25"/>
       <c r="D60" s="1"/>
       <c r="E60" s="25"/>
@@ -9173,7 +9334,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="82"/>
-      <c r="B61" s="90"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="25"/>
       <c r="D61" s="1"/>
       <c r="E61" s="25"/>
@@ -9183,7 +9344,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="84"/>
-      <c r="B62" s="91"/>
+      <c r="B62" s="89"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -9191,78 +9352,78 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>153</v>
+        <v>31</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E63" s="25"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="88"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="92"/>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="80"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="49" t="s">
+      <c r="B64" s="87"/>
+      <c r="C64" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="E64" s="44" t="s">
+      <c r="D64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F64" s="44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="82"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="49" t="s">
+      <c r="B65" s="88"/>
+      <c r="C65" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="E65" s="44" t="s">
+      <c r="D65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F65" s="44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="82"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="49" t="s">
+      <c r="B66" s="88"/>
+      <c r="C66" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="E66" s="44" t="s">
+      <c r="D66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F66" s="44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="82"/>
-      <c r="B67" s="90"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="25"/>
       <c r="D67" s="1"/>
       <c r="E67" s="25"/>
@@ -9272,7 +9433,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="82"/>
-      <c r="B68" s="90"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="25"/>
       <c r="D68" s="1"/>
       <c r="E68" s="25"/>
@@ -9282,7 +9443,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
-      <c r="B69" s="90"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="25"/>
       <c r="D69" s="1"/>
       <c r="E69" s="25"/>
@@ -9292,7 +9453,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="84"/>
-      <c r="B70" s="91"/>
+      <c r="B70" s="89"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -9302,96 +9463,112 @@
     </row>
     <row r="71" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B71" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E71" s="25"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="88"/>
-    </row>
-    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F71" s="90"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="92"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="80"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="32" t="s">
+      <c r="B72" s="87"/>
+      <c r="C72" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E72" s="25" t="s">
+      <c r="D72" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="E72" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F72" s="44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="82"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="32" t="s">
+      <c r="B73" s="88"/>
+      <c r="C73" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E73" s="43" t="s">
+      <c r="D73" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F73" s="44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="82"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="32" t="s">
+      <c r="B74" s="88"/>
+      <c r="C74" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E74" s="43" t="s">
+      <c r="D74" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F74" s="44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="82"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75" s="44" t="s">
+        <v>303</v>
+      </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="82"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" s="44" t="s">
+        <v>303</v>
+      </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="82"/>
-      <c r="B77" s="90"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="25"/>
       <c r="D77" s="1"/>
       <c r="E77" s="25"/>
@@ -9401,7 +9578,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="84"/>
-      <c r="B78" s="91"/>
+      <c r="B78" s="89"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -9409,114 +9586,84 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>156</v>
+        <v>47</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E79" s="25"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="87"/>
-      <c r="H79" s="88"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F79" s="90"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="92"/>
+    </row>
+    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="80"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="49" t="s">
+      <c r="B80" s="87"/>
+      <c r="C80" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="E80" s="44" t="s">
+      <c r="D80" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F80" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="82"/>
-      <c r="B81" s="90"/>
-      <c r="C81" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="E81" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F81" s="44" t="s">
-        <v>303</v>
-      </c>
+      <c r="B81" s="88"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="82"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="E82" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="44" t="s">
-        <v>303</v>
-      </c>
+      <c r="B82" s="88"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="82"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D83" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="E83" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F83" s="44" t="s">
-        <v>303</v>
-      </c>
+      <c r="B83" s="88"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="82"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="D84" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="E84" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F84" s="44" t="s">
-        <v>303</v>
-      </c>
+      <c r="B84" s="88"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="82"/>
-      <c r="B85" s="90"/>
+      <c r="B85" s="88"/>
       <c r="C85" s="25"/>
       <c r="D85" s="1"/>
       <c r="E85" s="25"/>
@@ -9526,7 +9673,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="84"/>
-      <c r="B86" s="91"/>
+      <c r="B86" s="89"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -9536,27 +9683,27 @@
     </row>
     <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E87" s="25"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="88"/>
-    </row>
-    <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F87" s="90"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="92"/>
+    </row>
+    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="80"/>
-      <c r="B88" s="89"/>
+      <c r="B88" s="87"/>
       <c r="C88" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>111</v>
@@ -9565,13 +9712,11 @@
         <v>302</v>
       </c>
       <c r="G88" s="1"/>
-      <c r="H88" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="82"/>
-      <c r="B89" s="90"/>
+      <c r="B89" s="88"/>
       <c r="C89" s="32"/>
       <c r="D89" s="1"/>
       <c r="E89" s="25"/>
@@ -9581,7 +9726,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="82"/>
-      <c r="B90" s="90"/>
+      <c r="B90" s="88"/>
       <c r="C90" s="32"/>
       <c r="D90" s="1"/>
       <c r="E90" s="25"/>
@@ -9591,7 +9736,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="82"/>
-      <c r="B91" s="90"/>
+      <c r="B91" s="88"/>
       <c r="C91" s="25"/>
       <c r="D91" s="1"/>
       <c r="E91" s="25"/>
@@ -9601,7 +9746,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="82"/>
-      <c r="B92" s="90"/>
+      <c r="B92" s="88"/>
       <c r="C92" s="25"/>
       <c r="D92" s="1"/>
       <c r="E92" s="25"/>
@@ -9611,7 +9756,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="82"/>
-      <c r="B93" s="90"/>
+      <c r="B93" s="88"/>
       <c r="C93" s="25"/>
       <c r="D93" s="1"/>
       <c r="E93" s="25"/>
@@ -9621,7 +9766,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="84"/>
-      <c r="B94" s="91"/>
+      <c r="B94" s="89"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -9631,27 +9776,27 @@
     </row>
     <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E95" s="25"/>
-      <c r="F95" s="86"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="88"/>
+      <c r="F95" s="90"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="92"/>
     </row>
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="80"/>
-      <c r="B96" s="89"/>
+      <c r="B96" s="87"/>
       <c r="C96" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E96" s="25" t="s">
         <v>111</v>
@@ -9662,19 +9807,29 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="82"/>
-      <c r="B97" s="90"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>302</v>
+      </c>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="82"/>
-      <c r="B98" s="90"/>
+      <c r="B98" s="88"/>
       <c r="C98" s="32"/>
       <c r="D98" s="1"/>
       <c r="E98" s="25"/>
@@ -9684,7 +9839,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="82"/>
-      <c r="B99" s="90"/>
+      <c r="B99" s="88"/>
       <c r="C99" s="25"/>
       <c r="D99" s="1"/>
       <c r="E99" s="25"/>
@@ -9694,7 +9849,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="82"/>
-      <c r="B100" s="90"/>
+      <c r="B100" s="88"/>
       <c r="C100" s="25"/>
       <c r="D100" s="1"/>
       <c r="E100" s="25"/>
@@ -9704,7 +9859,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="82"/>
-      <c r="B101" s="90"/>
+      <c r="B101" s="88"/>
       <c r="C101" s="25"/>
       <c r="D101" s="1"/>
       <c r="E101" s="25"/>
@@ -9714,7 +9869,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="84"/>
-      <c r="B102" s="91"/>
+      <c r="B102" s="89"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -9722,63 +9877,53 @@
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="E103" s="25"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="87"/>
-      <c r="H103" s="88"/>
-    </row>
-    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F103" s="90"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="92"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="80"/>
-      <c r="B104" s="89"/>
+      <c r="B104" s="87"/>
       <c r="C104" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E104" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F104" s="44" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="82"/>
-      <c r="B105" s="90"/>
-      <c r="C105" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E105" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F105" s="44" t="s">
-        <v>302</v>
-      </c>
+      <c r="B105" s="88"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="82"/>
-      <c r="B106" s="90"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="1"/>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
@@ -9787,7 +9932,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="82"/>
-      <c r="B107" s="90"/>
+      <c r="B107" s="88"/>
       <c r="C107" s="25"/>
       <c r="D107" s="1"/>
       <c r="E107" s="25"/>
@@ -9797,7 +9942,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="82"/>
-      <c r="B108" s="90"/>
+      <c r="B108" s="88"/>
       <c r="C108" s="25"/>
       <c r="D108" s="1"/>
       <c r="E108" s="25"/>
@@ -9807,7 +9952,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="82"/>
-      <c r="B109" s="90"/>
+      <c r="B109" s="88"/>
       <c r="C109" s="25"/>
       <c r="D109" s="1"/>
       <c r="E109" s="25"/>
@@ -9817,7 +9962,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="84"/>
-      <c r="B110" s="91"/>
+      <c r="B110" s="89"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -9825,42 +9970,29 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>172</v>
-      </c>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="4"/>
       <c r="E111" s="25"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="87"/>
-      <c r="H111" s="88"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="91"/>
+      <c r="H111" s="92"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="80"/>
-      <c r="B112" s="89"/>
-      <c r="C112" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F112" s="44" t="s">
-        <v>305</v>
-      </c>
+      <c r="B112" s="87"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="82"/>
-      <c r="B113" s="90"/>
+      <c r="B113" s="88"/>
       <c r="C113" s="25"/>
       <c r="D113" s="1"/>
       <c r="E113" s="25"/>
@@ -9870,7 +10002,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="82"/>
-      <c r="B114" s="90"/>
+      <c r="B114" s="88"/>
       <c r="C114" s="25"/>
       <c r="D114" s="1"/>
       <c r="E114" s="25"/>
@@ -9880,7 +10012,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="82"/>
-      <c r="B115" s="90"/>
+      <c r="B115" s="88"/>
       <c r="C115" s="25"/>
       <c r="D115" s="1"/>
       <c r="E115" s="25"/>
@@ -9890,7 +10022,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="82"/>
-      <c r="B116" s="90"/>
+      <c r="B116" s="88"/>
       <c r="C116" s="25"/>
       <c r="D116" s="1"/>
       <c r="E116" s="25"/>
@@ -9900,7 +10032,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="82"/>
-      <c r="B117" s="90"/>
+      <c r="B117" s="88"/>
       <c r="C117" s="25"/>
       <c r="D117" s="1"/>
       <c r="E117" s="25"/>
@@ -9910,7 +10042,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="84"/>
-      <c r="B118" s="91"/>
+      <c r="B118" s="89"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -9918,119 +10050,37 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="86"/>
-      <c r="G119" s="87"/>
-      <c r="H119" s="88"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="80"/>
-      <c r="B120" s="89"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="82"/>
-      <c r="B121" s="90"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="82"/>
-      <c r="B122" s="90"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="82"/>
-      <c r="B123" s="90"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="82"/>
-      <c r="B124" s="90"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="82"/>
-      <c r="B125" s="90"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="84"/>
-      <c r="B126" s="91"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A120:B126"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="A104:B110"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="A112:B118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="A80:B86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A88:B94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="A96:B102"/>
+  <mergeCells count="29">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A64:B70"/>
     <mergeCell ref="F71:H71"/>
     <mergeCell ref="A72:B78"/>
     <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A40:B46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A80:B86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A88:B94"/>
+    <mergeCell ref="A112:B118"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A96:B102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A104:B110"/>
+    <mergeCell ref="F111:H111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10039,10 +10089,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10054,56 +10104,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -10132,23 +10182,24 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="80"/>
-      <c r="B8" s="89"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="49" t="s">
         <v>115</v>
       </c>
@@ -10159,14 +10210,14 @@
         <v>111</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="82"/>
-      <c r="B9" s="90"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="49" t="s">
         <v>116</v>
       </c>
@@ -10177,15 +10228,15 @@
         <v>111</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="82"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -10194,7 +10245,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
-      <c r="B11" s="90"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -10204,7 +10255,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="82"/>
-      <c r="B12" s="90"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -10214,7 +10265,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
-      <c r="B13" s="90"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -10224,7 +10275,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="84"/>
-      <c r="B14" s="91"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10233,100 +10284,107 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94"/>
+      <c r="A15" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="80"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="82"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="32" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="82"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>305</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="84"/>
-      <c r="B22" s="91"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -10334,70 +10392,78 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>151</v>
+        <v>52</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E23" s="25"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="80"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="42" t="s">
         <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
-      <c r="B25" s="90"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="44" t="s">
         <v>116</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>111</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="82"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>302</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="82"/>
-      <c r="B27" s="90"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="25"/>
       <c r="D27" s="1"/>
       <c r="E27" s="25"/>
@@ -10407,7 +10473,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="82"/>
-      <c r="B28" s="90"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="25"/>
       <c r="D28" s="1"/>
       <c r="E28" s="25"/>
@@ -10417,7 +10483,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="82"/>
-      <c r="B29" s="90"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="25"/>
       <c r="D29" s="1"/>
       <c r="E29" s="25"/>
@@ -10427,7 +10493,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="84"/>
-      <c r="B30" s="91"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -10435,29 +10501,29 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E31" s="25"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="80"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="25" t="s">
         <v>115</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E32" s="44" t="s">
         <v>111</v>
@@ -10470,12 +10536,12 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="82"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="32" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>111</v>
@@ -10486,14 +10552,14 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="82"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="42" t="s">
         <v>117</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E34" s="44" t="s">
         <v>111</v>
@@ -10506,7 +10572,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="82"/>
-      <c r="B35" s="90"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="25"/>
       <c r="D35" s="1"/>
       <c r="E35" s="25"/>
@@ -10516,7 +10582,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="82"/>
-      <c r="B36" s="90"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="25"/>
       <c r="D36" s="1"/>
       <c r="E36" s="25"/>
@@ -10526,7 +10592,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="82"/>
-      <c r="B37" s="90"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="25"/>
       <c r="D37" s="1"/>
       <c r="E37" s="25"/>
@@ -10536,7 +10602,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="84"/>
-      <c r="B38" s="91"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -10544,239 +10610,17 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88"/>
-    </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="80"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="84"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="88"/>
-    </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="80"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="82"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="82"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A40:B46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B54"/>
-    <mergeCell ref="F23:H23"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
     <mergeCell ref="A24:B30"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10787,8 +10631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:H94"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10800,56 +10644,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -10888,13 +10732,13 @@
         <v>311</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="80"/>
-      <c r="B8" s="89"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="32" t="s">
         <v>115</v>
       </c>
@@ -10913,7 +10757,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="82"/>
-      <c r="B9" s="90"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="32" t="s">
         <v>116</v>
       </c>
@@ -10931,7 +10775,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="82"/>
-      <c r="B10" s="90"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="32"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -10941,7 +10785,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
-      <c r="B11" s="90"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -10951,7 +10795,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="82"/>
-      <c r="B12" s="90"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -10961,7 +10805,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
-      <c r="B13" s="90"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -10971,7 +10815,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="84"/>
-      <c r="B14" s="91"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10991,13 +10835,13 @@
         <v>310</v>
       </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="80"/>
-      <c r="B16" s="89"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="49" t="s">
         <v>115</v>
       </c>
@@ -11015,7 +10859,7 @@
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="82"/>
-      <c r="B17" s="90"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="49" t="s">
         <v>116</v>
       </c>
@@ -11033,7 +10877,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="82"/>
-      <c r="B18" s="90"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -11043,7 +10887,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
-      <c r="B19" s="90"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -11053,7 +10897,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
-      <c r="B20" s="90"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -11063,7 +10907,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
-      <c r="B21" s="90"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -11073,7 +10917,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="84"/>
-      <c r="B22" s="91"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -11092,13 +10936,13 @@
         <v>70</v>
       </c>
       <c r="E23" s="25"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="80"/>
-      <c r="B24" s="89"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="38" t="s">
         <v>115</v>
       </c>
@@ -11116,7 +10960,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
-      <c r="B25" s="90"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="38" t="s">
         <v>116</v>
       </c>
@@ -11134,7 +10978,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="82"/>
-      <c r="B26" s="90"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="38" t="s">
         <v>117</v>
       </c>
@@ -11152,7 +10996,7 @@
     </row>
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="82"/>
-      <c r="B27" s="90"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="25" t="s">
         <v>118</v>
       </c>
@@ -11170,7 +11014,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="82"/>
-      <c r="B28" s="90"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="25"/>
       <c r="D28" s="1"/>
       <c r="E28" s="25"/>
@@ -11180,7 +11024,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="82"/>
-      <c r="B29" s="90"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="25"/>
       <c r="D29" s="1"/>
       <c r="E29" s="25"/>
@@ -11190,7 +11034,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="84"/>
-      <c r="B30" s="91"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -11209,13 +11053,13 @@
         <v>78</v>
       </c>
       <c r="E31" s="25"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="80"/>
-      <c r="B32" s="89"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="38" t="s">
         <v>115</v>
       </c>
@@ -11233,7 +11077,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="82"/>
-      <c r="B33" s="90"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="38" t="s">
         <v>116</v>
       </c>
@@ -11251,7 +11095,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="82"/>
-      <c r="B34" s="90"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="38" t="s">
         <v>117</v>
       </c>
@@ -11269,7 +11113,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="82"/>
-      <c r="B35" s="90"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="25" t="s">
         <v>118</v>
       </c>
@@ -11287,7 +11131,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="82"/>
-      <c r="B36" s="90"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="25"/>
       <c r="D36" s="1"/>
       <c r="E36" s="25"/>
@@ -11297,7 +11141,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="82"/>
-      <c r="B37" s="90"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="25"/>
       <c r="D37" s="1"/>
       <c r="E37" s="25"/>
@@ -11307,7 +11151,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="84"/>
-      <c r="B38" s="91"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -11326,13 +11170,13 @@
         <v>79</v>
       </c>
       <c r="E39" s="25"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="92"/>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="80"/>
-      <c r="B40" s="89"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="42" t="s">
         <v>115</v>
       </c>
@@ -11350,7 +11194,7 @@
     </row>
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="82"/>
-      <c r="B41" s="90"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="42" t="s">
         <v>116</v>
       </c>
@@ -11368,7 +11212,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="82"/>
-      <c r="B42" s="90"/>
+      <c r="B42" s="88"/>
       <c r="C42" s="42"/>
       <c r="D42" s="1"/>
       <c r="E42" s="25"/>
@@ -11378,7 +11222,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="82"/>
-      <c r="B43" s="90"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="42"/>
       <c r="D43" s="1"/>
       <c r="E43" s="25"/>
@@ -11388,7 +11232,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="82"/>
-      <c r="B44" s="90"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="25"/>
       <c r="D44" s="1"/>
       <c r="E44" s="25"/>
@@ -11398,7 +11242,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="82"/>
-      <c r="B45" s="90"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="25"/>
       <c r="D45" s="1"/>
       <c r="E45" s="25"/>
@@ -11408,7 +11252,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="84"/>
-      <c r="B46" s="91"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -11427,13 +11271,13 @@
         <v>80</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="88"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="92"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="80"/>
-      <c r="B48" s="89"/>
+      <c r="B48" s="87"/>
       <c r="C48" s="42" t="s">
         <v>115</v>
       </c>
@@ -11451,7 +11295,7 @@
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="82"/>
-      <c r="B49" s="90"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="42" t="s">
         <v>116</v>
       </c>
@@ -11469,7 +11313,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="82"/>
-      <c r="B50" s="90"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="42"/>
       <c r="D50" s="1"/>
       <c r="E50" s="25"/>
@@ -11479,7 +11323,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="82"/>
-      <c r="B51" s="90"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="42"/>
       <c r="D51" s="1"/>
       <c r="E51" s="25"/>
@@ -11489,7 +11333,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="82"/>
-      <c r="B52" s="90"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="25"/>
       <c r="D52" s="1"/>
       <c r="E52" s="25"/>
@@ -11499,7 +11343,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="82"/>
-      <c r="B53" s="90"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="25"/>
       <c r="D53" s="1"/>
       <c r="E53" s="25"/>
@@ -11509,7 +11353,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="84"/>
-      <c r="B54" s="91"/>
+      <c r="B54" s="89"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -11528,13 +11372,13 @@
         <v>81</v>
       </c>
       <c r="E55" s="25"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="88"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="92"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="80"/>
-      <c r="B56" s="89"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="52" t="s">
         <v>115</v>
       </c>
@@ -11552,7 +11396,7 @@
     </row>
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="82"/>
-      <c r="B57" s="90"/>
+      <c r="B57" s="88"/>
       <c r="C57" s="52" t="s">
         <v>116</v>
       </c>
@@ -11570,7 +11414,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="82"/>
-      <c r="B58" s="90"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="52" t="s">
         <v>117</v>
       </c>
@@ -11588,7 +11432,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="82"/>
-      <c r="B59" s="90"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="42"/>
       <c r="D59" s="1"/>
       <c r="E59" s="25"/>
@@ -11598,7 +11442,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="82"/>
-      <c r="B60" s="90"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="25"/>
       <c r="D60" s="1"/>
       <c r="E60" s="25"/>
@@ -11608,7 +11452,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="82"/>
-      <c r="B61" s="90"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="25"/>
       <c r="D61" s="1"/>
       <c r="E61" s="25"/>
@@ -11618,7 +11462,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="84"/>
-      <c r="B62" s="91"/>
+      <c r="B62" s="89"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -11637,13 +11481,13 @@
         <v>82</v>
       </c>
       <c r="E63" s="25"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="88"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="92"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="80"/>
-      <c r="B64" s="89"/>
+      <c r="B64" s="87"/>
       <c r="C64" s="42" t="s">
         <v>115</v>
       </c>
@@ -11661,7 +11505,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="82"/>
-      <c r="B65" s="90"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="42" t="s">
         <v>116</v>
       </c>
@@ -11679,7 +11523,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="82"/>
-      <c r="B66" s="90"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="42"/>
       <c r="D66" s="1"/>
       <c r="E66" s="25"/>
@@ -11689,7 +11533,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="82"/>
-      <c r="B67" s="90"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="42"/>
       <c r="D67" s="1"/>
       <c r="E67" s="25"/>
@@ -11699,7 +11543,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="82"/>
-      <c r="B68" s="90"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="25"/>
       <c r="D68" s="1"/>
       <c r="E68" s="25"/>
@@ -11709,7 +11553,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
-      <c r="B69" s="90"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="25"/>
       <c r="D69" s="1"/>
       <c r="E69" s="25"/>
@@ -11719,7 +11563,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="84"/>
-      <c r="B70" s="91"/>
+      <c r="B70" s="89"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -11739,13 +11583,13 @@
         <v>170</v>
       </c>
       <c r="E71" s="30"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="97"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="98"/>
     </row>
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="80"/>
-      <c r="B72" s="89"/>
+      <c r="B72" s="87"/>
       <c r="C72" s="52" t="s">
         <v>115</v>
       </c>
@@ -11763,7 +11607,7 @@
     </row>
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="82"/>
-      <c r="B73" s="90"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="52" t="s">
         <v>116</v>
       </c>
@@ -11781,7 +11625,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="82"/>
-      <c r="B74" s="90"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="25"/>
       <c r="D74" s="1"/>
       <c r="E74" s="25"/>
@@ -11791,7 +11635,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="82"/>
-      <c r="B75" s="90"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="25"/>
       <c r="D75" s="1"/>
       <c r="E75" s="25"/>
@@ -11801,7 +11645,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="82"/>
-      <c r="B76" s="90"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="25"/>
       <c r="D76" s="1"/>
       <c r="E76" s="25"/>
@@ -11811,7 +11655,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="82"/>
-      <c r="B77" s="90"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="25"/>
       <c r="D77" s="1"/>
       <c r="E77" s="25"/>
@@ -11821,7 +11665,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="84"/>
-      <c r="B78" s="91"/>
+      <c r="B78" s="89"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -11831,6 +11675,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
     <mergeCell ref="A72:B78"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A64:B70"/>
@@ -11840,16 +11694,6 @@
     <mergeCell ref="A48:B54"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11874,56 +11718,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -11963,13 +11807,13 @@
         <v>74</v>
       </c>
       <c r="E7" s="25"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80"/>
-      <c r="B8" s="89"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="25" t="s">
         <v>115</v>
       </c>
@@ -11988,7 +11832,7 @@
     </row>
     <row r="9" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="82"/>
-      <c r="B9" s="90"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="42" t="s">
         <v>116</v>
       </c>
@@ -12006,7 +11850,7 @@
     </row>
     <row r="10" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="82"/>
-      <c r="B10" s="90"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="42" t="s">
         <v>117</v>
       </c>
@@ -12024,7 +11868,7 @@
     </row>
     <row r="11" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
-      <c r="B11" s="90"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="25"/>
       <c r="D11" s="1"/>
       <c r="E11" s="25"/>
@@ -12034,7 +11878,7 @@
     </row>
     <row r="12" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="82"/>
-      <c r="B12" s="90"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="25"/>
       <c r="D12" s="1"/>
       <c r="E12" s="25"/>
@@ -12044,7 +11888,7 @@
     </row>
     <row r="13" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
-      <c r="B13" s="90"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="25"/>
       <c r="D13" s="1"/>
       <c r="E13" s="25"/>
@@ -12054,7 +11898,7 @@
     </row>
     <row r="14" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="84"/>
-      <c r="B14" s="91"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -12072,13 +11916,13 @@
         <v>292</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="80"/>
-      <c r="B16" s="89"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="52" t="s">
         <v>115</v>
       </c>
@@ -12096,7 +11940,7 @@
     </row>
     <row r="17" spans="1:8" s="57" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="82"/>
-      <c r="B17" s="90"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="52" t="s">
         <v>116</v>
       </c>
@@ -12114,7 +11958,7 @@
     </row>
     <row r="18" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="82"/>
-      <c r="B18" s="90"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="25"/>
       <c r="D18" s="1"/>
       <c r="E18" s="25"/>
@@ -12124,7 +11968,7 @@
     </row>
     <row r="19" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
-      <c r="B19" s="90"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="25"/>
@@ -12134,7 +11978,7 @@
     </row>
     <row r="20" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
-      <c r="B20" s="90"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="25"/>
       <c r="D20" s="1"/>
       <c r="E20" s="25"/>
@@ -12144,7 +11988,7 @@
     </row>
     <row r="21" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
-      <c r="B21" s="90"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="25"/>
       <c r="D21" s="1"/>
       <c r="E21" s="25"/>
@@ -12154,7 +11998,7 @@
     </row>
     <row r="22" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="84"/>
-      <c r="B22" s="91"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -12171,13 +12015,13 @@
         <v>315</v>
       </c>
       <c r="E23" s="56"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107"/>
     </row>
     <row r="24" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="56"/>
       <c r="D24" s="14" t="s">
         <v>316</v>
@@ -12192,8 +12036,8 @@
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="103"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="56"/>
       <c r="D25" s="14" t="s">
         <v>319</v>
@@ -12208,8 +12052,8 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="103"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="56"/>
       <c r="D26" s="14"/>
       <c r="E26" s="56"/>
@@ -12218,8 +12062,8 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="103"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="56"/>
       <c r="D27" s="14"/>
       <c r="E27" s="56"/>
@@ -12228,8 +12072,8 @@
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="103"/>
-      <c r="B28" s="104"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="56"/>
       <c r="D28" s="14"/>
       <c r="E28" s="56"/>
@@ -12238,8 +12082,8 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="56"/>
       <c r="D29" s="14"/>
       <c r="E29" s="56"/>
@@ -12248,8 +12092,8 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="105"/>
-      <c r="B30" s="106"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -12262,13 +12106,13 @@
       <c r="B31" s="56"/>
       <c r="D31" s="15"/>
       <c r="E31" s="56"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="100"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="107"/>
     </row>
     <row r="32" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="101"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="56"/>
       <c r="D32" s="14"/>
       <c r="E32" s="56"/>
@@ -12277,8 +12121,8 @@
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="103"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="56"/>
       <c r="D33" s="14"/>
       <c r="E33" s="56"/>
@@ -12287,8 +12131,8 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="103"/>
-      <c r="B34" s="104"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="56"/>
       <c r="D34" s="14"/>
       <c r="E34" s="56"/>
@@ -12297,8 +12141,8 @@
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="103"/>
-      <c r="B35" s="104"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="56"/>
       <c r="D35" s="14"/>
       <c r="E35" s="56"/>
@@ -12307,8 +12151,8 @@
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
-      <c r="B36" s="104"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="56"/>
       <c r="D36" s="14"/>
       <c r="E36" s="56"/>
@@ -12317,8 +12161,8 @@
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
-      <c r="B37" s="104"/>
+      <c r="A37" s="101"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="56"/>
       <c r="D37" s="14"/>
       <c r="E37" s="56"/>
@@ -12327,8 +12171,8 @@
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -12341,13 +12185,13 @@
       <c r="B39" s="56"/>
       <c r="D39" s="15"/>
       <c r="E39" s="56"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="100"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="107"/>
     </row>
     <row r="40" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="101"/>
-      <c r="B40" s="102"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="56"/>
       <c r="D40" s="14"/>
       <c r="E40" s="56"/>
@@ -12356,8 +12200,8 @@
       <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
-      <c r="B41" s="104"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="56"/>
       <c r="D41" s="14"/>
       <c r="E41" s="56"/>
@@ -12366,8 +12210,8 @@
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
-      <c r="B42" s="104"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="56"/>
       <c r="D42" s="14"/>
       <c r="E42" s="56"/>
@@ -12376,8 +12220,8 @@
       <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="103"/>
-      <c r="B43" s="104"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="56"/>
       <c r="D43" s="14"/>
       <c r="E43" s="56"/>
@@ -12386,8 +12230,8 @@
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="103"/>
-      <c r="B44" s="104"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="56"/>
       <c r="D44" s="14"/>
       <c r="E44" s="56"/>
@@ -12396,8 +12240,8 @@
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="103"/>
-      <c r="B45" s="104"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="56"/>
       <c r="D45" s="14"/>
       <c r="E45" s="56"/>
@@ -12406,8 +12250,8 @@
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="105"/>
-      <c r="B46" s="106"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -12420,13 +12264,13 @@
       <c r="B47" s="56"/>
       <c r="D47" s="15"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="100"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="107"/>
     </row>
     <row r="48" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="101"/>
-      <c r="B48" s="102"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="56"/>
       <c r="D48" s="14"/>
       <c r="E48" s="56"/>
@@ -12435,8 +12279,8 @@
       <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="103"/>
-      <c r="B49" s="104"/>
+      <c r="A49" s="101"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="56"/>
       <c r="D49" s="14"/>
       <c r="E49" s="56"/>
@@ -12445,8 +12289,8 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="103"/>
-      <c r="B50" s="104"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="56"/>
       <c r="D50" s="14"/>
       <c r="E50" s="56"/>
@@ -12455,8 +12299,8 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="103"/>
-      <c r="B51" s="104"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="102"/>
       <c r="C51" s="56"/>
       <c r="D51" s="14"/>
       <c r="E51" s="56"/>
@@ -12465,8 +12309,8 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="103"/>
-      <c r="B52" s="104"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="102"/>
       <c r="C52" s="56"/>
       <c r="D52" s="14"/>
       <c r="E52" s="56"/>
@@ -12475,8 +12319,8 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
-      <c r="B53" s="104"/>
+      <c r="A53" s="101"/>
+      <c r="B53" s="102"/>
       <c r="C53" s="56"/>
       <c r="D53" s="14"/>
       <c r="E53" s="56"/>
@@ -12485,8 +12329,8 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="105"/>
-      <c r="B54" s="106"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -12499,13 +12343,13 @@
       <c r="B55" s="56"/>
       <c r="D55" s="15"/>
       <c r="E55" s="56"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="100"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="107"/>
     </row>
     <row r="56" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="101"/>
-      <c r="B56" s="102"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="60"/>
       <c r="D56" s="14"/>
       <c r="E56" s="56"/>
@@ -12514,8 +12358,8 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="103"/>
-      <c r="B57" s="104"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="60"/>
       <c r="D57" s="14"/>
       <c r="E57" s="56"/>
@@ -12524,8 +12368,8 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="103"/>
-      <c r="B58" s="104"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="60"/>
       <c r="D58" s="14"/>
       <c r="E58" s="56"/>
@@ -12534,8 +12378,8 @@
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="103"/>
-      <c r="B59" s="104"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="56"/>
       <c r="D59" s="14"/>
       <c r="E59" s="56"/>
@@ -12544,8 +12388,8 @@
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="103"/>
-      <c r="B60" s="104"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="102"/>
       <c r="C60" s="56"/>
       <c r="D60" s="14"/>
       <c r="E60" s="56"/>
@@ -12554,8 +12398,8 @@
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="103"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="56"/>
       <c r="D61" s="14"/>
       <c r="E61" s="56"/>
@@ -12564,8 +12408,8 @@
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="105"/>
-      <c r="B62" s="106"/>
+      <c r="A62" s="103"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
@@ -12578,13 +12422,13 @@
       <c r="B63" s="56"/>
       <c r="D63" s="15"/>
       <c r="E63" s="56"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="100"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="107"/>
     </row>
     <row r="64" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="101"/>
-      <c r="B64" s="102"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="56"/>
       <c r="D64" s="14"/>
       <c r="E64" s="56"/>
@@ -12593,8 +12437,8 @@
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="103"/>
-      <c r="B65" s="104"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="56"/>
       <c r="D65" s="14"/>
       <c r="E65" s="56"/>
@@ -12603,8 +12447,8 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="103"/>
-      <c r="B66" s="104"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="56"/>
       <c r="D66" s="14"/>
       <c r="E66" s="56"/>
@@ -12613,8 +12457,8 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="103"/>
-      <c r="B67" s="104"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="102"/>
       <c r="C67" s="56"/>
       <c r="D67" s="14"/>
       <c r="E67" s="56"/>
@@ -12623,8 +12467,8 @@
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="103"/>
-      <c r="B68" s="104"/>
+      <c r="A68" s="101"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="56"/>
       <c r="D68" s="14"/>
       <c r="E68" s="56"/>
@@ -12633,8 +12477,8 @@
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="103"/>
-      <c r="B69" s="104"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="56"/>
       <c r="D69" s="14"/>
       <c r="E69" s="56"/>
@@ -12643,8 +12487,8 @@
       <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="105"/>
-      <c r="B70" s="106"/>
+      <c r="A70" s="103"/>
+      <c r="B70" s="104"/>
       <c r="C70" s="55"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
@@ -12657,13 +12501,13 @@
       <c r="B71" s="56"/>
       <c r="D71" s="15"/>
       <c r="E71" s="56"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="100"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="106"/>
+      <c r="H71" s="107"/>
     </row>
     <row r="72" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="101"/>
-      <c r="B72" s="102"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="60"/>
       <c r="D72" s="14"/>
       <c r="E72" s="56"/>
@@ -12672,8 +12516,8 @@
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="103"/>
-      <c r="B73" s="104"/>
+      <c r="A73" s="101"/>
+      <c r="B73" s="102"/>
       <c r="C73" s="60"/>
       <c r="D73" s="14"/>
       <c r="E73" s="56"/>
@@ -12682,8 +12526,8 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="103"/>
-      <c r="B74" s="104"/>
+      <c r="A74" s="101"/>
+      <c r="B74" s="102"/>
       <c r="C74" s="56"/>
       <c r="D74" s="14"/>
       <c r="E74" s="56"/>
@@ -12692,8 +12536,8 @@
       <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="103"/>
-      <c r="B75" s="104"/>
+      <c r="A75" s="101"/>
+      <c r="B75" s="102"/>
       <c r="C75" s="56"/>
       <c r="D75" s="14"/>
       <c r="E75" s="56"/>
@@ -12702,8 +12546,8 @@
       <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="103"/>
-      <c r="B76" s="104"/>
+      <c r="A76" s="101"/>
+      <c r="B76" s="102"/>
       <c r="C76" s="56"/>
       <c r="D76" s="14"/>
       <c r="E76" s="56"/>
@@ -12712,8 +12556,8 @@
       <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="103"/>
-      <c r="B77" s="104"/>
+      <c r="A77" s="101"/>
+      <c r="B77" s="102"/>
       <c r="C77" s="56"/>
       <c r="D77" s="14"/>
       <c r="E77" s="56"/>
@@ -12722,8 +12566,8 @@
       <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="105"/>
-      <c r="B78" s="106"/>
+      <c r="A78" s="103"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="55"/>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -12736,13 +12580,13 @@
       <c r="B79" s="56"/>
       <c r="D79" s="15"/>
       <c r="E79" s="56"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="100"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="106"/>
+      <c r="H79" s="107"/>
     </row>
     <row r="80" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="101"/>
-      <c r="B80" s="102"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="100"/>
       <c r="C80" s="56"/>
       <c r="D80" s="14"/>
       <c r="E80" s="56"/>
@@ -12751,8 +12595,8 @@
       <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="103"/>
-      <c r="B81" s="104"/>
+      <c r="A81" s="101"/>
+      <c r="B81" s="102"/>
       <c r="C81" s="56"/>
       <c r="D81" s="14"/>
       <c r="E81" s="56"/>
@@ -12761,8 +12605,8 @@
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="103"/>
-      <c r="B82" s="104"/>
+      <c r="A82" s="101"/>
+      <c r="B82" s="102"/>
       <c r="C82" s="56"/>
       <c r="D82" s="14"/>
       <c r="E82" s="56"/>
@@ -12771,8 +12615,8 @@
       <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="103"/>
-      <c r="B83" s="104"/>
+      <c r="A83" s="101"/>
+      <c r="B83" s="102"/>
       <c r="C83" s="56"/>
       <c r="D83" s="14"/>
       <c r="E83" s="56"/>
@@ -12781,8 +12625,8 @@
       <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="103"/>
-      <c r="B84" s="104"/>
+      <c r="A84" s="101"/>
+      <c r="B84" s="102"/>
       <c r="C84" s="56"/>
       <c r="D84" s="14"/>
       <c r="E84" s="56"/>
@@ -12791,8 +12635,8 @@
       <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="103"/>
-      <c r="B85" s="104"/>
+      <c r="A85" s="101"/>
+      <c r="B85" s="102"/>
       <c r="C85" s="56"/>
       <c r="D85" s="14"/>
       <c r="E85" s="56"/>
@@ -12801,8 +12645,8 @@
       <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="105"/>
-      <c r="B86" s="106"/>
+      <c r="A86" s="103"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
@@ -12815,13 +12659,13 @@
       <c r="B87" s="56"/>
       <c r="D87" s="15"/>
       <c r="E87" s="56"/>
-      <c r="F87" s="98"/>
-      <c r="G87" s="99"/>
-      <c r="H87" s="100"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="106"/>
+      <c r="H87" s="107"/>
     </row>
     <row r="88" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="101"/>
-      <c r="B88" s="102"/>
+      <c r="A88" s="99"/>
+      <c r="B88" s="100"/>
       <c r="C88" s="60"/>
       <c r="D88" s="14"/>
       <c r="E88" s="56"/>
@@ -12830,8 +12674,8 @@
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="103"/>
-      <c r="B89" s="104"/>
+      <c r="A89" s="101"/>
+      <c r="B89" s="102"/>
       <c r="C89" s="60"/>
       <c r="D89" s="14"/>
       <c r="E89" s="56"/>
@@ -12840,8 +12684,8 @@
       <c r="H89" s="14"/>
     </row>
     <row r="90" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="103"/>
-      <c r="B90" s="104"/>
+      <c r="A90" s="101"/>
+      <c r="B90" s="102"/>
       <c r="C90" s="56"/>
       <c r="D90" s="14"/>
       <c r="E90" s="56"/>
@@ -12850,8 +12694,8 @@
       <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="103"/>
-      <c r="B91" s="104"/>
+      <c r="A91" s="101"/>
+      <c r="B91" s="102"/>
       <c r="C91" s="56"/>
       <c r="D91" s="14"/>
       <c r="E91" s="56"/>
@@ -12860,8 +12704,8 @@
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="103"/>
-      <c r="B92" s="104"/>
+      <c r="A92" s="101"/>
+      <c r="B92" s="102"/>
       <c r="C92" s="56"/>
       <c r="D92" s="14"/>
       <c r="E92" s="56"/>
@@ -12870,8 +12714,8 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="103"/>
-      <c r="B93" s="104"/>
+      <c r="A93" s="101"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="56"/>
       <c r="D93" s="14"/>
       <c r="E93" s="56"/>
@@ -12880,8 +12724,8 @@
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="105"/>
-      <c r="B94" s="106"/>
+      <c r="A94" s="103"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="55"/>
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
@@ -12894,13 +12738,13 @@
       <c r="B95" s="56"/>
       <c r="D95" s="15"/>
       <c r="E95" s="56"/>
-      <c r="F95" s="98"/>
-      <c r="G95" s="99"/>
-      <c r="H95" s="100"/>
+      <c r="F95" s="105"/>
+      <c r="G95" s="106"/>
+      <c r="H95" s="107"/>
     </row>
     <row r="96" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="101"/>
-      <c r="B96" s="102"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="100"/>
       <c r="C96" s="56"/>
       <c r="D96" s="14"/>
       <c r="E96" s="56"/>
@@ -12909,8 +12753,8 @@
       <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="103"/>
-      <c r="B97" s="104"/>
+      <c r="A97" s="101"/>
+      <c r="B97" s="102"/>
       <c r="C97" s="56"/>
       <c r="D97" s="14"/>
       <c r="E97" s="56"/>
@@ -12919,8 +12763,8 @@
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="103"/>
-      <c r="B98" s="104"/>
+      <c r="A98" s="101"/>
+      <c r="B98" s="102"/>
       <c r="C98" s="56"/>
       <c r="D98" s="14"/>
       <c r="E98" s="56"/>
@@ -12929,8 +12773,8 @@
       <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="103"/>
-      <c r="B99" s="104"/>
+      <c r="A99" s="101"/>
+      <c r="B99" s="102"/>
       <c r="C99" s="56"/>
       <c r="D99" s="14"/>
       <c r="E99" s="56"/>
@@ -12939,8 +12783,8 @@
       <c r="H99" s="14"/>
     </row>
     <row r="100" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="103"/>
-      <c r="B100" s="104"/>
+      <c r="A100" s="101"/>
+      <c r="B100" s="102"/>
       <c r="C100" s="56"/>
       <c r="D100" s="14"/>
       <c r="E100" s="56"/>
@@ -12949,8 +12793,8 @@
       <c r="H100" s="14"/>
     </row>
     <row r="101" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="103"/>
-      <c r="B101" s="104"/>
+      <c r="A101" s="101"/>
+      <c r="B101" s="102"/>
       <c r="C101" s="56"/>
       <c r="D101" s="14"/>
       <c r="E101" s="56"/>
@@ -12959,8 +12803,8 @@
       <c r="H101" s="14"/>
     </row>
     <row r="102" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="105"/>
-      <c r="B102" s="106"/>
+      <c r="A102" s="103"/>
+      <c r="B102" s="104"/>
       <c r="C102" s="55"/>
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
@@ -12973,13 +12817,13 @@
       <c r="B103" s="56"/>
       <c r="D103" s="15"/>
       <c r="E103" s="56"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="99"/>
-      <c r="H103" s="100"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="106"/>
+      <c r="H103" s="107"/>
     </row>
     <row r="104" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="101"/>
-      <c r="B104" s="102"/>
+      <c r="A104" s="99"/>
+      <c r="B104" s="100"/>
       <c r="C104" s="56"/>
       <c r="D104" s="14"/>
       <c r="E104" s="56"/>
@@ -12988,8 +12832,8 @@
       <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="103"/>
-      <c r="B105" s="104"/>
+      <c r="A105" s="101"/>
+      <c r="B105" s="102"/>
       <c r="C105" s="56"/>
       <c r="D105" s="14"/>
       <c r="E105" s="56"/>
@@ -12998,8 +12842,8 @@
       <c r="H105" s="14"/>
     </row>
     <row r="106" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="103"/>
-      <c r="B106" s="104"/>
+      <c r="A106" s="101"/>
+      <c r="B106" s="102"/>
       <c r="C106" s="56"/>
       <c r="D106" s="14"/>
       <c r="E106" s="56"/>
@@ -13008,8 +12852,8 @@
       <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="103"/>
-      <c r="B107" s="104"/>
+      <c r="A107" s="101"/>
+      <c r="B107" s="102"/>
       <c r="C107" s="56"/>
       <c r="D107" s="14"/>
       <c r="E107" s="56"/>
@@ -13018,8 +12862,8 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="103"/>
-      <c r="B108" s="104"/>
+      <c r="A108" s="101"/>
+      <c r="B108" s="102"/>
       <c r="C108" s="56"/>
       <c r="D108" s="14"/>
       <c r="E108" s="56"/>
@@ -13028,8 +12872,8 @@
       <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="103"/>
-      <c r="B109" s="104"/>
+      <c r="A109" s="101"/>
+      <c r="B109" s="102"/>
       <c r="C109" s="56"/>
       <c r="D109" s="14"/>
       <c r="E109" s="56"/>
@@ -13038,8 +12882,8 @@
       <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="105"/>
-      <c r="B110" s="106"/>
+      <c r="A110" s="103"/>
+      <c r="B110" s="104"/>
       <c r="C110" s="55"/>
       <c r="D110" s="55"/>
       <c r="E110" s="55"/>
@@ -13049,15 +12893,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A96:B102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="A104:B110"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A80:B86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A88:B94"/>
-    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
     <mergeCell ref="F71:H71"/>
     <mergeCell ref="A24:B30"/>
     <mergeCell ref="F31:H31"/>
@@ -13070,12 +12911,15 @@
     <mergeCell ref="A56:B62"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A64:B70"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A96:B102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A104:B110"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A80:B86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A88:B94"/>
+    <mergeCell ref="F95:H95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Desktop\Udemy\sibica\documentacion\desarrollo\cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B95E57-CC43-4484-8E3D-CB08A81F3BF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9856121D-0AE6-42C0-BBAF-6776945EA617}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="339">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2819,7 +2819,13 @@
     <t xml:space="preserve">Generar autorizacion </t>
   </si>
   <si>
-    <t>En progeso</t>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>Terminada</t>
+  </si>
+  <si>
+    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -3186,7 +3192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3401,11 +3407,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3425,7 +3437,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3435,15 +3453,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3464,6 +3473,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3480,15 +3498,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3822,11 +3831,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3938,61 +3947,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5359,8 +5368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5375,56 +5384,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5464,13 +5473,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="6" t="s">
         <v>115</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>119</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>111</v>
+        <v>336</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>302</v>
@@ -5487,16 +5496,16 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>111</v>
+      <c r="E9" s="78" t="s">
+        <v>336</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>302</v>
@@ -5505,16 +5514,16 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="6" t="s">
         <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>111</v>
+      <c r="E10" s="78" t="s">
+        <v>336</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>302</v>
@@ -5523,16 +5532,16 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="6" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>111</v>
+      <c r="E11" s="78" t="s">
+        <v>336</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>302</v>
@@ -5541,8 +5550,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -5551,8 +5560,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -5561,8 +5570,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="10"/>
       <c r="D14" s="23"/>
       <c r="E14" s="10"/>
@@ -5586,16 +5595,16 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="44" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>111</v>
+      <c r="E16" s="78" t="s">
+        <v>336</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>303</v>
@@ -5604,8 +5613,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="25"/>
       <c r="D17" s="1"/>
       <c r="E17" s="25"/>
@@ -5614,8 +5623,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="25"/>
       <c r="D18" s="1"/>
       <c r="E18" s="25"/>
@@ -5624,8 +5633,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="25"/>
@@ -5634,8 +5643,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="25"/>
       <c r="D20" s="1"/>
       <c r="E20" s="25"/>
@@ -5644,8 +5653,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="25"/>
       <c r="D21" s="1"/>
       <c r="E21" s="25"/>
@@ -5654,8 +5663,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="10"/>
       <c r="D22" s="23"/>
       <c r="E22" s="10"/>
@@ -5679,16 +5688,16 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="44" t="s">
         <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E24" s="44" t="s">
-        <v>111</v>
+      <c r="E24" s="78" t="s">
+        <v>336</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>305</v>
@@ -5697,8 +5706,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="25"/>
       <c r="D25" s="1"/>
       <c r="E25" s="25"/>
@@ -5707,8 +5716,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="25"/>
       <c r="D26" s="1"/>
       <c r="E26" s="25"/>
@@ -5717,8 +5726,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="25"/>
       <c r="D27" s="1"/>
       <c r="E27" s="25"/>
@@ -5727,8 +5736,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="25"/>
       <c r="D28" s="1"/>
       <c r="E28" s="25"/>
@@ -5737,8 +5746,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="25"/>
       <c r="D29" s="1"/>
       <c r="E29" s="25"/>
@@ -5747,8 +5756,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="10"/>
       <c r="D30" s="23"/>
       <c r="E30" s="10"/>
@@ -5772,8 +5781,8 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
-      <c r="B32" s="81"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="44" t="s">
         <v>115</v>
       </c>
@@ -5781,7 +5790,7 @@
         <v>267</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F32" s="44" t="s">
         <v>306</v>
@@ -5790,8 +5799,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="44"/>
       <c r="D33" s="1"/>
       <c r="E33" s="44"/>
@@ -5800,8 +5809,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="44"/>
       <c r="D34" s="1"/>
       <c r="E34" s="44"/>
@@ -5810,8 +5819,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="44"/>
       <c r="D35" s="1"/>
       <c r="E35" s="44"/>
@@ -5820,8 +5829,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="83"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="44"/>
       <c r="D36" s="1"/>
       <c r="E36" s="44"/>
@@ -5830,8 +5839,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="44"/>
       <c r="D37" s="1"/>
       <c r="E37" s="44"/>
@@ -5840,8 +5849,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="10"/>
       <c r="D38" s="23"/>
       <c r="E38" s="10"/>
@@ -5866,8 +5875,8 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="6" t="s">
         <v>115</v>
       </c>
@@ -5884,8 +5893,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="83"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="6" t="s">
         <v>116</v>
       </c>
@@ -5902,8 +5911,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="6"/>
       <c r="D42" s="1"/>
       <c r="E42" s="6"/>
@@ -5912,8 +5921,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="6"/>
       <c r="D43" s="1"/>
       <c r="E43" s="6"/>
@@ -5922,8 +5931,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="6"/>
@@ -5932,8 +5941,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="83"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
       <c r="E45" s="6"/>
@@ -5942,8 +5951,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="10"/>
       <c r="D46" s="23"/>
       <c r="E46" s="10"/>
@@ -5967,8 +5976,8 @@
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="80"/>
-      <c r="B48" s="81"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="44" t="s">
         <v>115</v>
       </c>
@@ -5976,7 +5985,7 @@
         <v>242</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="F48" s="44" t="s">
         <v>302</v>
@@ -5985,8 +5994,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="83"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="44"/>
       <c r="D49" s="1"/>
       <c r="E49" s="44"/>
@@ -5995,8 +6004,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="B50" s="83"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="44"/>
       <c r="D50" s="1"/>
       <c r="E50" s="44"/>
@@ -6005,8 +6014,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="83"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="44"/>
       <c r="D51" s="1"/>
       <c r="E51" s="44"/>
@@ -6015,8 +6024,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="87"/>
       <c r="C52" s="10"/>
       <c r="D52" s="23"/>
       <c r="E52" s="10"/>
@@ -6037,16 +6046,16 @@
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="80"/>
-      <c r="B54" s="81"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="83"/>
       <c r="C54" s="61" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E54" s="61" t="s">
-        <v>111</v>
+      <c r="E54" s="78" t="s">
+        <v>337</v>
       </c>
       <c r="F54" s="61" t="s">
         <v>302</v>
@@ -6055,16 +6064,16 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="82"/>
-      <c r="B55" s="83"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="61" t="s">
         <v>116</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E55" s="61" t="s">
-        <v>111</v>
+      <c r="E55" s="78" t="s">
+        <v>337</v>
       </c>
       <c r="F55" s="61" t="s">
         <v>302</v>
@@ -6073,16 +6082,16 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="82"/>
-      <c r="B56" s="83"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="61" t="s">
         <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E56" s="61" t="s">
-        <v>111</v>
+      <c r="E56" s="78" t="s">
+        <v>337</v>
       </c>
       <c r="F56" s="61" t="s">
         <v>302</v>
@@ -6091,8 +6100,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="83"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="44"/>
       <c r="D57" s="1"/>
       <c r="E57" s="44"/>
@@ -6101,8 +6110,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="83"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="44"/>
       <c r="D58" s="1"/>
       <c r="E58" s="44"/>
@@ -6111,8 +6120,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="82"/>
-      <c r="B59" s="83"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="44"/>
       <c r="D59" s="1"/>
       <c r="E59" s="44"/>
@@ -6121,8 +6130,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="84"/>
-      <c r="B60" s="85"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="10"/>
       <c r="D60" s="23"/>
       <c r="E60" s="10"/>
@@ -6143,16 +6152,16 @@
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="80"/>
-      <c r="B62" s="81"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="83"/>
       <c r="C62" s="61" t="s">
         <v>115</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E62" s="61" t="s">
-        <v>111</v>
+      <c r="E62" s="78" t="s">
+        <v>337</v>
       </c>
       <c r="F62" s="61" t="s">
         <v>307</v>
@@ -6161,16 +6170,16 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
-      <c r="B63" s="83"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="85"/>
       <c r="C63" s="61" t="s">
         <v>116</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E63" s="61" t="s">
-        <v>111</v>
+      <c r="E63" s="78" t="s">
+        <v>337</v>
       </c>
       <c r="F63" s="61" t="s">
         <v>307</v>
@@ -6179,16 +6188,16 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="82"/>
-      <c r="B64" s="83"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="85"/>
       <c r="C64" s="61" t="s">
         <v>117</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E64" s="61" t="s">
-        <v>111</v>
+      <c r="E64" s="78" t="s">
+        <v>337</v>
       </c>
       <c r="F64" s="61" t="s">
         <v>307</v>
@@ -6197,8 +6206,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="82"/>
-      <c r="B65" s="83"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="44"/>
       <c r="D65" s="1"/>
       <c r="E65" s="44"/>
@@ -6207,8 +6216,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="82"/>
-      <c r="B66" s="83"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="85"/>
       <c r="C66" s="44"/>
       <c r="D66" s="1"/>
       <c r="E66" s="44"/>
@@ -6217,8 +6226,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="82"/>
-      <c r="B67" s="83"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="85"/>
       <c r="C67" s="44"/>
       <c r="D67" s="1"/>
       <c r="E67" s="44"/>
@@ -6227,8 +6236,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="84"/>
-      <c r="B68" s="85"/>
+      <c r="A68" s="86"/>
+      <c r="B68" s="87"/>
       <c r="C68" s="10"/>
       <c r="D68" s="23"/>
       <c r="E68" s="10"/>
@@ -6247,8 +6256,8 @@
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="80"/>
-      <c r="B70" s="81"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="83"/>
       <c r="C70" s="44"/>
       <c r="D70" s="1"/>
       <c r="E70" s="44"/>
@@ -6257,8 +6266,8 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="82"/>
-      <c r="B71" s="83"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="85"/>
       <c r="C71" s="44"/>
       <c r="D71" s="1"/>
       <c r="E71" s="44"/>
@@ -6267,8 +6276,8 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="83"/>
+      <c r="A72" s="84"/>
+      <c r="B72" s="85"/>
       <c r="C72" s="44"/>
       <c r="D72" s="1"/>
       <c r="E72" s="44"/>
@@ -6277,8 +6286,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="83"/>
+      <c r="A73" s="84"/>
+      <c r="B73" s="85"/>
       <c r="C73" s="44"/>
       <c r="D73" s="1"/>
       <c r="E73" s="44"/>
@@ -6287,8 +6296,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="83"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="85"/>
       <c r="C74" s="44"/>
       <c r="D74" s="1"/>
       <c r="E74" s="44"/>
@@ -6297,8 +6306,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
-      <c r="B75" s="83"/>
+      <c r="A75" s="84"/>
+      <c r="B75" s="85"/>
       <c r="C75" s="44"/>
       <c r="D75" s="1"/>
       <c r="E75" s="44"/>
@@ -6307,8 +6316,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="84"/>
-      <c r="B76" s="85"/>
+      <c r="A76" s="86"/>
+      <c r="B76" s="87"/>
       <c r="C76" s="10"/>
       <c r="D76" s="23"/>
       <c r="E76" s="10"/>
@@ -6326,8 +6335,8 @@
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="80"/>
-      <c r="B78" s="81"/>
+      <c r="A78" s="82"/>
+      <c r="B78" s="83"/>
       <c r="C78" s="44"/>
       <c r="D78" s="1"/>
       <c r="E78" s="44"/>
@@ -6336,8 +6345,8 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="82"/>
-      <c r="B79" s="83"/>
+      <c r="A79" s="84"/>
+      <c r="B79" s="85"/>
       <c r="C79" s="44"/>
       <c r="D79" s="1"/>
       <c r="E79" s="44"/>
@@ -6346,8 +6355,8 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="82"/>
-      <c r="B80" s="83"/>
+      <c r="A80" s="84"/>
+      <c r="B80" s="85"/>
       <c r="C80" s="44"/>
       <c r="D80" s="1"/>
       <c r="E80" s="44"/>
@@ -6356,8 +6365,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="82"/>
-      <c r="B81" s="83"/>
+      <c r="A81" s="84"/>
+      <c r="B81" s="85"/>
       <c r="C81" s="44"/>
       <c r="D81" s="1"/>
       <c r="E81" s="44"/>
@@ -6366,8 +6375,8 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="82"/>
-      <c r="B82" s="83"/>
+      <c r="A82" s="84"/>
+      <c r="B82" s="85"/>
       <c r="C82" s="44"/>
       <c r="D82" s="1"/>
       <c r="E82" s="44"/>
@@ -6376,8 +6385,8 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="82"/>
-      <c r="B83" s="83"/>
+      <c r="A83" s="84"/>
+      <c r="B83" s="85"/>
       <c r="C83" s="44"/>
       <c r="D83" s="1"/>
       <c r="E83" s="44"/>
@@ -6386,8 +6395,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="84"/>
-      <c r="B84" s="85"/>
+      <c r="A84" s="86"/>
+      <c r="B84" s="87"/>
       <c r="C84" s="10"/>
       <c r="D84" s="23"/>
       <c r="E84" s="10"/>
@@ -6405,8 +6414,8 @@
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="80"/>
-      <c r="B86" s="81"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="83"/>
       <c r="C86" s="44"/>
       <c r="D86" s="1"/>
       <c r="E86" s="44"/>
@@ -6415,8 +6424,8 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
-      <c r="B87" s="83"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="85"/>
       <c r="C87" s="44"/>
       <c r="D87" s="1"/>
       <c r="E87" s="44"/>
@@ -6425,8 +6434,8 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
-      <c r="B88" s="83"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="85"/>
       <c r="C88" s="44"/>
       <c r="D88" s="1"/>
       <c r="E88" s="44"/>
@@ -6435,8 +6444,8 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="82"/>
-      <c r="B89" s="83"/>
+      <c r="A89" s="84"/>
+      <c r="B89" s="85"/>
       <c r="C89" s="44"/>
       <c r="D89" s="1"/>
       <c r="E89" s="44"/>
@@ -6445,8 +6454,8 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="83"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="85"/>
       <c r="C90" s="44"/>
       <c r="D90" s="1"/>
       <c r="E90" s="44"/>
@@ -6455,8 +6464,8 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
-      <c r="B91" s="83"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="85"/>
       <c r="C91" s="44"/>
       <c r="D91" s="1"/>
       <c r="E91" s="44"/>
@@ -6465,8 +6474,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="84"/>
-      <c r="B92" s="85"/>
+      <c r="A92" s="86"/>
+      <c r="B92" s="87"/>
       <c r="C92" s="10"/>
       <c r="D92" s="23"/>
       <c r="E92" s="10"/>
@@ -6484,8 +6493,8 @@
       <c r="H93" s="10"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="80"/>
-      <c r="B94" s="81"/>
+      <c r="A94" s="82"/>
+      <c r="B94" s="83"/>
       <c r="C94" s="44"/>
       <c r="D94" s="1"/>
       <c r="E94" s="44"/>
@@ -6494,8 +6503,8 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="82"/>
-      <c r="B95" s="83"/>
+      <c r="A95" s="84"/>
+      <c r="B95" s="85"/>
       <c r="C95" s="44"/>
       <c r="D95" s="1"/>
       <c r="E95" s="44"/>
@@ -6504,8 +6513,8 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="82"/>
-      <c r="B96" s="83"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="85"/>
       <c r="C96" s="44"/>
       <c r="D96" s="1"/>
       <c r="E96" s="44"/>
@@ -6514,8 +6523,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="82"/>
-      <c r="B97" s="83"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="85"/>
       <c r="C97" s="44"/>
       <c r="D97" s="1"/>
       <c r="E97" s="44"/>
@@ -6524,8 +6533,8 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="82"/>
-      <c r="B98" s="83"/>
+      <c r="A98" s="84"/>
+      <c r="B98" s="85"/>
       <c r="C98" s="44"/>
       <c r="D98" s="1"/>
       <c r="E98" s="44"/>
@@ -6534,8 +6543,8 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="82"/>
-      <c r="B99" s="83"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="85"/>
       <c r="C99" s="44"/>
       <c r="D99" s="1"/>
       <c r="E99" s="44"/>
@@ -6544,8 +6553,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="84"/>
-      <c r="B100" s="85"/>
+      <c r="A100" s="86"/>
+      <c r="B100" s="87"/>
       <c r="C100" s="10"/>
       <c r="D100" s="23"/>
       <c r="E100" s="10"/>
@@ -6564,8 +6573,8 @@
       <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="80"/>
-      <c r="B102" s="81"/>
+      <c r="A102" s="82"/>
+      <c r="B102" s="83"/>
       <c r="C102" s="44"/>
       <c r="D102" s="1"/>
       <c r="E102" s="44"/>
@@ -6574,8 +6583,8 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="82"/>
-      <c r="B103" s="83"/>
+      <c r="A103" s="84"/>
+      <c r="B103" s="85"/>
       <c r="C103" s="44"/>
       <c r="D103" s="1"/>
       <c r="E103" s="44"/>
@@ -6584,8 +6593,8 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="82"/>
-      <c r="B104" s="83"/>
+      <c r="A104" s="84"/>
+      <c r="B104" s="85"/>
       <c r="C104" s="44"/>
       <c r="D104" s="1"/>
       <c r="E104" s="44"/>
@@ -6594,8 +6603,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="82"/>
-      <c r="B105" s="83"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="85"/>
       <c r="C105" s="44"/>
       <c r="D105" s="1"/>
       <c r="E105" s="44"/>
@@ -6604,8 +6613,8 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="82"/>
-      <c r="B106" s="83"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="85"/>
       <c r="C106" s="44"/>
       <c r="D106" s="1"/>
       <c r="E106" s="44"/>
@@ -6614,8 +6623,8 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="82"/>
-      <c r="B107" s="83"/>
+      <c r="A107" s="84"/>
+      <c r="B107" s="85"/>
       <c r="C107" s="44"/>
       <c r="D107" s="1"/>
       <c r="E107" s="44"/>
@@ -6624,8 +6633,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="84"/>
-      <c r="B108" s="85"/>
+      <c r="A108" s="86"/>
+      <c r="B108" s="87"/>
       <c r="C108" s="10"/>
       <c r="D108" s="23"/>
       <c r="E108" s="10"/>
@@ -6644,8 +6653,8 @@
       <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="80"/>
-      <c r="B110" s="81"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="83"/>
       <c r="C110" s="44"/>
       <c r="D110" s="1"/>
       <c r="E110" s="44"/>
@@ -6654,8 +6663,8 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="82"/>
-      <c r="B111" s="83"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="85"/>
       <c r="C111" s="44"/>
       <c r="D111" s="1"/>
       <c r="E111" s="44"/>
@@ -6664,8 +6673,8 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="82"/>
-      <c r="B112" s="83"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="85"/>
       <c r="C112" s="44"/>
       <c r="D112" s="1"/>
       <c r="E112" s="44"/>
@@ -6674,8 +6683,8 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="82"/>
-      <c r="B113" s="83"/>
+      <c r="A113" s="84"/>
+      <c r="B113" s="85"/>
       <c r="C113" s="44"/>
       <c r="D113" s="1"/>
       <c r="E113" s="44"/>
@@ -6684,8 +6693,8 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="82"/>
-      <c r="B114" s="83"/>
+      <c r="A114" s="84"/>
+      <c r="B114" s="85"/>
       <c r="C114" s="44"/>
       <c r="D114" s="1"/>
       <c r="E114" s="44"/>
@@ -6694,8 +6703,8 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="82"/>
-      <c r="B115" s="83"/>
+      <c r="A115" s="84"/>
+      <c r="B115" s="85"/>
       <c r="C115" s="44"/>
       <c r="D115" s="1"/>
       <c r="E115" s="44"/>
@@ -6704,8 +6713,8 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="84"/>
-      <c r="B116" s="85"/>
+      <c r="A116" s="86"/>
+      <c r="B116" s="87"/>
       <c r="C116" s="10"/>
       <c r="D116" s="23"/>
       <c r="E116" s="10"/>
@@ -6724,8 +6733,8 @@
       <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="80"/>
-      <c r="B118" s="81"/>
+      <c r="A118" s="82"/>
+      <c r="B118" s="83"/>
       <c r="C118" s="44"/>
       <c r="D118" s="1"/>
       <c r="E118" s="44"/>
@@ -6734,8 +6743,8 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="82"/>
-      <c r="B119" s="83"/>
+      <c r="A119" s="84"/>
+      <c r="B119" s="85"/>
       <c r="C119" s="44"/>
       <c r="D119" s="1"/>
       <c r="E119" s="44"/>
@@ -6744,8 +6753,8 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="82"/>
-      <c r="B120" s="83"/>
+      <c r="A120" s="84"/>
+      <c r="B120" s="85"/>
       <c r="C120" s="44"/>
       <c r="D120" s="1"/>
       <c r="E120" s="44"/>
@@ -6754,8 +6763,8 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="82"/>
-      <c r="B121" s="83"/>
+      <c r="A121" s="84"/>
+      <c r="B121" s="85"/>
       <c r="C121" s="44"/>
       <c r="D121" s="1"/>
       <c r="E121" s="44"/>
@@ -6764,8 +6773,8 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="82"/>
-      <c r="B122" s="83"/>
+      <c r="A122" s="84"/>
+      <c r="B122" s="85"/>
       <c r="C122" s="44"/>
       <c r="D122" s="1"/>
       <c r="E122" s="44"/>
@@ -6774,8 +6783,8 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="82"/>
-      <c r="B123" s="83"/>
+      <c r="A123" s="84"/>
+      <c r="B123" s="85"/>
       <c r="C123" s="44"/>
       <c r="D123" s="1"/>
       <c r="E123" s="44"/>
@@ -6784,8 +6793,8 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="84"/>
-      <c r="B124" s="85"/>
+      <c r="A124" s="86"/>
+      <c r="B124" s="87"/>
       <c r="C124" s="10"/>
       <c r="D124" s="23"/>
       <c r="E124" s="10"/>
@@ -6804,8 +6813,8 @@
       <c r="H125" s="10"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="80"/>
-      <c r="B126" s="81"/>
+      <c r="A126" s="82"/>
+      <c r="B126" s="83"/>
       <c r="C126" s="44"/>
       <c r="D126" s="1"/>
       <c r="E126" s="44"/>
@@ -6814,8 +6823,8 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="82"/>
-      <c r="B127" s="83"/>
+      <c r="A127" s="84"/>
+      <c r="B127" s="85"/>
       <c r="C127" s="44"/>
       <c r="D127" s="1"/>
       <c r="E127" s="44"/>
@@ -6824,8 +6833,8 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="82"/>
-      <c r="B128" s="83"/>
+      <c r="A128" s="84"/>
+      <c r="B128" s="85"/>
       <c r="C128" s="44"/>
       <c r="D128" s="1"/>
       <c r="E128" s="44"/>
@@ -6834,8 +6843,8 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="82"/>
-      <c r="B129" s="83"/>
+      <c r="A129" s="84"/>
+      <c r="B129" s="85"/>
       <c r="C129" s="44"/>
       <c r="D129" s="1"/>
       <c r="E129" s="44"/>
@@ -6844,8 +6853,8 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="82"/>
-      <c r="B130" s="83"/>
+      <c r="A130" s="84"/>
+      <c r="B130" s="85"/>
       <c r="C130" s="44"/>
       <c r="D130" s="1"/>
       <c r="E130" s="44"/>
@@ -6854,8 +6863,8 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="82"/>
-      <c r="B131" s="83"/>
+      <c r="A131" s="84"/>
+      <c r="B131" s="85"/>
       <c r="C131" s="44"/>
       <c r="D131" s="1"/>
       <c r="E131" s="44"/>
@@ -6864,8 +6873,8 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="84"/>
-      <c r="B132" s="85"/>
+      <c r="A132" s="86"/>
+      <c r="B132" s="87"/>
       <c r="C132" s="10"/>
       <c r="D132" s="23"/>
       <c r="E132" s="10"/>
@@ -6875,16 +6884,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="A48:B52"/>
-    <mergeCell ref="A54:B60"/>
-    <mergeCell ref="A62:B68"/>
-    <mergeCell ref="A118:B124"/>
     <mergeCell ref="A126:B132"/>
     <mergeCell ref="A40:B46"/>
     <mergeCell ref="A70:B76"/>
@@ -6893,6 +6892,16 @@
     <mergeCell ref="A94:B100"/>
     <mergeCell ref="A102:B108"/>
     <mergeCell ref="A110:B116"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="A48:B52"/>
+    <mergeCell ref="A54:B60"/>
+    <mergeCell ref="A62:B68"/>
+    <mergeCell ref="A118:B124"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A24:B30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6903,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:H105"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6919,56 +6928,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -7008,13 +7017,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="49" t="s">
         <v>115</v>
       </c>
@@ -7031,8 +7040,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="49" t="s">
         <v>116</v>
       </c>
@@ -7049,8 +7058,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="49" t="s">
         <v>117</v>
       </c>
@@ -7067,8 +7076,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="49" t="s">
         <v>118</v>
       </c>
@@ -7085,8 +7094,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="49" t="s">
         <v>192</v>
       </c>
@@ -7099,8 +7108,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="49" t="s">
         <v>193</v>
       </c>
@@ -7113,8 +7122,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="10"/>
       <c r="D14" s="23"/>
       <c r="E14" s="10"/>
@@ -7134,7 +7143,7 @@
         <v>177</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>111</v>
+        <v>338</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>305</v>
@@ -7143,16 +7152,16 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>111</v>
+      <c r="E16" s="78" t="s">
+        <v>338</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>305</v>
@@ -7161,16 +7170,16 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>111</v>
+      <c r="E17" s="78" t="s">
+        <v>338</v>
       </c>
       <c r="F17" s="44" t="s">
         <v>305</v>
@@ -7179,8 +7188,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -7189,8 +7198,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -7199,8 +7208,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -7209,8 +7218,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -7219,8 +7228,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="10"/>
       <c r="D22" s="23"/>
       <c r="E22" s="10"/>
@@ -7245,8 +7254,8 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="6" t="s">
         <v>115</v>
       </c>
@@ -7263,8 +7272,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
@@ -7281,8 +7290,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="6" t="s">
         <v>117</v>
       </c>
@@ -7299,8 +7308,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="6" t="s">
         <v>118</v>
       </c>
@@ -7317,8 +7326,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="6" t="s">
         <v>192</v>
       </c>
@@ -7335,8 +7344,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="6" t="s">
         <v>193</v>
       </c>
@@ -7353,8 +7362,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="10"/>
       <c r="D30" s="23"/>
       <c r="E30" s="10"/>
@@ -7388,7 +7397,7 @@
         <v>194</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>111</v>
+        <v>338</v>
       </c>
       <c r="F32" s="44" t="s">
         <v>302</v>
@@ -7405,8 +7414,8 @@
       <c r="D33" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>111</v>
+      <c r="E33" s="78" t="s">
+        <v>338</v>
       </c>
       <c r="F33" s="44" t="s">
         <v>302</v>
@@ -7471,8 +7480,8 @@
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="80"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="6" t="s">
         <v>115</v>
       </c>
@@ -7489,8 +7498,8 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="6" t="s">
         <v>116</v>
       </c>
@@ -7507,8 +7516,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="83"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="6"/>
       <c r="D41" s="1"/>
       <c r="E41" s="6"/>
@@ -7517,8 +7526,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="6"/>
       <c r="D42" s="1"/>
       <c r="E42" s="6"/>
@@ -7527,8 +7536,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="10"/>
       <c r="D43" s="23"/>
       <c r="E43" s="10"/>
@@ -7553,8 +7562,8 @@
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="80"/>
-      <c r="B45" s="81"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="6" t="s">
         <v>115</v>
       </c>
@@ -7571,8 +7580,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="82"/>
-      <c r="B46" s="83"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="6" t="s">
         <v>116</v>
       </c>
@@ -7589,8 +7598,8 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="6"/>
       <c r="D47" s="1"/>
       <c r="E47" s="6"/>
@@ -7599,8 +7608,8 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="82"/>
-      <c r="B48" s="83"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
       <c r="E48" s="6"/>
@@ -7609,8 +7618,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="84"/>
-      <c r="B49" s="85"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="87"/>
       <c r="C49" s="10"/>
       <c r="D49" s="23"/>
       <c r="E49" s="10"/>
@@ -7635,8 +7644,8 @@
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="80"/>
-      <c r="B51" s="81"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="83"/>
       <c r="C51" s="6" t="s">
         <v>115</v>
       </c>
@@ -7653,8 +7662,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="82"/>
-      <c r="B52" s="83"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="6" t="s">
         <v>116</v>
       </c>
@@ -7671,8 +7680,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="82"/>
-      <c r="B53" s="83"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="6"/>
       <c r="D53" s="1"/>
       <c r="E53" s="6"/>
@@ -7681,8 +7690,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="82"/>
-      <c r="B54" s="83"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="6"/>
       <c r="D54" s="1"/>
       <c r="E54" s="6"/>
@@ -7691,8 +7700,8 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="82"/>
-      <c r="B55" s="83"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="6"/>
       <c r="D55" s="1"/>
       <c r="E55" s="6"/>
@@ -7701,8 +7710,8 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="82"/>
-      <c r="B56" s="83"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
       <c r="E56" s="6"/>
@@ -7711,8 +7720,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="84"/>
-      <c r="B57" s="85"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="10"/>
       <c r="D57" s="23"/>
       <c r="E57" s="10"/>
@@ -7737,8 +7746,8 @@
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="80"/>
-      <c r="B59" s="81"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="83"/>
       <c r="C59" s="6" t="s">
         <v>115</v>
       </c>
@@ -7755,8 +7764,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
-      <c r="B60" s="83"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="6" t="s">
         <v>116</v>
       </c>
@@ -7773,8 +7782,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="82"/>
-      <c r="B61" s="83"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="6"/>
       <c r="D61" s="1"/>
       <c r="E61" s="6"/>
@@ -7783,8 +7792,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
-      <c r="B62" s="83"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="6"/>
       <c r="D62" s="1"/>
       <c r="E62" s="6"/>
@@ -7793,8 +7802,8 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
-      <c r="B63" s="83"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="85"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
       <c r="E63" s="6"/>
@@ -7803,8 +7812,8 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="82"/>
-      <c r="B64" s="83"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="85"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
       <c r="E64" s="6"/>
@@ -7813,8 +7822,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="84"/>
-      <c r="B65" s="85"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="10"/>
       <c r="D65" s="23"/>
       <c r="E65" s="10"/>
@@ -7839,8 +7848,8 @@
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="80"/>
-      <c r="B67" s="81"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="83"/>
       <c r="C67" s="6" t="s">
         <v>115</v>
       </c>
@@ -7857,8 +7866,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="82"/>
-      <c r="B68" s="83"/>
+      <c r="A68" s="84"/>
+      <c r="B68" s="85"/>
       <c r="C68" s="6"/>
       <c r="D68" s="1"/>
       <c r="E68" s="6"/>
@@ -7867,8 +7876,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="82"/>
-      <c r="B69" s="83"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="85"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
       <c r="E69" s="6"/>
@@ -7877,8 +7886,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="82"/>
-      <c r="B70" s="83"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="6"/>
       <c r="D70" s="1"/>
       <c r="E70" s="6"/>
@@ -7887,8 +7896,8 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="82"/>
-      <c r="B71" s="83"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="85"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
       <c r="E71" s="6"/>
@@ -7897,8 +7906,8 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="83"/>
+      <c r="A72" s="84"/>
+      <c r="B72" s="85"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
       <c r="E72" s="6"/>
@@ -7907,8 +7916,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="84"/>
-      <c r="B73" s="85"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="87"/>
       <c r="C73" s="10"/>
       <c r="D73" s="23"/>
       <c r="E73" s="10"/>
@@ -7927,13 +7936,13 @@
         <v>145</v>
       </c>
       <c r="E74" s="25"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="92"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="90"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="80"/>
-      <c r="B75" s="87"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="91"/>
       <c r="C75" s="49" t="s">
         <v>115</v>
       </c>
@@ -7950,8 +7959,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="82"/>
-      <c r="B76" s="88"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="49" t="s">
         <v>116</v>
       </c>
@@ -7968,8 +7977,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="82"/>
-      <c r="B77" s="88"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="49" t="s">
         <v>117</v>
       </c>
@@ -7986,8 +7995,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="82"/>
-      <c r="B78" s="88"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="49" t="s">
         <v>118</v>
       </c>
@@ -8004,8 +8013,8 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="82"/>
-      <c r="B79" s="88"/>
+      <c r="A79" s="84"/>
+      <c r="B79" s="92"/>
       <c r="C79" s="25"/>
       <c r="D79" s="1"/>
       <c r="E79" s="25"/>
@@ -8014,8 +8023,8 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="82"/>
-      <c r="B80" s="88"/>
+      <c r="A80" s="84"/>
+      <c r="B80" s="92"/>
       <c r="C80" s="25"/>
       <c r="D80" s="1"/>
       <c r="E80" s="25"/>
@@ -8024,8 +8033,8 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="84"/>
-      <c r="B81" s="89"/>
+      <c r="A81" s="86"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -8049,8 +8058,8 @@
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="80"/>
-      <c r="B83" s="81"/>
+      <c r="A83" s="82"/>
+      <c r="B83" s="83"/>
       <c r="C83" s="25"/>
       <c r="D83" s="1"/>
       <c r="E83" s="25"/>
@@ -8059,8 +8068,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="82"/>
-      <c r="B84" s="83"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="85"/>
       <c r="C84" s="25"/>
       <c r="D84" s="1"/>
       <c r="E84" s="25"/>
@@ -8069,8 +8078,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="82"/>
-      <c r="B85" s="83"/>
+      <c r="A85" s="84"/>
+      <c r="B85" s="85"/>
       <c r="C85" s="25"/>
       <c r="D85" s="1"/>
       <c r="E85" s="25"/>
@@ -8079,8 +8088,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="82"/>
-      <c r="B86" s="83"/>
+      <c r="A86" s="84"/>
+      <c r="B86" s="85"/>
       <c r="C86" s="25"/>
       <c r="D86" s="1"/>
       <c r="E86" s="25"/>
@@ -8089,8 +8098,8 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
-      <c r="B87" s="83"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="85"/>
       <c r="C87" s="25"/>
       <c r="D87" s="1"/>
       <c r="E87" s="25"/>
@@ -8099,8 +8108,8 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
-      <c r="B88" s="83"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="85"/>
       <c r="C88" s="25"/>
       <c r="D88" s="1"/>
       <c r="E88" s="25"/>
@@ -8109,8 +8118,8 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="84"/>
-      <c r="B89" s="85"/>
+      <c r="A89" s="86"/>
+      <c r="B89" s="87"/>
       <c r="C89" s="10"/>
       <c r="D89" s="23"/>
       <c r="E89" s="10"/>
@@ -8129,13 +8138,13 @@
         <v>151</v>
       </c>
       <c r="E90" s="25"/>
-      <c r="F90" s="90"/>
-      <c r="G90" s="91"/>
-      <c r="H90" s="92"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="90"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="80"/>
-      <c r="B91" s="87"/>
+      <c r="A91" s="82"/>
+      <c r="B91" s="91"/>
       <c r="C91" s="44" t="s">
         <v>115</v>
       </c>
@@ -8152,8 +8161,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="82"/>
-      <c r="B92" s="88"/>
+      <c r="A92" s="84"/>
+      <c r="B92" s="92"/>
       <c r="C92" s="44" t="s">
         <v>116</v>
       </c>
@@ -8170,8 +8179,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="82"/>
-      <c r="B93" s="88"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="92"/>
       <c r="C93" s="25"/>
       <c r="D93" s="1"/>
       <c r="E93" s="25"/>
@@ -8180,8 +8189,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="82"/>
-      <c r="B94" s="88"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="92"/>
       <c r="C94" s="25"/>
       <c r="D94" s="1"/>
       <c r="E94" s="25"/>
@@ -8190,8 +8199,8 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="82"/>
-      <c r="B95" s="88"/>
+      <c r="A95" s="84"/>
+      <c r="B95" s="92"/>
       <c r="C95" s="25"/>
       <c r="D95" s="1"/>
       <c r="E95" s="25"/>
@@ -8200,8 +8209,8 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="82"/>
-      <c r="B96" s="88"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="92"/>
       <c r="C96" s="25"/>
       <c r="D96" s="1"/>
       <c r="E96" s="25"/>
@@ -8210,8 +8219,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="84"/>
-      <c r="B97" s="89"/>
+      <c r="A97" s="86"/>
+      <c r="B97" s="93"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -8230,13 +8239,13 @@
         <v>141</v>
       </c>
       <c r="E98" s="6"/>
-      <c r="F98" s="90"/>
-      <c r="G98" s="91"/>
-      <c r="H98" s="92"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="89"/>
+      <c r="H98" s="90"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="80"/>
-      <c r="B99" s="87"/>
+      <c r="A99" s="82"/>
+      <c r="B99" s="91"/>
       <c r="C99" s="49" t="s">
         <v>115</v>
       </c>
@@ -8253,8 +8262,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
-      <c r="B100" s="88"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="92"/>
       <c r="C100" s="49" t="s">
         <v>116</v>
       </c>
@@ -8271,8 +8280,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
-      <c r="B101" s="88"/>
+      <c r="A101" s="84"/>
+      <c r="B101" s="92"/>
       <c r="C101" s="49"/>
       <c r="D101" s="1"/>
       <c r="E101" s="6"/>
@@ -8281,8 +8290,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="82"/>
-      <c r="B102" s="88"/>
+      <c r="A102" s="84"/>
+      <c r="B102" s="92"/>
       <c r="C102" s="6"/>
       <c r="D102" s="1"/>
       <c r="E102" s="6"/>
@@ -8291,8 +8300,8 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="82"/>
-      <c r="B103" s="88"/>
+      <c r="A103" s="84"/>
+      <c r="B103" s="92"/>
       <c r="C103" s="6"/>
       <c r="D103" s="1"/>
       <c r="E103" s="6"/>
@@ -8301,8 +8310,8 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="82"/>
-      <c r="B104" s="88"/>
+      <c r="A104" s="84"/>
+      <c r="B104" s="92"/>
       <c r="C104" s="6"/>
       <c r="D104" s="1"/>
       <c r="E104" s="6"/>
@@ -8311,8 +8320,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="84"/>
-      <c r="B105" s="89"/>
+      <c r="A105" s="86"/>
+      <c r="B105" s="93"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
@@ -8331,8 +8340,8 @@
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="80"/>
-      <c r="B107" s="81"/>
+      <c r="A107" s="82"/>
+      <c r="B107" s="83"/>
       <c r="C107" s="25"/>
       <c r="D107" s="1"/>
       <c r="E107" s="25"/>
@@ -8341,8 +8350,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="82"/>
-      <c r="B108" s="83"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="85"/>
       <c r="C108" s="25"/>
       <c r="D108" s="1"/>
       <c r="E108" s="25"/>
@@ -8351,8 +8360,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="82"/>
-      <c r="B109" s="83"/>
+      <c r="A109" s="84"/>
+      <c r="B109" s="85"/>
       <c r="C109" s="25"/>
       <c r="D109" s="1"/>
       <c r="E109" s="25"/>
@@ -8361,8 +8370,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="82"/>
-      <c r="B110" s="83"/>
+      <c r="A110" s="84"/>
+      <c r="B110" s="85"/>
       <c r="C110" s="25"/>
       <c r="D110" s="1"/>
       <c r="E110" s="25"/>
@@ -8371,8 +8380,8 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="82"/>
-      <c r="B111" s="83"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="85"/>
       <c r="C111" s="25"/>
       <c r="D111" s="1"/>
       <c r="E111" s="25"/>
@@ -8381,8 +8390,8 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="82"/>
-      <c r="B112" s="83"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="85"/>
       <c r="C112" s="25"/>
       <c r="D112" s="1"/>
       <c r="E112" s="25"/>
@@ -8391,8 +8400,8 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="84"/>
-      <c r="B113" s="85"/>
+      <c r="A113" s="86"/>
+      <c r="B113" s="87"/>
       <c r="C113" s="10"/>
       <c r="D113" s="23"/>
       <c r="E113" s="10"/>
@@ -8411,8 +8420,8 @@
       <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="80"/>
-      <c r="B115" s="81"/>
+      <c r="A115" s="82"/>
+      <c r="B115" s="83"/>
       <c r="C115" s="25"/>
       <c r="D115" s="1"/>
       <c r="E115" s="25"/>
@@ -8421,8 +8430,8 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="82"/>
-      <c r="B116" s="83"/>
+      <c r="A116" s="84"/>
+      <c r="B116" s="85"/>
       <c r="C116" s="25"/>
       <c r="D116" s="1"/>
       <c r="E116" s="25"/>
@@ -8431,8 +8440,8 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="82"/>
-      <c r="B117" s="83"/>
+      <c r="A117" s="84"/>
+      <c r="B117" s="85"/>
       <c r="C117" s="25"/>
       <c r="D117" s="1"/>
       <c r="E117" s="25"/>
@@ -8441,8 +8450,8 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="82"/>
-      <c r="B118" s="83"/>
+      <c r="A118" s="84"/>
+      <c r="B118" s="85"/>
       <c r="C118" s="25"/>
       <c r="D118" s="1"/>
       <c r="E118" s="25"/>
@@ -8451,8 +8460,8 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="82"/>
-      <c r="B119" s="83"/>
+      <c r="A119" s="84"/>
+      <c r="B119" s="85"/>
       <c r="C119" s="25"/>
       <c r="D119" s="1"/>
       <c r="E119" s="25"/>
@@ -8461,8 +8470,8 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="82"/>
-      <c r="B120" s="83"/>
+      <c r="A120" s="84"/>
+      <c r="B120" s="85"/>
       <c r="C120" s="25"/>
       <c r="D120" s="1"/>
       <c r="E120" s="25"/>
@@ -8471,8 +8480,8 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="84"/>
-      <c r="B121" s="85"/>
+      <c r="A121" s="86"/>
+      <c r="B121" s="87"/>
       <c r="C121" s="10"/>
       <c r="D121" s="23"/>
       <c r="E121" s="10"/>
@@ -8482,6 +8491,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A107:B113"/>
+    <mergeCell ref="A115:B121"/>
+    <mergeCell ref="A83:B89"/>
+    <mergeCell ref="A91:B97"/>
+    <mergeCell ref="A99:B105"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
     <mergeCell ref="F74:H74"/>
     <mergeCell ref="A75:B81"/>
     <mergeCell ref="F90:H90"/>
@@ -8491,16 +8510,6 @@
     <mergeCell ref="A59:B65"/>
     <mergeCell ref="A67:B73"/>
     <mergeCell ref="A45:B49"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="A107:B113"/>
-    <mergeCell ref="A115:B121"/>
-    <mergeCell ref="A83:B89"/>
-    <mergeCell ref="A91:B97"/>
-    <mergeCell ref="A99:B105"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8528,56 +8537,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -8616,13 +8625,13 @@
         <v>135</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="6" t="s">
         <v>115</v>
       </c>
@@ -8639,8 +8648,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="32" t="s">
         <v>116</v>
       </c>
@@ -8657,8 +8666,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="32" t="s">
         <v>117</v>
       </c>
@@ -8675,8 +8684,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -8685,8 +8694,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -8695,8 +8704,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -8705,8 +8714,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8725,13 +8734,13 @@
         <v>136</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="49" t="s">
         <v>115</v>
       </c>
@@ -8748,8 +8757,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="49" t="s">
         <v>116</v>
       </c>
@@ -8766,8 +8775,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="49" t="s">
         <v>117</v>
       </c>
@@ -8784,8 +8793,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -8794,8 +8803,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -8804,8 +8813,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -8814,8 +8823,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -8834,13 +8843,13 @@
         <v>144</v>
       </c>
       <c r="E23" s="25"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="87"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="32" t="s">
         <v>115</v>
       </c>
@@ -8857,8 +8866,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="32" t="s">
         <v>116</v>
       </c>
@@ -8875,8 +8884,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="32"/>
       <c r="D26" s="1"/>
       <c r="E26" s="25"/>
@@ -8885,8 +8894,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="88"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="25"/>
       <c r="D27" s="1"/>
       <c r="E27" s="25"/>
@@ -8895,8 +8904,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="25"/>
       <c r="D28" s="1"/>
       <c r="E28" s="25"/>
@@ -8905,8 +8914,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="25"/>
       <c r="D29" s="1"/>
       <c r="E29" s="25"/>
@@ -8915,8 +8924,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -8935,13 +8944,13 @@
         <v>147</v>
       </c>
       <c r="E31" s="25"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
-      <c r="B32" s="87"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="32" t="s">
         <v>115</v>
       </c>
@@ -8958,8 +8967,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="32" t="s">
         <v>116</v>
       </c>
@@ -8976,8 +8985,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="88"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="32" t="s">
         <v>117</v>
       </c>
@@ -8994,8 +9003,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="25"/>
       <c r="D35" s="1"/>
       <c r="E35" s="25"/>
@@ -9004,8 +9013,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="25"/>
       <c r="D36" s="1"/>
       <c r="E36" s="25"/>
@@ -9014,8 +9023,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
-      <c r="B37" s="88"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="25"/>
       <c r="D37" s="1"/>
       <c r="E37" s="25"/>
@@ -9024,8 +9033,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -9044,13 +9053,13 @@
         <v>148</v>
       </c>
       <c r="E39" s="25"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="92"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="80"/>
-      <c r="B40" s="87"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="49" t="s">
         <v>115</v>
       </c>
@@ -9067,8 +9076,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="88"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="52" t="s">
         <v>116</v>
       </c>
@@ -9085,8 +9094,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="88"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="52" t="s">
         <v>117</v>
       </c>
@@ -9103,8 +9112,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="88"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="49" t="s">
         <v>118</v>
       </c>
@@ -9121,8 +9130,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="88"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="25"/>
       <c r="D44" s="1"/>
       <c r="E44" s="25"/>
@@ -9131,8 +9140,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="88"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="25"/>
       <c r="D45" s="1"/>
       <c r="E45" s="25"/>
@@ -9141,8 +9150,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="84"/>
-      <c r="B46" s="89"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -9161,13 +9170,13 @@
         <v>152</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="92"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="90"/>
     </row>
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="80"/>
-      <c r="B48" s="87"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="32" t="s">
         <v>115</v>
       </c>
@@ -9184,8 +9193,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="88"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="32"/>
       <c r="D49" s="1"/>
       <c r="E49" s="25"/>
@@ -9194,8 +9203,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="32"/>
       <c r="D50" s="1"/>
       <c r="E50" s="25"/>
@@ -9204,8 +9213,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="88"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="25"/>
       <c r="D51" s="1"/>
       <c r="E51" s="25"/>
@@ -9214,8 +9223,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="82"/>
-      <c r="B52" s="88"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="25"/>
       <c r="D52" s="1"/>
       <c r="E52" s="25"/>
@@ -9224,8 +9233,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="82"/>
-      <c r="B53" s="88"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="92"/>
       <c r="C53" s="25"/>
       <c r="D53" s="1"/>
       <c r="E53" s="25"/>
@@ -9234,8 +9243,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
-      <c r="B54" s="89"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -9254,13 +9263,13 @@
         <v>153</v>
       </c>
       <c r="E55" s="25"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="92"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="90"/>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="80"/>
-      <c r="B56" s="87"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="91"/>
       <c r="C56" s="49" t="s">
         <v>115</v>
       </c>
@@ -9277,8 +9286,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="88"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="92"/>
       <c r="C57" s="49" t="s">
         <v>116</v>
       </c>
@@ -9295,8 +9304,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="88"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="49" t="s">
         <v>117</v>
       </c>
@@ -9313,8 +9322,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="82"/>
-      <c r="B59" s="88"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="25"/>
       <c r="D59" s="1"/>
       <c r="E59" s="25"/>
@@ -9323,8 +9332,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
-      <c r="B60" s="88"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="25"/>
       <c r="D60" s="1"/>
       <c r="E60" s="25"/>
@@ -9333,8 +9342,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="82"/>
-      <c r="B61" s="88"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="25"/>
       <c r="D61" s="1"/>
       <c r="E61" s="25"/>
@@ -9343,8 +9352,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="84"/>
-      <c r="B62" s="89"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -9363,13 +9372,13 @@
         <v>157</v>
       </c>
       <c r="E63" s="25"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="92"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="90"/>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="80"/>
-      <c r="B64" s="87"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="32" t="s">
         <v>115</v>
       </c>
@@ -9386,8 +9395,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="82"/>
-      <c r="B65" s="88"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="32" t="s">
         <v>116</v>
       </c>
@@ -9404,8 +9413,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="82"/>
-      <c r="B66" s="88"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="32" t="s">
         <v>117</v>
       </c>
@@ -9422,8 +9431,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="82"/>
-      <c r="B67" s="88"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="25"/>
       <c r="D67" s="1"/>
       <c r="E67" s="25"/>
@@ -9432,8 +9441,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="82"/>
-      <c r="B68" s="88"/>
+      <c r="A68" s="84"/>
+      <c r="B68" s="92"/>
       <c r="C68" s="25"/>
       <c r="D68" s="1"/>
       <c r="E68" s="25"/>
@@ -9442,8 +9451,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="82"/>
-      <c r="B69" s="88"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="25"/>
       <c r="D69" s="1"/>
       <c r="E69" s="25"/>
@@ -9452,8 +9461,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="84"/>
-      <c r="B70" s="89"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -9472,13 +9481,13 @@
         <v>156</v>
       </c>
       <c r="E71" s="25"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="92"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="90"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="80"/>
-      <c r="B72" s="87"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="91"/>
       <c r="C72" s="49" t="s">
         <v>115</v>
       </c>
@@ -9495,8 +9504,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="88"/>
+      <c r="A73" s="84"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="49" t="s">
         <v>116</v>
       </c>
@@ -9513,8 +9522,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="88"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="49" t="s">
         <v>117</v>
       </c>
@@ -9531,8 +9540,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
-      <c r="B75" s="88"/>
+      <c r="A75" s="84"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="49" t="s">
         <v>118</v>
       </c>
@@ -9549,8 +9558,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="82"/>
-      <c r="B76" s="88"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="49" t="s">
         <v>192</v>
       </c>
@@ -9567,8 +9576,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="82"/>
-      <c r="B77" s="88"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="25"/>
       <c r="D77" s="1"/>
       <c r="E77" s="25"/>
@@ -9577,8 +9586,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="84"/>
-      <c r="B78" s="89"/>
+      <c r="A78" s="86"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -9597,13 +9606,13 @@
         <v>71</v>
       </c>
       <c r="E79" s="25"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="92"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="89"/>
+      <c r="H79" s="90"/>
     </row>
     <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="80"/>
-      <c r="B80" s="87"/>
+      <c r="A80" s="82"/>
+      <c r="B80" s="91"/>
       <c r="C80" s="32" t="s">
         <v>115</v>
       </c>
@@ -9622,8 +9631,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="82"/>
-      <c r="B81" s="88"/>
+      <c r="A81" s="84"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="32"/>
       <c r="D81" s="1"/>
       <c r="E81" s="25"/>
@@ -9632,8 +9641,8 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="82"/>
-      <c r="B82" s="88"/>
+      <c r="A82" s="84"/>
+      <c r="B82" s="92"/>
       <c r="C82" s="32"/>
       <c r="D82" s="1"/>
       <c r="E82" s="25"/>
@@ -9642,8 +9651,8 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="82"/>
-      <c r="B83" s="88"/>
+      <c r="A83" s="84"/>
+      <c r="B83" s="92"/>
       <c r="C83" s="25"/>
       <c r="D83" s="1"/>
       <c r="E83" s="25"/>
@@ -9652,8 +9661,8 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="82"/>
-      <c r="B84" s="88"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="92"/>
       <c r="C84" s="25"/>
       <c r="D84" s="1"/>
       <c r="E84" s="25"/>
@@ -9662,8 +9671,8 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="82"/>
-      <c r="B85" s="88"/>
+      <c r="A85" s="84"/>
+      <c r="B85" s="92"/>
       <c r="C85" s="25"/>
       <c r="D85" s="1"/>
       <c r="E85" s="25"/>
@@ -9672,8 +9681,8 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="84"/>
-      <c r="B86" s="89"/>
+      <c r="A86" s="86"/>
+      <c r="B86" s="93"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -9692,13 +9701,13 @@
         <v>72</v>
       </c>
       <c r="E87" s="25"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="92"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="89"/>
+      <c r="H87" s="90"/>
     </row>
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="80"/>
-      <c r="B88" s="87"/>
+      <c r="A88" s="82"/>
+      <c r="B88" s="91"/>
       <c r="C88" s="32" t="s">
         <v>115</v>
       </c>
@@ -9715,8 +9724,8 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="82"/>
-      <c r="B89" s="88"/>
+      <c r="A89" s="84"/>
+      <c r="B89" s="92"/>
       <c r="C89" s="32"/>
       <c r="D89" s="1"/>
       <c r="E89" s="25"/>
@@ -9725,8 +9734,8 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="88"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="92"/>
       <c r="C90" s="32"/>
       <c r="D90" s="1"/>
       <c r="E90" s="25"/>
@@ -9735,8 +9744,8 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
-      <c r="B91" s="88"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="92"/>
       <c r="C91" s="25"/>
       <c r="D91" s="1"/>
       <c r="E91" s="25"/>
@@ -9745,8 +9754,8 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="82"/>
-      <c r="B92" s="88"/>
+      <c r="A92" s="84"/>
+      <c r="B92" s="92"/>
       <c r="C92" s="25"/>
       <c r="D92" s="1"/>
       <c r="E92" s="25"/>
@@ -9755,8 +9764,8 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="82"/>
-      <c r="B93" s="88"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="92"/>
       <c r="C93" s="25"/>
       <c r="D93" s="1"/>
       <c r="E93" s="25"/>
@@ -9765,8 +9774,8 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="84"/>
-      <c r="B94" s="89"/>
+      <c r="A94" s="86"/>
+      <c r="B94" s="93"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -9785,13 +9794,13 @@
         <v>73</v>
       </c>
       <c r="E95" s="25"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="92"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="89"/>
+      <c r="H95" s="90"/>
     </row>
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="80"/>
-      <c r="B96" s="87"/>
+      <c r="A96" s="82"/>
+      <c r="B96" s="91"/>
       <c r="C96" s="32" t="s">
         <v>115</v>
       </c>
@@ -9808,8 +9817,8 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="82"/>
-      <c r="B97" s="88"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="92"/>
       <c r="C97" s="32" t="s">
         <v>116</v>
       </c>
@@ -9828,8 +9837,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="82"/>
-      <c r="B98" s="88"/>
+      <c r="A98" s="84"/>
+      <c r="B98" s="92"/>
       <c r="C98" s="32"/>
       <c r="D98" s="1"/>
       <c r="E98" s="25"/>
@@ -9838,8 +9847,8 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="82"/>
-      <c r="B99" s="88"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="92"/>
       <c r="C99" s="25"/>
       <c r="D99" s="1"/>
       <c r="E99" s="25"/>
@@ -9848,8 +9857,8 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
-      <c r="B100" s="88"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="92"/>
       <c r="C100" s="25"/>
       <c r="D100" s="1"/>
       <c r="E100" s="25"/>
@@ -9858,8 +9867,8 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
-      <c r="B101" s="88"/>
+      <c r="A101" s="84"/>
+      <c r="B101" s="92"/>
       <c r="C101" s="25"/>
       <c r="D101" s="1"/>
       <c r="E101" s="25"/>
@@ -9868,8 +9877,8 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="84"/>
-      <c r="B102" s="89"/>
+      <c r="A102" s="86"/>
+      <c r="B102" s="93"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -9888,13 +9897,13 @@
         <v>172</v>
       </c>
       <c r="E103" s="25"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="91"/>
-      <c r="H103" s="92"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="89"/>
+      <c r="H103" s="90"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="80"/>
-      <c r="B104" s="87"/>
+      <c r="A104" s="82"/>
+      <c r="B104" s="91"/>
       <c r="C104" s="32" t="s">
         <v>115</v>
       </c>
@@ -9911,8 +9920,8 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="82"/>
-      <c r="B105" s="88"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="92"/>
       <c r="C105" s="25"/>
       <c r="D105" s="1"/>
       <c r="E105" s="25"/>
@@ -9921,8 +9930,8 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="82"/>
-      <c r="B106" s="88"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="92"/>
       <c r="C106" s="25"/>
       <c r="D106" s="1"/>
       <c r="E106" s="25"/>
@@ -9931,8 +9940,8 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="82"/>
-      <c r="B107" s="88"/>
+      <c r="A107" s="84"/>
+      <c r="B107" s="92"/>
       <c r="C107" s="25"/>
       <c r="D107" s="1"/>
       <c r="E107" s="25"/>
@@ -9941,8 +9950,8 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="82"/>
-      <c r="B108" s="88"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="92"/>
       <c r="C108" s="25"/>
       <c r="D108" s="1"/>
       <c r="E108" s="25"/>
@@ -9951,8 +9960,8 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="82"/>
-      <c r="B109" s="88"/>
+      <c r="A109" s="84"/>
+      <c r="B109" s="92"/>
       <c r="C109" s="25"/>
       <c r="D109" s="1"/>
       <c r="E109" s="25"/>
@@ -9961,8 +9970,8 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="84"/>
-      <c r="B110" s="89"/>
+      <c r="A110" s="86"/>
+      <c r="B110" s="93"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -9976,13 +9985,13 @@
       <c r="C111" s="25"/>
       <c r="D111" s="4"/>
       <c r="E111" s="25"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="92"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="89"/>
+      <c r="H111" s="90"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="80"/>
-      <c r="B112" s="87"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="91"/>
       <c r="C112" s="25"/>
       <c r="D112" s="1"/>
       <c r="E112" s="25"/>
@@ -9991,8 +10000,8 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="82"/>
-      <c r="B113" s="88"/>
+      <c r="A113" s="84"/>
+      <c r="B113" s="92"/>
       <c r="C113" s="25"/>
       <c r="D113" s="1"/>
       <c r="E113" s="25"/>
@@ -10001,8 +10010,8 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="82"/>
-      <c r="B114" s="88"/>
+      <c r="A114" s="84"/>
+      <c r="B114" s="92"/>
       <c r="C114" s="25"/>
       <c r="D114" s="1"/>
       <c r="E114" s="25"/>
@@ -10011,8 +10020,8 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="82"/>
-      <c r="B115" s="88"/>
+      <c r="A115" s="84"/>
+      <c r="B115" s="92"/>
       <c r="C115" s="25"/>
       <c r="D115" s="1"/>
       <c r="E115" s="25"/>
@@ -10021,8 +10030,8 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="82"/>
-      <c r="B116" s="88"/>
+      <c r="A116" s="84"/>
+      <c r="B116" s="92"/>
       <c r="C116" s="25"/>
       <c r="D116" s="1"/>
       <c r="E116" s="25"/>
@@ -10031,8 +10040,8 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="82"/>
-      <c r="B117" s="88"/>
+      <c r="A117" s="84"/>
+      <c r="B117" s="92"/>
       <c r="C117" s="25"/>
       <c r="D117" s="1"/>
       <c r="E117" s="25"/>
@@ -10041,8 +10050,8 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="84"/>
-      <c r="B118" s="89"/>
+      <c r="A118" s="86"/>
+      <c r="B118" s="93"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -10052,26 +10061,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:B46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:B54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A56:B62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A64:B70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="F79:H79"/>
     <mergeCell ref="A80:B86"/>
     <mergeCell ref="F87:H87"/>
     <mergeCell ref="A88:B94"/>
@@ -10081,6 +10070,26 @@
     <mergeCell ref="F103:H103"/>
     <mergeCell ref="A104:B110"/>
     <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A64:B70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A40:B46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10104,56 +10113,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -10193,13 +10202,13 @@
         <v>142</v>
       </c>
       <c r="E7" s="39"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="49" t="s">
         <v>115</v>
       </c>
@@ -10216,8 +10225,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="49" t="s">
         <v>116</v>
       </c>
@@ -10234,8 +10243,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -10244,8 +10253,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -10254,8 +10263,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -10264,8 +10273,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -10274,8 +10283,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10294,13 +10303,13 @@
         <v>75</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="32" t="s">
         <v>115</v>
       </c>
@@ -10317,8 +10326,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="32" t="s">
         <v>116</v>
       </c>
@@ -10335,8 +10344,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="32" t="s">
         <v>117</v>
       </c>
@@ -10353,8 +10362,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="25"/>
@@ -10363,8 +10372,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="25"/>
       <c r="D20" s="1"/>
       <c r="E20" s="25"/>
@@ -10373,8 +10382,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="25"/>
       <c r="D21" s="1"/>
       <c r="E21" s="25"/>
@@ -10383,8 +10392,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -10403,13 +10412,13 @@
         <v>76</v>
       </c>
       <c r="E23" s="25"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="87"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="42" t="s">
         <v>115</v>
       </c>
@@ -10426,8 +10435,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="44" t="s">
         <v>116</v>
       </c>
@@ -10444,8 +10453,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="44" t="s">
         <v>117</v>
       </c>
@@ -10462,8 +10471,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="88"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="25"/>
       <c r="D27" s="1"/>
       <c r="E27" s="25"/>
@@ -10472,8 +10481,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="25"/>
       <c r="D28" s="1"/>
       <c r="E28" s="25"/>
@@ -10482,8 +10491,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="25"/>
       <c r="D29" s="1"/>
       <c r="E29" s="25"/>
@@ -10492,8 +10501,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -10512,13 +10521,13 @@
         <v>77</v>
       </c>
       <c r="E31" s="25"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
     </row>
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
-      <c r="B32" s="87"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="25" t="s">
         <v>115</v>
       </c>
@@ -10535,8 +10544,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="42" t="s">
         <v>116</v>
       </c>
@@ -10553,8 +10562,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="88"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="42" t="s">
         <v>117</v>
       </c>
@@ -10571,8 +10580,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="25"/>
       <c r="D35" s="1"/>
       <c r="E35" s="25"/>
@@ -10581,8 +10590,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="25"/>
       <c r="D36" s="1"/>
       <c r="E36" s="25"/>
@@ -10591,8 +10600,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
-      <c r="B37" s="88"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="25"/>
       <c r="D37" s="1"/>
       <c r="E37" s="25"/>
@@ -10601,8 +10610,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -10612,15 +10621,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="A1:H5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="A8:B14"/>
     <mergeCell ref="A24:B30"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10631,7 +10640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
@@ -10644,56 +10653,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -10732,13 +10741,13 @@
         <v>311</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="32" t="s">
         <v>115</v>
       </c>
@@ -10756,8 +10765,8 @@
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="32" t="s">
         <v>116</v>
       </c>
@@ -10774,8 +10783,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="32"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -10784,8 +10793,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -10794,8 +10803,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
@@ -10804,8 +10813,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -10814,8 +10823,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10835,13 +10844,13 @@
         <v>310</v>
       </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="49" t="s">
         <v>115</v>
       </c>
@@ -10858,8 +10867,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="49" t="s">
         <v>116</v>
       </c>
@@ -10876,8 +10885,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -10886,8 +10895,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
@@ -10896,8 +10905,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -10906,8 +10915,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
@@ -10916,8 +10925,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -10936,13 +10945,13 @@
         <v>70</v>
       </c>
       <c r="E23" s="25"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="87"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="38" t="s">
         <v>115</v>
       </c>
@@ -10959,8 +10968,8 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="38" t="s">
         <v>116</v>
       </c>
@@ -10977,8 +10986,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="38" t="s">
         <v>117</v>
       </c>
@@ -10995,8 +11004,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="88"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="25" t="s">
         <v>118</v>
       </c>
@@ -11013,8 +11022,8 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="25"/>
       <c r="D28" s="1"/>
       <c r="E28" s="25"/>
@@ -11023,8 +11032,8 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="25"/>
       <c r="D29" s="1"/>
       <c r="E29" s="25"/>
@@ -11033,8 +11042,8 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -11053,13 +11062,13 @@
         <v>78</v>
       </c>
       <c r="E31" s="25"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
-      <c r="B32" s="87"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="38" t="s">
         <v>115</v>
       </c>
@@ -11076,8 +11085,8 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="38" t="s">
         <v>116</v>
       </c>
@@ -11094,8 +11103,8 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="88"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="38" t="s">
         <v>117</v>
       </c>
@@ -11112,8 +11121,8 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="25" t="s">
         <v>118</v>
       </c>
@@ -11130,8 +11139,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="25"/>
       <c r="D36" s="1"/>
       <c r="E36" s="25"/>
@@ -11140,8 +11149,8 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
-      <c r="B37" s="88"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="25"/>
       <c r="D37" s="1"/>
       <c r="E37" s="25"/>
@@ -11150,8 +11159,8 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -11170,13 +11179,13 @@
         <v>79</v>
       </c>
       <c r="E39" s="25"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="92"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="80"/>
-      <c r="B40" s="87"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="42" t="s">
         <v>115</v>
       </c>
@@ -11193,8 +11202,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="88"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="42" t="s">
         <v>116</v>
       </c>
@@ -11211,8 +11220,8 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="88"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="42"/>
       <c r="D42" s="1"/>
       <c r="E42" s="25"/>
@@ -11221,8 +11230,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="88"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="42"/>
       <c r="D43" s="1"/>
       <c r="E43" s="25"/>
@@ -11231,8 +11240,8 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="88"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="25"/>
       <c r="D44" s="1"/>
       <c r="E44" s="25"/>
@@ -11241,8 +11250,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="88"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="25"/>
       <c r="D45" s="1"/>
       <c r="E45" s="25"/>
@@ -11251,8 +11260,8 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="84"/>
-      <c r="B46" s="89"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -11271,13 +11280,13 @@
         <v>80</v>
       </c>
       <c r="E47" s="25"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="92"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="90"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="80"/>
-      <c r="B48" s="87"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="42" t="s">
         <v>115</v>
       </c>
@@ -11294,8 +11303,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="88"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="42" t="s">
         <v>116</v>
       </c>
@@ -11312,8 +11321,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="42"/>
       <c r="D50" s="1"/>
       <c r="E50" s="25"/>
@@ -11322,8 +11331,8 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="88"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="42"/>
       <c r="D51" s="1"/>
       <c r="E51" s="25"/>
@@ -11332,8 +11341,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="82"/>
-      <c r="B52" s="88"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="25"/>
       <c r="D52" s="1"/>
       <c r="E52" s="25"/>
@@ -11342,8 +11351,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="82"/>
-      <c r="B53" s="88"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="92"/>
       <c r="C53" s="25"/>
       <c r="D53" s="1"/>
       <c r="E53" s="25"/>
@@ -11352,8 +11361,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
-      <c r="B54" s="89"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -11372,13 +11381,13 @@
         <v>81</v>
       </c>
       <c r="E55" s="25"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="92"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="90"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="80"/>
-      <c r="B56" s="87"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="91"/>
       <c r="C56" s="52" t="s">
         <v>115</v>
       </c>
@@ -11395,8 +11404,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="88"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="92"/>
       <c r="C57" s="52" t="s">
         <v>116</v>
       </c>
@@ -11413,8 +11422,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="88"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="52" t="s">
         <v>117</v>
       </c>
@@ -11431,8 +11440,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="82"/>
-      <c r="B59" s="88"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="42"/>
       <c r="D59" s="1"/>
       <c r="E59" s="25"/>
@@ -11441,8 +11450,8 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
-      <c r="B60" s="88"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="25"/>
       <c r="D60" s="1"/>
       <c r="E60" s="25"/>
@@ -11451,8 +11460,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="82"/>
-      <c r="B61" s="88"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="25"/>
       <c r="D61" s="1"/>
       <c r="E61" s="25"/>
@@ -11461,8 +11470,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="84"/>
-      <c r="B62" s="89"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -11481,13 +11490,13 @@
         <v>82</v>
       </c>
       <c r="E63" s="25"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="92"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="90"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="80"/>
-      <c r="B64" s="87"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="42" t="s">
         <v>115</v>
       </c>
@@ -11504,8 +11513,8 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="82"/>
-      <c r="B65" s="88"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="42" t="s">
         <v>116</v>
       </c>
@@ -11522,8 +11531,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="82"/>
-      <c r="B66" s="88"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="42"/>
       <c r="D66" s="1"/>
       <c r="E66" s="25"/>
@@ -11532,8 +11541,8 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="82"/>
-      <c r="B67" s="88"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="42"/>
       <c r="D67" s="1"/>
       <c r="E67" s="25"/>
@@ -11542,8 +11551,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="82"/>
-      <c r="B68" s="88"/>
+      <c r="A68" s="84"/>
+      <c r="B68" s="92"/>
       <c r="C68" s="25"/>
       <c r="D68" s="1"/>
       <c r="E68" s="25"/>
@@ -11552,8 +11561,8 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="82"/>
-      <c r="B69" s="88"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="25"/>
       <c r="D69" s="1"/>
       <c r="E69" s="25"/>
@@ -11562,8 +11571,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="84"/>
-      <c r="B70" s="89"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -11583,13 +11592,13 @@
         <v>170</v>
       </c>
       <c r="E71" s="30"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="98"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="99"/>
     </row>
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="80"/>
-      <c r="B72" s="87"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="91"/>
       <c r="C72" s="52" t="s">
         <v>115</v>
       </c>
@@ -11606,8 +11615,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="88"/>
+      <c r="A73" s="84"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="52" t="s">
         <v>116</v>
       </c>
@@ -11624,8 +11633,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="88"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="25"/>
       <c r="D74" s="1"/>
       <c r="E74" s="25"/>
@@ -11634,8 +11643,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
-      <c r="B75" s="88"/>
+      <c r="A75" s="84"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="25"/>
       <c r="D75" s="1"/>
       <c r="E75" s="25"/>
@@ -11644,8 +11653,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="82"/>
-      <c r="B76" s="88"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="25"/>
       <c r="D76" s="1"/>
       <c r="E76" s="25"/>
@@ -11654,8 +11663,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="82"/>
-      <c r="B77" s="88"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="25"/>
       <c r="D77" s="1"/>
       <c r="E77" s="25"/>
@@ -11664,8 +11673,8 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="84"/>
-      <c r="B78" s="89"/>
+      <c r="A78" s="86"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -11675,16 +11684,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:B30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B38"/>
-    <mergeCell ref="F39:H39"/>
     <mergeCell ref="A72:B78"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A64:B70"/>
@@ -11694,6 +11693,16 @@
     <mergeCell ref="A48:B54"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="A56:B62"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:B30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11718,56 +11727,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -11807,13 +11816,13 @@
         <v>74</v>
       </c>
       <c r="E7" s="25"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="25" t="s">
         <v>115</v>
       </c>
@@ -11831,8 +11840,8 @@
       <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="42" t="s">
         <v>116</v>
       </c>
@@ -11849,8 +11858,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="42" t="s">
         <v>117</v>
       </c>
@@ -11867,8 +11876,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="25"/>
       <c r="D11" s="1"/>
       <c r="E11" s="25"/>
@@ -11877,8 +11886,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="25"/>
       <c r="D12" s="1"/>
       <c r="E12" s="25"/>
@@ -11887,8 +11896,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="25"/>
       <c r="D13" s="1"/>
       <c r="E13" s="25"/>
@@ -11897,8 +11906,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -11916,13 +11925,13 @@
         <v>292</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="52" t="s">
         <v>115</v>
       </c>
@@ -11939,8 +11948,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" s="57" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="52" t="s">
         <v>116</v>
       </c>
@@ -11957,8 +11966,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="25"/>
       <c r="D18" s="1"/>
       <c r="E18" s="25"/>
@@ -11967,8 +11976,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="25"/>
@@ -11977,8 +11986,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="25"/>
       <c r="D20" s="1"/>
       <c r="E20" s="25"/>
@@ -11987,8 +11996,8 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="25"/>
       <c r="D21" s="1"/>
       <c r="E21" s="25"/>
@@ -11997,8 +12006,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -12015,13 +12024,13 @@
         <v>315</v>
       </c>
       <c r="E23" s="56"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="102"/>
     </row>
     <row r="24" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="56"/>
       <c r="D24" s="14" t="s">
         <v>316</v>
@@ -12036,8 +12045,8 @@
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="102"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="56"/>
       <c r="D25" s="14" t="s">
         <v>319</v>
@@ -12052,8 +12061,8 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="56"/>
       <c r="D26" s="14"/>
       <c r="E26" s="56"/>
@@ -12062,8 +12071,8 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="101"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="56"/>
       <c r="D27" s="14"/>
       <c r="E27" s="56"/>
@@ -12072,8 +12081,8 @@
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="56"/>
       <c r="D28" s="14"/>
       <c r="E28" s="56"/>
@@ -12082,8 +12091,8 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="101"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="56"/>
       <c r="D29" s="14"/>
       <c r="E29" s="56"/>
@@ -12092,8 +12101,8 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -12106,13 +12115,13 @@
       <c r="B31" s="56"/>
       <c r="D31" s="15"/>
       <c r="E31" s="56"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="107"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="102"/>
     </row>
     <row r="32" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="56"/>
       <c r="D32" s="14"/>
       <c r="E32" s="56"/>
@@ -12121,8 +12130,8 @@
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="101"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="56"/>
       <c r="D33" s="14"/>
       <c r="E33" s="56"/>
@@ -12131,8 +12140,8 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="101"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="56"/>
       <c r="D34" s="14"/>
       <c r="E34" s="56"/>
@@ -12141,8 +12150,8 @@
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="101"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="106"/>
       <c r="C35" s="56"/>
       <c r="D35" s="14"/>
       <c r="E35" s="56"/>
@@ -12151,8 +12160,8 @@
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="101"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="56"/>
       <c r="D36" s="14"/>
       <c r="E36" s="56"/>
@@ -12161,8 +12170,8 @@
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="101"/>
-      <c r="B37" s="102"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="56"/>
       <c r="D37" s="14"/>
       <c r="E37" s="56"/>
@@ -12171,8 +12180,8 @@
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="103"/>
-      <c r="B38" s="104"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -12185,13 +12194,13 @@
       <c r="B39" s="56"/>
       <c r="D39" s="15"/>
       <c r="E39" s="56"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="107"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="102"/>
     </row>
     <row r="40" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="99"/>
-      <c r="B40" s="100"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="56"/>
       <c r="D40" s="14"/>
       <c r="E40" s="56"/>
@@ -12200,8 +12209,8 @@
       <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="101"/>
-      <c r="B41" s="102"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
       <c r="C41" s="56"/>
       <c r="D41" s="14"/>
       <c r="E41" s="56"/>
@@ -12210,8 +12219,8 @@
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101"/>
-      <c r="B42" s="102"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="56"/>
       <c r="D42" s="14"/>
       <c r="E42" s="56"/>
@@ -12220,8 +12229,8 @@
       <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="101"/>
-      <c r="B43" s="102"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
       <c r="C43" s="56"/>
       <c r="D43" s="14"/>
       <c r="E43" s="56"/>
@@ -12230,8 +12239,8 @@
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="101"/>
-      <c r="B44" s="102"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="56"/>
       <c r="D44" s="14"/>
       <c r="E44" s="56"/>
@@ -12240,8 +12249,8 @@
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="101"/>
-      <c r="B45" s="102"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="106"/>
       <c r="C45" s="56"/>
       <c r="D45" s="14"/>
       <c r="E45" s="56"/>
@@ -12250,8 +12259,8 @@
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="103"/>
-      <c r="B46" s="104"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -12264,13 +12273,13 @@
       <c r="B47" s="56"/>
       <c r="D47" s="15"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="107"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="102"/>
     </row>
     <row r="48" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="99"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="56"/>
       <c r="D48" s="14"/>
       <c r="E48" s="56"/>
@@ -12279,8 +12288,8 @@
       <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="101"/>
-      <c r="B49" s="102"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="106"/>
       <c r="C49" s="56"/>
       <c r="D49" s="14"/>
       <c r="E49" s="56"/>
@@ -12289,8 +12298,8 @@
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="101"/>
-      <c r="B50" s="102"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="106"/>
       <c r="C50" s="56"/>
       <c r="D50" s="14"/>
       <c r="E50" s="56"/>
@@ -12299,8 +12308,8 @@
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="101"/>
-      <c r="B51" s="102"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="106"/>
       <c r="C51" s="56"/>
       <c r="D51" s="14"/>
       <c r="E51" s="56"/>
@@ -12309,8 +12318,8 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="101"/>
-      <c r="B52" s="102"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="106"/>
       <c r="C52" s="56"/>
       <c r="D52" s="14"/>
       <c r="E52" s="56"/>
@@ -12319,8 +12328,8 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="101"/>
-      <c r="B53" s="102"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="106"/>
       <c r="C53" s="56"/>
       <c r="D53" s="14"/>
       <c r="E53" s="56"/>
@@ -12329,8 +12338,8 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="103"/>
-      <c r="B54" s="104"/>
+      <c r="A54" s="107"/>
+      <c r="B54" s="108"/>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -12343,13 +12352,13 @@
       <c r="B55" s="56"/>
       <c r="D55" s="15"/>
       <c r="E55" s="56"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="107"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="102"/>
     </row>
     <row r="56" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="99"/>
-      <c r="B56" s="100"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="60"/>
       <c r="D56" s="14"/>
       <c r="E56" s="56"/>
@@ -12358,8 +12367,8 @@
       <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="101"/>
-      <c r="B57" s="102"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="106"/>
       <c r="C57" s="60"/>
       <c r="D57" s="14"/>
       <c r="E57" s="56"/>
@@ -12368,8 +12377,8 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="101"/>
-      <c r="B58" s="102"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="106"/>
       <c r="C58" s="60"/>
       <c r="D58" s="14"/>
       <c r="E58" s="56"/>
@@ -12378,8 +12387,8 @@
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="101"/>
-      <c r="B59" s="102"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="106"/>
       <c r="C59" s="56"/>
       <c r="D59" s="14"/>
       <c r="E59" s="56"/>
@@ -12388,8 +12397,8 @@
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="101"/>
-      <c r="B60" s="102"/>
+      <c r="A60" s="105"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="56"/>
       <c r="D60" s="14"/>
       <c r="E60" s="56"/>
@@ -12398,8 +12407,8 @@
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="101"/>
-      <c r="B61" s="102"/>
+      <c r="A61" s="105"/>
+      <c r="B61" s="106"/>
       <c r="C61" s="56"/>
       <c r="D61" s="14"/>
       <c r="E61" s="56"/>
@@ -12408,8 +12417,8 @@
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="103"/>
-      <c r="B62" s="104"/>
+      <c r="A62" s="107"/>
+      <c r="B62" s="108"/>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
@@ -12422,13 +12431,13 @@
       <c r="B63" s="56"/>
       <c r="D63" s="15"/>
       <c r="E63" s="56"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="106"/>
-      <c r="H63" s="107"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="102"/>
     </row>
     <row r="64" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="99"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="103"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="56"/>
       <c r="D64" s="14"/>
       <c r="E64" s="56"/>
@@ -12437,8 +12446,8 @@
       <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="101"/>
-      <c r="B65" s="102"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="106"/>
       <c r="C65" s="56"/>
       <c r="D65" s="14"/>
       <c r="E65" s="56"/>
@@ -12447,8 +12456,8 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="101"/>
-      <c r="B66" s="102"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="106"/>
       <c r="C66" s="56"/>
       <c r="D66" s="14"/>
       <c r="E66" s="56"/>
@@ -12457,8 +12466,8 @@
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="101"/>
-      <c r="B67" s="102"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="106"/>
       <c r="C67" s="56"/>
       <c r="D67" s="14"/>
       <c r="E67" s="56"/>
@@ -12467,8 +12476,8 @@
       <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="101"/>
-      <c r="B68" s="102"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="106"/>
       <c r="C68" s="56"/>
       <c r="D68" s="14"/>
       <c r="E68" s="56"/>
@@ -12477,8 +12486,8 @@
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="101"/>
-      <c r="B69" s="102"/>
+      <c r="A69" s="105"/>
+      <c r="B69" s="106"/>
       <c r="C69" s="56"/>
       <c r="D69" s="14"/>
       <c r="E69" s="56"/>
@@ -12487,8 +12496,8 @@
       <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="103"/>
-      <c r="B70" s="104"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="108"/>
       <c r="C70" s="55"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
@@ -12501,13 +12510,13 @@
       <c r="B71" s="56"/>
       <c r="D71" s="15"/>
       <c r="E71" s="56"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="106"/>
-      <c r="H71" s="107"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="102"/>
     </row>
     <row r="72" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="99"/>
-      <c r="B72" s="100"/>
+      <c r="A72" s="103"/>
+      <c r="B72" s="104"/>
       <c r="C72" s="60"/>
       <c r="D72" s="14"/>
       <c r="E72" s="56"/>
@@ -12516,8 +12525,8 @@
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="101"/>
-      <c r="B73" s="102"/>
+      <c r="A73" s="105"/>
+      <c r="B73" s="106"/>
       <c r="C73" s="60"/>
       <c r="D73" s="14"/>
       <c r="E73" s="56"/>
@@ -12526,8 +12535,8 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="101"/>
-      <c r="B74" s="102"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="106"/>
       <c r="C74" s="56"/>
       <c r="D74" s="14"/>
       <c r="E74" s="56"/>
@@ -12536,8 +12545,8 @@
       <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="101"/>
-      <c r="B75" s="102"/>
+      <c r="A75" s="105"/>
+      <c r="B75" s="106"/>
       <c r="C75" s="56"/>
       <c r="D75" s="14"/>
       <c r="E75" s="56"/>
@@ -12546,8 +12555,8 @@
       <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
-      <c r="B76" s="102"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="56"/>
       <c r="D76" s="14"/>
       <c r="E76" s="56"/>
@@ -12556,8 +12565,8 @@
       <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="101"/>
-      <c r="B77" s="102"/>
+      <c r="A77" s="105"/>
+      <c r="B77" s="106"/>
       <c r="C77" s="56"/>
       <c r="D77" s="14"/>
       <c r="E77" s="56"/>
@@ -12566,8 +12575,8 @@
       <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="103"/>
-      <c r="B78" s="104"/>
+      <c r="A78" s="107"/>
+      <c r="B78" s="108"/>
       <c r="C78" s="55"/>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -12580,13 +12589,13 @@
       <c r="B79" s="56"/>
       <c r="D79" s="15"/>
       <c r="E79" s="56"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="107"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="102"/>
     </row>
     <row r="80" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="99"/>
-      <c r="B80" s="100"/>
+      <c r="A80" s="103"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="56"/>
       <c r="D80" s="14"/>
       <c r="E80" s="56"/>
@@ -12595,8 +12604,8 @@
       <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="101"/>
-      <c r="B81" s="102"/>
+      <c r="A81" s="105"/>
+      <c r="B81" s="106"/>
       <c r="C81" s="56"/>
       <c r="D81" s="14"/>
       <c r="E81" s="56"/>
@@ -12605,8 +12614,8 @@
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="101"/>
-      <c r="B82" s="102"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="106"/>
       <c r="C82" s="56"/>
       <c r="D82" s="14"/>
       <c r="E82" s="56"/>
@@ -12615,8 +12624,8 @@
       <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="101"/>
-      <c r="B83" s="102"/>
+      <c r="A83" s="105"/>
+      <c r="B83" s="106"/>
       <c r="C83" s="56"/>
       <c r="D83" s="14"/>
       <c r="E83" s="56"/>
@@ -12625,8 +12634,8 @@
       <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="101"/>
-      <c r="B84" s="102"/>
+      <c r="A84" s="105"/>
+      <c r="B84" s="106"/>
       <c r="C84" s="56"/>
       <c r="D84" s="14"/>
       <c r="E84" s="56"/>
@@ -12635,8 +12644,8 @@
       <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="101"/>
-      <c r="B85" s="102"/>
+      <c r="A85" s="105"/>
+      <c r="B85" s="106"/>
       <c r="C85" s="56"/>
       <c r="D85" s="14"/>
       <c r="E85" s="56"/>
@@ -12645,8 +12654,8 @@
       <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="103"/>
-      <c r="B86" s="104"/>
+      <c r="A86" s="107"/>
+      <c r="B86" s="108"/>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
@@ -12659,13 +12668,13 @@
       <c r="B87" s="56"/>
       <c r="D87" s="15"/>
       <c r="E87" s="56"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="106"/>
-      <c r="H87" s="107"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="101"/>
+      <c r="H87" s="102"/>
     </row>
     <row r="88" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="99"/>
-      <c r="B88" s="100"/>
+      <c r="A88" s="103"/>
+      <c r="B88" s="104"/>
       <c r="C88" s="60"/>
       <c r="D88" s="14"/>
       <c r="E88" s="56"/>
@@ -12674,8 +12683,8 @@
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="101"/>
-      <c r="B89" s="102"/>
+      <c r="A89" s="105"/>
+      <c r="B89" s="106"/>
       <c r="C89" s="60"/>
       <c r="D89" s="14"/>
       <c r="E89" s="56"/>
@@ -12684,8 +12693,8 @@
       <c r="H89" s="14"/>
     </row>
     <row r="90" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="101"/>
-      <c r="B90" s="102"/>
+      <c r="A90" s="105"/>
+      <c r="B90" s="106"/>
       <c r="C90" s="56"/>
       <c r="D90" s="14"/>
       <c r="E90" s="56"/>
@@ -12694,8 +12703,8 @@
       <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="101"/>
-      <c r="B91" s="102"/>
+      <c r="A91" s="105"/>
+      <c r="B91" s="106"/>
       <c r="C91" s="56"/>
       <c r="D91" s="14"/>
       <c r="E91" s="56"/>
@@ -12704,8 +12713,8 @@
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="101"/>
-      <c r="B92" s="102"/>
+      <c r="A92" s="105"/>
+      <c r="B92" s="106"/>
       <c r="C92" s="56"/>
       <c r="D92" s="14"/>
       <c r="E92" s="56"/>
@@ -12714,8 +12723,8 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="101"/>
-      <c r="B93" s="102"/>
+      <c r="A93" s="105"/>
+      <c r="B93" s="106"/>
       <c r="C93" s="56"/>
       <c r="D93" s="14"/>
       <c r="E93" s="56"/>
@@ -12724,8 +12733,8 @@
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="103"/>
-      <c r="B94" s="104"/>
+      <c r="A94" s="107"/>
+      <c r="B94" s="108"/>
       <c r="C94" s="55"/>
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
@@ -12738,13 +12747,13 @@
       <c r="B95" s="56"/>
       <c r="D95" s="15"/>
       <c r="E95" s="56"/>
-      <c r="F95" s="105"/>
-      <c r="G95" s="106"/>
-      <c r="H95" s="107"/>
+      <c r="F95" s="100"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="102"/>
     </row>
     <row r="96" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="99"/>
-      <c r="B96" s="100"/>
+      <c r="A96" s="103"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="56"/>
       <c r="D96" s="14"/>
       <c r="E96" s="56"/>
@@ -12753,8 +12762,8 @@
       <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="101"/>
-      <c r="B97" s="102"/>
+      <c r="A97" s="105"/>
+      <c r="B97" s="106"/>
       <c r="C97" s="56"/>
       <c r="D97" s="14"/>
       <c r="E97" s="56"/>
@@ -12763,8 +12772,8 @@
       <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="101"/>
-      <c r="B98" s="102"/>
+      <c r="A98" s="105"/>
+      <c r="B98" s="106"/>
       <c r="C98" s="56"/>
       <c r="D98" s="14"/>
       <c r="E98" s="56"/>
@@ -12773,8 +12782,8 @@
       <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="101"/>
-      <c r="B99" s="102"/>
+      <c r="A99" s="105"/>
+      <c r="B99" s="106"/>
       <c r="C99" s="56"/>
       <c r="D99" s="14"/>
       <c r="E99" s="56"/>
@@ -12783,8 +12792,8 @@
       <c r="H99" s="14"/>
     </row>
     <row r="100" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="101"/>
-      <c r="B100" s="102"/>
+      <c r="A100" s="105"/>
+      <c r="B100" s="106"/>
       <c r="C100" s="56"/>
       <c r="D100" s="14"/>
       <c r="E100" s="56"/>
@@ -12793,8 +12802,8 @@
       <c r="H100" s="14"/>
     </row>
     <row r="101" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="101"/>
-      <c r="B101" s="102"/>
+      <c r="A101" s="105"/>
+      <c r="B101" s="106"/>
       <c r="C101" s="56"/>
       <c r="D101" s="14"/>
       <c r="E101" s="56"/>
@@ -12803,8 +12812,8 @@
       <c r="H101" s="14"/>
     </row>
     <row r="102" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="103"/>
-      <c r="B102" s="104"/>
+      <c r="A102" s="107"/>
+      <c r="B102" s="108"/>
       <c r="C102" s="55"/>
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
@@ -12817,13 +12826,13 @@
       <c r="B103" s="56"/>
       <c r="D103" s="15"/>
       <c r="E103" s="56"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="106"/>
-      <c r="H103" s="107"/>
+      <c r="F103" s="100"/>
+      <c r="G103" s="101"/>
+      <c r="H103" s="102"/>
     </row>
     <row r="104" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="99"/>
-      <c r="B104" s="100"/>
+      <c r="A104" s="103"/>
+      <c r="B104" s="104"/>
       <c r="C104" s="56"/>
       <c r="D104" s="14"/>
       <c r="E104" s="56"/>
@@ -12832,8 +12841,8 @@
       <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="101"/>
-      <c r="B105" s="102"/>
+      <c r="A105" s="105"/>
+      <c r="B105" s="106"/>
       <c r="C105" s="56"/>
       <c r="D105" s="14"/>
       <c r="E105" s="56"/>
@@ -12842,8 +12851,8 @@
       <c r="H105" s="14"/>
     </row>
     <row r="106" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="101"/>
-      <c r="B106" s="102"/>
+      <c r="A106" s="105"/>
+      <c r="B106" s="106"/>
       <c r="C106" s="56"/>
       <c r="D106" s="14"/>
       <c r="E106" s="56"/>
@@ -12852,8 +12861,8 @@
       <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="101"/>
-      <c r="B107" s="102"/>
+      <c r="A107" s="105"/>
+      <c r="B107" s="106"/>
       <c r="C107" s="56"/>
       <c r="D107" s="14"/>
       <c r="E107" s="56"/>
@@ -12862,8 +12871,8 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="101"/>
-      <c r="B108" s="102"/>
+      <c r="A108" s="105"/>
+      <c r="B108" s="106"/>
       <c r="C108" s="56"/>
       <c r="D108" s="14"/>
       <c r="E108" s="56"/>
@@ -12872,8 +12881,8 @@
       <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="101"/>
-      <c r="B109" s="102"/>
+      <c r="A109" s="105"/>
+      <c r="B109" s="106"/>
       <c r="C109" s="56"/>
       <c r="D109" s="14"/>
       <c r="E109" s="56"/>
@@ -12882,8 +12891,8 @@
       <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="103"/>
-      <c r="B110" s="104"/>
+      <c r="A110" s="107"/>
+      <c r="B110" s="108"/>
       <c r="C110" s="55"/>
       <c r="D110" s="55"/>
       <c r="E110" s="55"/>
@@ -12893,12 +12902,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A1:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="A96:B102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A104:B110"/>
+    <mergeCell ref="A72:B78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A80:B86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A88:B94"/>
+    <mergeCell ref="F95:H95"/>
     <mergeCell ref="F71:H71"/>
     <mergeCell ref="A24:B30"/>
     <mergeCell ref="F31:H31"/>
@@ -12911,15 +12923,12 @@
     <mergeCell ref="A56:B62"/>
     <mergeCell ref="F63:H63"/>
     <mergeCell ref="A64:B70"/>
-    <mergeCell ref="A96:B102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="A104:B110"/>
-    <mergeCell ref="A72:B78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A80:B86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="A88:B94"/>
-    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A1:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C9225-B87A-4E9C-8885-4F840B20CE3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C30CEEF-9766-40AB-8280-D285025C50DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="348">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2856,6 +2856,9 @@
   </si>
   <si>
     <t>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</t>
+  </si>
+  <si>
+    <t>Consumir los servicios realiados y direccionar en movil</t>
   </si>
 </sst>
 </file>
@@ -2944,7 +2947,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3058,6 +3061,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3164,7 +3173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3341,11 +3350,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3354,9 +3375,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3368,6 +3386,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3377,22 +3404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3713,7 +3725,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3726,11 +3738,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="95.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3825,8 +3837,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A29" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3843,61 +3855,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -3941,14 +3953,14 @@
       <c r="D7" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="66" t="s">
         <v>328</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="49">
         <v>1</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="62" t="s">
         <v>133</v>
       </c>
       <c r="I7" s="1" t="str">
@@ -3960,7 +3972,7 @@
       <c r="A8" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3969,23 +3981,26 @@
       <c r="D8" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="66" t="s">
         <v>328</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="49">
         <v>1</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="1" t="str">
+        <f>_xlfn.CONCAT('SB1'!G16:G20)</f>
+        <v>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3994,14 +4009,14 @@
       <c r="D9" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="52">
         <v>2</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I9" s="51" t="s">
@@ -4028,7 +4043,7 @@
       <c r="G10" s="54">
         <v>3</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I10" s="51" t="s">
@@ -4055,16 +4070,16 @@
       <c r="G11" s="56">
         <v>4</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="62" t="s">
         <v>138</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4073,14 +4088,14 @@
       <c r="D12" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="82" t="s">
         <v>111</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="52">
         <v>2</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="62" t="s">
         <v>138</v>
       </c>
       <c r="I12" s="1"/>
@@ -4105,16 +4120,16 @@
       <c r="G13" s="54">
         <v>3</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="54" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4123,14 +4138,14 @@
       <c r="D14" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>111</v>
+      <c r="E14" s="66" t="s">
+        <v>328</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="52">
         <v>2</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I14" s="1"/>
@@ -4155,7 +4170,7 @@
       <c r="G15" s="54">
         <v>3</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -4182,18 +4197,18 @@
       <c r="G16" s="54">
         <v>3</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="54" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -4202,14 +4217,14 @@
       <c r="D17" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="82" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="52">
         <v>2</v>
       </c>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="62" t="s">
         <v>138</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -4236,7 +4251,7 @@
       <c r="G18" s="55">
         <v>3</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -4263,7 +4278,7 @@
       <c r="G19" s="55">
         <v>3</v>
       </c>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -4290,7 +4305,7 @@
       <c r="G20" s="55">
         <v>3</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I20" s="1"/>
@@ -4315,7 +4330,7 @@
       <c r="G21" s="55">
         <v>3</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I21" s="1"/>
@@ -4340,7 +4355,7 @@
       <c r="G22" s="59">
         <v>5</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="H22" s="62" t="s">
         <v>138</v>
       </c>
       <c r="I22" s="58" t="s">
@@ -4367,7 +4382,7 @@
       <c r="G23" s="59">
         <v>5</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="62" t="s">
         <v>138</v>
       </c>
       <c r="I23" s="1"/>
@@ -4376,7 +4391,7 @@
       <c r="A24" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="54" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4385,14 +4400,14 @@
       <c r="D24" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="63" t="s">
-        <v>328</v>
+      <c r="E24" s="65" t="s">
+        <v>329</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="50">
         <v>1</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="62" t="s">
         <v>138</v>
       </c>
       <c r="I24" s="1"/>
@@ -4401,7 +4416,7 @@
       <c r="A25" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4410,14 +4425,14 @@
       <c r="D25" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>328</v>
+      <c r="E25" s="65" t="s">
+        <v>329</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="50">
         <v>1</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="62" t="s">
         <v>138</v>
       </c>
       <c r="I25" s="1"/>
@@ -4468,11 +4483,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="54" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -4481,25 +4496,25 @@
       <c r="D28" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="66" t="s">
         <v>328</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="52">
         <v>2</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="54" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -4508,14 +4523,14 @@
       <c r="D29" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="66" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="52">
         <v>2</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I29" s="1"/>
@@ -4524,7 +4539,7 @@
       <c r="A30" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -4533,14 +4548,14 @@
       <c r="D30" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="66" t="s">
         <v>328</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="50">
         <v>1</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -4551,7 +4566,7 @@
       <c r="A31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -4560,25 +4575,25 @@
       <c r="D31" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="65" t="s">
         <v>329</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="50">
         <v>1</v>
       </c>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -4587,14 +4602,14 @@
       <c r="D32" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E32" s="65" t="s">
         <v>329</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="53">
         <v>2</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I32" s="51" t="s">
@@ -4621,18 +4636,18 @@
       <c r="G33" s="59">
         <v>5</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I33" s="51" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -4641,14 +4656,14 @@
       <c r="D34" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="53">
         <v>2</v>
       </c>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I34" s="51" t="s">
@@ -4675,16 +4690,16 @@
       <c r="G35" s="55">
         <v>3</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="54" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -4693,25 +4708,25 @@
       <c r="D36" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="53">
         <v>2</v>
       </c>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I36" s="51" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="54" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -4720,23 +4735,23 @@
       <c r="D37" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="53">
         <v>2</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="62" t="s">
         <v>138</v>
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="54" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -4745,14 +4760,14 @@
       <c r="D38" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="66" t="s">
         <v>328</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="53">
         <v>2</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="62" t="s">
         <v>149</v>
       </c>
       <c r="I38" s="1"/>
@@ -4777,7 +4792,7 @@
       <c r="G39" s="59">
         <v>5</v>
       </c>
-      <c r="H39" s="63" t="s">
+      <c r="H39" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I39" s="58" t="s">
@@ -4804,7 +4819,7 @@
       <c r="G40" s="60">
         <v>6</v>
       </c>
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I40" s="1"/>
@@ -4829,7 +4844,7 @@
       <c r="G41" s="55">
         <v>3</v>
       </c>
-      <c r="H41" s="63" t="s">
+      <c r="H41" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I41" s="51" t="s">
@@ -4856,7 +4871,7 @@
       <c r="G42" s="55">
         <v>3</v>
       </c>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I42" s="1"/>
@@ -4881,7 +4896,7 @@
       <c r="G43" s="55">
         <v>3</v>
       </c>
-      <c r="H43" s="63" t="s">
+      <c r="H43" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="1"/>
@@ -4906,7 +4921,7 @@
       <c r="G44" s="60">
         <v>6</v>
       </c>
-      <c r="H44" s="63" t="s">
+      <c r="H44" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I44" s="1"/>
@@ -4931,7 +4946,7 @@
       <c r="G45" s="57">
         <v>4</v>
       </c>
-      <c r="H45" s="63" t="s">
+      <c r="H45" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I45" s="1"/>
@@ -4956,7 +4971,7 @@
       <c r="G46" s="57">
         <v>4</v>
       </c>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -4983,7 +4998,7 @@
       <c r="G47" s="57">
         <v>4</v>
       </c>
-      <c r="H47" s="63" t="s">
+      <c r="H47" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I47" s="1"/>
@@ -5008,7 +5023,7 @@
       <c r="G48" s="59">
         <v>5</v>
       </c>
-      <c r="H48" s="63" t="s">
+      <c r="H48" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I48" s="1"/>
@@ -5033,7 +5048,7 @@
       <c r="G49" s="59">
         <v>5</v>
       </c>
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I49" s="1"/>
@@ -5058,7 +5073,7 @@
       <c r="G50" s="59">
         <v>5</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I50" s="1"/>
@@ -5083,7 +5098,7 @@
       <c r="G51" s="59">
         <v>5</v>
       </c>
-      <c r="H51" s="63" t="s">
+      <c r="H51" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I51" s="1"/>
@@ -5108,7 +5123,7 @@
       <c r="G52" s="59">
         <v>5</v>
       </c>
-      <c r="H52" s="63" t="s">
+      <c r="H52" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I52" s="1"/>
@@ -5133,7 +5148,7 @@
       <c r="G53" s="59">
         <v>6</v>
       </c>
-      <c r="H53" s="63" t="s">
+      <c r="H53" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I53" s="1"/>
@@ -5158,7 +5173,7 @@
       <c r="G54" s="59">
         <v>6</v>
       </c>
-      <c r="H54" s="63" t="s">
+      <c r="H54" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I54" s="1"/>
@@ -5183,7 +5198,7 @@
       <c r="G55" s="59">
         <v>6</v>
       </c>
-      <c r="H55" s="63" t="s">
+      <c r="H55" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I55" s="1"/>
@@ -5203,8 +5218,8 @@
         <v>111</v>
       </c>
       <c r="F56" s="29"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="63" t="s">
+      <c r="G56" s="64"/>
+      <c r="H56" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -5231,7 +5246,7 @@
       <c r="G57" s="55">
         <v>3</v>
       </c>
-      <c r="H57" s="63" t="s">
+      <c r="H57" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I57" s="1"/>
@@ -5240,7 +5255,7 @@
       <c r="A58" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="54" t="s">
         <v>343</v>
       </c>
       <c r="C58" s="20" t="s">
@@ -5249,14 +5264,14 @@
       <c r="D58" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E58" s="80" t="s">
+      <c r="E58" s="65" t="s">
         <v>329</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="50">
         <v>1</v>
       </c>
-      <c r="H58" s="63" t="s">
+      <c r="H58" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I58" s="1"/>
@@ -5265,7 +5280,7 @@
       <c r="A59" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="54" t="s">
         <v>345</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -5274,14 +5289,14 @@
       <c r="D59" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E59" s="63" t="s">
+      <c r="E59" s="66" t="s">
         <v>328</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="50">
         <v>1</v>
       </c>
-      <c r="H59" s="63" t="s">
+      <c r="H59" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I59" s="1"/>
@@ -5300,6 +5315,7 @@
     <filterColumn colId="6">
       <filters>
         <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5316,8 +5332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5331,51 +5347,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -5414,14 +5430,14 @@
       <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E8" s="35" t="s">
@@ -5431,14 +5447,14 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -5448,14 +5464,14 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="66" t="s">
         <v>328</v>
       </c>
       <c r="E10" s="35" t="s">
@@ -5465,14 +5481,14 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="66" t="s">
         <v>328</v>
       </c>
       <c r="E11" s="35" t="s">
@@ -5484,7 +5500,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -5493,7 +5509,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -5502,7 +5518,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
@@ -5522,25 +5538,27 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+    <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="70"/>
       <c r="B16" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="66" t="s">
         <v>328</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>295</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="22"/>
       <c r="C17" s="1"/>
       <c r="D17" s="22"/>
@@ -5549,7 +5567,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -5558,7 +5576,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -5567,7 +5585,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -5576,7 +5594,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -5585,7 +5603,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
       <c r="D22" s="10"/>
@@ -5606,15 +5624,15 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="66"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="62" t="s">
-        <v>328</v>
+      <c r="D24" s="65" t="s">
+        <v>329</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>297</v>
@@ -5623,7 +5641,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="22"/>
       <c r="C25" s="1"/>
       <c r="D25" s="22"/>
@@ -5632,7 +5650,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="67"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="22"/>
       <c r="C26" s="1"/>
       <c r="D26" s="22"/>
@@ -5641,7 +5659,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -5650,7 +5668,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -5659,7 +5677,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -5668,7 +5686,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="68"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="10"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10"/>
@@ -5689,14 +5707,14 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E32" s="35" t="s">
@@ -5706,7 +5724,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="35"/>
       <c r="C33" s="1"/>
       <c r="D33" s="35"/>
@@ -5715,7 +5733,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="67"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="35"/>
       <c r="C34" s="1"/>
       <c r="D34" s="35"/>
@@ -5724,7 +5742,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="67"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="35"/>
       <c r="C35" s="1"/>
       <c r="D35" s="35"/>
@@ -5733,7 +5751,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="67"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="35"/>
       <c r="C36" s="1"/>
       <c r="D36" s="35"/>
@@ -5742,7 +5760,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="67"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="35"/>
       <c r="C37" s="1"/>
       <c r="D37" s="35"/>
@@ -5751,7 +5769,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="10"/>
       <c r="C38" s="20"/>
       <c r="D38" s="10"/>
@@ -5773,14 +5791,14 @@
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="66"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="81" t="s">
+      <c r="D40" s="66" t="s">
         <v>330</v>
       </c>
       <c r="E40" s="35" t="s">
@@ -5790,14 +5808,14 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="67"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="82" t="s">
         <v>111</v>
       </c>
       <c r="E41" s="35" t="s">
@@ -5807,7 +5825,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
@@ -5816,7 +5834,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="67"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1"/>
       <c r="D43" s="6"/>
@@ -5825,7 +5843,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="67"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="6"/>
       <c r="C44" s="1"/>
       <c r="D44" s="6"/>
@@ -5834,7 +5852,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="67"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="6"/>
       <c r="C45" s="1"/>
       <c r="D45" s="6"/>
@@ -5843,7 +5861,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="68"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="10"/>
       <c r="C46" s="20"/>
       <c r="D46" s="10"/>
@@ -5864,14 +5882,14 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="66"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E48" s="35" t="s">
@@ -5881,7 +5899,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="67"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="35"/>
       <c r="C49" s="1"/>
       <c r="D49" s="35"/>
@@ -5890,7 +5908,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="67"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="35"/>
       <c r="C50" s="1"/>
       <c r="D50" s="35"/>
@@ -5899,7 +5917,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="67"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="35"/>
       <c r="C51" s="1"/>
       <c r="D51" s="35"/>
@@ -5908,7 +5926,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="68"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="10"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10"/>
@@ -5930,14 +5948,14 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="66"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="48" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D54" s="80" t="s">
+      <c r="D54" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E54" s="48" t="s">
@@ -5947,14 +5965,14 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="67"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D55" s="80" t="s">
+      <c r="D55" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E55" s="48" t="s">
@@ -5964,14 +5982,14 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="67"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D56" s="80" t="s">
+      <c r="D56" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E56" s="48" t="s">
@@ -5981,7 +5999,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="67"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="35"/>
       <c r="C57" s="1"/>
       <c r="D57" s="35"/>
@@ -5990,7 +6008,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="67"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="35"/>
       <c r="C58" s="1"/>
       <c r="D58" s="35"/>
@@ -5999,7 +6017,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="67"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="35"/>
       <c r="C59" s="1"/>
       <c r="D59" s="35"/>
@@ -6008,7 +6026,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="68"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="10"/>
       <c r="C60" s="20"/>
       <c r="D60" s="10"/>
@@ -6030,15 +6048,15 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="66"/>
+      <c r="A62" s="70"/>
       <c r="B62" s="48" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D62" s="62" t="s">
-        <v>329</v>
+      <c r="D62" s="66" t="s">
+        <v>330</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>299</v>
@@ -6047,15 +6065,15 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="67"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D63" s="62" t="s">
-        <v>329</v>
+      <c r="D63" s="66" t="s">
+        <v>330</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>299</v>
@@ -6064,15 +6082,15 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="67"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D64" s="62" t="s">
-        <v>329</v>
+      <c r="D64" s="66" t="s">
+        <v>330</v>
       </c>
       <c r="E64" s="48" t="s">
         <v>299</v>
@@ -6081,7 +6099,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="67"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="35"/>
       <c r="C65" s="1"/>
       <c r="D65" s="35"/>
@@ -6090,7 +6108,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="67"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="35"/>
       <c r="C66" s="1"/>
       <c r="D66" s="35"/>
@@ -6099,7 +6117,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="67"/>
+      <c r="A67" s="71"/>
       <c r="B67" s="35"/>
       <c r="C67" s="1"/>
       <c r="D67" s="35"/>
@@ -6108,7 +6126,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="68"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="10"/>
       <c r="C68" s="20"/>
       <c r="D68" s="10"/>
@@ -6126,7 +6144,7 @@
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="66"/>
+      <c r="A70" s="70"/>
       <c r="B70" s="35"/>
       <c r="C70" s="1"/>
       <c r="D70" s="35"/>
@@ -6135,7 +6153,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="67"/>
+      <c r="A71" s="71"/>
       <c r="B71" s="35"/>
       <c r="C71" s="1"/>
       <c r="D71" s="35"/>
@@ -6144,7 +6162,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="67"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="35"/>
       <c r="C72" s="1"/>
       <c r="D72" s="35"/>
@@ -6153,7 +6171,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="67"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="35"/>
       <c r="C73" s="1"/>
       <c r="D73" s="35"/>
@@ -6162,7 +6180,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="67"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="35"/>
       <c r="C74" s="1"/>
       <c r="D74" s="35"/>
@@ -6171,7 +6189,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="67"/>
+      <c r="A75" s="71"/>
       <c r="B75" s="35"/>
       <c r="C75" s="1"/>
       <c r="D75" s="35"/>
@@ -6180,7 +6198,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="68"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="10"/>
       <c r="C76" s="20"/>
       <c r="D76" s="10"/>
@@ -6197,7 +6215,7 @@
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="66"/>
+      <c r="A78" s="70"/>
       <c r="B78" s="35"/>
       <c r="C78" s="1"/>
       <c r="D78" s="35"/>
@@ -6206,7 +6224,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="67"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="35"/>
       <c r="C79" s="1"/>
       <c r="D79" s="35"/>
@@ -6215,7 +6233,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="67"/>
+      <c r="A80" s="71"/>
       <c r="B80" s="35"/>
       <c r="C80" s="1"/>
       <c r="D80" s="35"/>
@@ -6224,7 +6242,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="67"/>
+      <c r="A81" s="71"/>
       <c r="B81" s="35"/>
       <c r="C81" s="1"/>
       <c r="D81" s="35"/>
@@ -6233,7 +6251,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="67"/>
+      <c r="A82" s="71"/>
       <c r="B82" s="35"/>
       <c r="C82" s="1"/>
       <c r="D82" s="35"/>
@@ -6242,7 +6260,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="67"/>
+      <c r="A83" s="71"/>
       <c r="B83" s="35"/>
       <c r="C83" s="1"/>
       <c r="D83" s="35"/>
@@ -6251,7 +6269,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="68"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="10"/>
       <c r="C84" s="20"/>
       <c r="D84" s="10"/>
@@ -6268,7 +6286,7 @@
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="66"/>
+      <c r="A86" s="70"/>
       <c r="B86" s="35"/>
       <c r="C86" s="1"/>
       <c r="D86" s="35"/>
@@ -6277,7 +6295,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="67"/>
+      <c r="A87" s="71"/>
       <c r="B87" s="35"/>
       <c r="C87" s="1"/>
       <c r="D87" s="35"/>
@@ -6286,7 +6304,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="67"/>
+      <c r="A88" s="71"/>
       <c r="B88" s="35"/>
       <c r="C88" s="1"/>
       <c r="D88" s="35"/>
@@ -6295,7 +6313,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="67"/>
+      <c r="A89" s="71"/>
       <c r="B89" s="35"/>
       <c r="C89" s="1"/>
       <c r="D89" s="35"/>
@@ -6304,7 +6322,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="67"/>
+      <c r="A90" s="71"/>
       <c r="B90" s="35"/>
       <c r="C90" s="1"/>
       <c r="D90" s="35"/>
@@ -6313,7 +6331,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="67"/>
+      <c r="A91" s="71"/>
       <c r="B91" s="35"/>
       <c r="C91" s="1"/>
       <c r="D91" s="35"/>
@@ -6322,7 +6340,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="68"/>
+      <c r="A92" s="72"/>
       <c r="B92" s="10"/>
       <c r="C92" s="20"/>
       <c r="D92" s="10"/>
@@ -6339,7 +6357,7 @@
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="66"/>
+      <c r="A94" s="70"/>
       <c r="B94" s="35"/>
       <c r="C94" s="1"/>
       <c r="D94" s="35"/>
@@ -6348,7 +6366,7 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="67"/>
+      <c r="A95" s="71"/>
       <c r="B95" s="35"/>
       <c r="C95" s="1"/>
       <c r="D95" s="35"/>
@@ -6357,7 +6375,7 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="67"/>
+      <c r="A96" s="71"/>
       <c r="B96" s="35"/>
       <c r="C96" s="1"/>
       <c r="D96" s="35"/>
@@ -6366,7 +6384,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="67"/>
+      <c r="A97" s="71"/>
       <c r="B97" s="35"/>
       <c r="C97" s="1"/>
       <c r="D97" s="35"/>
@@ -6375,7 +6393,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="67"/>
+      <c r="A98" s="71"/>
       <c r="B98" s="35"/>
       <c r="C98" s="1"/>
       <c r="D98" s="35"/>
@@ -6384,7 +6402,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="67"/>
+      <c r="A99" s="71"/>
       <c r="B99" s="35"/>
       <c r="C99" s="1"/>
       <c r="D99" s="35"/>
@@ -6393,7 +6411,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="68"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="10"/>
       <c r="C100" s="20"/>
       <c r="D100" s="10"/>
@@ -6411,7 +6429,7 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="66"/>
+      <c r="A102" s="70"/>
       <c r="B102" s="35"/>
       <c r="C102" s="1"/>
       <c r="D102" s="35"/>
@@ -6420,7 +6438,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="67"/>
+      <c r="A103" s="71"/>
       <c r="B103" s="35"/>
       <c r="C103" s="1"/>
       <c r="D103" s="35"/>
@@ -6429,7 +6447,7 @@
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="67"/>
+      <c r="A104" s="71"/>
       <c r="B104" s="35"/>
       <c r="C104" s="1"/>
       <c r="D104" s="35"/>
@@ -6438,7 +6456,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="67"/>
+      <c r="A105" s="71"/>
       <c r="B105" s="35"/>
       <c r="C105" s="1"/>
       <c r="D105" s="35"/>
@@ -6447,7 +6465,7 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="67"/>
+      <c r="A106" s="71"/>
       <c r="B106" s="35"/>
       <c r="C106" s="1"/>
       <c r="D106" s="35"/>
@@ -6456,7 +6474,7 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="67"/>
+      <c r="A107" s="71"/>
       <c r="B107" s="35"/>
       <c r="C107" s="1"/>
       <c r="D107" s="35"/>
@@ -6465,7 +6483,7 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="68"/>
+      <c r="A108" s="72"/>
       <c r="B108" s="10"/>
       <c r="C108" s="20"/>
       <c r="D108" s="10"/>
@@ -6483,7 +6501,7 @@
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="66"/>
+      <c r="A110" s="70"/>
       <c r="B110" s="35"/>
       <c r="C110" s="1"/>
       <c r="D110" s="35"/>
@@ -6492,7 +6510,7 @@
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="67"/>
+      <c r="A111" s="71"/>
       <c r="B111" s="35"/>
       <c r="C111" s="1"/>
       <c r="D111" s="35"/>
@@ -6501,7 +6519,7 @@
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="67"/>
+      <c r="A112" s="71"/>
       <c r="B112" s="35"/>
       <c r="C112" s="1"/>
       <c r="D112" s="35"/>
@@ -6510,7 +6528,7 @@
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="67"/>
+      <c r="A113" s="71"/>
       <c r="B113" s="35"/>
       <c r="C113" s="1"/>
       <c r="D113" s="35"/>
@@ -6519,7 +6537,7 @@
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="67"/>
+      <c r="A114" s="71"/>
       <c r="B114" s="35"/>
       <c r="C114" s="1"/>
       <c r="D114" s="35"/>
@@ -6528,7 +6546,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="67"/>
+      <c r="A115" s="71"/>
       <c r="B115" s="35"/>
       <c r="C115" s="1"/>
       <c r="D115" s="35"/>
@@ -6537,7 +6555,7 @@
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="68"/>
+      <c r="A116" s="72"/>
       <c r="B116" s="10"/>
       <c r="C116" s="20"/>
       <c r="D116" s="10"/>
@@ -6555,7 +6573,7 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="66"/>
+      <c r="A118" s="70"/>
       <c r="B118" s="35"/>
       <c r="C118" s="1"/>
       <c r="D118" s="35"/>
@@ -6564,7 +6582,7 @@
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="67"/>
+      <c r="A119" s="71"/>
       <c r="B119" s="35"/>
       <c r="C119" s="1"/>
       <c r="D119" s="35"/>
@@ -6573,7 +6591,7 @@
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="67"/>
+      <c r="A120" s="71"/>
       <c r="B120" s="35"/>
       <c r="C120" s="1"/>
       <c r="D120" s="35"/>
@@ -6582,7 +6600,7 @@
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="67"/>
+      <c r="A121" s="71"/>
       <c r="B121" s="35"/>
       <c r="C121" s="1"/>
       <c r="D121" s="35"/>
@@ -6591,7 +6609,7 @@
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="67"/>
+      <c r="A122" s="71"/>
       <c r="B122" s="35"/>
       <c r="C122" s="1"/>
       <c r="D122" s="35"/>
@@ -6600,7 +6618,7 @@
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="67"/>
+      <c r="A123" s="71"/>
       <c r="B123" s="35"/>
       <c r="C123" s="1"/>
       <c r="D123" s="35"/>
@@ -6609,7 +6627,7 @@
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="68"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="10"/>
       <c r="C124" s="20"/>
       <c r="D124" s="10"/>
@@ -6627,7 +6645,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="66"/>
+      <c r="A126" s="70"/>
       <c r="B126" s="35"/>
       <c r="C126" s="1"/>
       <c r="D126" s="35"/>
@@ -6636,7 +6654,7 @@
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="67"/>
+      <c r="A127" s="71"/>
       <c r="B127" s="35"/>
       <c r="C127" s="1"/>
       <c r="D127" s="35"/>
@@ -6645,7 +6663,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="67"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="35"/>
       <c r="C128" s="1"/>
       <c r="D128" s="35"/>
@@ -6654,7 +6672,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="67"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="35"/>
       <c r="C129" s="1"/>
       <c r="D129" s="35"/>
@@ -6663,7 +6681,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="67"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="35"/>
       <c r="C130" s="1"/>
       <c r="D130" s="35"/>
@@ -6672,7 +6690,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="67"/>
+      <c r="A131" s="71"/>
       <c r="B131" s="35"/>
       <c r="C131" s="1"/>
       <c r="D131" s="35"/>
@@ -6681,7 +6699,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="68"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="10"/>
       <c r="C132" s="20"/>
       <c r="D132" s="10"/>
@@ -6691,16 +6709,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A118:A124"/>
     <mergeCell ref="A126:A132"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A70:A76"/>
@@ -6709,6 +6717,16 @@
     <mergeCell ref="A94:A100"/>
     <mergeCell ref="A102:A108"/>
     <mergeCell ref="A110:A116"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A24:A30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6719,8 +6737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6734,51 +6752,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -6817,14 +6835,14 @@
       <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="35" t="s">
@@ -6834,14 +6852,14 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -6851,14 +6869,14 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E10" s="35" t="s">
@@ -6868,14 +6886,14 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E11" s="35" t="s">
@@ -6885,7 +6903,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="36" t="s">
         <v>189</v>
       </c>
@@ -6898,7 +6916,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="36" t="s">
         <v>190</v>
       </c>
@@ -6911,7 +6929,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
@@ -6933,14 +6951,14 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E16" s="35" t="s">
@@ -6950,14 +6968,14 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E17" s="35" t="s">
@@ -6967,14 +6985,14 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E18" s="35" t="s">
@@ -6984,14 +7002,14 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E19" s="35" t="s">
@@ -7001,14 +7019,14 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="6" t="s">
         <v>189</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="82" t="s">
         <v>111</v>
       </c>
       <c r="E20" s="35" t="s">
@@ -7018,14 +7036,14 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="82" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="35" t="s">
@@ -7035,7 +7053,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
       <c r="D22" s="10"/>
@@ -7064,7 +7082,7 @@
       <c r="C24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E24" s="35" t="s">
@@ -7081,7 +7099,7 @@
       <c r="C25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E25" s="35" t="s">
@@ -7140,14 +7158,14 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="66"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E31" s="35" t="s">
@@ -7157,14 +7175,14 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="67"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="35" t="s">
@@ -7174,7 +7192,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="6"/>
@@ -7183,7 +7201,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="67"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="6"/>
@@ -7192,7 +7210,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="68"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="10"/>
       <c r="C35" s="20"/>
       <c r="D35" s="10"/>
@@ -7214,14 +7232,14 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="66"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E37" s="35" t="s">
@@ -7231,14 +7249,14 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="67"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E38" s="35" t="s">
@@ -7248,7 +7266,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="67"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="6"/>
       <c r="C39" s="1"/>
       <c r="D39" s="6"/>
@@ -7257,7 +7275,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="67"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1"/>
       <c r="D40" s="6"/>
@@ -7266,7 +7284,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="67"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1"/>
       <c r="D41" s="6"/>
@@ -7275,7 +7293,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
@@ -7284,7 +7302,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="68"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="10"/>
       <c r="C43" s="20"/>
       <c r="D43" s="10"/>
@@ -7306,14 +7324,14 @@
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="66"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E45" s="35" t="s">
@@ -7323,14 +7341,14 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="67"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E46" s="35" t="s">
@@ -7340,7 +7358,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="67"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1"/>
       <c r="D47" s="6"/>
@@ -7349,7 +7367,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="67"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1"/>
       <c r="D48" s="6"/>
@@ -7358,7 +7376,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="67"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1"/>
       <c r="D49" s="6"/>
@@ -7367,7 +7385,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="67"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="6"/>
       <c r="C50" s="1"/>
       <c r="D50" s="6"/>
@@ -7376,7 +7394,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="68"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="10"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10"/>
@@ -7398,14 +7416,14 @@
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="66"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="81" t="s">
+      <c r="D53" s="66" t="s">
         <v>330</v>
       </c>
       <c r="E53" s="35" t="s">
@@ -7415,7 +7433,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="67"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1"/>
       <c r="D54" s="6"/>
@@ -7424,7 +7442,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="67"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1"/>
       <c r="D55" s="6"/>
@@ -7433,7 +7451,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="67"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="6"/>
       <c r="C56" s="1"/>
       <c r="D56" s="6"/>
@@ -7442,7 +7460,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="67"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1"/>
       <c r="D57" s="6"/>
@@ -7451,7 +7469,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="67"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1"/>
       <c r="D58" s="6"/>
@@ -7460,7 +7478,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="68"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="10"/>
       <c r="C59" s="20"/>
       <c r="D59" s="10"/>
@@ -7476,20 +7494,20 @@
         <v>145</v>
       </c>
       <c r="D60" s="22"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="72"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="75"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="66"/>
+      <c r="A61" s="70"/>
       <c r="B61" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="D61" s="35" t="s">
-        <v>111</v>
+      <c r="D61" s="66" t="s">
+        <v>328</v>
       </c>
       <c r="E61" s="61" t="s">
         <v>295</v>
@@ -7498,15 +7516,15 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="67"/>
+      <c r="A62" s="71"/>
       <c r="B62" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D62" s="35" t="s">
-        <v>111</v>
+      <c r="D62" s="66" t="s">
+        <v>328</v>
       </c>
       <c r="E62" s="61" t="s">
         <v>295</v>
@@ -7515,15 +7533,15 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="67"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="35" t="s">
-        <v>111</v>
+      <c r="D63" s="66" t="s">
+        <v>328</v>
       </c>
       <c r="E63" s="61" t="s">
         <v>295</v>
@@ -7532,15 +7550,15 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="67"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="35" t="s">
-        <v>111</v>
+      <c r="D64" s="66" t="s">
+        <v>328</v>
       </c>
       <c r="E64" s="61" t="s">
         <v>295</v>
@@ -7549,7 +7567,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="67"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="22"/>
       <c r="C65" s="1"/>
       <c r="D65" s="22"/>
@@ -7558,7 +7576,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="67"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="22"/>
       <c r="C66" s="1"/>
       <c r="D66" s="22"/>
@@ -7567,7 +7585,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="68"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -7587,17 +7605,23 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="66"/>
+    <row r="69" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="70"/>
       <c r="B69" s="22"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
+      <c r="C69" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" s="63" t="s">
+        <v>299</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="67"/>
+      <c r="A70" s="71"/>
       <c r="B70" s="22"/>
       <c r="C70" s="1"/>
       <c r="D70" s="22"/>
@@ -7606,7 +7630,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="67"/>
+      <c r="A71" s="71"/>
       <c r="B71" s="22"/>
       <c r="C71" s="1"/>
       <c r="D71" s="22"/>
@@ -7615,7 +7639,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="67"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="22"/>
       <c r="C72" s="1"/>
       <c r="D72" s="22"/>
@@ -7624,7 +7648,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="67"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="22"/>
       <c r="C73" s="1"/>
       <c r="D73" s="22"/>
@@ -7633,7 +7657,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="67"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="22"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -7642,7 +7666,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="68"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="10"/>
       <c r="C75" s="20"/>
       <c r="D75" s="10"/>
@@ -7658,19 +7682,19 @@
         <v>151</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="72"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="75"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="66"/>
+      <c r="A77" s="70"/>
       <c r="B77" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="82" t="s">
         <v>111</v>
       </c>
       <c r="E77" s="35" t="s">
@@ -7680,14 +7704,14 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="67"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="82" t="s">
         <v>111</v>
       </c>
       <c r="E78" s="61" t="s">
@@ -7697,7 +7721,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="67"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="22"/>
       <c r="C79" s="1"/>
       <c r="D79" s="22"/>
@@ -7706,7 +7730,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="67"/>
+      <c r="A80" s="71"/>
       <c r="B80" s="22"/>
       <c r="C80" s="1"/>
       <c r="D80" s="22"/>
@@ -7715,7 +7739,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="67"/>
+      <c r="A81" s="71"/>
       <c r="B81" s="22"/>
       <c r="C81" s="1"/>
       <c r="D81" s="22"/>
@@ -7724,7 +7748,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="67"/>
+      <c r="A82" s="71"/>
       <c r="B82" s="22"/>
       <c r="C82" s="1"/>
       <c r="D82" s="22"/>
@@ -7733,7 +7757,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="68"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -7749,19 +7773,19 @@
         <v>141</v>
       </c>
       <c r="D84" s="6"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="72"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="75"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="66"/>
+      <c r="A85" s="70"/>
       <c r="B85" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="82" t="s">
         <v>111</v>
       </c>
       <c r="E85" s="35" t="s">
@@ -7771,14 +7795,14 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="67"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="82" t="s">
         <v>111</v>
       </c>
       <c r="E86" s="35" t="s">
@@ -7788,7 +7812,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="67"/>
+      <c r="A87" s="71"/>
       <c r="B87" s="36"/>
       <c r="C87" s="1"/>
       <c r="D87" s="6"/>
@@ -7797,7 +7821,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="67"/>
+      <c r="A88" s="71"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1"/>
       <c r="D88" s="6"/>
@@ -7806,7 +7830,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="67"/>
+      <c r="A89" s="71"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1"/>
       <c r="D89" s="6"/>
@@ -7815,7 +7839,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="67"/>
+      <c r="A90" s="71"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1"/>
       <c r="D90" s="6"/>
@@ -7824,7 +7848,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="68"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -7834,6 +7858,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A69:A75"/>
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="A61:A67"/>
     <mergeCell ref="E76:G76"/>
@@ -7842,13 +7872,7 @@
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A69:A75"/>
     <mergeCell ref="A77:A83"/>
-    <mergeCell ref="A85:A91"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7875,51 +7899,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -7952,12 +7976,12 @@
         <v>136</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
@@ -7974,7 +7998,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
@@ -7991,7 +8015,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="36" t="s">
         <v>117</v>
       </c>
@@ -8008,7 +8032,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -8017,7 +8041,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -8026,7 +8050,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -8035,7 +8059,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -8051,12 +8075,12 @@
         <v>144</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
@@ -8073,7 +8097,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="27" t="s">
         <v>116</v>
       </c>
@@ -8090,7 +8114,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="27"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -8099,7 +8123,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -8108,7 +8132,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -8117,7 +8141,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -8126,7 +8150,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -8142,12 +8166,12 @@
         <v>147</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="66"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="27" t="s">
         <v>115</v>
       </c>
@@ -8164,7 +8188,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="27" t="s">
         <v>116</v>
       </c>
@@ -8181,7 +8205,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="67"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="27" t="s">
         <v>117</v>
       </c>
@@ -8198,7 +8222,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -8207,7 +8231,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -8216,7 +8240,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -8225,7 +8249,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="68"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -8241,12 +8265,12 @@
         <v>148</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="36" t="s">
         <v>115</v>
       </c>
@@ -8263,7 +8287,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="39" t="s">
         <v>116</v>
       </c>
@@ -8280,7 +8304,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="67"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="39" t="s">
         <v>117</v>
       </c>
@@ -8297,7 +8321,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="67"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="36" t="s">
         <v>118</v>
       </c>
@@ -8314,7 +8338,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="67"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -8323,7 +8347,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="67"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -8332,7 +8356,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -8348,12 +8372,12 @@
         <v>152</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="66"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="27" t="s">
         <v>115</v>
       </c>
@@ -8370,7 +8394,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="67"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="27"/>
       <c r="C41" s="1"/>
       <c r="D41" s="22"/>
@@ -8379,7 +8403,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="27"/>
       <c r="C42" s="1"/>
       <c r="D42" s="22"/>
@@ -8388,7 +8412,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="67"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="22"/>
       <c r="C43" s="1"/>
       <c r="D43" s="22"/>
@@ -8397,7 +8421,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="67"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="22"/>
@@ -8406,7 +8430,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="67"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="22"/>
@@ -8415,7 +8439,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="68"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -8431,12 +8455,12 @@
         <v>153</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="66"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="36" t="s">
         <v>115</v>
       </c>
@@ -8453,7 +8477,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="67"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="36" t="s">
         <v>116</v>
       </c>
@@ -8470,7 +8494,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="67"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="36" t="s">
         <v>117</v>
       </c>
@@ -8487,7 +8511,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="67"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="22"/>
       <c r="C51" s="1"/>
       <c r="D51" s="22"/>
@@ -8496,7 +8520,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="67"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="22"/>
       <c r="C52" s="1"/>
       <c r="D52" s="22"/>
@@ -8505,7 +8529,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="67"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="22"/>
       <c r="C53" s="1"/>
       <c r="D53" s="22"/>
@@ -8514,7 +8538,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="68"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -8530,12 +8554,12 @@
         <v>157</v>
       </c>
       <c r="D55" s="22"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="72"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
     <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="66"/>
+      <c r="A56" s="70"/>
       <c r="B56" s="27" t="s">
         <v>115</v>
       </c>
@@ -8552,7 +8576,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="67"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="27" t="s">
         <v>116</v>
       </c>
@@ -8569,7 +8593,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="67"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="27" t="s">
         <v>117</v>
       </c>
@@ -8586,7 +8610,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="67"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="22"/>
       <c r="C59" s="1"/>
       <c r="D59" s="22"/>
@@ -8595,7 +8619,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="67"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="22"/>
       <c r="C60" s="1"/>
       <c r="D60" s="22"/>
@@ -8604,7 +8628,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="67"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="22"/>
       <c r="C61" s="1"/>
       <c r="D61" s="22"/>
@@ -8613,7 +8637,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="68"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -8629,12 +8653,12 @@
         <v>156</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="72"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="75"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="66"/>
+      <c r="A64" s="70"/>
       <c r="B64" s="36" t="s">
         <v>115</v>
       </c>
@@ -8651,7 +8675,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="67"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="36" t="s">
         <v>116</v>
       </c>
@@ -8668,7 +8692,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="67"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="36" t="s">
         <v>117</v>
       </c>
@@ -8685,7 +8709,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="67"/>
+      <c r="A67" s="71"/>
       <c r="B67" s="36" t="s">
         <v>118</v>
       </c>
@@ -8702,7 +8726,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="67"/>
+      <c r="A68" s="71"/>
       <c r="B68" s="36" t="s">
         <v>189</v>
       </c>
@@ -8719,7 +8743,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="67"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1"/>
       <c r="D69" s="22"/>
@@ -8728,7 +8752,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="68"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -8744,12 +8768,12 @@
         <v>71</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="72"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="75"/>
     </row>
     <row r="72" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="66"/>
+      <c r="A72" s="70"/>
       <c r="B72" s="27" t="s">
         <v>115</v>
       </c>
@@ -8768,7 +8792,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="67"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="27"/>
       <c r="C73" s="1"/>
       <c r="D73" s="22"/>
@@ -8777,7 +8801,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="67"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="27"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -8786,7 +8810,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="67"/>
+      <c r="A75" s="71"/>
       <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="22"/>
@@ -8795,7 +8819,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="67"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="22"/>
       <c r="C76" s="1"/>
       <c r="D76" s="22"/>
@@ -8804,7 +8828,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="67"/>
+      <c r="A77" s="71"/>
       <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="22"/>
@@ -8813,7 +8837,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="68"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -8829,12 +8853,12 @@
         <v>72</v>
       </c>
       <c r="D79" s="22"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="72"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="75"/>
     </row>
     <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="66"/>
+      <c r="A80" s="70"/>
       <c r="B80" s="27" t="s">
         <v>115</v>
       </c>
@@ -8851,7 +8875,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="67"/>
+      <c r="A81" s="71"/>
       <c r="B81" s="27"/>
       <c r="C81" s="1"/>
       <c r="D81" s="22"/>
@@ -8860,7 +8884,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="67"/>
+      <c r="A82" s="71"/>
       <c r="B82" s="27"/>
       <c r="C82" s="1"/>
       <c r="D82" s="22"/>
@@ -8869,7 +8893,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="67"/>
+      <c r="A83" s="71"/>
       <c r="B83" s="22"/>
       <c r="C83" s="1"/>
       <c r="D83" s="22"/>
@@ -8878,7 +8902,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="67"/>
+      <c r="A84" s="71"/>
       <c r="B84" s="22"/>
       <c r="C84" s="1"/>
       <c r="D84" s="22"/>
@@ -8887,7 +8911,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="67"/>
+      <c r="A85" s="71"/>
       <c r="B85" s="22"/>
       <c r="C85" s="1"/>
       <c r="D85" s="22"/>
@@ -8896,7 +8920,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="68"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -8912,12 +8936,12 @@
         <v>73</v>
       </c>
       <c r="D87" s="22"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="72"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="75"/>
     </row>
     <row r="88" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="66"/>
+      <c r="A88" s="70"/>
       <c r="B88" s="27" t="s">
         <v>115</v>
       </c>
@@ -8934,7 +8958,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="67"/>
+      <c r="A89" s="71"/>
       <c r="B89" s="27" t="s">
         <v>116</v>
       </c>
@@ -8953,7 +8977,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="67"/>
+      <c r="A90" s="71"/>
       <c r="B90" s="27"/>
       <c r="C90" s="1"/>
       <c r="D90" s="22"/>
@@ -8962,7 +8986,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="67"/>
+      <c r="A91" s="71"/>
       <c r="B91" s="22"/>
       <c r="C91" s="1"/>
       <c r="D91" s="22"/>
@@ -8971,7 +8995,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="67"/>
+      <c r="A92" s="71"/>
       <c r="B92" s="22"/>
       <c r="C92" s="1"/>
       <c r="D92" s="22"/>
@@ -8980,7 +9004,7 @@
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="67"/>
+      <c r="A93" s="71"/>
       <c r="B93" s="22"/>
       <c r="C93" s="1"/>
       <c r="D93" s="22"/>
@@ -8989,7 +9013,7 @@
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="68"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -9005,12 +9029,12 @@
         <v>172</v>
       </c>
       <c r="D95" s="22"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="72"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="75"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="66"/>
+      <c r="A96" s="70"/>
       <c r="B96" s="27" t="s">
         <v>115</v>
       </c>
@@ -9027,7 +9051,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="67"/>
+      <c r="A97" s="71"/>
       <c r="B97" s="22"/>
       <c r="C97" s="1"/>
       <c r="D97" s="22"/>
@@ -9036,7 +9060,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="67"/>
+      <c r="A98" s="71"/>
       <c r="B98" s="22"/>
       <c r="C98" s="1"/>
       <c r="D98" s="22"/>
@@ -9045,7 +9069,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="67"/>
+      <c r="A99" s="71"/>
       <c r="B99" s="22"/>
       <c r="C99" s="1"/>
       <c r="D99" s="22"/>
@@ -9054,7 +9078,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="67"/>
+      <c r="A100" s="71"/>
       <c r="B100" s="22"/>
       <c r="C100" s="1"/>
       <c r="D100" s="22"/>
@@ -9063,7 +9087,7 @@
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="67"/>
+      <c r="A101" s="71"/>
       <c r="B101" s="22"/>
       <c r="C101" s="1"/>
       <c r="D101" s="22"/>
@@ -9072,7 +9096,7 @@
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="68"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -9087,75 +9111,75 @@
       <c r="C103" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="71"/>
-      <c r="G103" s="72"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="75"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="66"/>
-      <c r="B104" s="63" t="s">
+      <c r="A104" s="70"/>
+      <c r="B104" s="62" t="s">
         <v>115</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D104" s="63" t="s">
+      <c r="D104" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="E104" s="63" t="s">
+      <c r="E104" s="62" t="s">
         <v>297</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="67"/>
-      <c r="B105" s="63"/>
+      <c r="A105" s="71"/>
+      <c r="B105" s="62"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="62"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="67"/>
-      <c r="B106" s="63"/>
+      <c r="A106" s="71"/>
+      <c r="B106" s="62"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="63"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="67"/>
-      <c r="B107" s="63"/>
+      <c r="A107" s="71"/>
+      <c r="B107" s="62"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="67"/>
-      <c r="B108" s="63"/>
+      <c r="A108" s="71"/>
+      <c r="B108" s="62"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="67"/>
-      <c r="B109" s="63"/>
+      <c r="A109" s="71"/>
+      <c r="B109" s="62"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="63"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="62"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="68"/>
+      <c r="A110" s="72"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -9165,6 +9189,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A72:A78"/>
     <mergeCell ref="E103:G103"/>
     <mergeCell ref="A104:A110"/>
     <mergeCell ref="A1:G5"/>
@@ -9181,17 +9216,6 @@
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="A96:A102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9215,51 +9239,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -9298,7 +9322,7 @@
       <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
@@ -9315,7 +9339,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
@@ -9332,7 +9356,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
@@ -9341,7 +9365,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -9350,7 +9374,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -9359,7 +9383,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -9368,7 +9392,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9384,12 +9408,12 @@
         <v>75</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
@@ -9406,7 +9430,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="27" t="s">
         <v>116</v>
       </c>
@@ -9423,7 +9447,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="27" t="s">
         <v>117</v>
       </c>
@@ -9440,7 +9464,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -9449,7 +9473,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -9458,7 +9482,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -9467,7 +9491,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -9483,12 +9507,12 @@
         <v>76</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="66"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="33" t="s">
         <v>115</v>
       </c>
@@ -9505,7 +9529,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="35" t="s">
         <v>116</v>
       </c>
@@ -9522,7 +9546,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="67"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="35" t="s">
         <v>117</v>
       </c>
@@ -9539,7 +9563,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -9548,7 +9572,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -9557,7 +9581,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -9566,7 +9590,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="68"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -9582,12 +9606,12 @@
         <v>77</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="22" t="s">
         <v>115</v>
       </c>
@@ -9604,7 +9628,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="33" t="s">
         <v>116</v>
       </c>
@@ -9621,7 +9645,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="67"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="33" t="s">
         <v>117</v>
       </c>
@@ -9638,7 +9662,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="67"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="22"/>
       <c r="C35" s="1"/>
       <c r="D35" s="22"/>
@@ -9647,7 +9671,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="67"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -9656,7 +9680,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="67"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -9665,7 +9689,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -9707,51 +9731,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -9784,12 +9808,12 @@
         <v>303</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="27" t="s">
         <v>115</v>
       </c>
@@ -9807,7 +9831,7 @@
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="27" t="s">
         <v>116</v>
       </c>
@@ -9824,7 +9848,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="27"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
@@ -9833,7 +9857,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -9842,7 +9866,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -9851,7 +9875,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -9860,7 +9884,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9882,7 +9906,7 @@
       <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="36" t="s">
         <v>115</v>
       </c>
@@ -9899,7 +9923,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="36" t="s">
         <v>116</v>
       </c>
@@ -9916,7 +9940,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
@@ -9925,7 +9949,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
@@ -9934,7 +9958,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
@@ -9943,7 +9967,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
@@ -9952,7 +9976,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -9968,12 +9992,12 @@
         <v>70</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="66"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="31" t="s">
         <v>115</v>
       </c>
@@ -9990,7 +10014,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="31" t="s">
         <v>116</v>
       </c>
@@ -10007,7 +10031,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="67"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="31" t="s">
         <v>117</v>
       </c>
@@ -10024,7 +10048,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="22" t="s">
         <v>118</v>
       </c>
@@ -10041,7 +10065,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -10050,7 +10074,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -10059,7 +10083,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="68"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10075,12 +10099,12 @@
         <v>78</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="31" t="s">
         <v>115</v>
       </c>
@@ -10097,7 +10121,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="31" t="s">
         <v>116</v>
       </c>
@@ -10114,7 +10138,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="67"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="31" t="s">
         <v>117</v>
       </c>
@@ -10131,7 +10155,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="67"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="22" t="s">
         <v>118</v>
       </c>
@@ -10148,7 +10172,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="67"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -10157,7 +10181,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="67"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -10166,7 +10190,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -10182,12 +10206,12 @@
         <v>79</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="66"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="33" t="s">
         <v>115</v>
       </c>
@@ -10204,7 +10228,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="67"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="33" t="s">
         <v>116</v>
       </c>
@@ -10221,7 +10245,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="33"/>
       <c r="C42" s="1"/>
       <c r="D42" s="22"/>
@@ -10230,7 +10254,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="67"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="33"/>
       <c r="C43" s="1"/>
       <c r="D43" s="22"/>
@@ -10239,7 +10263,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="67"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="22"/>
@@ -10248,7 +10272,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="67"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="22"/>
@@ -10257,7 +10281,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="68"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -10273,12 +10297,12 @@
         <v>80</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="66"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="33" t="s">
         <v>115</v>
       </c>
@@ -10295,7 +10319,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="67"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="33" t="s">
         <v>116</v>
       </c>
@@ -10312,7 +10336,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="67"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="33"/>
       <c r="C50" s="1"/>
       <c r="D50" s="22"/>
@@ -10321,7 +10345,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="67"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="33"/>
       <c r="C51" s="1"/>
       <c r="D51" s="22"/>
@@ -10330,7 +10354,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="67"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="22"/>
       <c r="C52" s="1"/>
       <c r="D52" s="22"/>
@@ -10339,7 +10363,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="67"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="22"/>
       <c r="C53" s="1"/>
       <c r="D53" s="22"/>
@@ -10348,7 +10372,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="68"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -10364,12 +10388,12 @@
         <v>81</v>
       </c>
       <c r="D55" s="22"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="72"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="66"/>
+      <c r="A56" s="70"/>
       <c r="B56" s="39" t="s">
         <v>115</v>
       </c>
@@ -10386,7 +10410,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="67"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="39" t="s">
         <v>116</v>
       </c>
@@ -10403,7 +10427,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="67"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="39" t="s">
         <v>117</v>
       </c>
@@ -10420,7 +10444,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="67"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="33"/>
       <c r="C59" s="1"/>
       <c r="D59" s="22"/>
@@ -10429,7 +10453,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="67"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="22"/>
       <c r="C60" s="1"/>
       <c r="D60" s="22"/>
@@ -10438,7 +10462,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="67"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="22"/>
       <c r="C61" s="1"/>
       <c r="D61" s="22"/>
@@ -10447,7 +10471,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="68"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -10463,12 +10487,12 @@
         <v>82</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="72"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="75"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="66"/>
+      <c r="A64" s="70"/>
       <c r="B64" s="33" t="s">
         <v>115</v>
       </c>
@@ -10485,7 +10509,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="67"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="33" t="s">
         <v>116</v>
       </c>
@@ -10502,7 +10526,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="67"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="33"/>
       <c r="C66" s="1"/>
       <c r="D66" s="22"/>
@@ -10511,7 +10535,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="67"/>
+      <c r="A67" s="71"/>
       <c r="B67" s="33"/>
       <c r="C67" s="1"/>
       <c r="D67" s="22"/>
@@ -10520,7 +10544,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="67"/>
+      <c r="A68" s="71"/>
       <c r="B68" s="22"/>
       <c r="C68" s="1"/>
       <c r="D68" s="22"/>
@@ -10529,7 +10553,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="67"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1"/>
       <c r="D69" s="22"/>
@@ -10538,7 +10562,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="68"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -10560,7 +10584,7 @@
       <c r="G71" s="78"/>
     </row>
     <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="66"/>
+      <c r="A72" s="70"/>
       <c r="B72" s="39" t="s">
         <v>115</v>
       </c>
@@ -10577,7 +10601,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="67"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="39" t="s">
         <v>116</v>
       </c>
@@ -10594,7 +10618,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="67"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="22"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -10603,7 +10627,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="67"/>
+      <c r="A75" s="71"/>
       <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="22"/>
@@ -10612,7 +10636,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="67"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="22"/>
       <c r="C76" s="1"/>
       <c r="D76" s="22"/>
@@ -10621,7 +10645,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="67"/>
+      <c r="A77" s="71"/>
       <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="22"/>
@@ -10630,7 +10654,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="68"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -10640,16 +10664,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
@@ -10659,6 +10673,16 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10683,51 +10707,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -10761,12 +10785,12 @@
         <v>74</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="22" t="s">
         <v>115</v>
       </c>
@@ -10784,7 +10808,7 @@
       <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="33" t="s">
         <v>116</v>
       </c>
@@ -10801,7 +10825,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="33" t="s">
         <v>117</v>
       </c>
@@ -10818,7 +10842,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="22"/>
       <c r="C11" s="1"/>
       <c r="D11" s="22"/>
@@ -10827,7 +10851,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="22"/>
       <c r="C12" s="1"/>
       <c r="D12" s="22"/>
@@ -10836,7 +10860,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="22"/>
       <c r="C13" s="1"/>
       <c r="D13" s="22"/>
@@ -10845,7 +10869,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -10862,12 +10886,12 @@
         <v>284</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="39" t="s">
         <v>115</v>
       </c>
@@ -10884,7 +10908,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="39" t="s">
         <v>116</v>
       </c>
@@ -10901,7 +10925,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -10910,7 +10934,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -10919,7 +10943,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -10928,7 +10952,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -10937,7 +10961,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -10958,7 +10982,7 @@
       <c r="G23" s="78"/>
     </row>
     <row r="24" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="43"/>
       <c r="C24" s="14" t="s">
         <v>308</v>
@@ -10973,7 +10997,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="74"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="43"/>
       <c r="C25" s="14" t="s">
         <v>311</v>
@@ -10988,7 +11012,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="74"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="43"/>
       <c r="C26" s="14"/>
       <c r="D26" s="43"/>
@@ -10997,7 +11021,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="74"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="43"/>
       <c r="C27" s="14"/>
       <c r="D27" s="43"/>
@@ -11006,7 +11030,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="74"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="43"/>
       <c r="C28" s="14"/>
       <c r="D28" s="43"/>
@@ -11015,7 +11039,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="74"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="43"/>
       <c r="C29" s="14"/>
       <c r="D29" s="43"/>
@@ -11024,7 +11048,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="75"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -11041,7 +11065,7 @@
       <c r="G31" s="78"/>
     </row>
     <row r="32" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="73"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="43"/>
       <c r="C32" s="14"/>
       <c r="D32" s="43"/>
@@ -11050,7 +11074,7 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="74"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="43"/>
       <c r="C33" s="14"/>
       <c r="D33" s="43"/>
@@ -11059,7 +11083,7 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="74"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="43"/>
       <c r="C34" s="14"/>
       <c r="D34" s="43"/>
@@ -11068,7 +11092,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="74"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="43"/>
       <c r="C35" s="14"/>
       <c r="D35" s="43"/>
@@ -11077,7 +11101,7 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="74"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="43"/>
       <c r="C36" s="14"/>
       <c r="D36" s="43"/>
@@ -11086,7 +11110,7 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="74"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="43"/>
       <c r="C37" s="14"/>
       <c r="D37" s="43"/>
@@ -11095,7 +11119,7 @@
       <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="75"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
@@ -11112,7 +11136,7 @@
       <c r="G39" s="78"/>
     </row>
     <row r="40" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="73"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="43"/>
       <c r="C40" s="14"/>
       <c r="D40" s="43"/>
@@ -11121,7 +11145,7 @@
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="74"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="43"/>
       <c r="C41" s="14"/>
       <c r="D41" s="43"/>
@@ -11130,7 +11154,7 @@
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="74"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="43"/>
       <c r="C42" s="14"/>
       <c r="D42" s="43"/>
@@ -11139,7 +11163,7 @@
       <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="74"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="43"/>
       <c r="C43" s="14"/>
       <c r="D43" s="43"/>
@@ -11148,7 +11172,7 @@
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="74"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="43"/>
       <c r="C44" s="14"/>
       <c r="D44" s="43"/>
@@ -11157,7 +11181,7 @@
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="74"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="43"/>
       <c r="C45" s="14"/>
       <c r="D45" s="43"/>
@@ -11166,7 +11190,7 @@
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="75"/>
+      <c r="A46" s="81"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
@@ -11183,7 +11207,7 @@
       <c r="G47" s="78"/>
     </row>
     <row r="48" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="73"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="43"/>
       <c r="C48" s="14"/>
       <c r="D48" s="43"/>
@@ -11192,7 +11216,7 @@
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="74"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="43"/>
       <c r="C49" s="14"/>
       <c r="D49" s="43"/>
@@ -11201,7 +11225,7 @@
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="74"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="43"/>
       <c r="C50" s="14"/>
       <c r="D50" s="43"/>
@@ -11210,7 +11234,7 @@
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="74"/>
+      <c r="A51" s="80"/>
       <c r="B51" s="43"/>
       <c r="C51" s="14"/>
       <c r="D51" s="43"/>
@@ -11219,7 +11243,7 @@
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="74"/>
+      <c r="A52" s="80"/>
       <c r="B52" s="43"/>
       <c r="C52" s="14"/>
       <c r="D52" s="43"/>
@@ -11228,7 +11252,7 @@
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="74"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="43"/>
       <c r="C53" s="14"/>
       <c r="D53" s="43"/>
@@ -11237,7 +11261,7 @@
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="75"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
@@ -11254,7 +11278,7 @@
       <c r="G55" s="78"/>
     </row>
     <row r="56" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="73"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="47"/>
       <c r="C56" s="14"/>
       <c r="D56" s="43"/>
@@ -11263,7 +11287,7 @@
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="74"/>
+      <c r="A57" s="80"/>
       <c r="B57" s="47"/>
       <c r="C57" s="14"/>
       <c r="D57" s="43"/>
@@ -11272,7 +11296,7 @@
       <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="74"/>
+      <c r="A58" s="80"/>
       <c r="B58" s="47"/>
       <c r="C58" s="14"/>
       <c r="D58" s="43"/>
@@ -11281,7 +11305,7 @@
       <c r="G58" s="14"/>
     </row>
     <row r="59" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="74"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="43"/>
       <c r="C59" s="14"/>
       <c r="D59" s="43"/>
@@ -11290,7 +11314,7 @@
       <c r="G59" s="14"/>
     </row>
     <row r="60" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="74"/>
+      <c r="A60" s="80"/>
       <c r="B60" s="43"/>
       <c r="C60" s="14"/>
       <c r="D60" s="43"/>
@@ -11299,7 +11323,7 @@
       <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="74"/>
+      <c r="A61" s="80"/>
       <c r="B61" s="43"/>
       <c r="C61" s="14"/>
       <c r="D61" s="43"/>
@@ -11308,7 +11332,7 @@
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="75"/>
+      <c r="A62" s="81"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
@@ -11325,7 +11349,7 @@
       <c r="G63" s="78"/>
     </row>
     <row r="64" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="73"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="43"/>
       <c r="C64" s="14"/>
       <c r="D64" s="43"/>
@@ -11334,7 +11358,7 @@
       <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="74"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="43"/>
       <c r="C65" s="14"/>
       <c r="D65" s="43"/>
@@ -11343,7 +11367,7 @@
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="74"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="43"/>
       <c r="C66" s="14"/>
       <c r="D66" s="43"/>
@@ -11352,7 +11376,7 @@
       <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="74"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="43"/>
       <c r="C67" s="14"/>
       <c r="D67" s="43"/>
@@ -11361,7 +11385,7 @@
       <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="74"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="43"/>
       <c r="C68" s="14"/>
       <c r="D68" s="43"/>
@@ -11370,7 +11394,7 @@
       <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="74"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="43"/>
       <c r="C69" s="14"/>
       <c r="D69" s="43"/>
@@ -11379,7 +11403,7 @@
       <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="75"/>
+      <c r="A70" s="81"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
       <c r="D70" s="42"/>
@@ -11396,7 +11420,7 @@
       <c r="G71" s="78"/>
     </row>
     <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="73"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="47"/>
       <c r="C72" s="14"/>
       <c r="D72" s="43"/>
@@ -11405,7 +11429,7 @@
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="74"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="47"/>
       <c r="C73" s="14"/>
       <c r="D73" s="43"/>
@@ -11414,7 +11438,7 @@
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="74"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="43"/>
       <c r="C74" s="14"/>
       <c r="D74" s="43"/>
@@ -11423,7 +11447,7 @@
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="74"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="43"/>
       <c r="C75" s="14"/>
       <c r="D75" s="43"/>
@@ -11432,7 +11456,7 @@
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="74"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="43"/>
       <c r="C76" s="14"/>
       <c r="D76" s="43"/>
@@ -11441,7 +11465,7 @@
       <c r="G76" s="14"/>
     </row>
     <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="74"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="43"/>
       <c r="C77" s="14"/>
       <c r="D77" s="43"/>
@@ -11450,7 +11474,7 @@
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="75"/>
+      <c r="A78" s="81"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
@@ -11467,7 +11491,7 @@
       <c r="G79" s="78"/>
     </row>
     <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="73"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="43"/>
       <c r="C80" s="14"/>
       <c r="D80" s="43"/>
@@ -11476,7 +11500,7 @@
       <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="74"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="43"/>
       <c r="C81" s="14"/>
       <c r="D81" s="43"/>
@@ -11485,7 +11509,7 @@
       <c r="G81" s="14"/>
     </row>
     <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="74"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="43"/>
       <c r="C82" s="14"/>
       <c r="D82" s="43"/>
@@ -11494,7 +11518,7 @@
       <c r="G82" s="14"/>
     </row>
     <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="74"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="43"/>
       <c r="C83" s="14"/>
       <c r="D83" s="43"/>
@@ -11503,7 +11527,7 @@
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="74"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="43"/>
       <c r="C84" s="14"/>
       <c r="D84" s="43"/>
@@ -11512,7 +11536,7 @@
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="74"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="43"/>
       <c r="C85" s="14"/>
       <c r="D85" s="43"/>
@@ -11521,7 +11545,7 @@
       <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="75"/>
+      <c r="A86" s="81"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
       <c r="D86" s="42"/>
@@ -11538,7 +11562,7 @@
       <c r="G87" s="78"/>
     </row>
     <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="73"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="47"/>
       <c r="C88" s="14"/>
       <c r="D88" s="43"/>
@@ -11547,7 +11571,7 @@
       <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="74"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="47"/>
       <c r="C89" s="14"/>
       <c r="D89" s="43"/>
@@ -11556,7 +11580,7 @@
       <c r="G89" s="14"/>
     </row>
     <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="74"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="43"/>
       <c r="C90" s="14"/>
       <c r="D90" s="43"/>
@@ -11565,7 +11589,7 @@
       <c r="G90" s="14"/>
     </row>
     <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="74"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="43"/>
       <c r="C91" s="14"/>
       <c r="D91" s="43"/>
@@ -11574,7 +11598,7 @@
       <c r="G91" s="14"/>
     </row>
     <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="74"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="43"/>
       <c r="C92" s="14"/>
       <c r="D92" s="43"/>
@@ -11583,7 +11607,7 @@
       <c r="G92" s="14"/>
     </row>
     <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="74"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="43"/>
       <c r="C93" s="14"/>
       <c r="D93" s="43"/>
@@ -11592,7 +11616,7 @@
       <c r="G93" s="14"/>
     </row>
     <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="75"/>
+      <c r="A94" s="81"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
       <c r="D94" s="42"/>
@@ -11609,7 +11633,7 @@
       <c r="G95" s="78"/>
     </row>
     <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="73"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="43"/>
       <c r="C96" s="14"/>
       <c r="D96" s="43"/>
@@ -11618,7 +11642,7 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="74"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="43"/>
       <c r="C97" s="14"/>
       <c r="D97" s="43"/>
@@ -11627,7 +11651,7 @@
       <c r="G97" s="14"/>
     </row>
     <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="74"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="43"/>
       <c r="C98" s="14"/>
       <c r="D98" s="43"/>
@@ -11636,7 +11660,7 @@
       <c r="G98" s="14"/>
     </row>
     <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="74"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="43"/>
       <c r="C99" s="14"/>
       <c r="D99" s="43"/>
@@ -11645,7 +11669,7 @@
       <c r="G99" s="14"/>
     </row>
     <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="74"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="43"/>
       <c r="C100" s="14"/>
       <c r="D100" s="43"/>
@@ -11654,7 +11678,7 @@
       <c r="G100" s="14"/>
     </row>
     <row r="101" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="74"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="43"/>
       <c r="C101" s="14"/>
       <c r="D101" s="43"/>
@@ -11663,7 +11687,7 @@
       <c r="G101" s="14"/>
     </row>
     <row r="102" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="75"/>
+      <c r="A102" s="81"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
@@ -11680,7 +11704,7 @@
       <c r="G103" s="78"/>
     </row>
     <row r="104" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="73"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="43"/>
       <c r="C104" s="14"/>
       <c r="D104" s="43"/>
@@ -11689,7 +11713,7 @@
       <c r="G104" s="14"/>
     </row>
     <row r="105" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="74"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="43"/>
       <c r="C105" s="14"/>
       <c r="D105" s="43"/>
@@ -11698,7 +11722,7 @@
       <c r="G105" s="14"/>
     </row>
     <row r="106" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="74"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="43"/>
       <c r="C106" s="14"/>
       <c r="D106" s="43"/>
@@ -11707,7 +11731,7 @@
       <c r="G106" s="14"/>
     </row>
     <row r="107" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="74"/>
+      <c r="A107" s="80"/>
       <c r="B107" s="43"/>
       <c r="C107" s="14"/>
       <c r="D107" s="43"/>
@@ -11716,7 +11740,7 @@
       <c r="G107" s="14"/>
     </row>
     <row r="108" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="74"/>
+      <c r="A108" s="80"/>
       <c r="B108" s="43"/>
       <c r="C108" s="14"/>
       <c r="D108" s="43"/>
@@ -11725,7 +11749,7 @@
       <c r="G108" s="14"/>
     </row>
     <row r="109" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="74"/>
+      <c r="A109" s="80"/>
       <c r="B109" s="43"/>
       <c r="C109" s="14"/>
       <c r="D109" s="43"/>
@@ -11734,7 +11758,7 @@
       <c r="G109" s="14"/>
     </row>
     <row r="110" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="75"/>
+      <c r="A110" s="81"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
       <c r="D110" s="42"/>
@@ -11744,12 +11768,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="E31:G31"/>
@@ -11762,15 +11789,12 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josgarey\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C30CEEF-9766-40AB-8280-D285025C50DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849010D-4DFC-4991-BD9C-6F818DD6B0F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="355">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2747,6 +2747,125 @@
     <t xml:space="preserve">La aplicación deberá permitir, además de los tipos de reporte ya establecidos (invasión o fraude), reportar por “Encerramiento ilegal” </t>
   </si>
   <si>
+    <t>Móvil y Web</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Móvil y web
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Esta funcionalidad se deberia validad desde el servicio</t>
+    </r>
+  </si>
+  <si>
+    <t>Como usuario de la aplicación web, necesito que la aplicación valide los usuarios mediante un login</t>
+  </si>
+  <si>
+    <t>Como usuario de la aplicación movil, necesito que la aplicación valide los usuarios mediante un login</t>
+  </si>
+  <si>
+    <t>Crear formulario</t>
+  </si>
+  <si>
+    <t>Llamado al servicio de validacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generar autorizacion </t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>Terminada</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>HU042</t>
+  </si>
+  <si>
+    <t>HU043</t>
+  </si>
+  <si>
+    <t>HU044</t>
+  </si>
+  <si>
+    <t>HU045</t>
+  </si>
+  <si>
+    <t>HU046</t>
+  </si>
+  <si>
+    <t>HU047</t>
+  </si>
+  <si>
+    <t>HU048</t>
+  </si>
+  <si>
+    <t>HU049</t>
+  </si>
+  <si>
+    <t>HU050</t>
+  </si>
+  <si>
+    <t>HU051</t>
+  </si>
+  <si>
+    <t>Realizar filtro</t>
+  </si>
+  <si>
+    <t>RF24</t>
+  </si>
+  <si>
+    <t>HU052</t>
+  </si>
+  <si>
+    <t>RF25</t>
+  </si>
+  <si>
+    <t>HU053</t>
+  </si>
+  <si>
+    <t>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</t>
+  </si>
+  <si>
+    <t>Consumir los servicios realiados y direccionar en movil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-09-2019 Se esta investigando como interactuar con los permisos en el arcGis Desktop </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">07-09-2019 Se esta investigando como interactuar con los permisos en el arcGis Desktop </t>
+    </r>
+  </si>
+  <si>
+    <t>09-09-2019 Esta funcionalidad esta embedida en la plantilla del ArcGis, solo se necesita activar el posicionamiento y presionar el icono de mi ubicación</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Para que aplicación se debe desarrollar?
 </t>
@@ -2760,105 +2879,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Móvil, y si se puede web también</t>
-    </r>
-  </si>
-  <si>
-    <t>Móvil y Web</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Móvil y web
+      <t xml:space="preserve">Móvil, y si se puede web también
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Esta funcionalidad se deberia validad desde el servicio</t>
-    </r>
-  </si>
-  <si>
-    <t>Como usuario de la aplicación web, necesito que la aplicación valide los usuarios mediante un login</t>
-  </si>
-  <si>
-    <t>Como usuario de la aplicación movil, necesito que la aplicación valide los usuarios mediante un login</t>
-  </si>
-  <si>
-    <t>Crear formulario</t>
-  </si>
-  <si>
-    <t>Llamado al servicio de validacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generar autorizacion </t>
-  </si>
-  <si>
-    <t>En progreso</t>
-  </si>
-  <si>
-    <t>Terminada</t>
-  </si>
-  <si>
-    <t>En proceso</t>
-  </si>
-  <si>
-    <t>HU042</t>
-  </si>
-  <si>
-    <t>HU043</t>
-  </si>
-  <si>
-    <t>HU044</t>
-  </si>
-  <si>
-    <t>HU045</t>
-  </si>
-  <si>
-    <t>HU046</t>
-  </si>
-  <si>
-    <t>HU047</t>
-  </si>
-  <si>
-    <t>HU048</t>
-  </si>
-  <si>
-    <t>HU049</t>
-  </si>
-  <si>
-    <t>HU050</t>
-  </si>
-  <si>
-    <t>HU051</t>
-  </si>
-  <si>
-    <t>Realizar filtro</t>
-  </si>
-  <si>
-    <t>RF24</t>
-  </si>
-  <si>
-    <t>HU052</t>
-  </si>
-  <si>
-    <t>RF25</t>
-  </si>
-  <si>
-    <t>HU053</t>
-  </si>
-  <si>
-    <t>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</t>
-  </si>
-  <si>
-    <t>Consumir los servicios realiados y direccionar en movil</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>09-09-2019 Esta funcionalidad esta embedida en la plantilla del ArcGis, solo se necesita activar el posicionamiento y presionar el icono de mi ubicación</t>
+    </r>
+  </si>
+  <si>
+    <t>09-09-2019 Invetigando el manejo de filtros con ArcGis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alto
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>09-09-2019 Invetigando el manejo de filtros con ArcGis</t>
+    </r>
+  </si>
+  <si>
+    <t>09-09-2019 No se ha iniciado ya que es una investigacion de como integrar ArcGis con Google y por el momento no es tan importante, se propone mover esta atividad a un Sprint posterior</t>
+  </si>
+  <si>
+    <t>09-09-2019 Por el momento se muestra en un modal los id de las tablas, falta generar mas informacion</t>
   </si>
 </sst>
 </file>
@@ -3173,7 +3231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3308,17 +3366,11 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3359,14 +3411,17 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3375,6 +3430,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3404,12 +3462,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3426,7 +3499,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3728,23 +3801,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="95.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>200</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>201</v>
       </c>
@@ -3755,7 +3828,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -3766,7 +3839,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -3777,7 +3850,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -3788,7 +3861,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -3799,7 +3872,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -3810,7 +3883,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>6</v>
       </c>
@@ -3821,7 +3894,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
     </row>
   </sheetData>
@@ -3837,24 +3910,24 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>4</v>
       </c>
@@ -3867,7 +3940,7 @@
       <c r="H1" s="67"/>
       <c r="I1" s="67"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -3878,7 +3951,7 @@
       <c r="H2" s="67"/>
       <c r="I2" s="67"/>
     </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -3889,7 +3962,7 @@
       <c r="H3" s="67"/>
       <c r="I3" s="67"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -3900,7 +3973,7 @@
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -3911,7 +3984,7 @@
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
     </row>
-    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -3940,11 +4013,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3953,14 +4026,14 @@
       <c r="D7" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="63" t="s">
         <v>328</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="49">
         <v>1</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="60" t="s">
         <v>133</v>
       </c>
       <c r="I7" s="1" t="str">
@@ -3968,11 +4041,11 @@
         <v>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3981,14 +4054,14 @@
       <c r="D8" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="63" t="s">
         <v>328</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="49">
         <v>1</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="60" t="s">
         <v>133</v>
       </c>
       <c r="I8" s="1" t="str">
@@ -3996,11 +4069,11 @@
         <v>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="52" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -4009,21 +4082,21 @@
       <c r="D9" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>111</v>
+      <c r="E9" s="64" t="s">
+        <v>327</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
         <v>2</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>134</v>
       </c>
@@ -4040,17 +4113,17 @@
         <v>111</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="54">
+      <c r="G10" s="52">
         <v>3</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="50" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
@@ -4067,19 +4140,19 @@
         <v>111</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="56">
+      <c r="G11" s="54">
         <v>4</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="60" t="s">
         <v>138</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4088,19 +4161,21 @@
       <c r="D12" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="66" t="s">
         <v>111</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="52">
+      <c r="G12" s="51">
         <v>2</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>10</v>
       </c>
@@ -4117,19 +4192,19 @@
         <v>111</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="54">
+      <c r="G13" s="52">
         <v>3</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4138,19 +4213,21 @@
       <c r="D14" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="66" t="s">
-        <v>328</v>
+      <c r="E14" s="64" t="s">
+        <v>327</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="52">
+      <c r="G14" s="51">
         <v>2</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
@@ -4167,17 +4244,17 @@
         <v>111</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="54">
+      <c r="G15" s="52">
         <v>3</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="60" t="s">
         <v>149</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>146</v>
       </c>
@@ -4194,21 +4271,21 @@
         <v>111</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="54">
+      <c r="G16" s="52">
         <v>3</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="60" t="s">
         <v>149</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -4217,21 +4294,21 @@
       <c r="D17" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E17" s="82" t="s">
-        <v>111</v>
+      <c r="E17" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="52">
+      <c r="G17" s="51">
         <v>2</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="60" t="s">
         <v>138</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>13</v>
       </c>
@@ -4248,17 +4325,17 @@
         <v>111</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="55">
+      <c r="G18" s="53">
         <v>3</v>
       </c>
-      <c r="H18" s="62" t="s">
+      <c r="H18" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>154</v>
       </c>
@@ -4275,17 +4352,17 @@
         <v>111</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="55">
+      <c r="G19" s="53">
         <v>3</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -4302,15 +4379,15 @@
         <v>111</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="55">
+      <c r="G20" s="53">
         <v>3</v>
       </c>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>155</v>
       </c>
@@ -4327,15 +4404,15 @@
         <v>111</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="55">
+      <c r="G21" s="53">
         <v>3</v>
       </c>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>15</v>
       </c>
@@ -4352,17 +4429,17 @@
         <v>111</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="59">
+      <c r="G22" s="57">
         <v>5</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="58" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>158</v>
       </c>
@@ -4379,19 +4456,19 @@
         <v>111</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="59">
+      <c r="G23" s="57">
         <v>5</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="60" t="s">
         <v>138</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="52" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4400,23 +4477,23 @@
       <c r="D24" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="65" t="s">
-        <v>329</v>
+      <c r="E24" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="50">
+      <c r="G24" s="49">
         <v>1</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="60" t="s">
         <v>138</v>
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="52" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4425,19 +4502,19 @@
       <c r="D25" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="65" t="s">
-        <v>329</v>
+      <c r="E25" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="50">
+      <c r="G25" s="49">
         <v>1</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="H25" s="60" t="s">
         <v>138</v>
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
@@ -4453,14 +4530,14 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -4476,18 +4553,18 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -4496,25 +4573,25 @@
       <c r="D28" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="63" t="s">
         <v>328</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="52">
+      <c r="G28" s="51">
         <v>2</v>
       </c>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="60" t="s">
         <v>149</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -4523,23 +4600,23 @@
       <c r="D29" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E29" s="66" t="s">
-        <v>111</v>
+      <c r="E29" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="52">
+      <c r="G29" s="51">
         <v>2</v>
       </c>
-      <c r="H29" s="62" t="s">
+      <c r="H29" s="60" t="s">
         <v>149</v>
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -4548,25 +4625,25 @@
       <c r="D30" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="63" t="s">
         <v>328</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="50">
+      <c r="G30" s="49">
         <v>1</v>
       </c>
-      <c r="H30" s="62" t="s">
+      <c r="H30" s="60" t="s">
         <v>149</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="52" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -4575,25 +4652,25 @@
       <c r="D31" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E31" s="65" t="s">
-        <v>329</v>
+      <c r="E31" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="50">
+      <c r="G31" s="49">
         <v>1</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="60" t="s">
         <v>149</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="52" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -4602,21 +4679,21 @@
       <c r="D32" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E32" s="65" t="s">
-        <v>329</v>
+      <c r="E32" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="53">
+      <c r="G32" s="51">
         <v>2</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="50" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>171</v>
       </c>
@@ -4633,21 +4710,21 @@
         <v>111</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="59">
+      <c r="G33" s="57">
         <v>5</v>
       </c>
-      <c r="H33" s="62" t="s">
+      <c r="H33" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="I33" s="51" t="s">
+      <c r="I33" s="50" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="52" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -4656,21 +4733,21 @@
       <c r="D34" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>111</v>
+      <c r="E34" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="53">
+      <c r="G34" s="51">
         <v>2</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="I34" s="51" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="50" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>67</v>
       </c>
@@ -4687,19 +4764,19 @@
         <v>111</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="55">
+      <c r="G35" s="53">
         <v>3</v>
       </c>
-      <c r="H35" s="62" t="s">
+      <c r="H35" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="52" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -4708,25 +4785,25 @@
       <c r="D36" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>111</v>
+      <c r="E36" s="64" t="s">
+        <v>327</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="53">
+      <c r="G36" s="51">
         <v>2</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="51" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I36" s="50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="52" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -4735,23 +4812,23 @@
       <c r="D37" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>111</v>
+      <c r="E37" s="64" t="s">
+        <v>329</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="53">
+      <c r="G37" s="51">
         <v>2</v>
       </c>
-      <c r="H37" s="62" t="s">
+      <c r="H37" s="60" t="s">
         <v>138</v>
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="52" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -4760,19 +4837,19 @@
       <c r="D38" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="63" t="s">
         <v>328</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="53">
+      <c r="G38" s="51">
         <v>2</v>
       </c>
-      <c r="H38" s="62" t="s">
+      <c r="H38" s="60" t="s">
         <v>149</v>
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>97</v>
       </c>
@@ -4789,17 +4866,17 @@
         <v>111</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="59">
+      <c r="G39" s="57">
         <v>5</v>
       </c>
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="I39" s="58" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="116" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I39" s="56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>283</v>
       </c>
@@ -4816,15 +4893,15 @@
         <v>111</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="60">
+      <c r="G40" s="58">
         <v>6</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>98</v>
       </c>
@@ -4841,17 +4918,17 @@
         <v>111</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="55">
+      <c r="G41" s="53">
         <v>3</v>
       </c>
-      <c r="H41" s="62" t="s">
+      <c r="H41" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="50" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>99</v>
       </c>
@@ -4868,15 +4945,15 @@
         <v>111</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="55">
+      <c r="G42" s="53">
         <v>3</v>
       </c>
-      <c r="H42" s="62" t="s">
+      <c r="H42" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>100</v>
       </c>
@@ -4893,15 +4970,15 @@
         <v>111</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="55">
+      <c r="G43" s="53">
         <v>3</v>
       </c>
-      <c r="H43" s="62" t="s">
+      <c r="H43" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>101</v>
       </c>
@@ -4918,15 +4995,15 @@
         <v>111</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="60">
+      <c r="G44" s="58">
         <v>6</v>
       </c>
-      <c r="H44" s="62" t="s">
+      <c r="H44" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>102</v>
       </c>
@@ -4943,15 +5020,15 @@
         <v>111</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="57">
+      <c r="G45" s="55">
         <v>4</v>
       </c>
-      <c r="H45" s="62" t="s">
+      <c r="H45" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>103</v>
       </c>
@@ -4968,17 +5045,17 @@
         <v>111</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="57">
+      <c r="G46" s="55">
         <v>4</v>
       </c>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>104</v>
       </c>
@@ -4995,20 +5072,20 @@
         <v>111</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="57">
+      <c r="G47" s="55">
         <v>4</v>
       </c>
-      <c r="H47" s="62" t="s">
+      <c r="H47" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>78</v>
@@ -5020,20 +5097,20 @@
         <v>111</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="59">
+      <c r="G48" s="57">
         <v>5</v>
       </c>
-      <c r="H48" s="62" t="s">
+      <c r="H48" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>79</v>
@@ -5045,20 +5122,20 @@
         <v>111</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="59">
+      <c r="G49" s="57">
         <v>5</v>
       </c>
-      <c r="H49" s="62" t="s">
+      <c r="H49" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>80</v>
@@ -5070,20 +5147,20 @@
         <v>111</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="G50" s="59">
+      <c r="G50" s="57">
         <v>5</v>
       </c>
-      <c r="H50" s="62" t="s">
+      <c r="H50" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>81</v>
@@ -5095,20 +5172,20 @@
         <v>111</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="59">
+      <c r="G51" s="57">
         <v>5</v>
       </c>
-      <c r="H51" s="62" t="s">
+      <c r="H51" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>82</v>
@@ -5120,20 +5197,20 @@
         <v>111</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="G52" s="59">
+      <c r="G52" s="57">
         <v>5</v>
       </c>
-      <c r="H52" s="62" t="s">
+      <c r="H52" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>92</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>83</v>
@@ -5145,20 +5222,20 @@
         <v>111</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="59">
+      <c r="G53" s="57">
         <v>6</v>
       </c>
-      <c r="H53" s="62" t="s">
+      <c r="H53" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>84</v>
@@ -5170,20 +5247,20 @@
         <v>111</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="59">
+      <c r="G54" s="57">
         <v>6</v>
       </c>
-      <c r="H54" s="62" t="s">
+      <c r="H54" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>85</v>
@@ -5195,20 +5272,20 @@
         <v>111</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="G55" s="59">
+      <c r="G55" s="57">
         <v>6</v>
       </c>
-      <c r="H55" s="62" t="s">
+      <c r="H55" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>86</v>
@@ -5218,20 +5295,20 @@
         <v>111</v>
       </c>
       <c r="F56" s="29"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="62" t="s">
+      <c r="G56" s="62"/>
+      <c r="H56" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>87</v>
@@ -5243,78 +5320,77 @@
         <v>111</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="G57" s="55">
+      <c r="G57" s="53">
         <v>3</v>
       </c>
-      <c r="H57" s="62" t="s">
+      <c r="H57" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B58" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="B58" s="54" t="s">
-        <v>343</v>
-      </c>
       <c r="C58" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="E58" s="65" t="s">
-        <v>329</v>
+      <c r="E58" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="G58" s="50">
+      <c r="G58" s="49">
         <v>1</v>
       </c>
-      <c r="H58" s="62" t="s">
+      <c r="H58" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B59" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="B59" s="54" t="s">
-        <v>345</v>
-      </c>
       <c r="C59" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D59" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E59" s="66" t="s">
+      <c r="E59" s="63" t="s">
         <v>328</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="G59" s="50">
+      <c r="G59" s="49">
         <v>1</v>
       </c>
-      <c r="H59" s="62" t="s">
+      <c r="H59" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:I59" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="1"/>
         <filter val="2"/>
       </filters>
     </filterColumn>
@@ -5332,21 +5408,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="72.36328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>128</v>
       </c>
@@ -5357,7 +5433,7 @@
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5366,7 +5442,7 @@
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5375,7 +5451,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5384,7 +5460,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -5393,7 +5469,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -5416,7 +5492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -5425,20 +5501,20 @@
         <v>5</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
       <c r="B8" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="65" t="s">
-        <v>329</v>
+      <c r="D8" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>294</v>
@@ -5446,16 +5522,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
       <c r="B9" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="65" t="s">
-        <v>329</v>
+      <c r="D9" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>294</v>
@@ -5463,15 +5539,15 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
       <c r="B10" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="63" t="s">
         <v>328</v>
       </c>
       <c r="E10" s="35" t="s">
@@ -5480,15 +5556,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
       <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="63" t="s">
         <v>328</v>
       </c>
       <c r="E11" s="35" t="s">
@@ -5496,11 +5572,11 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -5508,8 +5584,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -5517,8 +5593,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
@@ -5526,7 +5602,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>130</v>
       </c>
@@ -5538,15 +5614,15 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
       <c r="B16" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="63" t="s">
         <v>328</v>
       </c>
       <c r="E16" s="35" t="s">
@@ -5554,11 +5630,11 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="71"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
       <c r="B17" s="22"/>
       <c r="C17" s="1"/>
       <c r="D17" s="22"/>
@@ -5566,8 +5642,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
       <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -5575,8 +5651,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -5584,8 +5660,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -5593,8 +5669,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -5602,8 +5678,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
       <c r="D22" s="10"/>
@@ -5611,7 +5687,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>16</v>
       </c>
@@ -5623,16 +5699,16 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="70"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
       <c r="B24" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="65" t="s">
-        <v>329</v>
+      <c r="D24" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>297</v>
@@ -5640,8 +5716,8 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
       <c r="B25" s="22"/>
       <c r="C25" s="1"/>
       <c r="D25" s="22"/>
@@ -5649,8 +5725,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="71"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
       <c r="B26" s="22"/>
       <c r="C26" s="1"/>
       <c r="D26" s="22"/>
@@ -5658,8 +5734,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="71"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -5667,8 +5743,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="71"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -5676,8 +5752,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="71"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -5685,8 +5761,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
       <c r="B30" s="10"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10"/>
@@ -5694,7 +5770,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>159</v>
       </c>
@@ -5706,16 +5782,16 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="70"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
       <c r="B32" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="65" t="s">
-        <v>329</v>
+      <c r="D32" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>298</v>
@@ -5723,8 +5799,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
       <c r="B33" s="35"/>
       <c r="C33" s="1"/>
       <c r="D33" s="35"/>
@@ -5732,8 +5808,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="70"/>
       <c r="B34" s="35"/>
       <c r="C34" s="1"/>
       <c r="D34" s="35"/>
@@ -5741,8 +5817,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="71"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
       <c r="B35" s="35"/>
       <c r="C35" s="1"/>
       <c r="D35" s="35"/>
@@ -5750,8 +5826,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="71"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="70"/>
       <c r="B36" s="35"/>
       <c r="C36" s="1"/>
       <c r="D36" s="35"/>
@@ -5759,8 +5835,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="71"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
       <c r="B37" s="35"/>
       <c r="C37" s="1"/>
       <c r="D37" s="35"/>
@@ -5768,8 +5844,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="71"/>
       <c r="B38" s="10"/>
       <c r="C38" s="20"/>
       <c r="D38" s="10"/>
@@ -5777,7 +5853,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>62</v>
       </c>
@@ -5790,16 +5866,16 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="70"/>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
       <c r="B40" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="66" t="s">
-        <v>330</v>
+      <c r="D40" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>294</v>
@@ -5807,16 +5883,16 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="71"/>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
       <c r="B41" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="82" t="s">
-        <v>111</v>
+      <c r="D41" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>294</v>
@@ -5824,8 +5900,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="71"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
@@ -5833,8 +5909,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="71"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="70"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1"/>
       <c r="D43" s="6"/>
@@ -5842,8 +5918,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="71"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
       <c r="B44" s="6"/>
       <c r="C44" s="1"/>
       <c r="D44" s="6"/>
@@ -5851,8 +5927,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="71"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
       <c r="B45" s="6"/>
       <c r="C45" s="1"/>
       <c r="D45" s="6"/>
@@ -5860,8 +5936,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="72"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="71"/>
       <c r="B46" s="10"/>
       <c r="C46" s="20"/>
       <c r="D46" s="10"/>
@@ -5869,7 +5945,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>63</v>
       </c>
@@ -5881,16 +5957,16 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="70"/>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
       <c r="B48" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D48" s="65" t="s">
-        <v>329</v>
+      <c r="D48" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>294</v>
@@ -5898,8 +5974,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="71"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
       <c r="B49" s="35"/>
       <c r="C49" s="1"/>
       <c r="D49" s="35"/>
@@ -5907,8 +5983,8 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="71"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
       <c r="B50" s="35"/>
       <c r="C50" s="1"/>
       <c r="D50" s="35"/>
@@ -5916,8 +5992,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="71"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="70"/>
       <c r="B51" s="35"/>
       <c r="C51" s="1"/>
       <c r="D51" s="35"/>
@@ -5925,8 +6001,8 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="71"/>
       <c r="B52" s="10"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10"/>
@@ -5934,29 +6010,29 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="70"/>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="69"/>
       <c r="B54" s="48" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D54" s="65" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="D54" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>294</v>
@@ -5964,16 +6040,16 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="71"/>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
       <c r="B55" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D55" s="65" t="s">
-        <v>329</v>
+        <v>325</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E55" s="48" t="s">
         <v>294</v>
@@ -5981,16 +6057,16 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="71"/>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="70"/>
       <c r="B56" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E56" s="48" t="s">
         <v>294</v>
@@ -5998,8 +6074,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="71"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="70"/>
       <c r="B57" s="35"/>
       <c r="C57" s="1"/>
       <c r="D57" s="35"/>
@@ -6007,8 +6083,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="71"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="70"/>
       <c r="B58" s="35"/>
       <c r="C58" s="1"/>
       <c r="D58" s="35"/>
@@ -6016,8 +6092,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="71"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="70"/>
       <c r="B59" s="35"/>
       <c r="C59" s="1"/>
       <c r="D59" s="35"/>
@@ -6025,8 +6101,8 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="71"/>
       <c r="B60" s="10"/>
       <c r="C60" s="20"/>
       <c r="D60" s="10"/>
@@ -6034,29 +6110,29 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="70"/>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="69"/>
       <c r="B62" s="48" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D62" s="66" t="s">
-        <v>330</v>
+        <v>324</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>299</v>
@@ -6064,16 +6140,16 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="71"/>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="70"/>
       <c r="B63" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D63" s="66" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="D63" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>299</v>
@@ -6081,16 +6157,16 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="71"/>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="70"/>
       <c r="B64" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D64" s="66" t="s">
-        <v>330</v>
+        <v>326</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E64" s="48" t="s">
         <v>299</v>
@@ -6098,8 +6174,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="71"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
       <c r="B65" s="35"/>
       <c r="C65" s="1"/>
       <c r="D65" s="35"/>
@@ -6107,8 +6183,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="71"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
       <c r="B66" s="35"/>
       <c r="C66" s="1"/>
       <c r="D66" s="35"/>
@@ -6116,8 +6192,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="71"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
       <c r="B67" s="35"/>
       <c r="C67" s="1"/>
       <c r="D67" s="35"/>
@@ -6125,8 +6201,8 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="72"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="71"/>
       <c r="B68" s="10"/>
       <c r="C68" s="20"/>
       <c r="D68" s="10"/>
@@ -6134,7 +6210,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="5"/>
       <c r="C69" s="20"/>
@@ -6143,8 +6219,8 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="70"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="69"/>
       <c r="B70" s="35"/>
       <c r="C70" s="1"/>
       <c r="D70" s="35"/>
@@ -6152,8 +6228,8 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="71"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
       <c r="B71" s="35"/>
       <c r="C71" s="1"/>
       <c r="D71" s="35"/>
@@ -6161,8 +6237,8 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="71"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
       <c r="B72" s="35"/>
       <c r="C72" s="1"/>
       <c r="D72" s="35"/>
@@ -6170,8 +6246,8 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="71"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
       <c r="B73" s="35"/>
       <c r="C73" s="1"/>
       <c r="D73" s="35"/>
@@ -6179,8 +6255,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="71"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
       <c r="B74" s="35"/>
       <c r="C74" s="1"/>
       <c r="D74" s="35"/>
@@ -6188,8 +6264,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="71"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="70"/>
       <c r="B75" s="35"/>
       <c r="C75" s="1"/>
       <c r="D75" s="35"/>
@@ -6197,8 +6273,8 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="72"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="71"/>
       <c r="B76" s="10"/>
       <c r="C76" s="20"/>
       <c r="D76" s="10"/>
@@ -6206,7 +6282,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="C77" s="1"/>
       <c r="D77" s="35"/>
@@ -6214,8 +6290,8 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="70"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="69"/>
       <c r="B78" s="35"/>
       <c r="C78" s="1"/>
       <c r="D78" s="35"/>
@@ -6223,8 +6299,8 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="71"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="70"/>
       <c r="B79" s="35"/>
       <c r="C79" s="1"/>
       <c r="D79" s="35"/>
@@ -6232,8 +6308,8 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="71"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="70"/>
       <c r="B80" s="35"/>
       <c r="C80" s="1"/>
       <c r="D80" s="35"/>
@@ -6241,8 +6317,8 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="71"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="70"/>
       <c r="B81" s="35"/>
       <c r="C81" s="1"/>
       <c r="D81" s="35"/>
@@ -6250,8 +6326,8 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="71"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="70"/>
       <c r="B82" s="35"/>
       <c r="C82" s="1"/>
       <c r="D82" s="35"/>
@@ -6259,8 +6335,8 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="71"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="70"/>
       <c r="B83" s="35"/>
       <c r="C83" s="1"/>
       <c r="D83" s="35"/>
@@ -6268,8 +6344,8 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="72"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="71"/>
       <c r="B84" s="10"/>
       <c r="C84" s="20"/>
       <c r="D84" s="10"/>
@@ -6277,7 +6353,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="C85" s="1"/>
       <c r="D85" s="35"/>
@@ -6285,8 +6361,8 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="70"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="69"/>
       <c r="B86" s="35"/>
       <c r="C86" s="1"/>
       <c r="D86" s="35"/>
@@ -6294,8 +6370,8 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="71"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="70"/>
       <c r="B87" s="35"/>
       <c r="C87" s="1"/>
       <c r="D87" s="35"/>
@@ -6303,8 +6379,8 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="71"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="70"/>
       <c r="B88" s="35"/>
       <c r="C88" s="1"/>
       <c r="D88" s="35"/>
@@ -6312,8 +6388,8 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="71"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="70"/>
       <c r="B89" s="35"/>
       <c r="C89" s="1"/>
       <c r="D89" s="35"/>
@@ -6321,8 +6397,8 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="71"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="70"/>
       <c r="B90" s="35"/>
       <c r="C90" s="1"/>
       <c r="D90" s="35"/>
@@ -6330,8 +6406,8 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="71"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="70"/>
       <c r="B91" s="35"/>
       <c r="C91" s="1"/>
       <c r="D91" s="35"/>
@@ -6339,8 +6415,8 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="72"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="71"/>
       <c r="B92" s="10"/>
       <c r="C92" s="20"/>
       <c r="D92" s="10"/>
@@ -6348,7 +6424,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="C93" s="14"/>
       <c r="D93" s="35"/>
@@ -6356,8 +6432,8 @@
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="70"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="69"/>
       <c r="B94" s="35"/>
       <c r="C94" s="1"/>
       <c r="D94" s="35"/>
@@ -6365,8 +6441,8 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="71"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="70"/>
       <c r="B95" s="35"/>
       <c r="C95" s="1"/>
       <c r="D95" s="35"/>
@@ -6374,8 +6450,8 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="71"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="70"/>
       <c r="B96" s="35"/>
       <c r="C96" s="1"/>
       <c r="D96" s="35"/>
@@ -6383,8 +6459,8 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="71"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="70"/>
       <c r="B97" s="35"/>
       <c r="C97" s="1"/>
       <c r="D97" s="35"/>
@@ -6392,8 +6468,8 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="71"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="70"/>
       <c r="B98" s="35"/>
       <c r="C98" s="1"/>
       <c r="D98" s="35"/>
@@ -6401,8 +6477,8 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="71"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="70"/>
       <c r="B99" s="35"/>
       <c r="C99" s="1"/>
       <c r="D99" s="35"/>
@@ -6410,8 +6486,8 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="72"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="71"/>
       <c r="B100" s="10"/>
       <c r="C100" s="20"/>
       <c r="D100" s="10"/>
@@ -6419,7 +6495,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
       <c r="B101" s="5"/>
       <c r="C101" s="20"/>
@@ -6428,8 +6504,8 @@
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="70"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="69"/>
       <c r="B102" s="35"/>
       <c r="C102" s="1"/>
       <c r="D102" s="35"/>
@@ -6437,8 +6513,8 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="71"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="70"/>
       <c r="B103" s="35"/>
       <c r="C103" s="1"/>
       <c r="D103" s="35"/>
@@ -6446,8 +6522,8 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="71"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="70"/>
       <c r="B104" s="35"/>
       <c r="C104" s="1"/>
       <c r="D104" s="35"/>
@@ -6455,8 +6531,8 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="71"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="70"/>
       <c r="B105" s="35"/>
       <c r="C105" s="1"/>
       <c r="D105" s="35"/>
@@ -6464,8 +6540,8 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="71"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="70"/>
       <c r="B106" s="35"/>
       <c r="C106" s="1"/>
       <c r="D106" s="35"/>
@@ -6473,8 +6549,8 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="71"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="70"/>
       <c r="B107" s="35"/>
       <c r="C107" s="1"/>
       <c r="D107" s="35"/>
@@ -6482,8 +6558,8 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="72"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="71"/>
       <c r="B108" s="10"/>
       <c r="C108" s="20"/>
       <c r="D108" s="10"/>
@@ -6491,7 +6567,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
       <c r="B109" s="5"/>
       <c r="C109" s="20"/>
@@ -6500,8 +6576,8 @@
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="70"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="69"/>
       <c r="B110" s="35"/>
       <c r="C110" s="1"/>
       <c r="D110" s="35"/>
@@ -6509,8 +6585,8 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="71"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="70"/>
       <c r="B111" s="35"/>
       <c r="C111" s="1"/>
       <c r="D111" s="35"/>
@@ -6518,8 +6594,8 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="71"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="70"/>
       <c r="B112" s="35"/>
       <c r="C112" s="1"/>
       <c r="D112" s="35"/>
@@ -6527,8 +6603,8 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="71"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="70"/>
       <c r="B113" s="35"/>
       <c r="C113" s="1"/>
       <c r="D113" s="35"/>
@@ -6536,8 +6612,8 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="71"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="70"/>
       <c r="B114" s="35"/>
       <c r="C114" s="1"/>
       <c r="D114" s="35"/>
@@ -6545,8 +6621,8 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="71"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="70"/>
       <c r="B115" s="35"/>
       <c r="C115" s="1"/>
       <c r="D115" s="35"/>
@@ -6554,8 +6630,8 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="72"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="71"/>
       <c r="B116" s="10"/>
       <c r="C116" s="20"/>
       <c r="D116" s="10"/>
@@ -6563,7 +6639,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="5"/>
       <c r="C117" s="20"/>
@@ -6572,8 +6648,8 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="70"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="69"/>
       <c r="B118" s="35"/>
       <c r="C118" s="1"/>
       <c r="D118" s="35"/>
@@ -6581,8 +6657,8 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="71"/>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="70"/>
       <c r="B119" s="35"/>
       <c r="C119" s="1"/>
       <c r="D119" s="35"/>
@@ -6590,8 +6666,8 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="71"/>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="70"/>
       <c r="B120" s="35"/>
       <c r="C120" s="1"/>
       <c r="D120" s="35"/>
@@ -6599,8 +6675,8 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="71"/>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="70"/>
       <c r="B121" s="35"/>
       <c r="C121" s="1"/>
       <c r="D121" s="35"/>
@@ -6608,8 +6684,8 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="71"/>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="70"/>
       <c r="B122" s="35"/>
       <c r="C122" s="1"/>
       <c r="D122" s="35"/>
@@ -6617,8 +6693,8 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="71"/>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="70"/>
       <c r="B123" s="35"/>
       <c r="C123" s="1"/>
       <c r="D123" s="35"/>
@@ -6626,8 +6702,8 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="72"/>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="71"/>
       <c r="B124" s="10"/>
       <c r="C124" s="20"/>
       <c r="D124" s="10"/>
@@ -6635,7 +6711,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
       <c r="B125" s="5"/>
       <c r="C125" s="20"/>
@@ -6644,8 +6720,8 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="70"/>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="69"/>
       <c r="B126" s="35"/>
       <c r="C126" s="1"/>
       <c r="D126" s="35"/>
@@ -6653,8 +6729,8 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="71"/>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="70"/>
       <c r="B127" s="35"/>
       <c r="C127" s="1"/>
       <c r="D127" s="35"/>
@@ -6662,8 +6738,8 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="71"/>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="70"/>
       <c r="B128" s="35"/>
       <c r="C128" s="1"/>
       <c r="D128" s="35"/>
@@ -6671,8 +6747,8 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="71"/>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="70"/>
       <c r="B129" s="35"/>
       <c r="C129" s="1"/>
       <c r="D129" s="35"/>
@@ -6680,8 +6756,8 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="71"/>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="70"/>
       <c r="B130" s="35"/>
       <c r="C130" s="1"/>
       <c r="D130" s="35"/>
@@ -6689,8 +6765,8 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="71"/>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="70"/>
       <c r="B131" s="35"/>
       <c r="C131" s="1"/>
       <c r="D131" s="35"/>
@@ -6698,8 +6774,8 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="72"/>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="71"/>
       <c r="B132" s="10"/>
       <c r="C132" s="20"/>
       <c r="D132" s="10"/>
@@ -6709,6 +6785,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A118:A124"/>
     <mergeCell ref="A126:A132"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A70:A76"/>
@@ -6717,16 +6803,6 @@
     <mergeCell ref="A94:A100"/>
     <mergeCell ref="A102:A108"/>
     <mergeCell ref="A110:A116"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A24:A30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6737,21 +6813,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="72.36328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>129</v>
       </c>
@@ -6762,7 +6839,7 @@
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -6771,7 +6848,7 @@
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -6780,7 +6857,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -6789,7 +6866,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -6798,7 +6875,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -6821,7 +6898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
@@ -6829,21 +6906,23 @@
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="73" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>111</v>
+      <c r="D8" s="64" t="s">
+        <v>327</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>297</v>
@@ -6851,16 +6930,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>111</v>
+      <c r="D9" s="64" t="s">
+        <v>327</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>297</v>
@@ -6868,16 +6947,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
       <c r="B10" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>111</v>
+      <c r="D10" s="64" t="s">
+        <v>327</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>297</v>
@@ -6885,16 +6964,16 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
       <c r="B11" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>111</v>
+      <c r="D11" s="64" t="s">
+        <v>327</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>297</v>
@@ -6902,34 +6981,42 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
       <c r="B12" s="36" t="s">
         <v>189</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>297</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
       <c r="B13" s="36" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>297</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
@@ -6937,7 +7024,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>34</v>
       </c>
@@ -6945,21 +7032,21 @@
       <c r="C15" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
       <c r="B16" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>329</v>
+      <c r="D16" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>294</v>
@@ -6967,16 +7054,16 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="71"/>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
       <c r="B17" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>329</v>
+      <c r="D17" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>294</v>
@@ -6984,16 +7071,16 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
       <c r="B18" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>329</v>
+      <c r="D18" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>294</v>
@@ -7001,16 +7088,16 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
       <c r="B19" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>329</v>
+      <c r="D19" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>294</v>
@@ -7018,16 +7105,16 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
       <c r="B20" s="6" t="s">
         <v>189</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>111</v>
+      <c r="D20" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>294</v>
@@ -7035,16 +7122,16 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
       <c r="B21" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="82" t="s">
-        <v>111</v>
+      <c r="D21" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>294</v>
@@ -7052,8 +7139,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
       <c r="D22" s="10"/>
@@ -7061,7 +7148,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>64</v>
       </c>
@@ -7069,12 +7156,12 @@
       <c r="C23" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="65"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
         <v>115</v>
@@ -7082,8 +7169,8 @@
       <c r="C24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="65" t="s">
-        <v>329</v>
+      <c r="D24" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>294</v>
@@ -7091,7 +7178,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="6" t="s">
         <v>116</v>
@@ -7099,8 +7186,8 @@
       <c r="C25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="65" t="s">
-        <v>329</v>
+      <c r="D25" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>294</v>
@@ -7108,7 +7195,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="6"/>
       <c r="C26" s="1"/>
@@ -7117,7 +7204,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="6"/>
       <c r="C27" s="1"/>
@@ -7126,7 +7213,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1"/>
@@ -7135,7 +7222,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1"/>
@@ -7144,7 +7231,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>66</v>
       </c>
@@ -7152,21 +7239,21 @@
       <c r="C30" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="70"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
       <c r="B31" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>111</v>
+      <c r="D31" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>297</v>
@@ -7174,16 +7261,16 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="70"/>
       <c r="B32" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>111</v>
+      <c r="D32" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>297</v>
@@ -7191,8 +7278,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="6"/>
@@ -7200,8 +7287,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="70"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="6"/>
@@ -7209,8 +7296,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="71"/>
       <c r="B35" s="10"/>
       <c r="C35" s="20"/>
       <c r="D35" s="10"/>
@@ -7218,7 +7305,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>94</v>
       </c>
@@ -7227,37 +7314,39 @@
         <v>180</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="70"/>
+      <c r="E36" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="F36" s="83"/>
+      <c r="G36" s="84"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
       <c r="B37" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>111</v>
+      <c r="D37" s="64" t="s">
+        <v>329</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>297</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="71"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="70"/>
       <c r="B38" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>111</v>
+      <c r="D38" s="64" t="s">
+        <v>329</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>297</v>
@@ -7265,8 +7354,8 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="71"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="70"/>
       <c r="B39" s="6"/>
       <c r="C39" s="1"/>
       <c r="D39" s="6"/>
@@ -7274,8 +7363,8 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="70"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1"/>
       <c r="D40" s="6"/>
@@ -7283,8 +7372,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="71"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1"/>
       <c r="D41" s="6"/>
@@ -7292,8 +7381,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="71"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
@@ -7301,8 +7390,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="71"/>
       <c r="B43" s="10"/>
       <c r="C43" s="20"/>
       <c r="D43" s="10"/>
@@ -7310,7 +7399,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>95</v>
       </c>
@@ -7323,16 +7412,16 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="70"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="69"/>
       <c r="B45" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>111</v>
+      <c r="D45" s="64" t="s">
+        <v>329</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>297</v>
@@ -7340,16 +7429,16 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="71"/>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="70"/>
       <c r="B46" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>111</v>
+      <c r="D46" s="64" t="s">
+        <v>329</v>
       </c>
       <c r="E46" s="35" t="s">
         <v>297</v>
@@ -7357,8 +7446,8 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="71"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="70"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1"/>
       <c r="D47" s="6"/>
@@ -7366,8 +7455,8 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="71"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="70"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1"/>
       <c r="D48" s="6"/>
@@ -7375,8 +7464,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="71"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1"/>
       <c r="D49" s="6"/>
@@ -7384,8 +7473,8 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="71"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
       <c r="B50" s="6"/>
       <c r="C50" s="1"/>
       <c r="D50" s="6"/>
@@ -7393,8 +7482,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="71"/>
       <c r="B51" s="10"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10"/>
@@ -7402,7 +7491,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>96</v>
       </c>
@@ -7411,20 +7500,20 @@
         <v>181</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="70"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="87"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="69"/>
       <c r="B53" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="66" t="s">
-        <v>330</v>
+      <c r="D53" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>294</v>
@@ -7432,8 +7521,8 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="71"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="70"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1"/>
       <c r="D54" s="6"/>
@@ -7441,8 +7530,8 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="71"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1"/>
       <c r="D55" s="6"/>
@@ -7450,8 +7539,8 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="71"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="70"/>
       <c r="B56" s="6"/>
       <c r="C56" s="1"/>
       <c r="D56" s="6"/>
@@ -7459,8 +7548,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="71"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="70"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1"/>
       <c r="D57" s="6"/>
@@ -7468,8 +7557,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="71"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="70"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1"/>
       <c r="D58" s="6"/>
@@ -7477,8 +7566,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="71"/>
       <c r="B59" s="10"/>
       <c r="C59" s="20"/>
       <c r="D59" s="10"/>
@@ -7486,7 +7575,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>143</v>
       </c>
@@ -7494,80 +7583,82 @@
         <v>145</v>
       </c>
       <c r="D60" s="22"/>
-      <c r="E60" s="73"/>
+      <c r="E60" s="73" t="s">
+        <v>354</v>
+      </c>
       <c r="F60" s="74"/>
       <c r="G60" s="75"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="70"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
       <c r="B61" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="D61" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="E61" s="61" t="s">
+      <c r="D61" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E61" s="59" t="s">
         <v>295</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="71"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="70"/>
       <c r="B62" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D62" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="E62" s="61" t="s">
+      <c r="D62" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E62" s="59" t="s">
         <v>295</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="71"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="70"/>
       <c r="B63" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="E63" s="61" t="s">
+      <c r="D63" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E63" s="59" t="s">
         <v>295</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="71"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="70"/>
       <c r="B64" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="E64" s="61" t="s">
+      <c r="D64" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E64" s="59" t="s">
         <v>295</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="71"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
       <c r="B65" s="22"/>
       <c r="C65" s="1"/>
       <c r="D65" s="22"/>
@@ -7575,8 +7666,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="71"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
       <c r="B66" s="22"/>
       <c r="C66" s="1"/>
       <c r="D66" s="22"/>
@@ -7584,8 +7675,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="72"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="71"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -7593,35 +7684,35 @@
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>166</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-    </row>
-    <row r="69" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="70"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="75"/>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="69"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D69" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="E69" s="63" t="s">
+        <v>346</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" s="61" t="s">
         <v>299</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="71"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="70"/>
       <c r="B70" s="22"/>
       <c r="C70" s="1"/>
       <c r="D70" s="22"/>
@@ -7629,8 +7720,8 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="71"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
       <c r="B71" s="22"/>
       <c r="C71" s="1"/>
       <c r="D71" s="22"/>
@@ -7638,8 +7729,8 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="71"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
       <c r="B72" s="22"/>
       <c r="C72" s="1"/>
       <c r="D72" s="22"/>
@@ -7647,8 +7738,8 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="71"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
       <c r="B73" s="22"/>
       <c r="C73" s="1"/>
       <c r="D73" s="22"/>
@@ -7656,8 +7747,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="71"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
       <c r="B74" s="22"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -7665,8 +7756,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="72"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="71"/>
       <c r="B75" s="10"/>
       <c r="C75" s="20"/>
       <c r="D75" s="10"/>
@@ -7674,7 +7765,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>12</v>
       </c>
@@ -7682,20 +7773,22 @@
         <v>151</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="73"/>
+      <c r="E76" s="73" t="s">
+        <v>349</v>
+      </c>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="70"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="69"/>
       <c r="B77" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D77" s="82" t="s">
-        <v>111</v>
+      <c r="D77" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E77" s="35" t="s">
         <v>298</v>
@@ -7703,25 +7796,25 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="71"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="70"/>
       <c r="B78" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D78" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E78" s="61" t="s">
+      <c r="D78" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" s="59" t="s">
         <v>298</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="71"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="70"/>
       <c r="B79" s="22"/>
       <c r="C79" s="1"/>
       <c r="D79" s="22"/>
@@ -7729,8 +7822,8 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="71"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="70"/>
       <c r="B80" s="22"/>
       <c r="C80" s="1"/>
       <c r="D80" s="22"/>
@@ -7738,8 +7831,8 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="71"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="70"/>
       <c r="B81" s="22"/>
       <c r="C81" s="1"/>
       <c r="D81" s="22"/>
@@ -7747,8 +7840,8 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="71"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="70"/>
       <c r="B82" s="22"/>
       <c r="C82" s="1"/>
       <c r="D82" s="22"/>
@@ -7756,8 +7849,8 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="72"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="71"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -7765,7 +7858,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>140</v>
       </c>
@@ -7773,19 +7866,21 @@
         <v>141</v>
       </c>
       <c r="D84" s="6"/>
-      <c r="E84" s="73"/>
+      <c r="E84" s="73" t="s">
+        <v>353</v>
+      </c>
       <c r="F84" s="74"/>
       <c r="G84" s="75"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="70"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="69"/>
       <c r="B85" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D85" s="82" t="s">
+      <c r="D85" s="66" t="s">
         <v>111</v>
       </c>
       <c r="E85" s="35" t="s">
@@ -7794,15 +7889,15 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="71"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="70"/>
       <c r="B86" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D86" s="82" t="s">
+      <c r="D86" s="66" t="s">
         <v>111</v>
       </c>
       <c r="E86" s="35" t="s">
@@ -7811,8 +7906,8 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="71"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="70"/>
       <c r="B87" s="36"/>
       <c r="C87" s="1"/>
       <c r="D87" s="6"/>
@@ -7820,8 +7915,8 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="71"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="70"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1"/>
       <c r="D88" s="6"/>
@@ -7829,8 +7924,8 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="71"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="70"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1"/>
       <c r="D89" s="6"/>
@@ -7838,8 +7933,8 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="71"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="70"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1"/>
       <c r="D90" s="6"/>
@@ -7847,8 +7942,8 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="72"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="71"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -7857,7 +7952,12 @@
       <c r="G91" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E52:G52"/>
     <mergeCell ref="A85:A91"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A1:G5"/>
@@ -7873,6 +7973,7 @@
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="A77:A83"/>
+    <mergeCell ref="E68:G68"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7888,17 +7989,17 @@
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="72.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>174</v>
       </c>
@@ -7909,7 +8010,7 @@
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -7918,7 +8019,7 @@
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -7927,7 +8028,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -7936,7 +8037,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -7945,7 +8046,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -7968,7 +8069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>134</v>
       </c>
@@ -7980,8 +8081,8 @@
       <c r="F7" s="74"/>
       <c r="G7" s="75"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
@@ -7997,8 +8098,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
@@ -8014,8 +8115,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
       <c r="B10" s="36" t="s">
         <v>117</v>
       </c>
@@ -8031,8 +8132,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -8040,8 +8141,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -8049,8 +8150,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -8058,8 +8159,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -8067,7 +8168,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>10</v>
       </c>
@@ -8079,8 +8180,8 @@
       <c r="F15" s="74"/>
       <c r="G15" s="75"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
       <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
@@ -8096,8 +8197,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="71"/>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
       <c r="B17" s="27" t="s">
         <v>116</v>
       </c>
@@ -8113,8 +8214,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
       <c r="B18" s="27"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -8122,8 +8223,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -8131,8 +8232,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -8140,8 +8241,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -8149,8 +8250,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -8158,7 +8259,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>11</v>
       </c>
@@ -8170,8 +8271,8 @@
       <c r="F23" s="74"/>
       <c r="G23" s="75"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="70"/>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
       <c r="B24" s="27" t="s">
         <v>115</v>
       </c>
@@ -8187,8 +8288,8 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
       <c r="B25" s="27" t="s">
         <v>116</v>
       </c>
@@ -8204,8 +8305,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="71"/>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
       <c r="B26" s="27" t="s">
         <v>117</v>
       </c>
@@ -8221,8 +8322,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="71"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -8230,8 +8331,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="71"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -8239,8 +8340,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="71"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -8248,8 +8349,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -8257,7 +8358,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>146</v>
       </c>
@@ -8269,8 +8370,8 @@
       <c r="F31" s="74"/>
       <c r="G31" s="75"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="70"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
       <c r="B32" s="36" t="s">
         <v>115</v>
       </c>
@@ -8286,8 +8387,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
       <c r="B33" s="39" t="s">
         <v>116</v>
       </c>
@@ -8303,8 +8404,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="70"/>
       <c r="B34" s="39" t="s">
         <v>117</v>
       </c>
@@ -8320,8 +8421,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="71"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
       <c r="B35" s="36" t="s">
         <v>118</v>
       </c>
@@ -8337,8 +8438,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="71"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="70"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -8346,8 +8447,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="71"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -8355,8 +8456,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="71"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -8364,7 +8465,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>13</v>
       </c>
@@ -8376,8 +8477,8 @@
       <c r="F39" s="74"/>
       <c r="G39" s="75"/>
     </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="70"/>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
       <c r="B40" s="27" t="s">
         <v>115</v>
       </c>
@@ -8393,8 +8494,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="71"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
       <c r="B41" s="27"/>
       <c r="C41" s="1"/>
       <c r="D41" s="22"/>
@@ -8402,8 +8503,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="71"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
       <c r="B42" s="27"/>
       <c r="C42" s="1"/>
       <c r="D42" s="22"/>
@@ -8411,8 +8512,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="71"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="70"/>
       <c r="B43" s="22"/>
       <c r="C43" s="1"/>
       <c r="D43" s="22"/>
@@ -8420,8 +8521,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="71"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
       <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="22"/>
@@ -8429,8 +8530,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="71"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
       <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="22"/>
@@ -8438,8 +8539,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="72"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="71"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -8447,7 +8548,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>154</v>
       </c>
@@ -8459,8 +8560,8 @@
       <c r="F47" s="74"/>
       <c r="G47" s="75"/>
     </row>
-    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="70"/>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
       <c r="B48" s="36" t="s">
         <v>115</v>
       </c>
@@ -8476,8 +8577,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="71"/>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
       <c r="B49" s="36" t="s">
         <v>116</v>
       </c>
@@ -8493,8 +8594,8 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="71"/>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
       <c r="B50" s="36" t="s">
         <v>117</v>
       </c>
@@ -8510,8 +8611,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="71"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="70"/>
       <c r="B51" s="22"/>
       <c r="C51" s="1"/>
       <c r="D51" s="22"/>
@@ -8519,8 +8620,8 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="71"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="70"/>
       <c r="B52" s="22"/>
       <c r="C52" s="1"/>
       <c r="D52" s="22"/>
@@ -8528,8 +8629,8 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="71"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="70"/>
       <c r="B53" s="22"/>
       <c r="C53" s="1"/>
       <c r="D53" s="22"/>
@@ -8537,8 +8638,8 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="71"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -8546,7 +8647,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>14</v>
       </c>
@@ -8558,8 +8659,8 @@
       <c r="F55" s="74"/>
       <c r="G55" s="75"/>
     </row>
-    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="70"/>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
       <c r="B56" s="27" t="s">
         <v>115</v>
       </c>
@@ -8575,8 +8676,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="71"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="70"/>
       <c r="B57" s="27" t="s">
         <v>116</v>
       </c>
@@ -8592,8 +8693,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="71"/>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="70"/>
       <c r="B58" s="27" t="s">
         <v>117</v>
       </c>
@@ -8609,8 +8710,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="71"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="70"/>
       <c r="B59" s="22"/>
       <c r="C59" s="1"/>
       <c r="D59" s="22"/>
@@ -8618,8 +8719,8 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="71"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="70"/>
       <c r="B60" s="22"/>
       <c r="C60" s="1"/>
       <c r="D60" s="22"/>
@@ -8627,8 +8728,8 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="71"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="70"/>
       <c r="B61" s="22"/>
       <c r="C61" s="1"/>
       <c r="D61" s="22"/>
@@ -8636,8 +8737,8 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="72"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="71"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -8645,7 +8746,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>155</v>
       </c>
@@ -8657,8 +8758,8 @@
       <c r="F63" s="74"/>
       <c r="G63" s="75"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="70"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="69"/>
       <c r="B64" s="36" t="s">
         <v>115</v>
       </c>
@@ -8674,8 +8775,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="71"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
       <c r="B65" s="36" t="s">
         <v>116</v>
       </c>
@@ -8691,8 +8792,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="71"/>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
       <c r="B66" s="36" t="s">
         <v>117</v>
       </c>
@@ -8708,8 +8809,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="71"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
       <c r="B67" s="36" t="s">
         <v>118</v>
       </c>
@@ -8725,8 +8826,8 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="71"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="70"/>
       <c r="B68" s="36" t="s">
         <v>189</v>
       </c>
@@ -8742,8 +8843,8 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="71"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="70"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1"/>
       <c r="D69" s="22"/>
@@ -8751,8 +8852,8 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="72"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="71"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -8760,7 +8861,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>98</v>
       </c>
@@ -8772,8 +8873,8 @@
       <c r="F71" s="74"/>
       <c r="G71" s="75"/>
     </row>
-    <row r="72" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="70"/>
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="69"/>
       <c r="B72" s="27" t="s">
         <v>115</v>
       </c>
@@ -8791,8 +8892,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="71"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
       <c r="B73" s="27"/>
       <c r="C73" s="1"/>
       <c r="D73" s="22"/>
@@ -8800,8 +8901,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="71"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
       <c r="B74" s="27"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -8809,8 +8910,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="71"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="70"/>
       <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="22"/>
@@ -8818,8 +8919,8 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="71"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="70"/>
       <c r="B76" s="22"/>
       <c r="C76" s="1"/>
       <c r="D76" s="22"/>
@@ -8827,8 +8928,8 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="71"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="70"/>
       <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="22"/>
@@ -8836,8 +8937,8 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="72"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="71"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -8845,7 +8946,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>99</v>
       </c>
@@ -8857,8 +8958,8 @@
       <c r="F79" s="74"/>
       <c r="G79" s="75"/>
     </row>
-    <row r="80" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="70"/>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="69"/>
       <c r="B80" s="27" t="s">
         <v>115</v>
       </c>
@@ -8874,8 +8975,8 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="71"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="70"/>
       <c r="B81" s="27"/>
       <c r="C81" s="1"/>
       <c r="D81" s="22"/>
@@ -8883,8 +8984,8 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="71"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="70"/>
       <c r="B82" s="27"/>
       <c r="C82" s="1"/>
       <c r="D82" s="22"/>
@@ -8892,8 +8993,8 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="71"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="70"/>
       <c r="B83" s="22"/>
       <c r="C83" s="1"/>
       <c r="D83" s="22"/>
@@ -8901,8 +9002,8 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="71"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="70"/>
       <c r="B84" s="22"/>
       <c r="C84" s="1"/>
       <c r="D84" s="22"/>
@@ -8910,8 +9011,8 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="71"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="70"/>
       <c r="B85" s="22"/>
       <c r="C85" s="1"/>
       <c r="D85" s="22"/>
@@ -8919,8 +9020,8 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="72"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="71"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -8928,7 +9029,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>100</v>
       </c>
@@ -8940,8 +9041,8 @@
       <c r="F87" s="74"/>
       <c r="G87" s="75"/>
     </row>
-    <row r="88" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="70"/>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="69"/>
       <c r="B88" s="27" t="s">
         <v>115</v>
       </c>
@@ -8957,8 +9058,8 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="71"/>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="70"/>
       <c r="B89" s="27" t="s">
         <v>116</v>
       </c>
@@ -8976,8 +9077,8 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="71"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="70"/>
       <c r="B90" s="27"/>
       <c r="C90" s="1"/>
       <c r="D90" s="22"/>
@@ -8985,8 +9086,8 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="71"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="70"/>
       <c r="B91" s="22"/>
       <c r="C91" s="1"/>
       <c r="D91" s="22"/>
@@ -8994,8 +9095,8 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="71"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="70"/>
       <c r="B92" s="22"/>
       <c r="C92" s="1"/>
       <c r="D92" s="22"/>
@@ -9003,8 +9104,8 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="71"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="70"/>
       <c r="B93" s="22"/>
       <c r="C93" s="1"/>
       <c r="D93" s="22"/>
@@ -9012,8 +9113,8 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="72"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="71"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -9021,7 +9122,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>67</v>
       </c>
@@ -9033,8 +9134,8 @@
       <c r="F95" s="74"/>
       <c r="G95" s="75"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="70"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="69"/>
       <c r="B96" s="27" t="s">
         <v>115</v>
       </c>
@@ -9050,8 +9151,8 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="71"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="70"/>
       <c r="B97" s="22"/>
       <c r="C97" s="1"/>
       <c r="D97" s="22"/>
@@ -9059,8 +9160,8 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="71"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="70"/>
       <c r="B98" s="22"/>
       <c r="C98" s="1"/>
       <c r="D98" s="22"/>
@@ -9068,8 +9169,8 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="71"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="70"/>
       <c r="B99" s="22"/>
       <c r="C99" s="1"/>
       <c r="D99" s="22"/>
@@ -9077,8 +9178,8 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="71"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="70"/>
       <c r="B100" s="22"/>
       <c r="C100" s="1"/>
       <c r="D100" s="22"/>
@@ -9086,8 +9187,8 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="71"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="70"/>
       <c r="B101" s="22"/>
       <c r="C101" s="1"/>
       <c r="D101" s="22"/>
@@ -9095,8 +9196,8 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="72"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="71"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -9104,82 +9205,82 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="62"/>
+      <c r="D103" s="60"/>
       <c r="E103" s="73"/>
       <c r="F103" s="74"/>
       <c r="G103" s="75"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="70"/>
-      <c r="B104" s="62" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="69"/>
+      <c r="B104" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D104" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="D104" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="E104" s="62" t="s">
+      <c r="E104" s="60" t="s">
         <v>297</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="71"/>
-      <c r="B105" s="62"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="70"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="71"/>
-      <c r="B106" s="62"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="70"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="71"/>
-      <c r="B107" s="62"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="70"/>
+      <c r="B107" s="60"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="71"/>
-      <c r="B108" s="62"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="70"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="71"/>
-      <c r="B109" s="62"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="70"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="72"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="71"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -9189,17 +9290,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A72:A78"/>
     <mergeCell ref="E103:G103"/>
     <mergeCell ref="A104:A110"/>
     <mergeCell ref="A1:G5"/>
@@ -9216,6 +9306,17 @@
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9230,15 +9331,15 @@
       <selection activeCell="B23" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="7" max="7" width="31.54296875" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>175</v>
       </c>
@@ -9249,7 +9350,7 @@
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -9258,7 +9359,7 @@
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -9267,7 +9368,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -9276,7 +9377,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -9285,7 +9386,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -9308,7 +9409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
@@ -9321,8 +9422,8 @@
       <c r="F7" s="77"/>
       <c r="G7" s="78"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
@@ -9338,8 +9439,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
@@ -9355,8 +9456,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
@@ -9364,8 +9465,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -9373,8 +9474,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -9382,8 +9483,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -9391,8 +9492,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9400,7 +9501,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
@@ -9412,8 +9513,8 @@
       <c r="F15" s="74"/>
       <c r="G15" s="75"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
       <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
@@ -9429,8 +9530,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="71"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
       <c r="B17" s="27" t="s">
         <v>116</v>
       </c>
@@ -9446,8 +9547,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
       <c r="B18" s="27" t="s">
         <v>117</v>
       </c>
@@ -9463,8 +9564,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -9472,8 +9573,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -9481,8 +9582,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -9490,8 +9591,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -9499,7 +9600,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>103</v>
       </c>
@@ -9511,8 +9612,8 @@
       <c r="F23" s="74"/>
       <c r="G23" s="75"/>
     </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="70"/>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
       <c r="B24" s="33" t="s">
         <v>115</v>
       </c>
@@ -9528,8 +9629,8 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
       <c r="B25" s="35" t="s">
         <v>116</v>
       </c>
@@ -9545,8 +9646,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="71"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
       <c r="B26" s="35" t="s">
         <v>117</v>
       </c>
@@ -9562,8 +9663,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="71"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -9571,8 +9672,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="71"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -9580,8 +9681,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="71"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -9589,8 +9690,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -9598,7 +9699,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>104</v>
       </c>
@@ -9610,8 +9711,8 @@
       <c r="F31" s="74"/>
       <c r="G31" s="75"/>
     </row>
-    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="70"/>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
       <c r="B32" s="22" t="s">
         <v>115</v>
       </c>
@@ -9627,8 +9728,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
       <c r="B33" s="33" t="s">
         <v>116</v>
       </c>
@@ -9644,8 +9745,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="70"/>
       <c r="B34" s="33" t="s">
         <v>117</v>
       </c>
@@ -9661,8 +9762,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="71"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
       <c r="B35" s="22"/>
       <c r="C35" s="1"/>
       <c r="D35" s="22"/>
@@ -9670,8 +9771,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="71"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="70"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -9679,8 +9780,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="71"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -9688,8 +9789,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="71"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -9722,15 +9823,15 @@
       <selection activeCell="B6" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.08984375" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>293</v>
       </c>
@@ -9741,7 +9842,7 @@
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -9750,7 +9851,7 @@
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -9759,7 +9860,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -9768,7 +9869,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -9777,7 +9878,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -9800,7 +9901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>15</v>
       </c>
@@ -9812,8 +9913,8 @@
       <c r="F7" s="74"/>
       <c r="G7" s="75"/>
     </row>
-    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
       <c r="B8" s="27" t="s">
         <v>115</v>
       </c>
@@ -9830,8 +9931,8 @@
       <c r="G8" s="1"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
       <c r="B9" s="27" t="s">
         <v>116</v>
       </c>
@@ -9847,8 +9948,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
       <c r="B10" s="27"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
@@ -9856,8 +9957,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -9865,8 +9966,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -9874,8 +9975,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -9883,8 +9984,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9892,7 +9993,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>158</v>
       </c>
@@ -9905,8 +10006,8 @@
       <c r="F15" s="77"/>
       <c r="G15" s="78"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
       <c r="B16" s="36" t="s">
         <v>115</v>
       </c>
@@ -9922,8 +10023,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="71"/>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
       <c r="B17" s="36" t="s">
         <v>116</v>
       </c>
@@ -9939,8 +10040,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
@@ -9948,8 +10049,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
@@ -9957,8 +10058,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
       <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
@@ -9966,8 +10067,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
       <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
@@ -9975,8 +10076,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -9984,7 +10085,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>97</v>
       </c>
@@ -9996,8 +10097,8 @@
       <c r="F23" s="74"/>
       <c r="G23" s="75"/>
     </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="70"/>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
       <c r="B24" s="31" t="s">
         <v>115</v>
       </c>
@@ -10013,8 +10114,8 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
       <c r="B25" s="31" t="s">
         <v>116</v>
       </c>
@@ -10030,8 +10131,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="71"/>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
       <c r="B26" s="31" t="s">
         <v>117</v>
       </c>
@@ -10047,8 +10148,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="71"/>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
       <c r="B27" s="22" t="s">
         <v>118</v>
       </c>
@@ -10064,8 +10165,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="71"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -10073,8 +10174,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="71"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -10082,8 +10183,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="72"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10091,7 +10192,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>93</v>
       </c>
@@ -10103,8 +10204,8 @@
       <c r="F31" s="74"/>
       <c r="G31" s="75"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="70"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
       <c r="B32" s="31" t="s">
         <v>115</v>
       </c>
@@ -10120,8 +10221,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
       <c r="B33" s="31" t="s">
         <v>116</v>
       </c>
@@ -10137,8 +10238,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="70"/>
       <c r="B34" s="31" t="s">
         <v>117</v>
       </c>
@@ -10154,8 +10255,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="71"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
       <c r="B35" s="22" t="s">
         <v>118</v>
       </c>
@@ -10171,8 +10272,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="71"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="70"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -10180,8 +10281,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="71"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -10189,8 +10290,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="71"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -10198,7 +10299,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>105</v>
       </c>
@@ -10210,8 +10311,8 @@
       <c r="F39" s="74"/>
       <c r="G39" s="75"/>
     </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="70"/>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
       <c r="B40" s="33" t="s">
         <v>115</v>
       </c>
@@ -10227,8 +10328,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="71"/>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
       <c r="B41" s="33" t="s">
         <v>116</v>
       </c>
@@ -10244,8 +10345,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="71"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
       <c r="B42" s="33"/>
       <c r="C42" s="1"/>
       <c r="D42" s="22"/>
@@ -10253,8 +10354,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="71"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="70"/>
       <c r="B43" s="33"/>
       <c r="C43" s="1"/>
       <c r="D43" s="22"/>
@@ -10262,8 +10363,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="71"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
       <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="22"/>
@@ -10271,8 +10372,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="71"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
       <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="22"/>
@@ -10280,8 +10381,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="72"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="71"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -10289,7 +10390,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>106</v>
       </c>
@@ -10301,8 +10402,8 @@
       <c r="F47" s="74"/>
       <c r="G47" s="75"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="70"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
       <c r="B48" s="33" t="s">
         <v>115</v>
       </c>
@@ -10318,8 +10419,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="71"/>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
       <c r="B49" s="33" t="s">
         <v>116</v>
       </c>
@@ -10335,8 +10436,8 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="71"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
       <c r="B50" s="33"/>
       <c r="C50" s="1"/>
       <c r="D50" s="22"/>
@@ -10344,8 +10445,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="71"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="70"/>
       <c r="B51" s="33"/>
       <c r="C51" s="1"/>
       <c r="D51" s="22"/>
@@ -10353,8 +10454,8 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="71"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="70"/>
       <c r="B52" s="22"/>
       <c r="C52" s="1"/>
       <c r="D52" s="22"/>
@@ -10362,8 +10463,8 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="71"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="70"/>
       <c r="B53" s="22"/>
       <c r="C53" s="1"/>
       <c r="D53" s="22"/>
@@ -10371,8 +10472,8 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="71"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -10380,7 +10481,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>107</v>
       </c>
@@ -10392,8 +10493,8 @@
       <c r="F55" s="74"/>
       <c r="G55" s="75"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="70"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
       <c r="B56" s="39" t="s">
         <v>115</v>
       </c>
@@ -10409,8 +10510,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="71"/>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="70"/>
       <c r="B57" s="39" t="s">
         <v>116</v>
       </c>
@@ -10426,8 +10527,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="71"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="70"/>
       <c r="B58" s="39" t="s">
         <v>117</v>
       </c>
@@ -10443,8 +10544,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="71"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="70"/>
       <c r="B59" s="33"/>
       <c r="C59" s="1"/>
       <c r="D59" s="22"/>
@@ -10452,8 +10553,8 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="71"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="70"/>
       <c r="B60" s="22"/>
       <c r="C60" s="1"/>
       <c r="D60" s="22"/>
@@ -10461,8 +10562,8 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="71"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="70"/>
       <c r="B61" s="22"/>
       <c r="C61" s="1"/>
       <c r="D61" s="22"/>
@@ -10470,8 +10571,8 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="72"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="71"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -10479,7 +10580,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>108</v>
       </c>
@@ -10491,8 +10592,8 @@
       <c r="F63" s="74"/>
       <c r="G63" s="75"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="70"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="69"/>
       <c r="B64" s="33" t="s">
         <v>115</v>
       </c>
@@ -10508,8 +10609,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="71"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
       <c r="B65" s="33" t="s">
         <v>116</v>
       </c>
@@ -10525,8 +10626,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="71"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
       <c r="B66" s="33"/>
       <c r="C66" s="1"/>
       <c r="D66" s="22"/>
@@ -10534,8 +10635,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="71"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
       <c r="B67" s="33"/>
       <c r="C67" s="1"/>
       <c r="D67" s="22"/>
@@ -10543,8 +10644,8 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="71"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="70"/>
       <c r="B68" s="22"/>
       <c r="C68" s="1"/>
       <c r="D68" s="22"/>
@@ -10552,8 +10653,8 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="71"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="70"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1"/>
       <c r="D69" s="22"/>
@@ -10561,8 +10662,8 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="72"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="71"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -10570,7 +10671,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>171</v>
       </c>
@@ -10583,8 +10684,8 @@
       <c r="F71" s="77"/>
       <c r="G71" s="78"/>
     </row>
-    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="70"/>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="69"/>
       <c r="B72" s="39" t="s">
         <v>115</v>
       </c>
@@ -10600,8 +10701,8 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="71"/>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
       <c r="B73" s="39" t="s">
         <v>116</v>
       </c>
@@ -10617,8 +10718,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="71"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
       <c r="B74" s="22"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -10626,8 +10727,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="71"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="70"/>
       <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="22"/>
@@ -10635,8 +10736,8 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="71"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="70"/>
       <c r="B76" s="22"/>
       <c r="C76" s="1"/>
       <c r="D76" s="22"/>
@@ -10644,8 +10745,8 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="71"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="70"/>
       <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="22"/>
@@ -10653,8 +10754,8 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="72"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="71"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -10664,6 +10765,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
@@ -10673,16 +10784,6 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:A62"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10698,15 +10799,15 @@
       <selection activeCell="B6" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.08984375" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>296</v>
       </c>
@@ -10717,7 +10818,7 @@
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -10726,7 +10827,7 @@
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -10735,7 +10836,7 @@
       <c r="F3" s="67"/>
       <c r="G3" s="67"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -10744,7 +10845,7 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -10753,7 +10854,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
     </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -10776,7 +10877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="44" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="44" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>101</v>
       </c>
@@ -10789,8 +10890,8 @@
       <c r="F7" s="74"/>
       <c r="G7" s="75"/>
     </row>
-    <row r="8" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+    <row r="8" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
       <c r="B8" s="22" t="s">
         <v>115</v>
       </c>
@@ -10807,8 +10908,8 @@
       <c r="G8" s="1"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
+    <row r="9" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
       <c r="B9" s="33" t="s">
         <v>116</v>
       </c>
@@ -10824,8 +10925,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
+    <row r="10" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
       <c r="B10" s="33" t="s">
         <v>117</v>
       </c>
@@ -10841,8 +10942,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
+    <row r="11" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
       <c r="B11" s="22"/>
       <c r="C11" s="1"/>
       <c r="D11" s="22"/>
@@ -10850,8 +10951,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
       <c r="B12" s="22"/>
       <c r="C12" s="1"/>
       <c r="D12" s="22"/>
@@ -10859,8 +10960,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
       <c r="B13" s="22"/>
       <c r="C13" s="1"/>
       <c r="D13" s="22"/>
@@ -10868,8 +10969,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+    <row r="14" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -10877,7 +10978,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="44" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="44" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>283</v>
       </c>
@@ -10890,8 +10991,8 @@
       <c r="F15" s="74"/>
       <c r="G15" s="75"/>
     </row>
-    <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
+    <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
       <c r="B16" s="39" t="s">
         <v>115</v>
       </c>
@@ -10907,8 +11008,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="71"/>
+    <row r="17" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
       <c r="B17" s="39" t="s">
         <v>116</v>
       </c>
@@ -10924,8 +11025,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
+    <row r="18" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
       <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -10933,8 +11034,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
+    <row r="19" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -10942,8 +11043,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
+    <row r="20" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -10951,8 +11052,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
+    <row r="21" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -10960,8 +11061,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="72"/>
+    <row r="22" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -10969,7 +11070,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>306</v>
       </c>
@@ -10981,7 +11082,7 @@
       <c r="F23" s="77"/>
       <c r="G23" s="78"/>
     </row>
-    <row r="24" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
       <c r="B24" s="43"/>
       <c r="C24" s="14" t="s">
@@ -10996,7 +11097,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="43"/>
       <c r="C25" s="14" t="s">
@@ -11011,7 +11112,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="43"/>
       <c r="C26" s="14"/>
@@ -11020,7 +11121,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="43"/>
       <c r="C27" s="14"/>
@@ -11029,7 +11130,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="43"/>
       <c r="C28" s="14"/>
@@ -11038,7 +11139,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="43"/>
       <c r="C29" s="14"/>
@@ -11047,7 +11148,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -11056,7 +11157,7 @@
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="C31" s="15"/>
       <c r="D31" s="43"/>
@@ -11064,7 +11165,7 @@
       <c r="F31" s="77"/>
       <c r="G31" s="78"/>
     </row>
-    <row r="32" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="79"/>
       <c r="B32" s="43"/>
       <c r="C32" s="14"/>
@@ -11073,7 +11174,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="43"/>
       <c r="C33" s="14"/>
@@ -11082,7 +11183,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="80"/>
       <c r="B34" s="43"/>
       <c r="C34" s="14"/>
@@ -11091,7 +11192,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="43"/>
       <c r="C35" s="14"/>
@@ -11100,7 +11201,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
       <c r="B36" s="43"/>
       <c r="C36" s="14"/>
@@ -11109,7 +11210,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="80"/>
       <c r="B37" s="43"/>
       <c r="C37" s="14"/>
@@ -11118,7 +11219,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="81"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -11127,7 +11228,7 @@
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
     </row>
-    <row r="39" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="C39" s="15"/>
       <c r="D39" s="43"/>
@@ -11135,7 +11236,7 @@
       <c r="F39" s="77"/>
       <c r="G39" s="78"/>
     </row>
-    <row r="40" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="79"/>
       <c r="B40" s="43"/>
       <c r="C40" s="14"/>
@@ -11144,7 +11245,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80"/>
       <c r="B41" s="43"/>
       <c r="C41" s="14"/>
@@ -11153,7 +11254,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80"/>
       <c r="B42" s="43"/>
       <c r="C42" s="14"/>
@@ -11162,7 +11263,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80"/>
       <c r="B43" s="43"/>
       <c r="C43" s="14"/>
@@ -11171,7 +11272,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="80"/>
       <c r="B44" s="43"/>
       <c r="C44" s="14"/>
@@ -11180,7 +11281,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="80"/>
       <c r="B45" s="43"/>
       <c r="C45" s="14"/>
@@ -11189,7 +11290,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -11198,7 +11299,7 @@
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
     </row>
-    <row r="47" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="C47" s="15"/>
       <c r="D47" s="43"/>
@@ -11206,7 +11307,7 @@
       <c r="F47" s="77"/>
       <c r="G47" s="78"/>
     </row>
-    <row r="48" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="79"/>
       <c r="B48" s="43"/>
       <c r="C48" s="14"/>
@@ -11215,7 +11316,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="80"/>
       <c r="B49" s="43"/>
       <c r="C49" s="14"/>
@@ -11224,7 +11325,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="80"/>
       <c r="B50" s="43"/>
       <c r="C50" s="14"/>
@@ -11233,7 +11334,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="80"/>
       <c r="B51" s="43"/>
       <c r="C51" s="14"/>
@@ -11242,7 +11343,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="80"/>
       <c r="B52" s="43"/>
       <c r="C52" s="14"/>
@@ -11251,7 +11352,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="80"/>
       <c r="B53" s="43"/>
       <c r="C53" s="14"/>
@@ -11260,7 +11361,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
@@ -11269,7 +11370,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
     </row>
-    <row r="55" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="C55" s="15"/>
       <c r="D55" s="43"/>
@@ -11277,7 +11378,7 @@
       <c r="F55" s="77"/>
       <c r="G55" s="78"/>
     </row>
-    <row r="56" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="79"/>
       <c r="B56" s="47"/>
       <c r="C56" s="14"/>
@@ -11286,7 +11387,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="80"/>
       <c r="B57" s="47"/>
       <c r="C57" s="14"/>
@@ -11295,7 +11396,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="80"/>
       <c r="B58" s="47"/>
       <c r="C58" s="14"/>
@@ -11304,7 +11405,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="80"/>
       <c r="B59" s="43"/>
       <c r="C59" s="14"/>
@@ -11313,7 +11414,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="80"/>
       <c r="B60" s="43"/>
       <c r="C60" s="14"/>
@@ -11322,7 +11423,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="80"/>
       <c r="B61" s="43"/>
       <c r="C61" s="14"/>
@@ -11331,7 +11432,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="81"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
@@ -11340,7 +11441,7 @@
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
     </row>
-    <row r="63" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="C63" s="15"/>
       <c r="D63" s="43"/>
@@ -11348,7 +11449,7 @@
       <c r="F63" s="77"/>
       <c r="G63" s="78"/>
     </row>
-    <row r="64" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79"/>
       <c r="B64" s="43"/>
       <c r="C64" s="14"/>
@@ -11357,7 +11458,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="80"/>
       <c r="B65" s="43"/>
       <c r="C65" s="14"/>
@@ -11366,7 +11467,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="80"/>
       <c r="B66" s="43"/>
       <c r="C66" s="14"/>
@@ -11375,7 +11476,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="80"/>
       <c r="B67" s="43"/>
       <c r="C67" s="14"/>
@@ -11384,7 +11485,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="80"/>
       <c r="B68" s="43"/>
       <c r="C68" s="14"/>
@@ -11393,7 +11494,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="80"/>
       <c r="B69" s="43"/>
       <c r="C69" s="14"/>
@@ -11402,7 +11503,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="81"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
@@ -11411,7 +11512,7 @@
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
     </row>
-    <row r="71" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="C71" s="15"/>
       <c r="D71" s="43"/>
@@ -11419,7 +11520,7 @@
       <c r="F71" s="77"/>
       <c r="G71" s="78"/>
     </row>
-    <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="79"/>
       <c r="B72" s="47"/>
       <c r="C72" s="14"/>
@@ -11428,7 +11529,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="80"/>
       <c r="B73" s="47"/>
       <c r="C73" s="14"/>
@@ -11437,7 +11538,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="80"/>
       <c r="B74" s="43"/>
       <c r="C74" s="14"/>
@@ -11446,7 +11547,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="80"/>
       <c r="B75" s="43"/>
       <c r="C75" s="14"/>
@@ -11455,7 +11556,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="80"/>
       <c r="B76" s="43"/>
       <c r="C76" s="14"/>
@@ -11464,7 +11565,7 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="80"/>
       <c r="B77" s="43"/>
       <c r="C77" s="14"/>
@@ -11473,7 +11574,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="81"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
@@ -11482,7 +11583,7 @@
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
     </row>
-    <row r="79" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="C79" s="15"/>
       <c r="D79" s="43"/>
@@ -11490,7 +11591,7 @@
       <c r="F79" s="77"/>
       <c r="G79" s="78"/>
     </row>
-    <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="79"/>
       <c r="B80" s="43"/>
       <c r="C80" s="14"/>
@@ -11499,7 +11600,7 @@
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="80"/>
       <c r="B81" s="43"/>
       <c r="C81" s="14"/>
@@ -11508,7 +11609,7 @@
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="80"/>
       <c r="B82" s="43"/>
       <c r="C82" s="14"/>
@@ -11517,7 +11618,7 @@
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="80"/>
       <c r="B83" s="43"/>
       <c r="C83" s="14"/>
@@ -11526,7 +11627,7 @@
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="80"/>
       <c r="B84" s="43"/>
       <c r="C84" s="14"/>
@@ -11535,7 +11636,7 @@
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
-    <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="80"/>
       <c r="B85" s="43"/>
       <c r="C85" s="14"/>
@@ -11544,7 +11645,7 @@
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="81"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
@@ -11553,7 +11654,7 @@
       <c r="F86" s="42"/>
       <c r="G86" s="42"/>
     </row>
-    <row r="87" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="C87" s="15"/>
       <c r="D87" s="43"/>
@@ -11561,7 +11662,7 @@
       <c r="F87" s="77"/>
       <c r="G87" s="78"/>
     </row>
-    <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="79"/>
       <c r="B88" s="47"/>
       <c r="C88" s="14"/>
@@ -11570,7 +11671,7 @@
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="80"/>
       <c r="B89" s="47"/>
       <c r="C89" s="14"/>
@@ -11579,7 +11680,7 @@
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
     </row>
-    <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="80"/>
       <c r="B90" s="43"/>
       <c r="C90" s="14"/>
@@ -11588,7 +11689,7 @@
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
     </row>
-    <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="80"/>
       <c r="B91" s="43"/>
       <c r="C91" s="14"/>
@@ -11597,7 +11698,7 @@
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
     </row>
-    <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="80"/>
       <c r="B92" s="43"/>
       <c r="C92" s="14"/>
@@ -11606,7 +11707,7 @@
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
     </row>
-    <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="80"/>
       <c r="B93" s="43"/>
       <c r="C93" s="14"/>
@@ -11615,7 +11716,7 @@
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="81"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
@@ -11624,7 +11725,7 @@
       <c r="F94" s="42"/>
       <c r="G94" s="42"/>
     </row>
-    <row r="95" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="C95" s="15"/>
       <c r="D95" s="43"/>
@@ -11632,7 +11733,7 @@
       <c r="F95" s="77"/>
       <c r="G95" s="78"/>
     </row>
-    <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="79"/>
       <c r="B96" s="43"/>
       <c r="C96" s="14"/>
@@ -11641,7 +11742,7 @@
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
     </row>
-    <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="80"/>
       <c r="B97" s="43"/>
       <c r="C97" s="14"/>
@@ -11650,7 +11751,7 @@
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="80"/>
       <c r="B98" s="43"/>
       <c r="C98" s="14"/>
@@ -11659,7 +11760,7 @@
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="80"/>
       <c r="B99" s="43"/>
       <c r="C99" s="14"/>
@@ -11668,7 +11769,7 @@
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
     </row>
-    <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="80"/>
       <c r="B100" s="43"/>
       <c r="C100" s="14"/>
@@ -11677,7 +11778,7 @@
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
     </row>
-    <row r="101" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="80"/>
       <c r="B101" s="43"/>
       <c r="C101" s="14"/>
@@ -11686,7 +11787,7 @@
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
     </row>
-    <row r="102" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="81"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42"/>
@@ -11695,7 +11796,7 @@
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
     </row>
-    <row r="103" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="C103" s="15"/>
       <c r="D103" s="43"/>
@@ -11703,7 +11804,7 @@
       <c r="F103" s="77"/>
       <c r="G103" s="78"/>
     </row>
-    <row r="104" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="79"/>
       <c r="B104" s="43"/>
       <c r="C104" s="14"/>
@@ -11712,7 +11813,7 @@
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
     </row>
-    <row r="105" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="80"/>
       <c r="B105" s="43"/>
       <c r="C105" s="14"/>
@@ -11721,7 +11822,7 @@
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
     </row>
-    <row r="106" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="80"/>
       <c r="B106" s="43"/>
       <c r="C106" s="14"/>
@@ -11730,7 +11831,7 @@
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
     </row>
-    <row r="107" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="80"/>
       <c r="B107" s="43"/>
       <c r="C107" s="14"/>
@@ -11739,7 +11840,7 @@
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
     </row>
-    <row r="108" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="80"/>
       <c r="B108" s="43"/>
       <c r="C108" s="14"/>
@@ -11748,7 +11849,7 @@
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
     </row>
-    <row r="109" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="80"/>
       <c r="B109" s="43"/>
       <c r="C109" s="14"/>
@@ -11757,7 +11858,7 @@
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
     </row>
-    <row r="110" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="81"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
@@ -11768,15 +11869,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="E31:G31"/>
@@ -11789,12 +11887,15 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josgarey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849010D-4DFC-4991-BD9C-6F818DD6B0F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98FA76-2EAC-4D11-929A-FFBDBBB1C485}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="378">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2917,6 +2917,75 @@
   </si>
   <si>
     <t>09-09-2019 Por el momento se muestra en un modal los id de las tablas, falta generar mas informacion</t>
+  </si>
+  <si>
+    <t>Acomodar el desarrollo para que este o sea responsivo, el mapa no se adapta al tipo de pantalla.</t>
+  </si>
+  <si>
+    <t>El mapa base tiene que ser Street</t>
+  </si>
+  <si>
+    <t>El campo nombre del usuario tiene que validar que sea solo letras, tener en cuentas los demás campos</t>
+  </si>
+  <si>
+    <t>Los usuarios no necesitan la identificación</t>
+  </si>
+  <si>
+    <t>Validar que solo sean 28 organismos, validar por cantidad de caracteres 6 dígitos</t>
+  </si>
+  <si>
+    <t>El botón de módulos y permisos no funciona</t>
+  </si>
+  <si>
+    <t>Orden de capas: 1 Punto, 2 Línea, 3 Polígono, 4 Construcción, 5 Terreno</t>
+  </si>
+  <si>
+    <t>Crear un Sprint 7 para documentación y otros entregables</t>
+  </si>
+  <si>
+    <t>Creación de tabla de auditorias</t>
+  </si>
+  <si>
+    <t>Pedir un server php 7 para producción y con salida</t>
+  </si>
+  <si>
+    <t>Verificar el manejo de modales sobre modales</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>Luis Miguel</t>
   </si>
 </sst>
 </file>
@@ -3231,7 +3300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3417,11 +3486,17 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3432,9 +3507,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3442,24 +3514,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3480,9 +3534,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3499,7 +3580,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3801,23 +3882,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:3" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>201</v>
       </c>
@@ -3828,7 +3909,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -3839,7 +3920,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -3850,7 +3931,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -3861,7 +3942,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -3872,7 +3953,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -3883,7 +3964,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="42">
         <v>6</v>
       </c>
@@ -3894,7 +3975,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
     </row>
   </sheetData>
@@ -3910,81 +3991,81 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A18" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -4013,7 +4094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -4041,7 +4122,7 @@
         <v>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>130</v>
       </c>
@@ -4069,7 +4150,7 @@
         <v>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
@@ -4096,7 +4177,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>134</v>
       </c>
@@ -4123,7 +4204,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
@@ -4148,7 +4229,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>140</v>
       </c>
@@ -4175,7 +4256,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>10</v>
       </c>
@@ -4200,7 +4281,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>143</v>
       </c>
@@ -4227,8 +4308,8 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="49" t="s">
@@ -4244,8 +4325,8 @@
         <v>111</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="52">
-        <v>3</v>
+      <c r="G15" s="89">
+        <v>6</v>
       </c>
       <c r="H15" s="60" t="s">
         <v>149</v>
@@ -4254,8 +4335,8 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="49" t="s">
@@ -4271,8 +4352,8 @@
         <v>111</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="52">
-        <v>3</v>
+      <c r="G16" s="89">
+        <v>6</v>
       </c>
       <c r="H16" s="60" t="s">
         <v>149</v>
@@ -4281,7 +4362,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>12</v>
       </c>
@@ -4308,7 +4389,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>13</v>
       </c>
@@ -4335,7 +4416,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>154</v>
       </c>
@@ -4362,7 +4443,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -4387,7 +4468,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
         <v>155</v>
       </c>
@@ -4412,7 +4493,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>15</v>
       </c>
@@ -4439,7 +4520,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>158</v>
       </c>
@@ -4464,7 +4545,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="45" t="s">
         <v>16</v>
       </c>
@@ -4489,7 +4570,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
         <v>159</v>
       </c>
@@ -4514,7 +4595,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
@@ -4537,7 +4618,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -4560,7 +4641,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>34</v>
       </c>
@@ -4587,7 +4668,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>166</v>
       </c>
@@ -4612,7 +4693,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45" t="s">
         <v>62</v>
       </c>
@@ -4639,7 +4720,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="45" t="s">
         <v>63</v>
       </c>
@@ -4666,7 +4747,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>64</v>
       </c>
@@ -4693,7 +4774,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>171</v>
       </c>
@@ -4720,7 +4801,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>66</v>
       </c>
@@ -4747,7 +4828,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>67</v>
       </c>
@@ -4772,7 +4853,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>94</v>
       </c>
@@ -4799,7 +4880,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>95</v>
       </c>
@@ -4824,7 +4905,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>96</v>
       </c>
@@ -4849,7 +4930,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>97</v>
       </c>
@@ -4876,7 +4957,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>283</v>
       </c>
@@ -4901,7 +4982,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
         <v>98</v>
       </c>
@@ -4928,7 +5009,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
         <v>99</v>
       </c>
@@ -4953,7 +5034,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
         <v>100</v>
       </c>
@@ -4978,7 +5059,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>101</v>
       </c>
@@ -5003,8 +5084,8 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
         <v>102</v>
       </c>
       <c r="B45" s="49" t="s">
@@ -5020,15 +5101,15 @@
         <v>111</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="55">
-        <v>4</v>
+      <c r="G45" s="53">
+        <v>3</v>
       </c>
       <c r="H45" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
         <v>103</v>
       </c>
@@ -5055,7 +5136,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>104</v>
       </c>
@@ -5080,7 +5161,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="25" t="s">
         <v>93</v>
       </c>
@@ -5105,7 +5186,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="25" t="s">
         <v>105</v>
       </c>
@@ -5130,7 +5211,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="25" t="s">
         <v>106</v>
       </c>
@@ -5155,7 +5236,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="25" t="s">
         <v>107</v>
       </c>
@@ -5180,7 +5261,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="25" t="s">
         <v>108</v>
       </c>
@@ -5205,8 +5286,8 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
+    <row r="53" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="32" t="s">
         <v>92</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -5222,7 +5303,7 @@
         <v>111</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="57">
+      <c r="G53" s="58">
         <v>6</v>
       </c>
       <c r="H53" s="60" t="s">
@@ -5230,8 +5311,8 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
+    <row r="54" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="32" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="49" t="s">
@@ -5247,7 +5328,7 @@
         <v>111</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="57">
+      <c r="G54" s="58">
         <v>6</v>
       </c>
       <c r="H54" s="60" t="s">
@@ -5255,8 +5336,8 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
+    <row r="55" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="32" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="49" t="s">
@@ -5272,7 +5353,7 @@
         <v>111</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="G55" s="57">
+      <c r="G55" s="58">
         <v>6</v>
       </c>
       <c r="H55" s="60" t="s">
@@ -5280,7 +5361,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>89</v>
       </c>
@@ -5303,7 +5384,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
         <v>88</v>
       </c>
@@ -5328,7 +5409,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="45" t="s">
         <v>341</v>
       </c>
@@ -5353,7 +5434,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="45" t="s">
         <v>343</v>
       </c>
@@ -5378,20 +5459,20 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C60" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C62" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C64" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:I59" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5408,68 +5489,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="72.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -5492,7 +5573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -5501,12 +5582,12 @@
         <v>5</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
       <c r="B8" s="6" t="s">
         <v>115</v>
       </c>
@@ -5522,8 +5603,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
       <c r="B9" s="6" t="s">
         <v>116</v>
       </c>
@@ -5539,8 +5620,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
       <c r="B10" s="6" t="s">
         <v>117</v>
       </c>
@@ -5556,8 +5637,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+    <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
       <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
@@ -5575,8 +5656,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="72"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -5584,8 +5665,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="72"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -5593,8 +5674,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="73"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
@@ -5602,7 +5683,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="45" t="s">
         <v>130</v>
       </c>
@@ -5614,8 +5695,8 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+    <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="71"/>
       <c r="B16" s="35" t="s">
         <v>115</v>
       </c>
@@ -5633,8 +5714,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="72"/>
       <c r="B17" s="22"/>
       <c r="C17" s="1"/>
       <c r="D17" s="22"/>
@@ -5642,8 +5723,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="72"/>
       <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -5651,8 +5732,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="72"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -5660,8 +5741,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="72"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -5669,8 +5750,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -5678,8 +5759,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="73"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
       <c r="D22" s="10"/>
@@ -5687,7 +5768,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="45" t="s">
         <v>16</v>
       </c>
@@ -5699,8 +5780,8 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="71"/>
       <c r="B24" s="35" t="s">
         <v>115</v>
       </c>
@@ -5716,8 +5797,8 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="72"/>
       <c r="B25" s="22"/>
       <c r="C25" s="1"/>
       <c r="D25" s="22"/>
@@ -5725,8 +5806,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="72"/>
       <c r="B26" s="22"/>
       <c r="C26" s="1"/>
       <c r="D26" s="22"/>
@@ -5734,8 +5815,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="72"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -5743,8 +5824,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="72"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -5752,8 +5833,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="72"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -5761,8 +5842,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="73"/>
       <c r="B30" s="10"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10"/>
@@ -5770,7 +5851,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="45" t="s">
         <v>159</v>
       </c>
@@ -5782,8 +5863,8 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="71"/>
       <c r="B32" s="35" t="s">
         <v>115</v>
       </c>
@@ -5799,8 +5880,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="72"/>
       <c r="B33" s="35"/>
       <c r="C33" s="1"/>
       <c r="D33" s="35"/>
@@ -5808,8 +5889,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="72"/>
       <c r="B34" s="35"/>
       <c r="C34" s="1"/>
       <c r="D34" s="35"/>
@@ -5817,8 +5898,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="72"/>
       <c r="B35" s="35"/>
       <c r="C35" s="1"/>
       <c r="D35" s="35"/>
@@ -5826,8 +5907,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="72"/>
       <c r="B36" s="35"/>
       <c r="C36" s="1"/>
       <c r="D36" s="35"/>
@@ -5835,8 +5916,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="72"/>
       <c r="B37" s="35"/>
       <c r="C37" s="1"/>
       <c r="D37" s="35"/>
@@ -5844,8 +5925,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="73"/>
       <c r="B38" s="10"/>
       <c r="C38" s="20"/>
       <c r="D38" s="10"/>
@@ -5853,7 +5934,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="45" t="s">
         <v>62</v>
       </c>
@@ -5866,8 +5947,8 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="71"/>
       <c r="B40" s="6" t="s">
         <v>115</v>
       </c>
@@ -5883,8 +5964,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="72"/>
       <c r="B41" s="6" t="s">
         <v>116</v>
       </c>
@@ -5900,8 +5981,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="72"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
@@ -5909,8 +5990,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="72"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1"/>
       <c r="D43" s="6"/>
@@ -5918,8 +5999,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="72"/>
       <c r="B44" s="6"/>
       <c r="C44" s="1"/>
       <c r="D44" s="6"/>
@@ -5927,8 +6008,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="72"/>
       <c r="B45" s="6"/>
       <c r="C45" s="1"/>
       <c r="D45" s="6"/>
@@ -5936,8 +6017,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="73"/>
       <c r="B46" s="10"/>
       <c r="C46" s="20"/>
       <c r="D46" s="10"/>
@@ -5945,7 +6026,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="45" t="s">
         <v>63</v>
       </c>
@@ -5957,8 +6038,8 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="71"/>
       <c r="B48" s="35" t="s">
         <v>115</v>
       </c>
@@ -5974,8 +6055,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="72"/>
       <c r="B49" s="35"/>
       <c r="C49" s="1"/>
       <c r="D49" s="35"/>
@@ -5983,8 +6064,8 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="72"/>
       <c r="B50" s="35"/>
       <c r="C50" s="1"/>
       <c r="D50" s="35"/>
@@ -5992,8 +6073,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="72"/>
       <c r="B51" s="35"/>
       <c r="C51" s="1"/>
       <c r="D51" s="35"/>
@@ -6001,8 +6082,8 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="73"/>
       <c r="B52" s="10"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10"/>
@@ -6010,7 +6091,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="45" t="s">
         <v>341</v>
       </c>
@@ -6023,8 +6104,8 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="71"/>
       <c r="B54" s="48" t="s">
         <v>115</v>
       </c>
@@ -6040,8 +6121,8 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="72"/>
       <c r="B55" s="48" t="s">
         <v>116</v>
       </c>
@@ -6057,8 +6138,8 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="72"/>
       <c r="B56" s="48" t="s">
         <v>117</v>
       </c>
@@ -6074,8 +6155,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="72"/>
       <c r="B57" s="35"/>
       <c r="C57" s="1"/>
       <c r="D57" s="35"/>
@@ -6083,8 +6164,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="72"/>
       <c r="B58" s="35"/>
       <c r="C58" s="1"/>
       <c r="D58" s="35"/>
@@ -6092,8 +6173,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="72"/>
       <c r="B59" s="35"/>
       <c r="C59" s="1"/>
       <c r="D59" s="35"/>
@@ -6101,8 +6182,8 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="73"/>
       <c r="B60" s="10"/>
       <c r="C60" s="20"/>
       <c r="D60" s="10"/>
@@ -6110,7 +6191,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="45" t="s">
         <v>343</v>
       </c>
@@ -6123,8 +6204,8 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
+    <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="71"/>
       <c r="B62" s="48" t="s">
         <v>115</v>
       </c>
@@ -6140,8 +6221,8 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="70"/>
+    <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="72"/>
       <c r="B63" s="48" t="s">
         <v>116</v>
       </c>
@@ -6157,8 +6238,8 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
+    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="72"/>
       <c r="B64" s="48" t="s">
         <v>117</v>
       </c>
@@ -6174,8 +6255,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="72"/>
       <c r="B65" s="35"/>
       <c r="C65" s="1"/>
       <c r="D65" s="35"/>
@@ -6183,8 +6264,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="72"/>
       <c r="B66" s="35"/>
       <c r="C66" s="1"/>
       <c r="D66" s="35"/>
@@ -6192,8 +6273,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="72"/>
       <c r="B67" s="35"/>
       <c r="C67" s="1"/>
       <c r="D67" s="35"/>
@@ -6201,8 +6282,8 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="73"/>
       <c r="B68" s="10"/>
       <c r="C68" s="20"/>
       <c r="D68" s="10"/>
@@ -6210,7 +6291,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="35"/>
       <c r="B69" s="5"/>
       <c r="C69" s="20"/>
@@ -6219,8 +6300,8 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="69"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="71"/>
       <c r="B70" s="35"/>
       <c r="C70" s="1"/>
       <c r="D70" s="35"/>
@@ -6228,8 +6309,8 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="72"/>
       <c r="B71" s="35"/>
       <c r="C71" s="1"/>
       <c r="D71" s="35"/>
@@ -6237,8 +6318,8 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="72"/>
       <c r="B72" s="35"/>
       <c r="C72" s="1"/>
       <c r="D72" s="35"/>
@@ -6246,8 +6327,8 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="70"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="72"/>
       <c r="B73" s="35"/>
       <c r="C73" s="1"/>
       <c r="D73" s="35"/>
@@ -6255,8 +6336,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="72"/>
       <c r="B74" s="35"/>
       <c r="C74" s="1"/>
       <c r="D74" s="35"/>
@@ -6264,8 +6345,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="72"/>
       <c r="B75" s="35"/>
       <c r="C75" s="1"/>
       <c r="D75" s="35"/>
@@ -6273,8 +6354,8 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="73"/>
       <c r="B76" s="10"/>
       <c r="C76" s="20"/>
       <c r="D76" s="10"/>
@@ -6282,7 +6363,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="35"/>
       <c r="C77" s="1"/>
       <c r="D77" s="35"/>
@@ -6290,8 +6371,8 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="69"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="71"/>
       <c r="B78" s="35"/>
       <c r="C78" s="1"/>
       <c r="D78" s="35"/>
@@ -6299,8 +6380,8 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="70"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="72"/>
       <c r="B79" s="35"/>
       <c r="C79" s="1"/>
       <c r="D79" s="35"/>
@@ -6308,8 +6389,8 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="72"/>
       <c r="B80" s="35"/>
       <c r="C80" s="1"/>
       <c r="D80" s="35"/>
@@ -6317,8 +6398,8 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="72"/>
       <c r="B81" s="35"/>
       <c r="C81" s="1"/>
       <c r="D81" s="35"/>
@@ -6326,8 +6407,8 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="72"/>
       <c r="B82" s="35"/>
       <c r="C82" s="1"/>
       <c r="D82" s="35"/>
@@ -6335,8 +6416,8 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="72"/>
       <c r="B83" s="35"/>
       <c r="C83" s="1"/>
       <c r="D83" s="35"/>
@@ -6344,8 +6425,8 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="73"/>
       <c r="B84" s="10"/>
       <c r="C84" s="20"/>
       <c r="D84" s="10"/>
@@ -6353,7 +6434,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="35"/>
       <c r="C85" s="1"/>
       <c r="D85" s="35"/>
@@ -6361,8 +6442,8 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="71"/>
       <c r="B86" s="35"/>
       <c r="C86" s="1"/>
       <c r="D86" s="35"/>
@@ -6370,8 +6451,8 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="72"/>
       <c r="B87" s="35"/>
       <c r="C87" s="1"/>
       <c r="D87" s="35"/>
@@ -6379,8 +6460,8 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="72"/>
       <c r="B88" s="35"/>
       <c r="C88" s="1"/>
       <c r="D88" s="35"/>
@@ -6388,8 +6469,8 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="72"/>
       <c r="B89" s="35"/>
       <c r="C89" s="1"/>
       <c r="D89" s="35"/>
@@ -6397,8 +6478,8 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="72"/>
       <c r="B90" s="35"/>
       <c r="C90" s="1"/>
       <c r="D90" s="35"/>
@@ -6406,8 +6487,8 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="72"/>
       <c r="B91" s="35"/>
       <c r="C91" s="1"/>
       <c r="D91" s="35"/>
@@ -6415,8 +6496,8 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="73"/>
       <c r="B92" s="10"/>
       <c r="C92" s="20"/>
       <c r="D92" s="10"/>
@@ -6424,7 +6505,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="35"/>
       <c r="C93" s="14"/>
       <c r="D93" s="35"/>
@@ -6432,8 +6513,8 @@
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="69"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="71"/>
       <c r="B94" s="35"/>
       <c r="C94" s="1"/>
       <c r="D94" s="35"/>
@@ -6441,8 +6522,8 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="70"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="72"/>
       <c r="B95" s="35"/>
       <c r="C95" s="1"/>
       <c r="D95" s="35"/>
@@ -6450,8 +6531,8 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="70"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="72"/>
       <c r="B96" s="35"/>
       <c r="C96" s="1"/>
       <c r="D96" s="35"/>
@@ -6459,8 +6540,8 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="70"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="72"/>
       <c r="B97" s="35"/>
       <c r="C97" s="1"/>
       <c r="D97" s="35"/>
@@ -6468,8 +6549,8 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="70"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="72"/>
       <c r="B98" s="35"/>
       <c r="C98" s="1"/>
       <c r="D98" s="35"/>
@@ -6477,8 +6558,8 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="70"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="72"/>
       <c r="B99" s="35"/>
       <c r="C99" s="1"/>
       <c r="D99" s="35"/>
@@ -6486,8 +6567,8 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="73"/>
       <c r="B100" s="10"/>
       <c r="C100" s="20"/>
       <c r="D100" s="10"/>
@@ -6495,7 +6576,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="35"/>
       <c r="B101" s="5"/>
       <c r="C101" s="20"/>
@@ -6504,8 +6585,8 @@
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="69"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="71"/>
       <c r="B102" s="35"/>
       <c r="C102" s="1"/>
       <c r="D102" s="35"/>
@@ -6513,8 +6594,8 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="70"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="72"/>
       <c r="B103" s="35"/>
       <c r="C103" s="1"/>
       <c r="D103" s="35"/>
@@ -6522,8 +6603,8 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="70"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="72"/>
       <c r="B104" s="35"/>
       <c r="C104" s="1"/>
       <c r="D104" s="35"/>
@@ -6531,8 +6612,8 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="70"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="72"/>
       <c r="B105" s="35"/>
       <c r="C105" s="1"/>
       <c r="D105" s="35"/>
@@ -6540,8 +6621,8 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="70"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="72"/>
       <c r="B106" s="35"/>
       <c r="C106" s="1"/>
       <c r="D106" s="35"/>
@@ -6549,8 +6630,8 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="70"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="72"/>
       <c r="B107" s="35"/>
       <c r="C107" s="1"/>
       <c r="D107" s="35"/>
@@ -6558,8 +6639,8 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="71"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="73"/>
       <c r="B108" s="10"/>
       <c r="C108" s="20"/>
       <c r="D108" s="10"/>
@@ -6567,7 +6648,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="35"/>
       <c r="B109" s="5"/>
       <c r="C109" s="20"/>
@@ -6576,8 +6657,8 @@
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="71"/>
       <c r="B110" s="35"/>
       <c r="C110" s="1"/>
       <c r="D110" s="35"/>
@@ -6585,8 +6666,8 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="70"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="72"/>
       <c r="B111" s="35"/>
       <c r="C111" s="1"/>
       <c r="D111" s="35"/>
@@ -6594,8 +6675,8 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="70"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="72"/>
       <c r="B112" s="35"/>
       <c r="C112" s="1"/>
       <c r="D112" s="35"/>
@@ -6603,8 +6684,8 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="70"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="72"/>
       <c r="B113" s="35"/>
       <c r="C113" s="1"/>
       <c r="D113" s="35"/>
@@ -6612,8 +6693,8 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="70"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="72"/>
       <c r="B114" s="35"/>
       <c r="C114" s="1"/>
       <c r="D114" s="35"/>
@@ -6621,8 +6702,8 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="70"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="72"/>
       <c r="B115" s="35"/>
       <c r="C115" s="1"/>
       <c r="D115" s="35"/>
@@ -6630,8 +6711,8 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="71"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="73"/>
       <c r="B116" s="10"/>
       <c r="C116" s="20"/>
       <c r="D116" s="10"/>
@@ -6639,7 +6720,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="35"/>
       <c r="B117" s="5"/>
       <c r="C117" s="20"/>
@@ -6648,8 +6729,8 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="69"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="71"/>
       <c r="B118" s="35"/>
       <c r="C118" s="1"/>
       <c r="D118" s="35"/>
@@ -6657,8 +6738,8 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="70"/>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="72"/>
       <c r="B119" s="35"/>
       <c r="C119" s="1"/>
       <c r="D119" s="35"/>
@@ -6666,8 +6747,8 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="70"/>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="72"/>
       <c r="B120" s="35"/>
       <c r="C120" s="1"/>
       <c r="D120" s="35"/>
@@ -6675,8 +6756,8 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="70"/>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="72"/>
       <c r="B121" s="35"/>
       <c r="C121" s="1"/>
       <c r="D121" s="35"/>
@@ -6684,8 +6765,8 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="70"/>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="72"/>
       <c r="B122" s="35"/>
       <c r="C122" s="1"/>
       <c r="D122" s="35"/>
@@ -6693,8 +6774,8 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="70"/>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="72"/>
       <c r="B123" s="35"/>
       <c r="C123" s="1"/>
       <c r="D123" s="35"/>
@@ -6702,8 +6783,8 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="71"/>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="73"/>
       <c r="B124" s="10"/>
       <c r="C124" s="20"/>
       <c r="D124" s="10"/>
@@ -6711,7 +6792,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="35"/>
       <c r="B125" s="5"/>
       <c r="C125" s="20"/>
@@ -6720,8 +6801,8 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="69"/>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="71"/>
       <c r="B126" s="35"/>
       <c r="C126" s="1"/>
       <c r="D126" s="35"/>
@@ -6729,8 +6810,8 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="70"/>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="72"/>
       <c r="B127" s="35"/>
       <c r="C127" s="1"/>
       <c r="D127" s="35"/>
@@ -6738,8 +6819,8 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="70"/>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="72"/>
       <c r="B128" s="35"/>
       <c r="C128" s="1"/>
       <c r="D128" s="35"/>
@@ -6747,8 +6828,8 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="70"/>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="72"/>
       <c r="B129" s="35"/>
       <c r="C129" s="1"/>
       <c r="D129" s="35"/>
@@ -6756,8 +6837,8 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="70"/>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="72"/>
       <c r="B130" s="35"/>
       <c r="C130" s="1"/>
       <c r="D130" s="35"/>
@@ -6765,8 +6846,8 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="70"/>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="72"/>
       <c r="B131" s="35"/>
       <c r="C131" s="1"/>
       <c r="D131" s="35"/>
@@ -6774,8 +6855,8 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="71"/>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="73"/>
       <c r="B132" s="10"/>
       <c r="C132" s="20"/>
       <c r="D132" s="10"/>
@@ -6785,16 +6866,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A118:A124"/>
     <mergeCell ref="A126:A132"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A70:A76"/>
@@ -6803,6 +6874,16 @@
     <mergeCell ref="A94:A100"/>
     <mergeCell ref="A102:A108"/>
     <mergeCell ref="A110:A116"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A24:A30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6817,65 +6898,65 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="72.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -6898,7 +6979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
@@ -6907,14 +6988,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="65"/>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
@@ -6930,8 +7011,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
@@ -6947,8 +7028,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="s">
         <v>117</v>
       </c>
@@ -6964,8 +7045,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
       <c r="B11" s="36" t="s">
         <v>118</v>
       </c>
@@ -6981,8 +7062,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="72"/>
       <c r="B12" s="36" t="s">
         <v>189</v>
       </c>
@@ -6998,8 +7079,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="72"/>
       <c r="B13" s="36" t="s">
         <v>190</v>
       </c>
@@ -7015,8 +7096,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="73"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
@@ -7024,7 +7105,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>34</v>
       </c>
@@ -7033,12 +7114,12 @@
         <v>165</v>
       </c>
       <c r="D15" s="65"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="71"/>
       <c r="B16" s="6" t="s">
         <v>115</v>
       </c>
@@ -7054,8 +7135,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="72"/>
       <c r="B17" s="6" t="s">
         <v>116</v>
       </c>
@@ -7071,8 +7152,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="72"/>
       <c r="B18" s="6" t="s">
         <v>117</v>
       </c>
@@ -7088,8 +7169,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="72"/>
       <c r="B19" s="6" t="s">
         <v>118</v>
       </c>
@@ -7105,8 +7186,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="72"/>
       <c r="B20" s="6" t="s">
         <v>189</v>
       </c>
@@ -7122,8 +7203,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
       <c r="B21" s="6" t="s">
         <v>190</v>
       </c>
@@ -7139,8 +7220,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="73"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
       <c r="D22" s="10"/>
@@ -7148,7 +7229,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>64</v>
       </c>
@@ -7157,11 +7238,11 @@
         <v>178</v>
       </c>
       <c r="D23" s="65"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
         <v>115</v>
@@ -7178,7 +7259,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="18"/>
       <c r="B25" s="6" t="s">
         <v>116</v>
@@ -7195,7 +7276,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="6"/>
       <c r="C26" s="1"/>
@@ -7204,7 +7285,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="18"/>
       <c r="B27" s="6"/>
       <c r="C27" s="1"/>
@@ -7213,7 +7294,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="18"/>
       <c r="B28" s="6"/>
       <c r="C28" s="1"/>
@@ -7222,7 +7303,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="18"/>
       <c r="B29" s="6"/>
       <c r="C29" s="1"/>
@@ -7231,7 +7312,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>66</v>
       </c>
@@ -7240,12 +7321,12 @@
         <v>179</v>
       </c>
       <c r="D30" s="65"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="71"/>
       <c r="B31" s="6" t="s">
         <v>115</v>
       </c>
@@ -7261,8 +7342,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
+    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="72"/>
       <c r="B32" s="6" t="s">
         <v>116</v>
       </c>
@@ -7278,8 +7359,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="72"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="6"/>
@@ -7287,8 +7368,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="72"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="6"/>
@@ -7296,8 +7377,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="73"/>
       <c r="B35" s="10"/>
       <c r="C35" s="20"/>
       <c r="D35" s="10"/>
@@ -7305,7 +7386,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>94</v>
       </c>
@@ -7314,14 +7395,14 @@
         <v>180</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="84"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="71"/>
       <c r="B37" s="6" t="s">
         <v>115</v>
       </c>
@@ -7337,8 +7418,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="72"/>
       <c r="B38" s="6" t="s">
         <v>116</v>
       </c>
@@ -7354,8 +7435,8 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="72"/>
       <c r="B39" s="6"/>
       <c r="C39" s="1"/>
       <c r="D39" s="6"/>
@@ -7363,8 +7444,8 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="72"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1"/>
       <c r="D40" s="6"/>
@@ -7372,8 +7453,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="72"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1"/>
       <c r="D41" s="6"/>
@@ -7381,8 +7462,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="72"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
@@ -7390,8 +7471,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="73"/>
       <c r="B43" s="10"/>
       <c r="C43" s="20"/>
       <c r="D43" s="10"/>
@@ -7399,7 +7480,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>95</v>
       </c>
@@ -7412,8 +7493,8 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="71"/>
       <c r="B45" s="6" t="s">
         <v>115</v>
       </c>
@@ -7429,8 +7510,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="72"/>
       <c r="B46" s="6" t="s">
         <v>116</v>
       </c>
@@ -7446,8 +7527,8 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="72"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1"/>
       <c r="D47" s="6"/>
@@ -7455,8 +7536,8 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="72"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1"/>
       <c r="D48" s="6"/>
@@ -7464,8 +7545,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="72"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1"/>
       <c r="D49" s="6"/>
@@ -7473,8 +7554,8 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="72"/>
       <c r="B50" s="6"/>
       <c r="C50" s="1"/>
       <c r="D50" s="6"/>
@@ -7482,8 +7563,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="73"/>
       <c r="B51" s="10"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10"/>
@@ -7491,7 +7572,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>96</v>
       </c>
@@ -7500,12 +7581,12 @@
         <v>181</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="87"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="71"/>
       <c r="B53" s="6" t="s">
         <v>115</v>
       </c>
@@ -7521,8 +7602,8 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="72"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1"/>
       <c r="D54" s="6"/>
@@ -7530,8 +7611,8 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="72"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1"/>
       <c r="D55" s="6"/>
@@ -7539,8 +7620,8 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="72"/>
       <c r="B56" s="6"/>
       <c r="C56" s="1"/>
       <c r="D56" s="6"/>
@@ -7548,8 +7629,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="72"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1"/>
       <c r="D57" s="6"/>
@@ -7557,8 +7638,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="72"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1"/>
       <c r="D58" s="6"/>
@@ -7566,8 +7647,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="73"/>
       <c r="B59" s="10"/>
       <c r="C59" s="20"/>
       <c r="D59" s="10"/>
@@ -7575,7 +7656,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
         <v>143</v>
       </c>
@@ -7583,14 +7664,14 @@
         <v>145</v>
       </c>
       <c r="D60" s="22"/>
-      <c r="E60" s="73" t="s">
+      <c r="E60" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="F60" s="74"/>
-      <c r="G60" s="75"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="76"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="71"/>
       <c r="B61" s="36" t="s">
         <v>115</v>
       </c>
@@ -7606,8 +7687,8 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="72"/>
       <c r="B62" s="36" t="s">
         <v>116</v>
       </c>
@@ -7623,8 +7704,8 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="70"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="72"/>
       <c r="B63" s="36" t="s">
         <v>117</v>
       </c>
@@ -7640,8 +7721,8 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="72"/>
       <c r="B64" s="36" t="s">
         <v>118</v>
       </c>
@@ -7657,8 +7738,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="72"/>
       <c r="B65" s="22"/>
       <c r="C65" s="1"/>
       <c r="D65" s="22"/>
@@ -7666,8 +7747,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="72"/>
       <c r="B66" s="22"/>
       <c r="C66" s="1"/>
       <c r="D66" s="22"/>
@@ -7675,8 +7756,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="73"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -7684,7 +7765,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>166</v>
       </c>
@@ -7692,12 +7773,12 @@
         <v>164</v>
       </c>
       <c r="D68" s="65"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="76"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="71"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1" t="s">
         <v>346</v>
@@ -7711,8 +7792,8 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="72"/>
       <c r="B70" s="22"/>
       <c r="C70" s="1"/>
       <c r="D70" s="22"/>
@@ -7720,8 +7801,8 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="72"/>
       <c r="B71" s="22"/>
       <c r="C71" s="1"/>
       <c r="D71" s="22"/>
@@ -7729,8 +7810,8 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="72"/>
       <c r="B72" s="22"/>
       <c r="C72" s="1"/>
       <c r="D72" s="22"/>
@@ -7738,8 +7819,8 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="70"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="72"/>
       <c r="B73" s="22"/>
       <c r="C73" s="1"/>
       <c r="D73" s="22"/>
@@ -7747,8 +7828,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="72"/>
       <c r="B74" s="22"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -7756,8 +7837,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="73"/>
       <c r="B75" s="10"/>
       <c r="C75" s="20"/>
       <c r="D75" s="10"/>
@@ -7765,7 +7846,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>12</v>
       </c>
@@ -7773,14 +7854,14 @@
         <v>151</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="73" t="s">
+      <c r="E76" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="F76" s="74"/>
-      <c r="G76" s="75"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="69"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="76"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="71"/>
       <c r="B77" s="35" t="s">
         <v>115</v>
       </c>
@@ -7796,8 +7877,8 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="70"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="72"/>
       <c r="B78" s="35" t="s">
         <v>116</v>
       </c>
@@ -7813,8 +7894,8 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="70"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="72"/>
       <c r="B79" s="22"/>
       <c r="C79" s="1"/>
       <c r="D79" s="22"/>
@@ -7822,8 +7903,8 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="72"/>
       <c r="B80" s="22"/>
       <c r="C80" s="1"/>
       <c r="D80" s="22"/>
@@ -7831,8 +7912,8 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="72"/>
       <c r="B81" s="22"/>
       <c r="C81" s="1"/>
       <c r="D81" s="22"/>
@@ -7840,8 +7921,8 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="72"/>
       <c r="B82" s="22"/>
       <c r="C82" s="1"/>
       <c r="D82" s="22"/>
@@ -7849,8 +7930,8 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="73"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -7858,7 +7939,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
         <v>140</v>
       </c>
@@ -7866,14 +7947,14 @@
         <v>141</v>
       </c>
       <c r="D84" s="6"/>
-      <c r="E84" s="73" t="s">
+      <c r="E84" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="F84" s="74"/>
-      <c r="G84" s="75"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="76"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="71"/>
       <c r="B85" s="36" t="s">
         <v>115</v>
       </c>
@@ -7889,8 +7970,8 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="72"/>
       <c r="B86" s="36" t="s">
         <v>116</v>
       </c>
@@ -7906,8 +7987,8 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="72"/>
       <c r="B87" s="36"/>
       <c r="C87" s="1"/>
       <c r="D87" s="6"/>
@@ -7915,8 +7996,8 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="72"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1"/>
       <c r="D88" s="6"/>
@@ -7924,8 +8005,8 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="72"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1"/>
       <c r="D89" s="6"/>
@@ -7933,8 +8014,8 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="72"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1"/>
       <c r="D90" s="6"/>
@@ -7942,8 +8023,8 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="73"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -7953,11 +8034,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E52:G52"/>
     <mergeCell ref="A85:A91"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A1:G5"/>
@@ -7974,6 +8050,11 @@
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="A77:A83"/>
     <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E52:G52"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7983,70 +8064,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="89.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -8069,7 +8150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>134</v>
       </c>
@@ -8077,12 +8158,12 @@
         <v>136</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
@@ -8093,13 +8174,13 @@
         <v>111</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
@@ -8109,14 +8190,14 @@
       <c r="D9" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>295</v>
+      <c r="E9" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
       <c r="B10" s="36" t="s">
         <v>117</v>
       </c>
@@ -8126,14 +8207,14 @@
       <c r="D10" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>295</v>
+      <c r="E10" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -8141,8 +8222,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="72"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -8150,8 +8231,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="72"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -8159,8 +8240,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="73"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -8168,7 +8249,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>10</v>
       </c>
@@ -8176,12 +8257,12 @@
         <v>144</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="71"/>
       <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
@@ -8191,14 +8272,14 @@
       <c r="D16" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>297</v>
+      <c r="E16" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="72"/>
       <c r="B17" s="27" t="s">
         <v>116</v>
       </c>
@@ -8208,23 +8289,23 @@
       <c r="D17" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>297</v>
+      <c r="E17" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="72"/>
       <c r="B18" s="27"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="72"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -8232,8 +8313,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="72"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -8241,8 +8322,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -8250,8 +8331,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="73"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -8259,71 +8340,55 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="71"/>
       <c r="B24" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="35" t="s">
-        <v>294</v>
+      <c r="E24" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>294</v>
-      </c>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="72"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>294</v>
-      </c>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="72"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="72"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -8331,8 +8396,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="72"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -8340,8 +8405,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="72"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -8349,8 +8414,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="73"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -8358,88 +8423,80 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="75"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="71"/>
       <c r="B32" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="67" t="s">
         <v>298</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="39" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="72"/>
+      <c r="B33" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="67" t="s">
         <v>298</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="39" t="s">
+    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="72"/>
+      <c r="B34" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C34" t="s">
-        <v>268</v>
+      <c r="C34" s="37" t="s">
+        <v>272</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="67" t="s">
         <v>298</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>298</v>
-      </c>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="72"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="72"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -8447,8 +8504,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="72"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -8456,8 +8513,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="73"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -8465,25 +8522,25 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>152</v>
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="76"/>
+    </row>
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="71"/>
       <c r="B40" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>111</v>
@@ -8494,26 +8551,42 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="72"/>
+      <c r="B41" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>297</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="72"/>
+      <c r="B42" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>297</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="72"/>
       <c r="B43" s="22"/>
       <c r="C43" s="1"/>
       <c r="D43" s="22"/>
@@ -8521,8 +8594,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="72"/>
       <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="22"/>
@@ -8530,8 +8603,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="72"/>
       <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="22"/>
@@ -8539,8 +8612,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="73"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -8548,89 +8621,105 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="71"/>
       <c r="B48" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="72"/>
       <c r="B49" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D49" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
+    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="72"/>
       <c r="B50" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D50" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="72"/>
+      <c r="B51" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>295</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="72"/>
+      <c r="B52" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>295</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="72"/>
       <c r="B53" s="22"/>
       <c r="C53" s="1"/>
       <c r="D53" s="22"/>
@@ -8638,8 +8727,8 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="73"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -8647,71 +8736,57 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>157</v>
+        <v>98</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="D55" s="22"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="76"/>
+    </row>
+    <row r="56" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A56" s="71"/>
       <c r="B56" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>297</v>
-      </c>
+      <c r="G56" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="72"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
-      <c r="B58" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>297</v>
-      </c>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="72"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="72"/>
       <c r="B59" s="22"/>
       <c r="C59" s="1"/>
       <c r="D59" s="22"/>
@@ -8719,8 +8794,8 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="72"/>
       <c r="B60" s="22"/>
       <c r="C60" s="1"/>
       <c r="D60" s="22"/>
@@ -8728,8 +8803,8 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="72"/>
       <c r="B61" s="22"/>
       <c r="C61" s="1"/>
       <c r="D61" s="22"/>
@@ -8737,8 +8812,8 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="73"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -8746,105 +8821,73 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="75"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
-      <c r="B64" s="36" t="s">
+      <c r="E63" s="74"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="76"/>
+    </row>
+    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="71"/>
+      <c r="B64" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="D64" s="35" t="s">
+      <c r="C64" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
-      <c r="B65" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>295</v>
-      </c>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="72"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>295</v>
-      </c>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="72"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
-      <c r="B67" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>295</v>
-      </c>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="72"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="70"/>
-      <c r="B68" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>295</v>
-      </c>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="72"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="72"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1"/>
       <c r="D69" s="22"/>
@@ -8852,8 +8895,8 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="73"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -8861,25 +8904,25 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>71</v>
+        <v>100</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="75"/>
-    </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="76"/>
+    </row>
+    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="71"/>
       <c r="B72" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>111</v>
@@ -8888,21 +8931,29 @@
         <v>294</v>
       </c>
       <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="70"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="72"/>
+      <c r="B73" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>294</v>
+      </c>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
+      <c r="G73" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="72"/>
       <c r="B74" s="27"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -8910,8 +8961,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="72"/>
       <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="22"/>
@@ -8919,8 +8970,8 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="72"/>
       <c r="B76" s="22"/>
       <c r="C76" s="1"/>
       <c r="D76" s="22"/>
@@ -8928,8 +8979,8 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="72"/>
       <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="22"/>
@@ -8937,8 +8988,8 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="73"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -8946,55 +8997,55 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="D79" s="22"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="75"/>
-    </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="76"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="71"/>
       <c r="B80" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
-      <c r="B81" s="27"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="72"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="1"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
-      <c r="B82" s="27"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="72"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="1"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="72"/>
       <c r="B83" s="22"/>
       <c r="C83" s="1"/>
       <c r="D83" s="22"/>
@@ -9002,8 +9053,8 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="70"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="72"/>
       <c r="B84" s="22"/>
       <c r="C84" s="1"/>
       <c r="D84" s="22"/>
@@ -9011,8 +9062,8 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="72"/>
       <c r="B85" s="22"/>
       <c r="C85" s="1"/>
       <c r="D85" s="22"/>
@@ -9020,8 +9071,8 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="73"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -9029,92 +9080,82 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="75"/>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
-      <c r="B88" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D87" s="60"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="76"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="71"/>
+      <c r="B88" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D88" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D88" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="E88" s="35" t="s">
-        <v>294</v>
+      <c r="E88" s="60" t="s">
+        <v>298</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
-      <c r="B89" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>294</v>
-      </c>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="72"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
-      <c r="B90" s="27"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="72"/>
+      <c r="B90" s="60"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
-      <c r="B91" s="22"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="72"/>
+      <c r="B91" s="60"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
-      <c r="B92" s="22"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="72"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
-      <c r="B93" s="22"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="72"/>
+      <c r="B93" s="60"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="71"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="73"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -9122,55 +9163,71 @@
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="75"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
+        <v>75</v>
+      </c>
+      <c r="D95" s="67"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="76"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="71"/>
       <c r="B96" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D96" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D96" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E96" s="35" t="s">
-        <v>297</v>
+      <c r="E96" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="70"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="72"/>
+      <c r="B97" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="67" t="s">
+        <v>298</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="70"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="72"/>
+      <c r="B98" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="67" t="s">
+        <v>298</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="70"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="72"/>
       <c r="B99" s="22"/>
       <c r="C99" s="1"/>
       <c r="D99" s="22"/>
@@ -9178,8 +9235,8 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="70"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="72"/>
       <c r="B100" s="22"/>
       <c r="C100" s="1"/>
       <c r="D100" s="22"/>
@@ -9187,8 +9244,8 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="70"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="72"/>
       <c r="B101" s="22"/>
       <c r="C101" s="1"/>
       <c r="D101" s="22"/>
@@ -9196,8 +9253,8 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="71"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="73"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -9205,93 +9262,177 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="73"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="75"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="69"/>
-      <c r="B104" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D104" s="60" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B104" s="90" t="s">
+        <v>366</v>
+      </c>
+      <c r="C104" s="91" t="s">
+        <v>355</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E104" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="E104" s="60" t="s">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B105" s="90" t="s">
+        <v>367</v>
+      </c>
+      <c r="C105" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E105" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B106" s="90" t="s">
+        <v>368</v>
+      </c>
+      <c r="C106" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="70"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="70"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="70"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="70"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="70"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
+      <c r="E106" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B107" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="C107" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E107" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B108" s="90" t="s">
+        <v>370</v>
+      </c>
+      <c r="C108" s="91" t="s">
+        <v>359</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E108" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B109" s="90" t="s">
+        <v>371</v>
+      </c>
+      <c r="C109" s="91" t="s">
+        <v>360</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B110" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="C110" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B111" s="90" t="s">
+        <v>373</v>
+      </c>
+      <c r="C111" s="91" t="s">
+        <v>362</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E111" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B112" s="90" t="s">
+        <v>374</v>
+      </c>
+      <c r="C112" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E112" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B113" s="90" t="s">
+        <v>375</v>
+      </c>
+      <c r="C113" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E113" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B114" s="90" t="s">
+        <v>376</v>
+      </c>
+      <c r="C114" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E114" s="67" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
+  <mergeCells count="25">
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
     <mergeCell ref="A1:G5"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="A8:A14"/>
@@ -9302,22 +9443,8 @@
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -9325,68 +9452,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B23" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -9409,7 +9536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
@@ -9418,12 +9545,12 @@
         <v>142</v>
       </c>
       <c r="D7" s="43"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
@@ -9439,8 +9566,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
@@ -9456,8 +9583,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
@@ -9465,8 +9592,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -9474,8 +9601,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="72"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -9483,8 +9610,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="72"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -9492,8 +9619,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="73"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9501,71 +9628,71 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>103</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="27" t="s">
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="71"/>
+      <c r="B16" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="27" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="72"/>
+      <c r="B17" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="72"/>
+      <c r="B18" s="35" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="72"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -9573,8 +9700,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="72"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -9582,8 +9709,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -9591,8 +9718,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="73"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -9600,71 +9727,71 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="33" t="s">
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="71"/>
+      <c r="B24" s="22" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="72"/>
+      <c r="B25" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="35" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="72"/>
+      <c r="B26" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="72"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -9672,8 +9799,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="72"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -9681,8 +9808,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="72"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -9690,8 +9817,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="73"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -9699,116 +9826,15 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="75"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A32:A38"/>
+  <mergeCells count="7">
+    <mergeCell ref="A24:A30"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="E23:G23"/>
     <mergeCell ref="A1:G5"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9819,66 +9845,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B6" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="50.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -9901,7 +9927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>15</v>
       </c>
@@ -9909,12 +9935,12 @@
         <v>303</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+    </row>
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
       <c r="B8" s="27" t="s">
         <v>115</v>
       </c>
@@ -9931,8 +9957,8 @@
       <c r="G8" s="1"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
       <c r="B9" s="27" t="s">
         <v>116</v>
       </c>
@@ -9948,8 +9974,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
       <c r="B10" s="27"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
@@ -9957,8 +9983,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -9966,8 +9992,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="72"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -9975,8 +10001,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="72"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -9984,8 +10010,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="73"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9993,7 +10019,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>158</v>
       </c>
@@ -10002,12 +10028,12 @@
         <v>302</v>
       </c>
       <c r="D15" s="43"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="71"/>
       <c r="B16" s="36" t="s">
         <v>115</v>
       </c>
@@ -10023,8 +10049,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="72"/>
       <c r="B17" s="36" t="s">
         <v>116</v>
       </c>
@@ -10040,8 +10066,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="72"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
@@ -10049,8 +10075,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="72"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
@@ -10058,8 +10084,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="72"/>
       <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
@@ -10067,8 +10093,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
       <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
@@ -10076,8 +10102,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="73"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -10085,7 +10111,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>97</v>
       </c>
@@ -10093,12 +10119,12 @@
         <v>70</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="71"/>
       <c r="B24" s="31" t="s">
         <v>115</v>
       </c>
@@ -10114,8 +10140,8 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="72"/>
       <c r="B25" s="31" t="s">
         <v>116</v>
       </c>
@@ -10131,8 +10157,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="72"/>
       <c r="B26" s="31" t="s">
         <v>117</v>
       </c>
@@ -10148,8 +10174,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="72"/>
       <c r="B27" s="22" t="s">
         <v>118</v>
       </c>
@@ -10165,8 +10191,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="72"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -10174,8 +10200,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="72"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -10183,8 +10209,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="73"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10192,7 +10218,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>93</v>
       </c>
@@ -10200,12 +10226,12 @@
         <v>78</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="75"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="71"/>
       <c r="B32" s="31" t="s">
         <v>115</v>
       </c>
@@ -10221,8 +10247,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="72"/>
       <c r="B33" s="31" t="s">
         <v>116</v>
       </c>
@@ -10238,8 +10264,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="72"/>
       <c r="B34" s="31" t="s">
         <v>117</v>
       </c>
@@ -10255,8 +10281,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="72"/>
       <c r="B35" s="22" t="s">
         <v>118</v>
       </c>
@@ -10272,8 +10298,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="72"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -10281,8 +10307,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="72"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -10290,8 +10316,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="73"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -10299,7 +10325,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>105</v>
       </c>
@@ -10307,12 +10333,12 @@
         <v>79</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="76"/>
+    </row>
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="71"/>
       <c r="B40" s="33" t="s">
         <v>115</v>
       </c>
@@ -10328,8 +10354,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="72"/>
       <c r="B41" s="33" t="s">
         <v>116</v>
       </c>
@@ -10345,8 +10371,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="72"/>
       <c r="B42" s="33"/>
       <c r="C42" s="1"/>
       <c r="D42" s="22"/>
@@ -10354,8 +10380,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="72"/>
       <c r="B43" s="33"/>
       <c r="C43" s="1"/>
       <c r="D43" s="22"/>
@@ -10363,8 +10389,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="72"/>
       <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="22"/>
@@ -10372,8 +10398,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="72"/>
       <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="22"/>
@@ -10381,8 +10407,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="73"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -10390,7 +10416,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>106</v>
       </c>
@@ -10398,12 +10424,12 @@
         <v>80</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="71"/>
       <c r="B48" s="33" t="s">
         <v>115</v>
       </c>
@@ -10419,8 +10445,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="72"/>
       <c r="B49" s="33" t="s">
         <v>116</v>
       </c>
@@ -10436,8 +10462,8 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="72"/>
       <c r="B50" s="33"/>
       <c r="C50" s="1"/>
       <c r="D50" s="22"/>
@@ -10445,8 +10471,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="72"/>
       <c r="B51" s="33"/>
       <c r="C51" s="1"/>
       <c r="D51" s="22"/>
@@ -10454,8 +10480,8 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="72"/>
       <c r="B52" s="22"/>
       <c r="C52" s="1"/>
       <c r="D52" s="22"/>
@@ -10463,8 +10489,8 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="72"/>
       <c r="B53" s="22"/>
       <c r="C53" s="1"/>
       <c r="D53" s="22"/>
@@ -10472,8 +10498,8 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="73"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -10481,7 +10507,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="25" t="s">
         <v>107</v>
       </c>
@@ -10489,12 +10515,12 @@
         <v>81</v>
       </c>
       <c r="D55" s="22"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="76"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="71"/>
       <c r="B56" s="39" t="s">
         <v>115</v>
       </c>
@@ -10510,8 +10536,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
+    <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="72"/>
       <c r="B57" s="39" t="s">
         <v>116</v>
       </c>
@@ -10527,8 +10553,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="72"/>
       <c r="B58" s="39" t="s">
         <v>117</v>
       </c>
@@ -10544,8 +10570,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="72"/>
       <c r="B59" s="33"/>
       <c r="C59" s="1"/>
       <c r="D59" s="22"/>
@@ -10553,8 +10579,8 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="72"/>
       <c r="B60" s="22"/>
       <c r="C60" s="1"/>
       <c r="D60" s="22"/>
@@ -10562,8 +10588,8 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="72"/>
       <c r="B61" s="22"/>
       <c r="C61" s="1"/>
       <c r="D61" s="22"/>
@@ -10571,8 +10597,8 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="73"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -10580,7 +10606,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="25" t="s">
         <v>108</v>
       </c>
@@ -10588,12 +10614,12 @@
         <v>82</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="75"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="76"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="71"/>
       <c r="B64" s="33" t="s">
         <v>115</v>
       </c>
@@ -10609,8 +10635,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="72"/>
       <c r="B65" s="33" t="s">
         <v>116</v>
       </c>
@@ -10626,8 +10652,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="72"/>
       <c r="B66" s="33"/>
       <c r="C66" s="1"/>
       <c r="D66" s="22"/>
@@ -10635,8 +10661,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="72"/>
       <c r="B67" s="33"/>
       <c r="C67" s="1"/>
       <c r="D67" s="22"/>
@@ -10644,8 +10670,8 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="70"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="72"/>
       <c r="B68" s="22"/>
       <c r="C68" s="1"/>
       <c r="D68" s="22"/>
@@ -10653,8 +10679,8 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="72"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1"/>
       <c r="D69" s="22"/>
@@ -10662,8 +10688,8 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="73"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -10671,7 +10697,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="25" t="s">
         <v>171</v>
       </c>
@@ -10680,12 +10706,12 @@
         <v>170</v>
       </c>
       <c r="D71" s="43"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="78"/>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="85"/>
+    </row>
+    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="71"/>
       <c r="B72" s="39" t="s">
         <v>115</v>
       </c>
@@ -10701,8 +10727,8 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="70"/>
+    <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="72"/>
       <c r="B73" s="39" t="s">
         <v>116</v>
       </c>
@@ -10718,8 +10744,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="72"/>
       <c r="B74" s="22"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -10727,8 +10753,8 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="72"/>
       <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="22"/>
@@ -10736,8 +10762,8 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="72"/>
       <c r="B76" s="22"/>
       <c r="C76" s="1"/>
       <c r="D76" s="22"/>
@@ -10745,8 +10771,8 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="72"/>
       <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="22"/>
@@ -10754,8 +10780,8 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="73"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -10765,16 +10791,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
@@ -10784,6 +10800,16 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10795,66 +10821,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B6" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A48" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="50.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="34.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -10877,8 +10903,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="44" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:9" s="44" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
         <v>101</v>
       </c>
       <c r="B7"/>
@@ -10886,12 +10912,12 @@
         <v>74</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
-    </row>
-    <row r="8" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+    </row>
+    <row r="8" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="71"/>
       <c r="B8" s="22" t="s">
         <v>115</v>
       </c>
@@ -10908,8 +10934,8 @@
       <c r="G8" s="1"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
       <c r="B9" s="33" t="s">
         <v>116</v>
       </c>
@@ -10925,8 +10951,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
       <c r="B10" s="33" t="s">
         <v>117</v>
       </c>
@@ -10942,8 +10968,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+    <row r="11" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
       <c r="B11" s="22"/>
       <c r="C11" s="1"/>
       <c r="D11" s="22"/>
@@ -10951,8 +10977,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+    <row r="12" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72"/>
       <c r="B12" s="22"/>
       <c r="C12" s="1"/>
       <c r="D12" s="22"/>
@@ -10960,8 +10986,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+    <row r="13" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="72"/>
       <c r="B13" s="22"/>
       <c r="C13" s="1"/>
       <c r="D13" s="22"/>
@@ -10969,8 +10995,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="73"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -10978,8 +11004,8 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="44" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:9" s="44" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>283</v>
       </c>
       <c r="B15"/>
@@ -10987,12 +11013,12 @@
         <v>284</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-    </row>
-    <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="71"/>
       <c r="B16" s="39" t="s">
         <v>115</v>
       </c>
@@ -11008,8 +11034,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+    <row r="17" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="72"/>
       <c r="B17" s="39" t="s">
         <v>116</v>
       </c>
@@ -11025,8 +11051,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+    <row r="18" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="72"/>
       <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -11034,8 +11060,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="72"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -11043,8 +11069,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="72"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -11052,8 +11078,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="72"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -11061,8 +11087,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+    <row r="22" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="73"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -11070,7 +11096,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
         <v>306</v>
       </c>
@@ -11078,12 +11104,12 @@
         <v>307</v>
       </c>
       <c r="D23" s="43"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
-    </row>
-    <row r="24" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+    </row>
+    <row r="24" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="86"/>
       <c r="B24" s="43"/>
       <c r="C24" s="14" t="s">
         <v>308</v>
@@ -11097,8 +11123,8 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
+    <row r="25" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="87"/>
       <c r="B25" s="43"/>
       <c r="C25" s="14" t="s">
         <v>311</v>
@@ -11112,8 +11138,8 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
+    <row r="26" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="87"/>
       <c r="B26" s="43"/>
       <c r="C26" s="14"/>
       <c r="D26" s="43"/>
@@ -11121,8 +11147,8 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
+    <row r="27" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="87"/>
       <c r="B27" s="43"/>
       <c r="C27" s="14"/>
       <c r="D27" s="43"/>
@@ -11130,8 +11156,8 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
+    <row r="28" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="87"/>
       <c r="B28" s="43"/>
       <c r="C28" s="14"/>
       <c r="D28" s="43"/>
@@ -11139,8 +11165,8 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
+    <row r="29" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="87"/>
       <c r="B29" s="43"/>
       <c r="C29" s="14"/>
       <c r="D29" s="43"/>
@@ -11148,8 +11174,8 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
+    <row r="30" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="88"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -11157,194 +11183,273 @@
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="78"/>
-    </row>
-    <row r="32" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-    </row>
-    <row r="39" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="78"/>
-    </row>
-    <row r="40" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-    </row>
-    <row r="47" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="C47" s="15"/>
+    <row r="31" spans="1:7" s="44" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+    </row>
+    <row r="32" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="71"/>
+      <c r="B32" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="72"/>
+      <c r="B33" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="72"/>
+      <c r="B34" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="72"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="72"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="72"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="73"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" s="44" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="76"/>
+    </row>
+    <row r="40" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="71"/>
+      <c r="B40" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="72"/>
+      <c r="B41" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="72"/>
+      <c r="B42" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="72"/>
+      <c r="B43" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="72"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="72"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="73"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" s="44" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="D47" s="43"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="78"/>
-    </row>
-    <row r="48" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="43"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="85"/>
+    </row>
+    <row r="48" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="86"/>
+      <c r="B48" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="C48" s="14"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="43"/>
+    <row r="49" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="87"/>
+      <c r="B49" s="47" t="s">
+        <v>116</v>
+      </c>
       <c r="C49" s="14"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
-      <c r="B50" s="43"/>
+    <row r="50" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="87"/>
+      <c r="B50" s="47" t="s">
+        <v>117</v>
+      </c>
       <c r="C50" s="14"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="43"/>
+    <row r="51" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="87"/>
+      <c r="B51" s="43" t="s">
+        <v>118</v>
+      </c>
       <c r="C51" s="14"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
+    <row r="52" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="87"/>
       <c r="B52" s="43"/>
       <c r="C52" s="14"/>
       <c r="D52" s="43"/>
@@ -11352,8 +11457,8 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
+    <row r="53" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="87"/>
       <c r="B53" s="43"/>
       <c r="C53" s="14"/>
       <c r="D53" s="43"/>
@@ -11361,8 +11466,8 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
+    <row r="54" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="88"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
@@ -11370,52 +11475,65 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
     </row>
-    <row r="55" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="C55" s="15"/>
+    <row r="55" spans="1:7" s="44" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="D55" s="43"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="78"/>
-    </row>
-    <row r="56" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
-      <c r="B56" s="47"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
+    </row>
+    <row r="56" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="86"/>
+      <c r="B56" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="C56" s="14"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="80"/>
-      <c r="B57" s="47"/>
+    <row r="57" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="87"/>
+      <c r="B57" s="47" t="s">
+        <v>116</v>
+      </c>
       <c r="C57" s="14"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="80"/>
-      <c r="B58" s="47"/>
+    <row r="58" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="87"/>
+      <c r="B58" s="47" t="s">
+        <v>117</v>
+      </c>
       <c r="C58" s="14"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="80"/>
-      <c r="B59" s="43"/>
+    <row r="59" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="87"/>
+      <c r="B59" s="43" t="s">
+        <v>118</v>
+      </c>
       <c r="C59" s="14"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="80"/>
+    <row r="60" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="87"/>
       <c r="B60" s="43"/>
       <c r="C60" s="14"/>
       <c r="D60" s="43"/>
@@ -11423,8 +11541,8 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="80"/>
+    <row r="61" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="87"/>
       <c r="B61" s="43"/>
       <c r="C61" s="14"/>
       <c r="D61" s="43"/>
@@ -11432,8 +11550,8 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
+    <row r="62" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="88"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
@@ -11441,52 +11559,65 @@
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
     </row>
-    <row r="63" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="C63" s="15"/>
+    <row r="63" spans="1:7" s="44" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A63" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="D63" s="43"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="78"/>
-    </row>
-    <row r="64" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="79"/>
-      <c r="B64" s="43"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="85"/>
+    </row>
+    <row r="64" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="86"/>
+      <c r="B64" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="C64" s="14"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="80"/>
-      <c r="B65" s="43"/>
+    <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="87"/>
+      <c r="B65" s="47" t="s">
+        <v>116</v>
+      </c>
       <c r="C65" s="14"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="80"/>
-      <c r="B66" s="43"/>
+    <row r="66" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="87"/>
+      <c r="B66" s="47" t="s">
+        <v>117</v>
+      </c>
       <c r="C66" s="14"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="80"/>
-      <c r="B67" s="43"/>
+    <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="87"/>
+      <c r="B67" s="43" t="s">
+        <v>118</v>
+      </c>
       <c r="C67" s="14"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="80"/>
+    <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="87"/>
       <c r="B68" s="43"/>
       <c r="C68" s="14"/>
       <c r="D68" s="43"/>
@@ -11494,8 +11625,8 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="80"/>
+    <row r="69" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="87"/>
       <c r="B69" s="43"/>
       <c r="C69" s="14"/>
       <c r="D69" s="43"/>
@@ -11503,8 +11634,8 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="81"/>
+    <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="88"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
       <c r="D70" s="42"/>
@@ -11512,16 +11643,16 @@
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
     </row>
-    <row r="71" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="43"/>
       <c r="C71" s="15"/>
       <c r="D71" s="43"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="78"/>
-    </row>
-    <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="79"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="85"/>
+    </row>
+    <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="86"/>
       <c r="B72" s="47"/>
       <c r="C72" s="14"/>
       <c r="D72" s="43"/>
@@ -11529,8 +11660,8 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="80"/>
+    <row r="73" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="87"/>
       <c r="B73" s="47"/>
       <c r="C73" s="14"/>
       <c r="D73" s="43"/>
@@ -11538,8 +11669,8 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="80"/>
+    <row r="74" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="87"/>
       <c r="B74" s="43"/>
       <c r="C74" s="14"/>
       <c r="D74" s="43"/>
@@ -11547,8 +11678,8 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="80"/>
+    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="87"/>
       <c r="B75" s="43"/>
       <c r="C75" s="14"/>
       <c r="D75" s="43"/>
@@ -11556,8 +11687,8 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="80"/>
+    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="87"/>
       <c r="B76" s="43"/>
       <c r="C76" s="14"/>
       <c r="D76" s="43"/>
@@ -11565,8 +11696,8 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="80"/>
+    <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="87"/>
       <c r="B77" s="43"/>
       <c r="C77" s="14"/>
       <c r="D77" s="43"/>
@@ -11574,8 +11705,8 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="81"/>
+    <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="88"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
@@ -11583,16 +11714,16 @@
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
     </row>
-    <row r="79" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="43"/>
       <c r="C79" s="15"/>
       <c r="D79" s="43"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="78"/>
-    </row>
-    <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="79"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="85"/>
+    </row>
+    <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="86"/>
       <c r="B80" s="43"/>
       <c r="C80" s="14"/>
       <c r="D80" s="43"/>
@@ -11600,8 +11731,8 @@
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="80"/>
+    <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="87"/>
       <c r="B81" s="43"/>
       <c r="C81" s="14"/>
       <c r="D81" s="43"/>
@@ -11609,8 +11740,8 @@
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="80"/>
+    <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="87"/>
       <c r="B82" s="43"/>
       <c r="C82" s="14"/>
       <c r="D82" s="43"/>
@@ -11618,8 +11749,8 @@
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="80"/>
+    <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="87"/>
       <c r="B83" s="43"/>
       <c r="C83" s="14"/>
       <c r="D83" s="43"/>
@@ -11627,8 +11758,8 @@
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="80"/>
+    <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="87"/>
       <c r="B84" s="43"/>
       <c r="C84" s="14"/>
       <c r="D84" s="43"/>
@@ -11636,8 +11767,8 @@
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
-    <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="80"/>
+    <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="87"/>
       <c r="B85" s="43"/>
       <c r="C85" s="14"/>
       <c r="D85" s="43"/>
@@ -11645,8 +11776,8 @@
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="81"/>
+    <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="88"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
       <c r="D86" s="42"/>
@@ -11654,16 +11785,16 @@
       <c r="F86" s="42"/>
       <c r="G86" s="42"/>
     </row>
-    <row r="87" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="43"/>
       <c r="C87" s="15"/>
       <c r="D87" s="43"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="78"/>
-    </row>
-    <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="85"/>
+    </row>
+    <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="86"/>
       <c r="B88" s="47"/>
       <c r="C88" s="14"/>
       <c r="D88" s="43"/>
@@ -11671,8 +11802,8 @@
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="80"/>
+    <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="87"/>
       <c r="B89" s="47"/>
       <c r="C89" s="14"/>
       <c r="D89" s="43"/>
@@ -11680,8 +11811,8 @@
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
     </row>
-    <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="80"/>
+    <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="87"/>
       <c r="B90" s="43"/>
       <c r="C90" s="14"/>
       <c r="D90" s="43"/>
@@ -11689,8 +11820,8 @@
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
     </row>
-    <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="80"/>
+    <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="87"/>
       <c r="B91" s="43"/>
       <c r="C91" s="14"/>
       <c r="D91" s="43"/>
@@ -11698,8 +11829,8 @@
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
     </row>
-    <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="80"/>
+    <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="87"/>
       <c r="B92" s="43"/>
       <c r="C92" s="14"/>
       <c r="D92" s="43"/>
@@ -11707,8 +11838,8 @@
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
     </row>
-    <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="80"/>
+    <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="87"/>
       <c r="B93" s="43"/>
       <c r="C93" s="14"/>
       <c r="D93" s="43"/>
@@ -11716,8 +11847,8 @@
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="81"/>
+    <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="88"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
       <c r="D94" s="42"/>
@@ -11725,16 +11856,16 @@
       <c r="F94" s="42"/>
       <c r="G94" s="42"/>
     </row>
-    <row r="95" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="43"/>
       <c r="C95" s="15"/>
       <c r="D95" s="43"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="78"/>
-    </row>
-    <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="79"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="85"/>
+    </row>
+    <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="86"/>
       <c r="B96" s="43"/>
       <c r="C96" s="14"/>
       <c r="D96" s="43"/>
@@ -11742,8 +11873,8 @@
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
     </row>
-    <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="80"/>
+    <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="87"/>
       <c r="B97" s="43"/>
       <c r="C97" s="14"/>
       <c r="D97" s="43"/>
@@ -11751,8 +11882,8 @@
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="80"/>
+    <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="87"/>
       <c r="B98" s="43"/>
       <c r="C98" s="14"/>
       <c r="D98" s="43"/>
@@ -11760,8 +11891,8 @@
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="80"/>
+    <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="87"/>
       <c r="B99" s="43"/>
       <c r="C99" s="14"/>
       <c r="D99" s="43"/>
@@ -11769,8 +11900,8 @@
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
     </row>
-    <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="80"/>
+    <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="87"/>
       <c r="B100" s="43"/>
       <c r="C100" s="14"/>
       <c r="D100" s="43"/>
@@ -11778,8 +11909,8 @@
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
     </row>
-    <row r="101" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="80"/>
+    <row r="101" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="87"/>
       <c r="B101" s="43"/>
       <c r="C101" s="14"/>
       <c r="D101" s="43"/>
@@ -11787,8 +11918,8 @@
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
     </row>
-    <row r="102" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="81"/>
+    <row r="102" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="88"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
@@ -11796,16 +11927,16 @@
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
     </row>
-    <row r="103" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="43"/>
       <c r="C103" s="15"/>
       <c r="D103" s="43"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="78"/>
-    </row>
-    <row r="104" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="79"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="84"/>
+      <c r="G103" s="85"/>
+    </row>
+    <row r="104" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="86"/>
       <c r="B104" s="43"/>
       <c r="C104" s="14"/>
       <c r="D104" s="43"/>
@@ -11813,8 +11944,8 @@
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
     </row>
-    <row r="105" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="80"/>
+    <row r="105" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="87"/>
       <c r="B105" s="43"/>
       <c r="C105" s="14"/>
       <c r="D105" s="43"/>
@@ -11822,8 +11953,8 @@
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
     </row>
-    <row r="106" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="80"/>
+    <row r="106" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="87"/>
       <c r="B106" s="43"/>
       <c r="C106" s="14"/>
       <c r="D106" s="43"/>
@@ -11831,8 +11962,8 @@
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
     </row>
-    <row r="107" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="80"/>
+    <row r="107" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="87"/>
       <c r="B107" s="43"/>
       <c r="C107" s="14"/>
       <c r="D107" s="43"/>
@@ -11840,8 +11971,8 @@
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
     </row>
-    <row r="108" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="80"/>
+    <row r="108" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="87"/>
       <c r="B108" s="43"/>
       <c r="C108" s="14"/>
       <c r="D108" s="43"/>
@@ -11849,8 +11980,8 @@
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
     </row>
-    <row r="109" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="80"/>
+    <row r="109" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="87"/>
       <c r="B109" s="43"/>
       <c r="C109" s="14"/>
       <c r="D109" s="43"/>
@@ -11858,8 +11989,8 @@
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
     </row>
-    <row r="110" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="81"/>
+    <row r="110" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="88"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
       <c r="D110" s="42"/>
@@ -11869,12 +12000,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="E31:G31"/>
@@ -11887,15 +12021,12 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98FA76-2EAC-4D11-929A-FFBDBBB1C485}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B8C39-7841-4A14-B180-077767A26CF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="7" r:id="rId1"/>
     <sheet name="PB" sheetId="1" r:id="rId2"/>
-    <sheet name="SB1" sheetId="8" r:id="rId3"/>
-    <sheet name="SB2" sheetId="2" r:id="rId4"/>
-    <sheet name="SB3" sheetId="4" r:id="rId5"/>
-    <sheet name="SB4" sheetId="5" r:id="rId6"/>
-    <sheet name="SB5" sheetId="6" r:id="rId7"/>
-    <sheet name="SB6" sheetId="9" r:id="rId8"/>
+    <sheet name="Pendientes" sheetId="10" r:id="rId3"/>
+    <sheet name="SB1" sheetId="8" r:id="rId4"/>
+    <sheet name="SB2" sheetId="2" r:id="rId5"/>
+    <sheet name="SB3" sheetId="4" r:id="rId6"/>
+    <sheet name="SB4" sheetId="5" r:id="rId7"/>
+    <sheet name="SB5" sheetId="6" r:id="rId8"/>
+    <sheet name="SB6" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PB!$A$6:$I$59</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="410">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -2255,9 +2256,6 @@
     <t>Pintar icono del escudo de la alcaldia a aquellos predios que no presenten irregulidad alguna activa</t>
   </si>
   <si>
-    <t>Realizar CRUD pa tipo de reporte de irregularidad</t>
-  </si>
-  <si>
     <t>Al pintar el formulario de repotes y escoger el tipo de reporte, en la parte superior se debe pintar un texto que describa sobre ese tipode reporte.</t>
   </si>
   <si>
@@ -2894,7 +2892,188 @@
     </r>
   </si>
   <si>
-    <t>09-09-2019 Invetigando el manejo de filtros con ArcGis</t>
+    <t>09-09-2019 No se ha iniciado ya que es una investigacion de como integrar ArcGis con Google y por el momento no es tan importante, se propone mover esta atividad a un Sprint posterior</t>
+  </si>
+  <si>
+    <t>09-09-2019 Por el momento se muestra en un modal los id de las tablas, falta generar mas informacion</t>
+  </si>
+  <si>
+    <t>Acomodar el desarrollo para que este o sea responsivo, el mapa no se adapta al tipo de pantalla.</t>
+  </si>
+  <si>
+    <t>El mapa base tiene que ser Street</t>
+  </si>
+  <si>
+    <t>El campo nombre del usuario tiene que validar que sea solo letras, tener en cuentas los demás campos</t>
+  </si>
+  <si>
+    <t>Los usuarios no necesitan la identificación</t>
+  </si>
+  <si>
+    <t>Validar que solo sean 28 organismos, validar por cantidad de caracteres 6 dígitos</t>
+  </si>
+  <si>
+    <t>El botón de módulos y permisos no funciona</t>
+  </si>
+  <si>
+    <t>Orden de capas: 1 Punto, 2 Línea, 3 Polígono, 4 Construcción, 5 Terreno</t>
+  </si>
+  <si>
+    <t>Crear un Sprint 7 para documentación y otros entregables</t>
+  </si>
+  <si>
+    <t>Creación de tabla de auditorias</t>
+  </si>
+  <si>
+    <t>Pedir un server php 7 para producción y con salida</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>Luis Miguel</t>
+  </si>
+  <si>
+    <t>Mostrar u ocultar todos los campos dependiendo del rol, conectar con la permiso logia con los campos de ArcGis</t>
+  </si>
+  <si>
+    <t>Colores en los polígonos</t>
+  </si>
+  <si>
+    <t>Orden de los filtros</t>
+  </si>
+  <si>
+    <t>Nombre de los filtros (Amoblados)</t>
+  </si>
+  <si>
+    <t>Tener en cuenta los amoblados de tipo de línea y punto</t>
+  </si>
+  <si>
+    <t>Listado de entregables no funcionales por parte de Wilmar</t>
+  </si>
+  <si>
+    <t>Mensaje que diga que no están la totalidad de los predios</t>
+  </si>
+  <si>
+    <t>No esta logeando con el directorio activo</t>
+  </si>
+  <si>
+    <t>Esta lento en el proceso de logeo</t>
+  </si>
+  <si>
+    <t>Simulador para móvil</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>Wilmar</t>
+  </si>
+  <si>
+    <t>Prototipos</t>
+  </si>
+  <si>
+    <t>Pendiente la lista por parte de Wilmar</t>
+  </si>
+  <si>
+    <t>09-09-2019 Invetigando el manejo de filtros con ArcGis
+16-09-2019 Se estan identificando los campos para los filtros, el servidor el dia de hoy se encuentra caido</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arametrizar tipos de reportes encerramiento ilegal. En la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <t>Registro en base de datos</t>
+  </si>
+  <si>
+    <t>Pendientes</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>No se entiende el pendiente</t>
+  </si>
+  <si>
+    <t>Preguntar como se van a nombrar cada uno</t>
+  </si>
+  <si>
+    <t>Se esta investigando como se realiza esta integracion con el ArcGis</t>
+  </si>
+  <si>
+    <t>Observacion</t>
   </si>
   <si>
     <r>
@@ -2911,81 +3090,58 @@
       </rPr>
       <t>09-09-2019 Invetigando el manejo de filtros con ArcGis</t>
     </r>
-  </si>
-  <si>
-    <t>09-09-2019 No se ha iniciado ya que es una investigacion de como integrar ArcGis con Google y por el momento no es tan importante, se propone mover esta atividad a un Sprint posterior</t>
-  </si>
-  <si>
-    <t>09-09-2019 Por el momento se muestra en un modal los id de las tablas, falta generar mas informacion</t>
-  </si>
-  <si>
-    <t>Acomodar el desarrollo para que este o sea responsivo, el mapa no se adapta al tipo de pantalla.</t>
-  </si>
-  <si>
-    <t>El mapa base tiene que ser Street</t>
-  </si>
-  <si>
-    <t>El campo nombre del usuario tiene que validar que sea solo letras, tener en cuentas los demás campos</t>
-  </si>
-  <si>
-    <t>Los usuarios no necesitan la identificación</t>
-  </si>
-  <si>
-    <t>Validar que solo sean 28 organismos, validar por cantidad de caracteres 6 dígitos</t>
-  </si>
-  <si>
-    <t>El botón de módulos y permisos no funciona</t>
-  </si>
-  <si>
-    <t>Orden de capas: 1 Punto, 2 Línea, 3 Polígono, 4 Construcción, 5 Terreno</t>
-  </si>
-  <si>
-    <t>Crear un Sprint 7 para documentación y otros entregables</t>
-  </si>
-  <si>
-    <t>Creación de tabla de auditorias</t>
-  </si>
-  <si>
-    <t>Pedir un server php 7 para producción y con salida</t>
-  </si>
-  <si>
-    <t>Verificar el manejo de modales sobre modales</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>Luis Miguel</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16-09-2019 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se estan identificando los campos para los filtros, el servidor el dia de hoy se encuentra caido</t>
+    </r>
+  </si>
+  <si>
+    <t>16-09-2019 La plataforma ArcGis se encuentra caida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alto
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">16-09-2019 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La plataforma ArcGis se encuentra caida</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3074,7 +3230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3188,12 +3344,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3300,7 +3450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3483,16 +3633,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3551,15 +3719,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3892,11 +4051,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3989,10 +4148,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4009,61 +4168,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -4076,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>110</v>
@@ -4105,10 +4264,10 @@
         <v>176</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="49">
@@ -4133,10 +4292,10 @@
         <v>132</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="49">
@@ -4150,7 +4309,7 @@
         <v>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
@@ -4161,10 +4320,10 @@
         <v>135</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="51">
@@ -4174,7 +4333,7 @@
         <v>139</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -4188,10 +4347,10 @@
         <v>136</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>111</v>
+        <v>250</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="52">
@@ -4201,7 +4360,7 @@
         <v>139</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>149</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
@@ -4215,7 +4374,7 @@
         <v>142</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>111</v>
@@ -4240,10 +4399,10 @@
         <v>141</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>111</v>
+        <v>250</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>327</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="51">
@@ -4253,7 +4412,7 @@
         <v>138</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
@@ -4267,10 +4426,10 @@
         <v>144</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>111</v>
+        <v>249</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="52">
@@ -4292,10 +4451,10 @@
         <v>145</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="51">
@@ -4305,7 +4464,7 @@
         <v>139</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
@@ -4319,20 +4478,20 @@
         <v>147</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="89">
+      <c r="G15" s="68">
         <v>6</v>
       </c>
       <c r="H15" s="60" t="s">
         <v>149</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
@@ -4346,13 +4505,13 @@
         <v>148</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>111</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="89">
+      <c r="G16" s="68">
         <v>6</v>
       </c>
       <c r="H16" s="60" t="s">
@@ -4373,10 +4532,10 @@
         <v>151</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="51">
@@ -4386,7 +4545,7 @@
         <v>138</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -4400,10 +4559,10 @@
         <v>152</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>111</v>
+        <v>249</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>327</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="53">
@@ -4413,7 +4572,7 @@
         <v>139</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -4427,10 +4586,10 @@
         <v>153</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>111</v>
+        <v>250</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>327</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="53">
@@ -4440,7 +4599,7 @@
         <v>139</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4454,7 +4613,7 @@
         <v>157</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>111</v>
@@ -4479,10 +4638,10 @@
         <v>156</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>111</v>
+        <v>250</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="53">
@@ -4501,10 +4660,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>111</v>
@@ -4517,7 +4676,7 @@
         <v>138</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4528,10 +4687,10 @@
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>111</v>
@@ -4556,10 +4715,10 @@
         <v>161</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="49">
@@ -4581,10 +4740,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="49">
@@ -4611,7 +4770,7 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13" t="s">
@@ -4634,7 +4793,7 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="13" t="s">
@@ -4652,10 +4811,10 @@
         <v>165</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="51">
@@ -4665,7 +4824,7 @@
         <v>149</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
@@ -4679,10 +4838,10 @@
         <v>164</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="51">
@@ -4704,10 +4863,10 @@
         <v>167</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="49">
@@ -4717,7 +4876,7 @@
         <v>149</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="58" hidden="1" x14ac:dyDescent="0.35">
@@ -4731,10 +4890,10 @@
         <v>168</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="49">
@@ -4744,7 +4903,7 @@
         <v>149</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4758,10 +4917,10 @@
         <v>169</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="51">
@@ -4771,7 +4930,7 @@
         <v>149</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -4785,7 +4944,7 @@
         <v>170</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>111</v>
@@ -4798,7 +4957,7 @@
         <v>149</v>
       </c>
       <c r="I33" s="50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
@@ -4812,10 +4971,10 @@
         <v>65</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="51">
@@ -4825,7 +4984,7 @@
         <v>149</v>
       </c>
       <c r="I34" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -4839,7 +4998,7 @@
         <v>172</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>111</v>
@@ -4864,9 +5023,9 @@
         <v>68</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="E36" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" s="63" t="s">
         <v>327</v>
       </c>
       <c r="F36" s="1"/>
@@ -4877,7 +5036,7 @@
         <v>149</v>
       </c>
       <c r="I36" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
@@ -4891,10 +5050,10 @@
         <v>69</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="51">
@@ -4913,13 +5072,13 @@
         <v>54</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="51">
@@ -4938,10 +5097,10 @@
         <v>55</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>111</v>
@@ -4954,21 +5113,21 @@
         <v>139</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B40" s="49" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>111</v>
@@ -4993,7 +5152,7 @@
         <v>71</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>111</v>
@@ -5006,7 +5165,7 @@
         <v>139</v>
       </c>
       <c r="I41" s="50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -5020,7 +5179,7 @@
         <v>72</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>111</v>
@@ -5045,7 +5204,7 @@
         <v>73</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>111</v>
@@ -5070,7 +5229,7 @@
         <v>74</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>111</v>
@@ -5095,10 +5254,10 @@
         <v>75</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>111</v>
+        <v>248</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="53">
@@ -5107,7 +5266,9 @@
       <c r="H45" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
@@ -5120,7 +5281,7 @@
         <v>76</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>111</v>
@@ -5147,7 +5308,7 @@
         <v>77</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>111</v>
@@ -5166,13 +5327,13 @@
         <v>93</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>111</v>
@@ -5191,13 +5352,13 @@
         <v>105</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>111</v>
@@ -5216,13 +5377,13 @@
         <v>106</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>111</v>
@@ -5241,13 +5402,13 @@
         <v>107</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>111</v>
@@ -5266,13 +5427,13 @@
         <v>108</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>111</v>
@@ -5291,13 +5452,13 @@
         <v>92</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>111</v>
@@ -5316,13 +5477,13 @@
         <v>91</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>111</v>
@@ -5341,13 +5502,13 @@
         <v>90</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>111</v>
@@ -5366,7 +5527,7 @@
         <v>89</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>86</v>
@@ -5389,16 +5550,16 @@
         <v>88</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>111</v>
+        <v>248</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="53">
@@ -5407,23 +5568,25 @@
       <c r="H57" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="I57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B58" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="B58" s="52" t="s">
-        <v>342</v>
-      </c>
       <c r="C58" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E58" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="49">
@@ -5436,19 +5599,19 @@
     </row>
     <row r="59" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="B59" s="52" t="s">
-        <v>344</v>
-      </c>
       <c r="C59" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E59" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="49">
@@ -5464,9 +5627,6 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C62" s="3"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C64" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:I59" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -5486,6 +5646,382 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7139F943-C9B2-471B-9715-1F991D95FE77}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" customWidth="1"/>
+    <col min="5" max="5" width="56.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="69" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="69" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G132"/>
   <sheetViews>
@@ -5504,51 +6040,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -5582,12 +6118,12 @@
         <v>5</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="6" t="s">
         <v>115</v>
       </c>
@@ -5595,16 +6131,16 @@
         <v>119</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="6" t="s">
         <v>116</v>
       </c>
@@ -5612,16 +6148,16 @@
         <v>120</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="6" t="s">
         <v>117</v>
       </c>
@@ -5629,16 +6165,16 @@
         <v>121</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
@@ -5646,18 +6182,18 @@
         <v>122</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -5666,7 +6202,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -5675,7 +6211,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="73"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
@@ -5696,26 +6232,26 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="22"/>
       <c r="C17" s="1"/>
       <c r="D17" s="22"/>
@@ -5724,7 +6260,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -5733,7 +6269,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -5742,7 +6278,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -5751,7 +6287,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -5760,7 +6296,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="73"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
       <c r="D22" s="10"/>
@@ -5781,24 +6317,24 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="71"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="22"/>
       <c r="C25" s="1"/>
       <c r="D25" s="22"/>
@@ -5807,7 +6343,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="22"/>
       <c r="C26" s="1"/>
       <c r="D26" s="22"/>
@@ -5816,7 +6352,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -5825,7 +6361,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -5834,7 +6370,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -5843,7 +6379,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="73"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="10"/>
       <c r="C30" s="20"/>
       <c r="D30" s="10"/>
@@ -5864,24 +6400,24 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="35"/>
       <c r="C33" s="1"/>
       <c r="D33" s="35"/>
@@ -5890,7 +6426,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="35"/>
       <c r="C34" s="1"/>
       <c r="D34" s="35"/>
@@ -5899,7 +6435,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="35"/>
       <c r="C35" s="1"/>
       <c r="D35" s="35"/>
@@ -5908,7 +6444,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="72"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="35"/>
       <c r="C36" s="1"/>
       <c r="D36" s="35"/>
@@ -5917,7 +6453,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="72"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="35"/>
       <c r="C37" s="1"/>
       <c r="D37" s="35"/>
@@ -5926,7 +6462,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="73"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="10"/>
       <c r="C38" s="20"/>
       <c r="D38" s="10"/>
@@ -5948,7 +6484,7 @@
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="6" t="s">
         <v>115</v>
       </c>
@@ -5956,16 +6492,16 @@
         <v>199</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="72"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="6" t="s">
         <v>116</v>
       </c>
@@ -5973,16 +6509,16 @@
         <v>186</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="72"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
@@ -5991,7 +6527,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="6"/>
       <c r="C43" s="1"/>
       <c r="D43" s="6"/>
@@ -6000,7 +6536,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="72"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="6"/>
       <c r="C44" s="1"/>
       <c r="D44" s="6"/>
@@ -6009,7 +6545,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="72"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="6"/>
       <c r="C45" s="1"/>
       <c r="D45" s="6"/>
@@ -6018,7 +6554,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="73"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="10"/>
       <c r="C46" s="20"/>
       <c r="D46" s="10"/>
@@ -6039,24 +6575,24 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="71"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D48" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="35"/>
       <c r="C49" s="1"/>
       <c r="D49" s="35"/>
@@ -6065,7 +6601,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="35"/>
       <c r="C50" s="1"/>
       <c r="D50" s="35"/>
@@ -6074,7 +6610,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="35"/>
       <c r="C51" s="1"/>
       <c r="D51" s="35"/>
@@ -6083,7 +6619,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="73"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="10"/>
       <c r="C52" s="20"/>
       <c r="D52" s="10"/>
@@ -6093,11 +6629,11 @@
     </row>
     <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="10"/>
@@ -6105,58 +6641,58 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="71"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="48" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="78"/>
       <c r="B55" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D55" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="72"/>
+      <c r="A56" s="78"/>
       <c r="B56" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D56" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="72"/>
+      <c r="A57" s="78"/>
       <c r="B57" s="35"/>
       <c r="C57" s="1"/>
       <c r="D57" s="35"/>
@@ -6165,7 +6701,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="35"/>
       <c r="C58" s="1"/>
       <c r="D58" s="35"/>
@@ -6174,7 +6710,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="35"/>
       <c r="C59" s="1"/>
       <c r="D59" s="35"/>
@@ -6183,7 +6719,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="73"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="10"/>
       <c r="C60" s="20"/>
       <c r="D60" s="10"/>
@@ -6193,11 +6729,11 @@
     </row>
     <row r="61" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="10"/>
@@ -6205,58 +6741,58 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="71"/>
+      <c r="A62" s="77"/>
       <c r="B62" s="48" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D62" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="78"/>
       <c r="B63" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D63" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="72"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D64" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="72"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="35"/>
       <c r="C65" s="1"/>
       <c r="D65" s="35"/>
@@ -6265,7 +6801,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="72"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="35"/>
       <c r="C66" s="1"/>
       <c r="D66" s="35"/>
@@ -6274,7 +6810,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="72"/>
+      <c r="A67" s="78"/>
       <c r="B67" s="35"/>
       <c r="C67" s="1"/>
       <c r="D67" s="35"/>
@@ -6283,7 +6819,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="73"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="10"/>
       <c r="C68" s="20"/>
       <c r="D68" s="10"/>
@@ -6301,7 +6837,7 @@
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="71"/>
+      <c r="A70" s="77"/>
       <c r="B70" s="35"/>
       <c r="C70" s="1"/>
       <c r="D70" s="35"/>
@@ -6310,7 +6846,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="72"/>
+      <c r="A71" s="78"/>
       <c r="B71" s="35"/>
       <c r="C71" s="1"/>
       <c r="D71" s="35"/>
@@ -6319,7 +6855,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="72"/>
+      <c r="A72" s="78"/>
       <c r="B72" s="35"/>
       <c r="C72" s="1"/>
       <c r="D72" s="35"/>
@@ -6328,7 +6864,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="72"/>
+      <c r="A73" s="78"/>
       <c r="B73" s="35"/>
       <c r="C73" s="1"/>
       <c r="D73" s="35"/>
@@ -6337,7 +6873,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="72"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="35"/>
       <c r="C74" s="1"/>
       <c r="D74" s="35"/>
@@ -6346,7 +6882,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="72"/>
+      <c r="A75" s="78"/>
       <c r="B75" s="35"/>
       <c r="C75" s="1"/>
       <c r="D75" s="35"/>
@@ -6355,7 +6891,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="73"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="10"/>
       <c r="C76" s="20"/>
       <c r="D76" s="10"/>
@@ -6372,7 +6908,7 @@
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="71"/>
+      <c r="A78" s="77"/>
       <c r="B78" s="35"/>
       <c r="C78" s="1"/>
       <c r="D78" s="35"/>
@@ -6381,7 +6917,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="72"/>
+      <c r="A79" s="78"/>
       <c r="B79" s="35"/>
       <c r="C79" s="1"/>
       <c r="D79" s="35"/>
@@ -6390,7 +6926,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="72"/>
+      <c r="A80" s="78"/>
       <c r="B80" s="35"/>
       <c r="C80" s="1"/>
       <c r="D80" s="35"/>
@@ -6399,7 +6935,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="72"/>
+      <c r="A81" s="78"/>
       <c r="B81" s="35"/>
       <c r="C81" s="1"/>
       <c r="D81" s="35"/>
@@ -6408,7 +6944,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="72"/>
+      <c r="A82" s="78"/>
       <c r="B82" s="35"/>
       <c r="C82" s="1"/>
       <c r="D82" s="35"/>
@@ -6417,7 +6953,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="72"/>
+      <c r="A83" s="78"/>
       <c r="B83" s="35"/>
       <c r="C83" s="1"/>
       <c r="D83" s="35"/>
@@ -6426,7 +6962,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="73"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="10"/>
       <c r="C84" s="20"/>
       <c r="D84" s="10"/>
@@ -6443,7 +6979,7 @@
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="71"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="35"/>
       <c r="C86" s="1"/>
       <c r="D86" s="35"/>
@@ -6452,7 +6988,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="72"/>
+      <c r="A87" s="78"/>
       <c r="B87" s="35"/>
       <c r="C87" s="1"/>
       <c r="D87" s="35"/>
@@ -6461,7 +6997,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="72"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="35"/>
       <c r="C88" s="1"/>
       <c r="D88" s="35"/>
@@ -6470,7 +7006,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="72"/>
+      <c r="A89" s="78"/>
       <c r="B89" s="35"/>
       <c r="C89" s="1"/>
       <c r="D89" s="35"/>
@@ -6479,7 +7015,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="72"/>
+      <c r="A90" s="78"/>
       <c r="B90" s="35"/>
       <c r="C90" s="1"/>
       <c r="D90" s="35"/>
@@ -6488,7 +7024,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="72"/>
+      <c r="A91" s="78"/>
       <c r="B91" s="35"/>
       <c r="C91" s="1"/>
       <c r="D91" s="35"/>
@@ -6497,7 +7033,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="73"/>
+      <c r="A92" s="79"/>
       <c r="B92" s="10"/>
       <c r="C92" s="20"/>
       <c r="D92" s="10"/>
@@ -6514,7 +7050,7 @@
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="71"/>
+      <c r="A94" s="77"/>
       <c r="B94" s="35"/>
       <c r="C94" s="1"/>
       <c r="D94" s="35"/>
@@ -6523,7 +7059,7 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="72"/>
+      <c r="A95" s="78"/>
       <c r="B95" s="35"/>
       <c r="C95" s="1"/>
       <c r="D95" s="35"/>
@@ -6532,7 +7068,7 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="72"/>
+      <c r="A96" s="78"/>
       <c r="B96" s="35"/>
       <c r="C96" s="1"/>
       <c r="D96" s="35"/>
@@ -6541,7 +7077,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="72"/>
+      <c r="A97" s="78"/>
       <c r="B97" s="35"/>
       <c r="C97" s="1"/>
       <c r="D97" s="35"/>
@@ -6550,7 +7086,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="72"/>
+      <c r="A98" s="78"/>
       <c r="B98" s="35"/>
       <c r="C98" s="1"/>
       <c r="D98" s="35"/>
@@ -6559,7 +7095,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="72"/>
+      <c r="A99" s="78"/>
       <c r="B99" s="35"/>
       <c r="C99" s="1"/>
       <c r="D99" s="35"/>
@@ -6568,7 +7104,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="73"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="10"/>
       <c r="C100" s="20"/>
       <c r="D100" s="10"/>
@@ -6586,7 +7122,7 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="71"/>
+      <c r="A102" s="77"/>
       <c r="B102" s="35"/>
       <c r="C102" s="1"/>
       <c r="D102" s="35"/>
@@ -6595,7 +7131,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="72"/>
+      <c r="A103" s="78"/>
       <c r="B103" s="35"/>
       <c r="C103" s="1"/>
       <c r="D103" s="35"/>
@@ -6604,7 +7140,7 @@
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="72"/>
+      <c r="A104" s="78"/>
       <c r="B104" s="35"/>
       <c r="C104" s="1"/>
       <c r="D104" s="35"/>
@@ -6613,7 +7149,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="72"/>
+      <c r="A105" s="78"/>
       <c r="B105" s="35"/>
       <c r="C105" s="1"/>
       <c r="D105" s="35"/>
@@ -6622,7 +7158,7 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="72"/>
+      <c r="A106" s="78"/>
       <c r="B106" s="35"/>
       <c r="C106" s="1"/>
       <c r="D106" s="35"/>
@@ -6631,7 +7167,7 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="72"/>
+      <c r="A107" s="78"/>
       <c r="B107" s="35"/>
       <c r="C107" s="1"/>
       <c r="D107" s="35"/>
@@ -6640,7 +7176,7 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="73"/>
+      <c r="A108" s="79"/>
       <c r="B108" s="10"/>
       <c r="C108" s="20"/>
       <c r="D108" s="10"/>
@@ -6658,7 +7194,7 @@
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="71"/>
+      <c r="A110" s="77"/>
       <c r="B110" s="35"/>
       <c r="C110" s="1"/>
       <c r="D110" s="35"/>
@@ -6667,7 +7203,7 @@
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="72"/>
+      <c r="A111" s="78"/>
       <c r="B111" s="35"/>
       <c r="C111" s="1"/>
       <c r="D111" s="35"/>
@@ -6676,7 +7212,7 @@
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="72"/>
+      <c r="A112" s="78"/>
       <c r="B112" s="35"/>
       <c r="C112" s="1"/>
       <c r="D112" s="35"/>
@@ -6685,7 +7221,7 @@
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="72"/>
+      <c r="A113" s="78"/>
       <c r="B113" s="35"/>
       <c r="C113" s="1"/>
       <c r="D113" s="35"/>
@@ -6694,7 +7230,7 @@
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="72"/>
+      <c r="A114" s="78"/>
       <c r="B114" s="35"/>
       <c r="C114" s="1"/>
       <c r="D114" s="35"/>
@@ -6703,7 +7239,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="72"/>
+      <c r="A115" s="78"/>
       <c r="B115" s="35"/>
       <c r="C115" s="1"/>
       <c r="D115" s="35"/>
@@ -6712,7 +7248,7 @@
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="73"/>
+      <c r="A116" s="79"/>
       <c r="B116" s="10"/>
       <c r="C116" s="20"/>
       <c r="D116" s="10"/>
@@ -6730,7 +7266,7 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="71"/>
+      <c r="A118" s="77"/>
       <c r="B118" s="35"/>
       <c r="C118" s="1"/>
       <c r="D118" s="35"/>
@@ -6739,7 +7275,7 @@
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="72"/>
+      <c r="A119" s="78"/>
       <c r="B119" s="35"/>
       <c r="C119" s="1"/>
       <c r="D119" s="35"/>
@@ -6748,7 +7284,7 @@
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="72"/>
+      <c r="A120" s="78"/>
       <c r="B120" s="35"/>
       <c r="C120" s="1"/>
       <c r="D120" s="35"/>
@@ -6757,7 +7293,7 @@
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="72"/>
+      <c r="A121" s="78"/>
       <c r="B121" s="35"/>
       <c r="C121" s="1"/>
       <c r="D121" s="35"/>
@@ -6766,7 +7302,7 @@
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="72"/>
+      <c r="A122" s="78"/>
       <c r="B122" s="35"/>
       <c r="C122" s="1"/>
       <c r="D122" s="35"/>
@@ -6775,7 +7311,7 @@
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="72"/>
+      <c r="A123" s="78"/>
       <c r="B123" s="35"/>
       <c r="C123" s="1"/>
       <c r="D123" s="35"/>
@@ -6784,7 +7320,7 @@
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="73"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="10"/>
       <c r="C124" s="20"/>
       <c r="D124" s="10"/>
@@ -6802,7 +7338,7 @@
       <c r="G125" s="10"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="71"/>
+      <c r="A126" s="77"/>
       <c r="B126" s="35"/>
       <c r="C126" s="1"/>
       <c r="D126" s="35"/>
@@ -6811,7 +7347,7 @@
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="72"/>
+      <c r="A127" s="78"/>
       <c r="B127" s="35"/>
       <c r="C127" s="1"/>
       <c r="D127" s="35"/>
@@ -6820,7 +7356,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="72"/>
+      <c r="A128" s="78"/>
       <c r="B128" s="35"/>
       <c r="C128" s="1"/>
       <c r="D128" s="35"/>
@@ -6829,7 +7365,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="72"/>
+      <c r="A129" s="78"/>
       <c r="B129" s="35"/>
       <c r="C129" s="1"/>
       <c r="D129" s="35"/>
@@ -6838,7 +7374,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="72"/>
+      <c r="A130" s="78"/>
       <c r="B130" s="35"/>
       <c r="C130" s="1"/>
       <c r="D130" s="35"/>
@@ -6847,7 +7383,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="72"/>
+      <c r="A131" s="78"/>
       <c r="B131" s="35"/>
       <c r="C131" s="1"/>
       <c r="D131" s="35"/>
@@ -6856,7 +7392,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="73"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="10"/>
       <c r="C132" s="20"/>
       <c r="D132" s="10"/>
@@ -6890,12 +7426,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6910,51 +7446,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -6988,14 +7524,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="65"/>
-      <c r="E7" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="E7" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
@@ -7003,7 +7539,7 @@
         <v>124</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>297</v>
@@ -7012,7 +7548,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
@@ -7020,16 +7556,16 @@
         <v>125</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="E9" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="67" t="s">
         <v>297</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="36" t="s">
         <v>117</v>
       </c>
@@ -7037,16 +7573,16 @@
         <v>126</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="67" t="s">
         <v>297</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="36" t="s">
         <v>118</v>
       </c>
@@ -7054,50 +7590,50 @@
         <v>127</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="E11" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="67" t="s">
         <v>297</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="36" t="s">
         <v>189</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="67" t="s">
         <v>297</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="36" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="67" t="s">
         <v>297</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="73"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="10"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
@@ -7114,12 +7650,12 @@
         <v>165</v>
       </c>
       <c r="D15" s="65"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="6" t="s">
         <v>115</v>
       </c>
@@ -7127,16 +7663,16 @@
         <v>182</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="6" t="s">
         <v>116</v>
       </c>
@@ -7144,16 +7680,16 @@
         <v>183</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="6" t="s">
         <v>117</v>
       </c>
@@ -7161,16 +7697,16 @@
         <v>184</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="6" t="s">
         <v>118</v>
       </c>
@@ -7178,16 +7714,16 @@
         <v>185</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="6" t="s">
         <v>189</v>
       </c>
@@ -7195,16 +7731,16 @@
         <v>187</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="6" t="s">
         <v>190</v>
       </c>
@@ -7212,16 +7748,16 @@
         <v>188</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="73"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="10"/>
       <c r="C22" s="20"/>
       <c r="D22" s="10"/>
@@ -7238,9 +7774,9 @@
         <v>178</v>
       </c>
       <c r="D23" s="65"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
@@ -7251,10 +7787,10 @@
         <v>191</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -7268,10 +7804,10 @@
         <v>192</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -7321,12 +7857,12 @@
         <v>179</v>
       </c>
       <c r="D30" s="65"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="76"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="71"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="6" t="s">
         <v>115</v>
       </c>
@@ -7334,16 +7870,16 @@
         <v>193</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="72"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="6" t="s">
         <v>116</v>
       </c>
@@ -7351,16 +7887,16 @@
         <v>194</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="6"/>
@@ -7369,7 +7905,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="6"/>
@@ -7378,7 +7914,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="73"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="10"/>
       <c r="C35" s="20"/>
       <c r="D35" s="10"/>
@@ -7395,48 +7931,48 @@
         <v>180</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="77" t="s">
-        <v>347</v>
-      </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="79"/>
+      <c r="E36" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="F36" s="84"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="71"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="64" t="s">
-        <v>329</v>
+      <c r="D37" s="63" t="s">
+        <v>327</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="72"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>297</v>
+      <c r="D38" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>293</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="6"/>
       <c r="C39" s="1"/>
       <c r="D39" s="6"/>
@@ -7445,7 +7981,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="6"/>
       <c r="C40" s="1"/>
       <c r="D40" s="6"/>
@@ -7454,7 +7990,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="72"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="6"/>
       <c r="C41" s="1"/>
       <c r="D41" s="6"/>
@@ -7463,7 +7999,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="72"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
@@ -7472,7 +8008,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="73"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="10"/>
       <c r="C43" s="20"/>
       <c r="D43" s="10"/>
@@ -7494,7 +8030,7 @@
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="71"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="6" t="s">
         <v>115</v>
       </c>
@@ -7502,16 +8038,16 @@
         <v>197</v>
       </c>
       <c r="D45" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="72"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="6" t="s">
         <v>116</v>
       </c>
@@ -7519,16 +8055,16 @@
         <v>198</v>
       </c>
       <c r="D46" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="72"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="6"/>
       <c r="C47" s="1"/>
       <c r="D47" s="6"/>
@@ -7537,7 +8073,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="72"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1"/>
       <c r="D48" s="6"/>
@@ -7546,7 +8082,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="6"/>
       <c r="C49" s="1"/>
       <c r="D49" s="6"/>
@@ -7555,7 +8091,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="6"/>
       <c r="C50" s="1"/>
       <c r="D50" s="6"/>
@@ -7564,7 +8100,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="73"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="10"/>
       <c r="C51" s="20"/>
       <c r="D51" s="10"/>
@@ -7581,12 +8117,12 @@
         <v>181</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="82"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="88"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="71"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="6" t="s">
         <v>115</v>
       </c>
@@ -7594,16 +8130,16 @@
         <v>199</v>
       </c>
       <c r="D53" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="72"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1"/>
       <c r="D54" s="6"/>
@@ -7612,7 +8148,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="72"/>
+      <c r="A55" s="78"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1"/>
       <c r="D55" s="6"/>
@@ -7621,7 +8157,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="72"/>
+      <c r="A56" s="78"/>
       <c r="B56" s="6"/>
       <c r="C56" s="1"/>
       <c r="D56" s="6"/>
@@ -7630,7 +8166,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="72"/>
+      <c r="A57" s="78"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1"/>
       <c r="D57" s="6"/>
@@ -7639,7 +8175,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1"/>
       <c r="D58" s="6"/>
@@ -7648,7 +8184,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="73"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="10"/>
       <c r="C59" s="20"/>
       <c r="D59" s="10"/>
@@ -7664,82 +8200,82 @@
         <v>145</v>
       </c>
       <c r="D60" s="22"/>
-      <c r="E60" s="74" t="s">
-        <v>354</v>
-      </c>
-      <c r="F60" s="75"/>
-      <c r="G60" s="76"/>
+      <c r="E60" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" s="81"/>
+      <c r="G60" s="82"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="71"/>
+      <c r="A61" s="77"/>
       <c r="B61" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D61" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E61" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="72"/>
+      <c r="A62" s="78"/>
       <c r="B62" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E62" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="72"/>
+      <c r="A63" s="78"/>
       <c r="B63" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D63" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E63" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="72"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D64" s="64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="72"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="22"/>
       <c r="C65" s="1"/>
       <c r="D65" s="22"/>
@@ -7748,7 +8284,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="72"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="22"/>
       <c r="C66" s="1"/>
       <c r="D66" s="22"/>
@@ -7757,7 +8293,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="73"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -7773,27 +8309,27 @@
         <v>164</v>
       </c>
       <c r="D68" s="65"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="76"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="71"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D69" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="72"/>
+      <c r="A70" s="78"/>
       <c r="B70" s="22"/>
       <c r="C70" s="1"/>
       <c r="D70" s="22"/>
@@ -7802,7 +8338,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="72"/>
+      <c r="A71" s="78"/>
       <c r="B71" s="22"/>
       <c r="C71" s="1"/>
       <c r="D71" s="22"/>
@@ -7811,7 +8347,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="72"/>
+      <c r="A72" s="78"/>
       <c r="B72" s="22"/>
       <c r="C72" s="1"/>
       <c r="D72" s="22"/>
@@ -7820,7 +8356,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="72"/>
+      <c r="A73" s="78"/>
       <c r="B73" s="22"/>
       <c r="C73" s="1"/>
       <c r="D73" s="22"/>
@@ -7829,7 +8365,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="72"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="22"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -7838,7 +8374,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="73"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="10"/>
       <c r="C75" s="20"/>
       <c r="D75" s="10"/>
@@ -7854,48 +8390,48 @@
         <v>151</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="F76" s="75"/>
-      <c r="G76" s="76"/>
+      <c r="E76" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="F76" s="81"/>
+      <c r="G76" s="82"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="71"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D77" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="72"/>
+      <c r="A78" s="78"/>
       <c r="B78" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D78" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E78" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="72"/>
+      <c r="A79" s="78"/>
       <c r="B79" s="22"/>
       <c r="C79" s="1"/>
       <c r="D79" s="22"/>
@@ -7904,7 +8440,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="72"/>
+      <c r="A80" s="78"/>
       <c r="B80" s="22"/>
       <c r="C80" s="1"/>
       <c r="D80" s="22"/>
@@ -7913,7 +8449,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="72"/>
+      <c r="A81" s="78"/>
       <c r="B81" s="22"/>
       <c r="C81" s="1"/>
       <c r="D81" s="22"/>
@@ -7922,7 +8458,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="72"/>
+      <c r="A82" s="78"/>
       <c r="B82" s="22"/>
       <c r="C82" s="1"/>
       <c r="D82" s="22"/>
@@ -7931,7 +8467,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="73"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -7947,48 +8483,48 @@
         <v>141</v>
       </c>
       <c r="D84" s="6"/>
-      <c r="E84" s="74" t="s">
-        <v>353</v>
-      </c>
-      <c r="F84" s="75"/>
-      <c r="G84" s="76"/>
+      <c r="E84" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="F84" s="81"/>
+      <c r="G84" s="82"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="71"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D85" s="66" t="s">
-        <v>111</v>
+        <v>276</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>327</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="72"/>
+      <c r="A86" s="78"/>
       <c r="B86" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D86" s="66" t="s">
-        <v>111</v>
+        <v>277</v>
+      </c>
+      <c r="D86" s="63" t="s">
+        <v>327</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="72"/>
+      <c r="A87" s="78"/>
       <c r="B87" s="36"/>
       <c r="C87" s="1"/>
       <c r="D87" s="6"/>
@@ -7997,7 +8533,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="72"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="6"/>
       <c r="C88" s="1"/>
       <c r="D88" s="6"/>
@@ -8006,7 +8542,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="72"/>
+      <c r="A89" s="78"/>
       <c r="B89" s="6"/>
       <c r="C89" s="1"/>
       <c r="D89" s="6"/>
@@ -8015,7 +8551,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="72"/>
+      <c r="A90" s="78"/>
       <c r="B90" s="6"/>
       <c r="C90" s="1"/>
       <c r="D90" s="6"/>
@@ -8024,7 +8560,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="73"/>
+      <c r="A91" s="79"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -8062,70 +8598,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A74" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="89.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -8150,7 +8686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>134</v>
       </c>
@@ -8158,63 +8694,65 @@
         <v>136</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="E7" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>111</v>
+      <c r="D8" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>298</v>
+        <v>259</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>298</v>
+        <v>260</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -8223,7 +8761,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -8232,7 +8770,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -8241,7 +8779,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="73"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -8249,7 +8787,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>10</v>
       </c>
@@ -8257,55 +8795,55 @@
         <v>144</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>298</v>
+      <c r="D16" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="78"/>
       <c r="B17" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>298</v>
+      <c r="D17" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="27"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="67"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -8314,7 +8852,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -8323,7 +8861,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -8332,7 +8870,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="73"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -8348,29 +8886,29 @@
         <v>152</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
-    </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="71"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="77"/>
       <c r="B24" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="67" t="s">
-        <v>298</v>
+        <v>247</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="27"/>
       <c r="C25" s="1"/>
       <c r="D25" s="22"/>
@@ -8379,7 +8917,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="27"/>
       <c r="C26" s="1"/>
       <c r="D26" s="22"/>
@@ -8388,7 +8926,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -8397,7 +8935,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -8406,7 +8944,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -8415,7 +8953,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="73"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -8431,63 +8969,63 @@
         <v>153</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="76"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>298</v>
+        <v>269</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="67" t="s">
-        <v>298</v>
+        <v>270</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E33" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="78"/>
       <c r="B34" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="67" t="s">
-        <v>298</v>
+        <v>271</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="22"/>
       <c r="C35" s="1"/>
       <c r="D35" s="22"/>
@@ -8496,7 +9034,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="72"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -8505,7 +9043,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="72"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -8514,7 +9052,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="73"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -8522,7 +9060,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
         <v>14</v>
       </c>
@@ -8530,12 +9068,12 @@
         <v>157</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="76"/>
-    </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="77"/>
       <c r="B40" s="27" t="s">
         <v>115</v>
       </c>
@@ -8546,13 +9084,13 @@
         <v>111</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="72"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="27" t="s">
         <v>116</v>
       </c>
@@ -8563,13 +9101,13 @@
         <v>111</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="72"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="78"/>
       <c r="B42" s="27" t="s">
         <v>117</v>
       </c>
@@ -8580,13 +9118,13 @@
         <v>111</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="22"/>
       <c r="C43" s="1"/>
       <c r="D43" s="22"/>
@@ -8595,7 +9133,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="72"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="22"/>
@@ -8604,7 +9142,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="72"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="22"/>
@@ -8613,7 +9151,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="73"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -8621,7 +9159,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
         <v>155</v>
       </c>
@@ -8629,97 +9167,97 @@
         <v>156</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="76"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="71"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>111</v>
+        <v>272</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>111</v>
+        <v>273</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="78"/>
       <c r="B50" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>111</v>
+        <v>274</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>111</v>
+        <v>270</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="36" t="s">
         <v>189</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>111</v>
+        <v>275</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="22"/>
       <c r="C53" s="1"/>
       <c r="D53" s="22"/>
@@ -8728,7 +9266,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="73"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -8736,39 +9274,39 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
         <v>98</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
       <c r="D55" s="22"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="76"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
     </row>
     <row r="56" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A56" s="71"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>214</v>
+        <v>399</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="72"/>
+      <c r="A57" s="78"/>
       <c r="B57" s="27"/>
       <c r="C57" s="1"/>
       <c r="D57" s="22"/>
@@ -8777,7 +9315,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="27"/>
       <c r="C58" s="1"/>
       <c r="D58" s="22"/>
@@ -8786,7 +9324,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="22"/>
       <c r="C59" s="1"/>
       <c r="D59" s="22"/>
@@ -8795,7 +9333,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="22"/>
       <c r="C60" s="1"/>
       <c r="D60" s="22"/>
@@ -8804,7 +9342,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="72"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="22"/>
       <c r="C61" s="1"/>
       <c r="D61" s="22"/>
@@ -8813,7 +9351,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="73"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -8821,7 +9359,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
         <v>99</v>
       </c>
@@ -8829,29 +9367,29 @@
         <v>72</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="76"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="82"/>
     </row>
     <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="71"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="72"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="27"/>
       <c r="C65" s="1"/>
       <c r="D65" s="22"/>
@@ -8860,7 +9398,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="72"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="27"/>
       <c r="C66" s="1"/>
       <c r="D66" s="22"/>
@@ -8869,7 +9407,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="72"/>
+      <c r="A67" s="78"/>
       <c r="B67" s="22"/>
       <c r="C67" s="1"/>
       <c r="D67" s="22"/>
@@ -8878,7 +9416,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="72"/>
+      <c r="A68" s="78"/>
       <c r="B68" s="22"/>
       <c r="C68" s="1"/>
       <c r="D68" s="22"/>
@@ -8887,7 +9425,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="72"/>
+      <c r="A69" s="78"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1"/>
       <c r="D69" s="22"/>
@@ -8896,7 +9434,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="73"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -8912,48 +9450,48 @@
         <v>73</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="76"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="82"/>
     </row>
     <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="71"/>
+      <c r="A72" s="77"/>
       <c r="B72" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="72"/>
+      <c r="A73" s="78"/>
       <c r="B73" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>111</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="72"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="27"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -8962,7 +9500,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="72"/>
+      <c r="A75" s="78"/>
       <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="22"/>
@@ -8971,7 +9509,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="72"/>
+      <c r="A76" s="78"/>
       <c r="B76" s="22"/>
       <c r="C76" s="1"/>
       <c r="D76" s="22"/>
@@ -8980,7 +9518,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="72"/>
+      <c r="A77" s="78"/>
       <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="22"/>
@@ -8989,7 +9527,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="73"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -8997,7 +9535,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
         <v>67</v>
       </c>
@@ -9005,29 +9543,29 @@
         <v>172</v>
       </c>
       <c r="D79" s="22"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="76"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="82"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="71"/>
+      <c r="A80" s="77"/>
       <c r="B80" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="72"/>
+      <c r="A81" s="78"/>
       <c r="B81" s="22"/>
       <c r="C81" s="1"/>
       <c r="D81" s="22"/>
@@ -9036,7 +9574,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="72"/>
+      <c r="A82" s="78"/>
       <c r="B82" s="22"/>
       <c r="C82" s="1"/>
       <c r="D82" s="22"/>
@@ -9045,7 +9583,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="72"/>
+      <c r="A83" s="78"/>
       <c r="B83" s="22"/>
       <c r="C83" s="1"/>
       <c r="D83" s="22"/>
@@ -9054,7 +9592,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="72"/>
+      <c r="A84" s="78"/>
       <c r="B84" s="22"/>
       <c r="C84" s="1"/>
       <c r="D84" s="22"/>
@@ -9063,7 +9601,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="72"/>
+      <c r="A85" s="78"/>
       <c r="B85" s="22"/>
       <c r="C85" s="1"/>
       <c r="D85" s="22"/>
@@ -9072,7 +9610,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="73"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -9080,7 +9618,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
         <v>88</v>
       </c>
@@ -9088,29 +9626,31 @@
         <v>87</v>
       </c>
       <c r="D87" s="60"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="76"/>
+      <c r="E87" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="F87" s="81"/>
+      <c r="G87" s="82"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="71"/>
+      <c r="A88" s="77"/>
       <c r="B88" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D88" s="60" t="s">
-        <v>111</v>
+        <v>339</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>328</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="72"/>
+      <c r="A89" s="78"/>
       <c r="B89" s="60"/>
       <c r="C89" s="1"/>
       <c r="D89" s="60"/>
@@ -9119,7 +9659,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="72"/>
+      <c r="A90" s="78"/>
       <c r="B90" s="60"/>
       <c r="C90" s="1"/>
       <c r="D90" s="60"/>
@@ -9128,7 +9668,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="72"/>
+      <c r="A91" s="78"/>
       <c r="B91" s="60"/>
       <c r="C91" s="1"/>
       <c r="D91" s="60"/>
@@ -9137,7 +9677,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="72"/>
+      <c r="A92" s="78"/>
       <c r="B92" s="60"/>
       <c r="C92" s="1"/>
       <c r="D92" s="60"/>
@@ -9146,7 +9686,7 @@
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="72"/>
+      <c r="A93" s="78"/>
       <c r="B93" s="60"/>
       <c r="C93" s="1"/>
       <c r="D93" s="60"/>
@@ -9155,7 +9695,7 @@
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="73"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -9163,71 +9703,73 @@
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="76"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="F95" s="81"/>
+      <c r="G95" s="82"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="71"/>
+      <c r="A96" s="77"/>
       <c r="B96" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D96" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" s="67" t="s">
-        <v>298</v>
+        <v>217</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E96" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="72"/>
+      <c r="A97" s="78"/>
       <c r="B97" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D97" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E97" s="67" t="s">
-        <v>298</v>
+        <v>218</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E97" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="72"/>
+      <c r="A98" s="78"/>
       <c r="B98" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D98" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E98" s="67" t="s">
-        <v>298</v>
+        <v>219</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E98" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="72"/>
+      <c r="A99" s="78"/>
       <c r="B99" s="22"/>
       <c r="C99" s="1"/>
       <c r="D99" s="22"/>
@@ -9236,7 +9778,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="72"/>
+      <c r="A100" s="78"/>
       <c r="B100" s="22"/>
       <c r="C100" s="1"/>
       <c r="D100" s="22"/>
@@ -9245,7 +9787,7 @@
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="72"/>
+      <c r="A101" s="78"/>
       <c r="B101" s="22"/>
       <c r="C101" s="1"/>
       <c r="D101" s="22"/>
@@ -9254,167 +9796,13 @@
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="73"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B104" s="90" t="s">
-        <v>366</v>
-      </c>
-      <c r="C104" s="91" t="s">
-        <v>355</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E104" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B105" s="90" t="s">
-        <v>367</v>
-      </c>
-      <c r="C105" s="91" t="s">
-        <v>356</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E105" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B106" s="90" t="s">
-        <v>368</v>
-      </c>
-      <c r="C106" s="91" t="s">
-        <v>357</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E106" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B107" s="90" t="s">
-        <v>369</v>
-      </c>
-      <c r="C107" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E107" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="90" t="s">
-        <v>370</v>
-      </c>
-      <c r="C108" s="91" t="s">
-        <v>359</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E108" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B109" s="90" t="s">
-        <v>371</v>
-      </c>
-      <c r="C109" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E109" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B110" s="90" t="s">
-        <v>372</v>
-      </c>
-      <c r="C110" s="91" t="s">
-        <v>361</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E110" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B111" s="90" t="s">
-        <v>373</v>
-      </c>
-      <c r="C111" s="91" t="s">
-        <v>362</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E111" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B112" s="90" t="s">
-        <v>374</v>
-      </c>
-      <c r="C112" s="91" t="s">
-        <v>363</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E112" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B113" s="90" t="s">
-        <v>375</v>
-      </c>
-      <c r="C113" s="91" t="s">
-        <v>364</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E113" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B114" s="90" t="s">
-        <v>376</v>
-      </c>
-      <c r="C114" s="91" t="s">
-        <v>365</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E114" s="67" t="s">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -9426,13 +9814,13 @@
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:A62"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
     <mergeCell ref="A1:G5"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="A8:A14"/>
@@ -9450,7 +9838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -9467,51 +9855,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -9545,46 +9933,46 @@
         <v>142</v>
       </c>
       <c r="D7" s="43"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
@@ -9593,7 +9981,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -9602,7 +9990,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -9611,7 +9999,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -9620,7 +10008,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="73"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9636,63 +10024,63 @@
         <v>76</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="35" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -9701,7 +10089,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -9710,7 +10098,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -9719,7 +10107,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="73"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -9735,63 +10123,63 @@
         <v>77</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="71"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="22" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="22"/>
@@ -9800,7 +10188,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -9809,7 +10197,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -9818,7 +10206,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="73"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -9841,7 +10229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
@@ -9858,51 +10246,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="A1" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -9932,50 +10320,50 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="27"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
@@ -9984,7 +10372,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -9993,7 +10381,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -10002,7 +10390,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
@@ -10011,7 +10399,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="73"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -10025,49 +10413,49 @@
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D15" s="43"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6"/>
@@ -10076,7 +10464,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="6"/>
@@ -10085,7 +10473,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
@@ -10094,7 +10482,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
@@ -10103,7 +10491,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="73"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -10119,80 +10507,80 @@
         <v>70</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="71"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="31" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="31" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="22" t="s">
         <v>118</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="22"/>
@@ -10201,7 +10589,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="72"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="22"/>
@@ -10210,7 +10598,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="73"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10226,80 +10614,80 @@
         <v>78</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="76"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="31" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="31" t="s">
         <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="22" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="72"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -10308,7 +10696,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="72"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -10317,7 +10705,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="73"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -10333,46 +10721,46 @@
         <v>79</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="76"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
     </row>
     <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="72"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="72"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="33"/>
       <c r="C42" s="1"/>
       <c r="D42" s="22"/>
@@ -10381,7 +10769,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="33"/>
       <c r="C43" s="1"/>
       <c r="D43" s="22"/>
@@ -10390,7 +10778,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="72"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="22"/>
@@ -10399,7 +10787,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="72"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="22"/>
@@ -10408,7 +10796,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="73"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -10424,46 +10812,46 @@
         <v>80</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="76"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="71"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D49" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="33"/>
       <c r="C50" s="1"/>
       <c r="D50" s="22"/>
@@ -10472,7 +10860,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="33"/>
       <c r="C51" s="1"/>
       <c r="D51" s="22"/>
@@ -10481,7 +10869,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="72"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="22"/>
       <c r="C52" s="1"/>
       <c r="D52" s="22"/>
@@ -10490,7 +10878,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="72"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="22"/>
       <c r="C53" s="1"/>
       <c r="D53" s="22"/>
@@ -10499,7 +10887,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="73"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -10515,63 +10903,63 @@
         <v>81</v>
       </c>
       <c r="D55" s="22"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="76"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="71"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C56" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="D56" s="36" t="s">
-        <v>288</v>
-      </c>
       <c r="E56" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="72"/>
+      <c r="A57" s="78"/>
       <c r="B57" s="39" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="72"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="39" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="72"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="33"/>
       <c r="C59" s="1"/>
       <c r="D59" s="22"/>
@@ -10580,7 +10968,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="72"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="22"/>
       <c r="C60" s="1"/>
       <c r="D60" s="22"/>
@@ -10589,7 +10977,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="72"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="22"/>
       <c r="C61" s="1"/>
       <c r="D61" s="22"/>
@@ -10598,7 +10986,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="73"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -10614,46 +11002,46 @@
         <v>82</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="76"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="82"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="71"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="72"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="72"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="33"/>
       <c r="C66" s="1"/>
       <c r="D66" s="22"/>
@@ -10662,7 +11050,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="72"/>
+      <c r="A67" s="78"/>
       <c r="B67" s="33"/>
       <c r="C67" s="1"/>
       <c r="D67" s="22"/>
@@ -10671,7 +11059,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="72"/>
+      <c r="A68" s="78"/>
       <c r="B68" s="22"/>
       <c r="C68" s="1"/>
       <c r="D68" s="22"/>
@@ -10680,7 +11068,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="72"/>
+      <c r="A69" s="78"/>
       <c r="B69" s="22"/>
       <c r="C69" s="1"/>
       <c r="D69" s="22"/>
@@ -10689,7 +11077,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="73"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -10706,46 +11094,46 @@
         <v>170</v>
       </c>
       <c r="D71" s="43"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="85"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="91"/>
     </row>
     <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="71"/>
+      <c r="A72" s="77"/>
       <c r="B72" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="72"/>
+      <c r="A73" s="78"/>
       <c r="B73" s="39" t="s">
         <v>116</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="72"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="22"/>
       <c r="C74" s="1"/>
       <c r="D74" s="22"/>
@@ -10754,7 +11142,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="72"/>
+      <c r="A75" s="78"/>
       <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="22"/>
@@ -10763,7 +11151,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="72"/>
+      <c r="A76" s="78"/>
       <c r="B76" s="22"/>
       <c r="C76" s="1"/>
       <c r="D76" s="22"/>
@@ -10772,7 +11160,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="72"/>
+      <c r="A77" s="78"/>
       <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="22"/>
@@ -10781,7 +11169,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="73"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -10817,7 +11205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I110"/>
   <sheetViews>
@@ -10834,51 +11222,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="A1" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -10912,64 +11300,64 @@
         <v>74</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="22" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="22"/>
       <c r="C11" s="1"/>
       <c r="D11" s="22"/>
@@ -10978,7 +11366,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="22"/>
       <c r="C12" s="1"/>
       <c r="D12" s="22"/>
@@ -10987,7 +11375,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="22"/>
       <c r="C13" s="1"/>
       <c r="D13" s="22"/>
@@ -10996,7 +11384,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -11006,53 +11394,53 @@
     </row>
     <row r="15" spans="1:9" s="44" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15"/>
       <c r="C15" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
     </row>
     <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="39" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="22"/>
@@ -11061,7 +11449,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="22"/>
@@ -11070,7 +11458,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="22"/>
@@ -11079,7 +11467,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="22"/>
@@ -11088,7 +11476,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="73"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -11098,48 +11486,48 @@
     </row>
     <row r="23" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="D23" s="43"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
     </row>
     <row r="24" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="86"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="43"/>
       <c r="C24" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="E24" s="43" t="s">
         <v>309</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>310</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="87"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="43"/>
       <c r="C25" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="43" t="s">
         <v>311</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>312</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="87"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="43"/>
       <c r="C26" s="14"/>
       <c r="D26" s="43"/>
@@ -11148,7 +11536,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="87"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="43"/>
       <c r="C27" s="14"/>
       <c r="D27" s="43"/>
@@ -11157,7 +11545,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="87"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="43"/>
       <c r="C28" s="14"/>
       <c r="D28" s="43"/>
@@ -11166,7 +11554,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="87"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="43"/>
       <c r="C29" s="14"/>
       <c r="D29" s="43"/>
@@ -11175,7 +11563,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -11192,12 +11580,12 @@
         <v>147</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="76"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
     </row>
     <row r="32" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="27" t="s">
         <v>115</v>
       </c>
@@ -11208,13 +11596,13 @@
         <v>111</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" s="44" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="27" t="s">
         <v>116</v>
       </c>
@@ -11225,13 +11613,13 @@
         <v>111</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="72"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="27" t="s">
         <v>117</v>
       </c>
@@ -11242,13 +11630,13 @@
         <v>111</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="22"/>
       <c r="C35" s="1"/>
       <c r="D35" s="22"/>
@@ -11257,7 +11645,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="72"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="22"/>
@@ -11266,7 +11654,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="72"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="22"/>
@@ -11275,7 +11663,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="73"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -11292,80 +11680,80 @@
         <v>148</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="76"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
     </row>
     <row r="40" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="72"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="39" t="s">
         <v>116</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="72"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="39" t="s">
         <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="72"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="72"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="22"/>
       <c r="C44" s="1"/>
       <c r="D44" s="22"/>
@@ -11374,7 +11762,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="72"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="22"/>
       <c r="C45" s="1"/>
       <c r="D45" s="22"/>
@@ -11383,7 +11771,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="73"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -11400,12 +11788,12 @@
         <v>83</v>
       </c>
       <c r="D47" s="43"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="85"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="91"/>
     </row>
     <row r="48" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="86"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="43" t="s">
         <v>115</v>
       </c>
@@ -11416,7 +11804,7 @@
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="87"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="47" t="s">
         <v>116</v>
       </c>
@@ -11427,7 +11815,7 @@
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="87"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="47" t="s">
         <v>117</v>
       </c>
@@ -11438,7 +11826,7 @@
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="87"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="43" t="s">
         <v>118</v>
       </c>
@@ -11449,7 +11837,7 @@
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="87"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="43"/>
       <c r="C52" s="14"/>
       <c r="D52" s="43"/>
@@ -11458,7 +11846,7 @@
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="87"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="43"/>
       <c r="C53" s="14"/>
       <c r="D53" s="43"/>
@@ -11467,7 +11855,7 @@
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="88"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
@@ -11484,12 +11872,12 @@
         <v>84</v>
       </c>
       <c r="D55" s="43"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="91"/>
     </row>
     <row r="56" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="86"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="43" t="s">
         <v>115</v>
       </c>
@@ -11500,7 +11888,7 @@
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="87"/>
+      <c r="A57" s="93"/>
       <c r="B57" s="47" t="s">
         <v>116</v>
       </c>
@@ -11511,7 +11899,7 @@
       <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="87"/>
+      <c r="A58" s="93"/>
       <c r="B58" s="47" t="s">
         <v>117</v>
       </c>
@@ -11522,7 +11910,7 @@
       <c r="G58" s="14"/>
     </row>
     <row r="59" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="87"/>
+      <c r="A59" s="93"/>
       <c r="B59" s="43" t="s">
         <v>118</v>
       </c>
@@ -11533,7 +11921,7 @@
       <c r="G59" s="14"/>
     </row>
     <row r="60" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="87"/>
+      <c r="A60" s="93"/>
       <c r="B60" s="43"/>
       <c r="C60" s="14"/>
       <c r="D60" s="43"/>
@@ -11542,7 +11930,7 @@
       <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="87"/>
+      <c r="A61" s="93"/>
       <c r="B61" s="43"/>
       <c r="C61" s="14"/>
       <c r="D61" s="43"/>
@@ -11551,7 +11939,7 @@
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="88"/>
+      <c r="A62" s="94"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
@@ -11568,12 +11956,12 @@
         <v>85</v>
       </c>
       <c r="D63" s="43"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="85"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="91"/>
     </row>
     <row r="64" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="86"/>
+      <c r="A64" s="92"/>
       <c r="B64" s="43" t="s">
         <v>115</v>
       </c>
@@ -11584,7 +11972,7 @@
       <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="87"/>
+      <c r="A65" s="93"/>
       <c r="B65" s="47" t="s">
         <v>116</v>
       </c>
@@ -11595,7 +11983,7 @@
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="87"/>
+      <c r="A66" s="93"/>
       <c r="B66" s="47" t="s">
         <v>117</v>
       </c>
@@ -11606,7 +11994,7 @@
       <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="87"/>
+      <c r="A67" s="93"/>
       <c r="B67" s="43" t="s">
         <v>118</v>
       </c>
@@ -11617,7 +12005,7 @@
       <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="87"/>
+      <c r="A68" s="93"/>
       <c r="B68" s="43"/>
       <c r="C68" s="14"/>
       <c r="D68" s="43"/>
@@ -11626,7 +12014,7 @@
       <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="87"/>
+      <c r="A69" s="93"/>
       <c r="B69" s="43"/>
       <c r="C69" s="14"/>
       <c r="D69" s="43"/>
@@ -11635,7 +12023,7 @@
       <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="88"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
       <c r="D70" s="42"/>
@@ -11647,12 +12035,12 @@
       <c r="A71" s="43"/>
       <c r="C71" s="15"/>
       <c r="D71" s="43"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="85"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="91"/>
     </row>
     <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="86"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="47"/>
       <c r="C72" s="14"/>
       <c r="D72" s="43"/>
@@ -11661,7 +12049,7 @@
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="87"/>
+      <c r="A73" s="93"/>
       <c r="B73" s="47"/>
       <c r="C73" s="14"/>
       <c r="D73" s="43"/>
@@ -11670,7 +12058,7 @@
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="87"/>
+      <c r="A74" s="93"/>
       <c r="B74" s="43"/>
       <c r="C74" s="14"/>
       <c r="D74" s="43"/>
@@ -11679,7 +12067,7 @@
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="87"/>
+      <c r="A75" s="93"/>
       <c r="B75" s="43"/>
       <c r="C75" s="14"/>
       <c r="D75" s="43"/>
@@ -11688,7 +12076,7 @@
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="87"/>
+      <c r="A76" s="93"/>
       <c r="B76" s="43"/>
       <c r="C76" s="14"/>
       <c r="D76" s="43"/>
@@ -11697,7 +12085,7 @@
       <c r="G76" s="14"/>
     </row>
     <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="87"/>
+      <c r="A77" s="93"/>
       <c r="B77" s="43"/>
       <c r="C77" s="14"/>
       <c r="D77" s="43"/>
@@ -11706,7 +12094,7 @@
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="88"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
@@ -11718,12 +12106,12 @@
       <c r="A79" s="43"/>
       <c r="C79" s="15"/>
       <c r="D79" s="43"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="85"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="91"/>
     </row>
     <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="86"/>
+      <c r="A80" s="92"/>
       <c r="B80" s="43"/>
       <c r="C80" s="14"/>
       <c r="D80" s="43"/>
@@ -11732,7 +12120,7 @@
       <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="87"/>
+      <c r="A81" s="93"/>
       <c r="B81" s="43"/>
       <c r="C81" s="14"/>
       <c r="D81" s="43"/>
@@ -11741,7 +12129,7 @@
       <c r="G81" s="14"/>
     </row>
     <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="87"/>
+      <c r="A82" s="93"/>
       <c r="B82" s="43"/>
       <c r="C82" s="14"/>
       <c r="D82" s="43"/>
@@ -11750,7 +12138,7 @@
       <c r="G82" s="14"/>
     </row>
     <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="87"/>
+      <c r="A83" s="93"/>
       <c r="B83" s="43"/>
       <c r="C83" s="14"/>
       <c r="D83" s="43"/>
@@ -11759,7 +12147,7 @@
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="87"/>
+      <c r="A84" s="93"/>
       <c r="B84" s="43"/>
       <c r="C84" s="14"/>
       <c r="D84" s="43"/>
@@ -11768,7 +12156,7 @@
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="87"/>
+      <c r="A85" s="93"/>
       <c r="B85" s="43"/>
       <c r="C85" s="14"/>
       <c r="D85" s="43"/>
@@ -11777,7 +12165,7 @@
       <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="88"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
       <c r="D86" s="42"/>
@@ -11789,12 +12177,12 @@
       <c r="A87" s="43"/>
       <c r="C87" s="15"/>
       <c r="D87" s="43"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="85"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="91"/>
     </row>
     <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="86"/>
+      <c r="A88" s="92"/>
       <c r="B88" s="47"/>
       <c r="C88" s="14"/>
       <c r="D88" s="43"/>
@@ -11803,7 +12191,7 @@
       <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="87"/>
+      <c r="A89" s="93"/>
       <c r="B89" s="47"/>
       <c r="C89" s="14"/>
       <c r="D89" s="43"/>
@@ -11812,7 +12200,7 @@
       <c r="G89" s="14"/>
     </row>
     <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="87"/>
+      <c r="A90" s="93"/>
       <c r="B90" s="43"/>
       <c r="C90" s="14"/>
       <c r="D90" s="43"/>
@@ -11821,7 +12209,7 @@
       <c r="G90" s="14"/>
     </row>
     <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="87"/>
+      <c r="A91" s="93"/>
       <c r="B91" s="43"/>
       <c r="C91" s="14"/>
       <c r="D91" s="43"/>
@@ -11830,7 +12218,7 @@
       <c r="G91" s="14"/>
     </row>
     <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="87"/>
+      <c r="A92" s="93"/>
       <c r="B92" s="43"/>
       <c r="C92" s="14"/>
       <c r="D92" s="43"/>
@@ -11839,7 +12227,7 @@
       <c r="G92" s="14"/>
     </row>
     <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="87"/>
+      <c r="A93" s="93"/>
       <c r="B93" s="43"/>
       <c r="C93" s="14"/>
       <c r="D93" s="43"/>
@@ -11848,7 +12236,7 @@
       <c r="G93" s="14"/>
     </row>
     <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="88"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
       <c r="D94" s="42"/>
@@ -11860,12 +12248,12 @@
       <c r="A95" s="43"/>
       <c r="C95" s="15"/>
       <c r="D95" s="43"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="85"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="90"/>
+      <c r="G95" s="91"/>
     </row>
     <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="86"/>
+      <c r="A96" s="92"/>
       <c r="B96" s="43"/>
       <c r="C96" s="14"/>
       <c r="D96" s="43"/>
@@ -11874,7 +12262,7 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="87"/>
+      <c r="A97" s="93"/>
       <c r="B97" s="43"/>
       <c r="C97" s="14"/>
       <c r="D97" s="43"/>
@@ -11883,7 +12271,7 @@
       <c r="G97" s="14"/>
     </row>
     <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="87"/>
+      <c r="A98" s="93"/>
       <c r="B98" s="43"/>
       <c r="C98" s="14"/>
       <c r="D98" s="43"/>
@@ -11892,7 +12280,7 @@
       <c r="G98" s="14"/>
     </row>
     <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="87"/>
+      <c r="A99" s="93"/>
       <c r="B99" s="43"/>
       <c r="C99" s="14"/>
       <c r="D99" s="43"/>
@@ -11901,7 +12289,7 @@
       <c r="G99" s="14"/>
     </row>
     <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="87"/>
+      <c r="A100" s="93"/>
       <c r="B100" s="43"/>
       <c r="C100" s="14"/>
       <c r="D100" s="43"/>
@@ -11910,7 +12298,7 @@
       <c r="G100" s="14"/>
     </row>
     <row r="101" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="87"/>
+      <c r="A101" s="93"/>
       <c r="B101" s="43"/>
       <c r="C101" s="14"/>
       <c r="D101" s="43"/>
@@ -11919,7 +12307,7 @@
       <c r="G101" s="14"/>
     </row>
     <row r="102" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="88"/>
+      <c r="A102" s="94"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
@@ -11931,12 +12319,12 @@
       <c r="A103" s="43"/>
       <c r="C103" s="15"/>
       <c r="D103" s="43"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="84"/>
-      <c r="G103" s="85"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="90"/>
+      <c r="G103" s="91"/>
     </row>
     <row r="104" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="86"/>
+      <c r="A104" s="92"/>
       <c r="B104" s="43"/>
       <c r="C104" s="14"/>
       <c r="D104" s="43"/>
@@ -11945,7 +12333,7 @@
       <c r="G104" s="14"/>
     </row>
     <row r="105" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="87"/>
+      <c r="A105" s="93"/>
       <c r="B105" s="43"/>
       <c r="C105" s="14"/>
       <c r="D105" s="43"/>
@@ -11954,7 +12342,7 @@
       <c r="G105" s="14"/>
     </row>
     <row r="106" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="87"/>
+      <c r="A106" s="93"/>
       <c r="B106" s="43"/>
       <c r="C106" s="14"/>
       <c r="D106" s="43"/>
@@ -11963,7 +12351,7 @@
       <c r="G106" s="14"/>
     </row>
     <row r="107" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="87"/>
+      <c r="A107" s="93"/>
       <c r="B107" s="43"/>
       <c r="C107" s="14"/>
       <c r="D107" s="43"/>
@@ -11972,7 +12360,7 @@
       <c r="G107" s="14"/>
     </row>
     <row r="108" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="87"/>
+      <c r="A108" s="93"/>
       <c r="B108" s="43"/>
       <c r="C108" s="14"/>
       <c r="D108" s="43"/>
@@ -11981,7 +12369,7 @@
       <c r="G108" s="14"/>
     </row>
     <row r="109" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="87"/>
+      <c r="A109" s="93"/>
       <c r="B109" s="43"/>
       <c r="C109" s="14"/>
       <c r="D109" s="43"/>
@@ -11990,7 +12378,7 @@
       <c r="G109" s="14"/>
     </row>
     <row r="110" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="88"/>
+      <c r="A110" s="94"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
       <c r="D110" s="42"/>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B8C39-7841-4A14-B180-077767A26CF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D364EB2-695C-4CC0-A854-F4A89CF6E865}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="SB6" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PB!$A$6:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PB!$A$6:$I$60</definedName>
     <definedName name="_ftn1" localSheetId="1">PB!$C$17</definedName>
     <definedName name="_ftnref1" localSheetId="1">PB!$C$11</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="416">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -3142,6 +3142,25 @@
       </rPr>
       <t>La plataforma ArcGis se encuentra caida</t>
     </r>
+  </si>
+  <si>
+    <t>RF26</t>
+  </si>
+  <si>
+    <t>HU054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propuesta MER de los modulos de Sibica y Gestion de riesgos </t>
+  </si>
+  <si>
+    <t>Diego Castillo
+Ever Hidalo</t>
+  </si>
+  <si>
+    <t>Modelado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propuesta MER de los modulos de Sibica y Panorama de riesgo de riesgos </t>
   </si>
 </sst>
 </file>
@@ -3450,7 +3469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3654,6 +3673,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3663,9 +3685,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3673,6 +3692,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3719,6 +3741,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4051,11 +4079,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4150,8 +4178,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A21" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4168,61 +4196,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -5622,14 +5650,36 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C60" s="3"/>
+    <row r="60" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="53">
+        <v>3</v>
+      </c>
+      <c r="H60" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C62" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:I59" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A6:I60" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="3"/>
@@ -5649,8 +5699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7139F943-C9B2-471B-9715-1F991D95FE77}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5663,18 +5713,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -6040,51 +6090,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -6118,9 +6168,9 @@
         <v>5</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="77"/>
@@ -7402,6 +7452,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A118:A124"/>
     <mergeCell ref="A126:A132"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A70:A76"/>
@@ -7410,16 +7470,6 @@
     <mergeCell ref="A94:A100"/>
     <mergeCell ref="A102:A108"/>
     <mergeCell ref="A110:A116"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A24:A30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7446,51 +7496,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -7524,11 +7574,11 @@
         <v>7</v>
       </c>
       <c r="D7" s="65"/>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="81" t="s">
         <v>397</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="77"/>
@@ -7650,9 +7700,9 @@
         <v>165</v>
       </c>
       <c r="D15" s="65"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="77"/>
@@ -7774,9 +7824,9 @@
         <v>178</v>
       </c>
       <c r="D23" s="65"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
@@ -7857,9 +7907,9 @@
         <v>179</v>
       </c>
       <c r="D30" s="65"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="83"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="77"/>
@@ -7931,11 +7981,11 @@
         <v>180</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="F36" s="84"/>
-      <c r="G36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="77"/>
@@ -8117,9 +8167,9 @@
         <v>181</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="88"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="89"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="77"/>
@@ -8200,11 +8250,11 @@
         <v>145</v>
       </c>
       <c r="D60" s="22"/>
-      <c r="E60" s="80" t="s">
+      <c r="E60" s="81" t="s">
         <v>351</v>
       </c>
-      <c r="F60" s="81"/>
-      <c r="G60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="83"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="77"/>
@@ -8309,9 +8359,9 @@
         <v>164</v>
       </c>
       <c r="D68" s="65"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="77"/>
@@ -8390,11 +8440,11 @@
         <v>151</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="80" t="s">
+      <c r="E76" s="81" t="s">
         <v>348</v>
       </c>
-      <c r="F76" s="81"/>
-      <c r="G76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="83"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="77"/>
@@ -8483,11 +8533,11 @@
         <v>141</v>
       </c>
       <c r="D84" s="6"/>
-      <c r="E84" s="80" t="s">
+      <c r="E84" s="81" t="s">
         <v>350</v>
       </c>
-      <c r="F84" s="81"/>
-      <c r="G84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="83"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="77"/>
@@ -8570,6 +8620,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E52:G52"/>
     <mergeCell ref="A85:A91"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A1:G5"/>
@@ -8586,11 +8641,6 @@
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="A77:A83"/>
     <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E52:G52"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8600,10 +8650,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95:G95"/>
+    <sheetView topLeftCell="A80" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8617,51 +8667,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -8694,11 +8744,11 @@
         <v>136</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="77"/>
@@ -8795,9 +8845,9 @@
         <v>144</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="77"/>
@@ -8886,9 +8936,9 @@
         <v>152</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="77"/>
@@ -8969,9 +9019,9 @@
         <v>153</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="83"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="77"/>
@@ -9068,9 +9118,9 @@
         <v>157</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="83"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="77"/>
@@ -9167,9 +9217,9 @@
         <v>156</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="82"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="83"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="77"/>
@@ -9282,9 +9332,9 @@
         <v>398</v>
       </c>
       <c r="D55" s="22"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="83"/>
     </row>
     <row r="56" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="77"/>
@@ -9367,9 +9417,9 @@
         <v>72</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="82"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="83"/>
     </row>
     <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="77"/>
@@ -9450,9 +9500,9 @@
         <v>73</v>
       </c>
       <c r="D71" s="22"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="82"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="83"/>
     </row>
     <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="77"/>
@@ -9543,9 +9593,9 @@
         <v>172</v>
       </c>
       <c r="D79" s="22"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="82"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="83"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="77"/>
@@ -9626,11 +9676,11 @@
         <v>87</v>
       </c>
       <c r="D87" s="60"/>
-      <c r="E87" s="80" t="s">
+      <c r="E87" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="F87" s="81"/>
-      <c r="G87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="83"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="77"/>
@@ -9711,11 +9761,11 @@
         <v>75</v>
       </c>
       <c r="D95" s="66"/>
-      <c r="E95" s="80" t="s">
+      <c r="E95" s="81" t="s">
         <v>408</v>
       </c>
-      <c r="F95" s="81"/>
-      <c r="G95" s="82"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="83"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="77"/>
@@ -9804,8 +9854,109 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
     </row>
+    <row r="103" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="B103" s="43"/>
+      <c r="C103" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D103" s="73"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="83"/>
+    </row>
+    <row r="104" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="77"/>
+      <c r="B104" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D104" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E104" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="78"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="78"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="78"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="78"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="78"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="79"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A56:A62"/>
     <mergeCell ref="E95:G95"/>
     <mergeCell ref="A96:A102"/>
     <mergeCell ref="A80:A86"/>
@@ -9816,21 +9967,6 @@
     <mergeCell ref="E79:G79"/>
     <mergeCell ref="E87:G87"/>
     <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9842,8 +9978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G22"/>
+    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9855,51 +9991,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -9933,9 +10069,9 @@
         <v>142</v>
       </c>
       <c r="D7" s="43"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="77"/>
@@ -10020,20 +10156,20 @@
       <c r="A15" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="77"/>
       <c r="B16" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="14" t="s">
         <v>242</v>
       </c>
       <c r="D16" s="35" t="s">
@@ -10050,7 +10186,7 @@
       <c r="B17" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="14" t="s">
         <v>243</v>
       </c>
       <c r="D17" s="35" t="s">
@@ -10067,7 +10203,7 @@
       <c r="B18" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="14" t="s">
         <v>244</v>
       </c>
       <c r="D18" s="35" t="s">
@@ -10082,7 +10218,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="78"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="1"/>
@@ -10091,7 +10227,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="78"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="1"/>
@@ -10100,7 +10236,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="78"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="1"/>
@@ -10109,7 +10245,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="79"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -10119,13 +10255,13 @@
       <c r="A23" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="77"/>
@@ -10233,8 +10369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10246,51 +10382,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -10319,13 +10455,13 @@
       <c r="A7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="96" t="s">
         <v>302</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="77"/>
@@ -10412,13 +10548,13 @@
         <v>158</v>
       </c>
       <c r="B15" s="44"/>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="96" t="s">
         <v>301</v>
       </c>
       <c r="D15" s="43"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="92"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="77"/>
@@ -10503,20 +10639,20 @@
       <c r="A23" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="77"/>
       <c r="B24" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="14" t="s">
         <v>221</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -10533,7 +10669,7 @@
       <c r="B25" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="14" t="s">
         <v>222</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -10550,7 +10686,7 @@
       <c r="B26" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="14" t="s">
         <v>223</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -10567,7 +10703,7 @@
       <c r="B27" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="14" t="s">
         <v>224</v>
       </c>
       <c r="D27" s="35" t="s">
@@ -10582,7 +10718,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="78"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="1"/>
@@ -10591,7 +10727,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="78"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="1"/>
@@ -10600,7 +10736,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="79"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -10610,20 +10746,20 @@
       <c r="A31" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="83"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="77"/>
       <c r="B32" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="14" t="s">
         <v>225</v>
       </c>
       <c r="D32" s="35" t="s">
@@ -10640,7 +10776,7 @@
       <c r="B33" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="14" t="s">
         <v>226</v>
       </c>
       <c r="D33" s="35" t="s">
@@ -10657,7 +10793,7 @@
       <c r="B34" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="14" t="s">
         <v>227</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -10674,7 +10810,7 @@
       <c r="B35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="14" t="s">
         <v>228</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -10689,7 +10825,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="78"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="1"/>
@@ -10698,7 +10834,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="78"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="1"/>
@@ -10707,7 +10843,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="79"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -10717,20 +10853,20 @@
       <c r="A39" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="83"/>
     </row>
     <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="77"/>
       <c r="B40" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="14" t="s">
         <v>229</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -10747,7 +10883,7 @@
       <c r="B41" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="14" t="s">
         <v>230</v>
       </c>
       <c r="D41" s="35" t="s">
@@ -10762,7 +10898,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="78"/>
       <c r="B42" s="33"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="1"/>
@@ -10771,7 +10907,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="78"/>
       <c r="B43" s="33"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="1"/>
@@ -10780,7 +10916,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="78"/>
       <c r="B44" s="22"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="1"/>
@@ -10789,7 +10925,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="78"/>
       <c r="B45" s="22"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="1"/>
@@ -10798,7 +10934,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="79"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -10808,20 +10944,20 @@
       <c r="A47" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="82"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="83"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="77"/>
       <c r="B48" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="14" t="s">
         <v>231</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -10838,7 +10974,7 @@
       <c r="B49" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="14" t="s">
         <v>232</v>
       </c>
       <c r="D49" s="35" t="s">
@@ -10853,7 +10989,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="78"/>
       <c r="B50" s="33"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="1"/>
@@ -10862,7 +10998,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="78"/>
       <c r="B51" s="33"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="1"/>
@@ -10871,7 +11007,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="78"/>
       <c r="B52" s="22"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="1"/>
@@ -10880,7 +11016,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="78"/>
       <c r="B53" s="22"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="1"/>
@@ -10889,7 +11025,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="79"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -10899,20 +11035,20 @@
       <c r="A55" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="15" t="s">
         <v>81</v>
       </c>
       <c r="D55" s="22"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="83"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="77"/>
       <c r="B56" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="14" t="s">
         <v>286</v>
       </c>
       <c r="D56" s="36" t="s">
@@ -10929,7 +11065,7 @@
       <c r="B57" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="14" t="s">
         <v>288</v>
       </c>
       <c r="D57" s="36" t="s">
@@ -10946,7 +11082,7 @@
       <c r="B58" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="14" t="s">
         <v>289</v>
       </c>
       <c r="D58" s="36" t="s">
@@ -10961,7 +11097,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="78"/>
       <c r="B59" s="33"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="1"/>
@@ -10970,7 +11106,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="78"/>
       <c r="B60" s="22"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="1"/>
@@ -10979,7 +11115,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="78"/>
       <c r="B61" s="22"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="1"/>
@@ -10988,7 +11124,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="79"/>
       <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -10998,13 +11134,13 @@
       <c r="A63" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="22"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="82"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="83"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="77"/>
@@ -11090,13 +11226,13 @@
         <v>171</v>
       </c>
       <c r="B71" s="44"/>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="8" t="s">
         <v>170</v>
       </c>
       <c r="D71" s="43"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="91"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="92"/>
     </row>
     <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="77"/>
@@ -11179,6 +11315,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
@@ -11188,16 +11334,6 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:A62"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11209,8 +11345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11222,51 +11358,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -11296,20 +11432,20 @@
         <v>101</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="77"/>
       <c r="B8" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -11327,7 +11463,7 @@
       <c r="B9" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>237</v>
       </c>
       <c r="D9" s="36" t="s">
@@ -11344,7 +11480,7 @@
       <c r="B10" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>238</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -11359,7 +11495,7 @@
     <row r="11" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="78"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="1"/>
@@ -11368,7 +11504,7 @@
     <row r="12" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="78"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="1"/>
@@ -11377,7 +11513,7 @@
     <row r="13" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="78"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="1"/>
@@ -11386,7 +11522,7 @@
     <row r="14" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="79"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -11397,20 +11533,20 @@
         <v>282</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>283</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="77"/>
       <c r="B16" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="14" t="s">
         <v>284</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -11427,7 +11563,7 @@
       <c r="B17" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="14" t="s">
         <v>285</v>
       </c>
       <c r="D17" s="36" t="s">
@@ -11442,7 +11578,7 @@
     <row r="18" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="78"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="1"/>
@@ -11451,7 +11587,7 @@
     <row r="19" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="1"/>
@@ -11460,7 +11596,7 @@
     <row r="20" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="78"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="1"/>
@@ -11469,7 +11605,7 @@
     <row r="21" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="1"/>
@@ -11478,7 +11614,7 @@
     <row r="22" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="79"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -11492,12 +11628,12 @@
         <v>306</v>
       </c>
       <c r="D23" s="43"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="92"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="43"/>
       <c r="C24" s="14" t="s">
         <v>307</v>
@@ -11512,7 +11648,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="93"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="43"/>
       <c r="C25" s="14" t="s">
         <v>310</v>
@@ -11527,7 +11663,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="93"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="43"/>
       <c r="C26" s="14"/>
       <c r="D26" s="43"/>
@@ -11536,7 +11672,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="93"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="43"/>
       <c r="C27" s="14"/>
       <c r="D27" s="43"/>
@@ -11545,7 +11681,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="93"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="43"/>
       <c r="C28" s="14"/>
       <c r="D28" s="43"/>
@@ -11554,7 +11690,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="93"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="43"/>
       <c r="C29" s="14"/>
       <c r="D29" s="43"/>
@@ -11563,7 +11699,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="94"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -11576,20 +11712,20 @@
         <v>11</v>
       </c>
       <c r="B31"/>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="83"/>
     </row>
     <row r="32" spans="1:7" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="77"/>
       <c r="B32" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="14" t="s">
         <v>208</v>
       </c>
       <c r="D32" s="22" t="s">
@@ -11606,7 +11742,7 @@
       <c r="B33" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="14" t="s">
         <v>209</v>
       </c>
       <c r="D33" s="34" t="s">
@@ -11623,7 +11759,7 @@
       <c r="B34" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="14" t="s">
         <v>210</v>
       </c>
       <c r="D34" s="34" t="s">
@@ -11638,7 +11774,7 @@
     <row r="35" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="78"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="1"/>
@@ -11647,7 +11783,7 @@
     <row r="36" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="78"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="1"/>
@@ -11656,7 +11792,7 @@
     <row r="37" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="78"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="1"/>
@@ -11665,7 +11801,7 @@
     <row r="38" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="79"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -11676,20 +11812,20 @@
         <v>146</v>
       </c>
       <c r="B39"/>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D39" s="22"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="83"/>
     </row>
     <row r="40" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="77"/>
       <c r="B40" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="14" t="s">
         <v>265</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -11706,7 +11842,7 @@
       <c r="B41" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="14" t="s">
         <v>266</v>
       </c>
       <c r="D41" s="35" t="s">
@@ -11723,7 +11859,7 @@
       <c r="B42" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="44" t="s">
         <v>267</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -11740,7 +11876,7 @@
       <c r="B43" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="97" t="s">
         <v>268</v>
       </c>
       <c r="D43" s="35" t="s">
@@ -11755,7 +11891,7 @@
     <row r="44" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="78"/>
       <c r="B44" s="22"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="1"/>
@@ -11764,7 +11900,7 @@
     <row r="45" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="78"/>
       <c r="B45" s="22"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="1"/>
@@ -11773,7 +11909,7 @@
     <row r="46" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="79"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -11784,16 +11920,16 @@
         <v>92</v>
       </c>
       <c r="B47" s="43"/>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D47" s="43"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="91"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="92"/>
     </row>
     <row r="48" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="92"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="43" t="s">
         <v>115</v>
       </c>
@@ -11804,7 +11940,7 @@
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="93"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="47" t="s">
         <v>116</v>
       </c>
@@ -11815,7 +11951,7 @@
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="93"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="47" t="s">
         <v>117</v>
       </c>
@@ -11826,7 +11962,7 @@
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="93"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="43" t="s">
         <v>118</v>
       </c>
@@ -11837,7 +11973,7 @@
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="93"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="43"/>
       <c r="C52" s="14"/>
       <c r="D52" s="43"/>
@@ -11846,7 +11982,7 @@
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="93"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="43"/>
       <c r="C53" s="14"/>
       <c r="D53" s="43"/>
@@ -11855,7 +11991,7 @@
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="94"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
@@ -11868,16 +12004,16 @@
         <v>91</v>
       </c>
       <c r="B55" s="43"/>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D55" s="43"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="91"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="92"/>
     </row>
     <row r="56" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="92"/>
+      <c r="A56" s="93"/>
       <c r="B56" s="43" t="s">
         <v>115</v>
       </c>
@@ -11888,7 +12024,7 @@
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="93"/>
+      <c r="A57" s="94"/>
       <c r="B57" s="47" t="s">
         <v>116</v>
       </c>
@@ -11899,7 +12035,7 @@
       <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="93"/>
+      <c r="A58" s="94"/>
       <c r="B58" s="47" t="s">
         <v>117</v>
       </c>
@@ -11910,7 +12046,7 @@
       <c r="G58" s="14"/>
     </row>
     <row r="59" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="93"/>
+      <c r="A59" s="94"/>
       <c r="B59" s="43" t="s">
         <v>118</v>
       </c>
@@ -11921,7 +12057,7 @@
       <c r="G59" s="14"/>
     </row>
     <row r="60" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="93"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="43"/>
       <c r="C60" s="14"/>
       <c r="D60" s="43"/>
@@ -11930,7 +12066,7 @@
       <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="93"/>
+      <c r="A61" s="94"/>
       <c r="B61" s="43"/>
       <c r="C61" s="14"/>
       <c r="D61" s="43"/>
@@ -11939,7 +12075,7 @@
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="94"/>
+      <c r="A62" s="95"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
@@ -11952,16 +12088,16 @@
         <v>90</v>
       </c>
       <c r="B63" s="43"/>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D63" s="43"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="91"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="92"/>
     </row>
     <row r="64" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="92"/>
+      <c r="A64" s="93"/>
       <c r="B64" s="43" t="s">
         <v>115</v>
       </c>
@@ -11972,7 +12108,7 @@
       <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="93"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="47" t="s">
         <v>116</v>
       </c>
@@ -11983,7 +12119,7 @@
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="93"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="47" t="s">
         <v>117</v>
       </c>
@@ -11994,7 +12130,7 @@
       <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="93"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="43" t="s">
         <v>118</v>
       </c>
@@ -12005,7 +12141,7 @@
       <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="93"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="43"/>
       <c r="C68" s="14"/>
       <c r="D68" s="43"/>
@@ -12014,7 +12150,7 @@
       <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="93"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="43"/>
       <c r="C69" s="14"/>
       <c r="D69" s="43"/>
@@ -12023,7 +12159,7 @@
       <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="94"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
       <c r="D70" s="42"/>
@@ -12035,12 +12171,12 @@
       <c r="A71" s="43"/>
       <c r="C71" s="15"/>
       <c r="D71" s="43"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="91"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="92"/>
     </row>
     <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="92"/>
+      <c r="A72" s="93"/>
       <c r="B72" s="47"/>
       <c r="C72" s="14"/>
       <c r="D72" s="43"/>
@@ -12049,7 +12185,7 @@
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="93"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="47"/>
       <c r="C73" s="14"/>
       <c r="D73" s="43"/>
@@ -12058,7 +12194,7 @@
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="93"/>
+      <c r="A74" s="94"/>
       <c r="B74" s="43"/>
       <c r="C74" s="14"/>
       <c r="D74" s="43"/>
@@ -12067,7 +12203,7 @@
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="93"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="43"/>
       <c r="C75" s="14"/>
       <c r="D75" s="43"/>
@@ -12076,7 +12212,7 @@
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="93"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="43"/>
       <c r="C76" s="14"/>
       <c r="D76" s="43"/>
@@ -12085,7 +12221,7 @@
       <c r="G76" s="14"/>
     </row>
     <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="93"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="43"/>
       <c r="C77" s="14"/>
       <c r="D77" s="43"/>
@@ -12094,7 +12230,7 @@
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="94"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
       <c r="D78" s="42"/>
@@ -12106,12 +12242,12 @@
       <c r="A79" s="43"/>
       <c r="C79" s="15"/>
       <c r="D79" s="43"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="91"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="92"/>
     </row>
     <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="92"/>
+      <c r="A80" s="93"/>
       <c r="B80" s="43"/>
       <c r="C80" s="14"/>
       <c r="D80" s="43"/>
@@ -12120,7 +12256,7 @@
       <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="93"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="43"/>
       <c r="C81" s="14"/>
       <c r="D81" s="43"/>
@@ -12129,7 +12265,7 @@
       <c r="G81" s="14"/>
     </row>
     <row r="82" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="93"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="43"/>
       <c r="C82" s="14"/>
       <c r="D82" s="43"/>
@@ -12138,7 +12274,7 @@
       <c r="G82" s="14"/>
     </row>
     <row r="83" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="93"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="43"/>
       <c r="C83" s="14"/>
       <c r="D83" s="43"/>
@@ -12147,7 +12283,7 @@
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="93"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="43"/>
       <c r="C84" s="14"/>
       <c r="D84" s="43"/>
@@ -12156,7 +12292,7 @@
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="93"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="43"/>
       <c r="C85" s="14"/>
       <c r="D85" s="43"/>
@@ -12165,7 +12301,7 @@
       <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="94"/>
+      <c r="A86" s="95"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
       <c r="D86" s="42"/>
@@ -12177,12 +12313,12 @@
       <c r="A87" s="43"/>
       <c r="C87" s="15"/>
       <c r="D87" s="43"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="91"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="92"/>
     </row>
     <row r="88" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="92"/>
+      <c r="A88" s="93"/>
       <c r="B88" s="47"/>
       <c r="C88" s="14"/>
       <c r="D88" s="43"/>
@@ -12191,7 +12327,7 @@
       <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="93"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="47"/>
       <c r="C89" s="14"/>
       <c r="D89" s="43"/>
@@ -12200,7 +12336,7 @@
       <c r="G89" s="14"/>
     </row>
     <row r="90" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="93"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="43"/>
       <c r="C90" s="14"/>
       <c r="D90" s="43"/>
@@ -12209,7 +12345,7 @@
       <c r="G90" s="14"/>
     </row>
     <row r="91" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="93"/>
+      <c r="A91" s="94"/>
       <c r="B91" s="43"/>
       <c r="C91" s="14"/>
       <c r="D91" s="43"/>
@@ -12218,7 +12354,7 @@
       <c r="G91" s="14"/>
     </row>
     <row r="92" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="93"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="43"/>
       <c r="C92" s="14"/>
       <c r="D92" s="43"/>
@@ -12227,7 +12363,7 @@
       <c r="G92" s="14"/>
     </row>
     <row r="93" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="93"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="43"/>
       <c r="C93" s="14"/>
       <c r="D93" s="43"/>
@@ -12236,7 +12372,7 @@
       <c r="G93" s="14"/>
     </row>
     <row r="94" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="94"/>
+      <c r="A94" s="95"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
       <c r="D94" s="42"/>
@@ -12248,12 +12384,12 @@
       <c r="A95" s="43"/>
       <c r="C95" s="15"/>
       <c r="D95" s="43"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="91"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="92"/>
     </row>
     <row r="96" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="92"/>
+      <c r="A96" s="93"/>
       <c r="B96" s="43"/>
       <c r="C96" s="14"/>
       <c r="D96" s="43"/>
@@ -12262,7 +12398,7 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="93"/>
+      <c r="A97" s="94"/>
       <c r="B97" s="43"/>
       <c r="C97" s="14"/>
       <c r="D97" s="43"/>
@@ -12271,7 +12407,7 @@
       <c r="G97" s="14"/>
     </row>
     <row r="98" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="93"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="43"/>
       <c r="C98" s="14"/>
       <c r="D98" s="43"/>
@@ -12280,7 +12416,7 @@
       <c r="G98" s="14"/>
     </row>
     <row r="99" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="93"/>
+      <c r="A99" s="94"/>
       <c r="B99" s="43"/>
       <c r="C99" s="14"/>
       <c r="D99" s="43"/>
@@ -12289,7 +12425,7 @@
       <c r="G99" s="14"/>
     </row>
     <row r="100" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="93"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="43"/>
       <c r="C100" s="14"/>
       <c r="D100" s="43"/>
@@ -12298,7 +12434,7 @@
       <c r="G100" s="14"/>
     </row>
     <row r="101" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="93"/>
+      <c r="A101" s="94"/>
       <c r="B101" s="43"/>
       <c r="C101" s="14"/>
       <c r="D101" s="43"/>
@@ -12307,7 +12443,7 @@
       <c r="G101" s="14"/>
     </row>
     <row r="102" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="94"/>
+      <c r="A102" s="95"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
@@ -12319,12 +12455,12 @@
       <c r="A103" s="43"/>
       <c r="C103" s="15"/>
       <c r="D103" s="43"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="91"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="92"/>
     </row>
     <row r="104" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="92"/>
+      <c r="A104" s="93"/>
       <c r="B104" s="43"/>
       <c r="C104" s="14"/>
       <c r="D104" s="43"/>
@@ -12333,7 +12469,7 @@
       <c r="G104" s="14"/>
     </row>
     <row r="105" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="93"/>
+      <c r="A105" s="94"/>
       <c r="B105" s="43"/>
       <c r="C105" s="14"/>
       <c r="D105" s="43"/>
@@ -12342,7 +12478,7 @@
       <c r="G105" s="14"/>
     </row>
     <row r="106" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="93"/>
+      <c r="A106" s="94"/>
       <c r="B106" s="43"/>
       <c r="C106" s="14"/>
       <c r="D106" s="43"/>
@@ -12351,7 +12487,7 @@
       <c r="G106" s="14"/>
     </row>
     <row r="107" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="93"/>
+      <c r="A107" s="94"/>
       <c r="B107" s="43"/>
       <c r="C107" s="14"/>
       <c r="D107" s="43"/>
@@ -12360,7 +12496,7 @@
       <c r="G107" s="14"/>
     </row>
     <row r="108" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="93"/>
+      <c r="A108" s="94"/>
       <c r="B108" s="43"/>
       <c r="C108" s="14"/>
       <c r="D108" s="43"/>
@@ -12369,7 +12505,7 @@
       <c r="G108" s="14"/>
     </row>
     <row r="109" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="93"/>
+      <c r="A109" s="94"/>
       <c r="B109" s="43"/>
       <c r="C109" s="14"/>
       <c r="D109" s="43"/>
@@ -12378,7 +12514,7 @@
       <c r="G109" s="14"/>
     </row>
     <row r="110" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="94"/>
+      <c r="A110" s="95"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
       <c r="D110" s="42"/>
@@ -12388,15 +12524,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="E31:G31"/>
@@ -12409,12 +12542,15 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="SB7" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PB!$A$6:$I$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PB!$A$6:$I$91</definedName>
     <definedName name="_ftn1" localSheetId="1">PB!$C$17</definedName>
     <definedName name="_ftnref1" localSheetId="1">PB!$C$11</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="523">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -3070,44 +3070,6 @@
   </si>
   <si>
     <t>Observacion</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alto
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>09-09-2019 Invetigando el manejo de filtros con ArcGis</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-16-09-2019 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se estan identificando los campos para los filtros, el servidor el dia de hoy se encuentra caido</t>
-    </r>
   </si>
   <si>
     <t>16-09-2019 La plataforma ArcGis se encuentra caida</t>
@@ -3456,6 +3418,71 @@
   </si>
   <si>
     <t>ya wilmar ejecutó el script</t>
+  </si>
+  <si>
+    <t>terminado</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alto
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>09-09-2019 Invetigando el manejo de filtros con ArcGis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16-09-2019 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se estan identificando los campos para los filtros, el servidor el dia de hoy se encuentra caido.  Realizar ajuste con la tabla barro, no permite enlazar para el nombre</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">09-09-2019 Por el momento se muestra en un modal los id de las tablas, falta generar mas informacion, debe funcionar en web y movil </t>
+  </si>
+  <si>
+    <t>se termina la actividad pero se desactiva para lograr visualizar la totalidad de campo para realizar ajustes en movil</t>
+  </si>
+  <si>
+    <t>Funcionalidad iniciada pero debe que debe realizarce en el espring 4 debido a problemas con el arcGIS</t>
+  </si>
+  <si>
+    <t>verificar guardar rol</t>
+  </si>
+  <si>
+    <t>falta filtro por comuna</t>
+  </si>
+  <si>
+    <t>se tiene lista pero se integrará cuendo se tengan los filtros definidos</t>
+  </si>
+  <si>
+    <t>se inactiva permisologia para agilizar desarrollo</t>
+  </si>
+  <si>
+    <t>castillo lo esta revisando</t>
   </si>
 </sst>
 </file>
@@ -3993,9 +4020,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4003,6 +4027,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4496,7 +4523,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -4566,11 +4593,11 @@
     </row>
     <row r="7" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D7" s="75" t="s">
         <v>111</v>
@@ -4647,11 +4674,11 @@
     </row>
     <row r="15" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>111</v>
@@ -4727,11 +4754,11 @@
     </row>
     <row r="23" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D23" s="75" t="s">
         <v>111</v>
@@ -4807,11 +4834,11 @@
     </row>
     <row r="31" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D31" s="75" t="s">
         <v>111</v>
@@ -4887,11 +4914,11 @@
     </row>
     <row r="39" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D39" s="75" t="s">
         <v>111</v>
@@ -4966,11 +4993,11 @@
     </row>
     <row r="47" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B47" s="42"/>
       <c r="C47" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D47" s="75" t="s">
         <v>111</v>
@@ -5046,11 +5073,11 @@
     </row>
     <row r="55" spans="1:7" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B55" s="42"/>
       <c r="C55" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D55" s="75" t="s">
         <v>111</v>
@@ -5126,11 +5153,11 @@
     </row>
     <row r="63" spans="1:7" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B63" s="42"/>
       <c r="C63" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D63" s="63" t="s">
         <v>328</v>
@@ -5206,11 +5233,11 @@
     </row>
     <row r="71" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B71" s="42"/>
       <c r="C71" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>111</v>
@@ -5286,11 +5313,11 @@
     </row>
     <row r="79" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B79" s="42"/>
       <c r="C79" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D79" s="75" t="s">
         <v>111</v>
@@ -5366,11 +5393,11 @@
     </row>
     <row r="87" spans="1:7" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B87" s="42"/>
       <c r="C87" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D87" s="75" t="s">
         <v>111</v>
@@ -5446,17 +5473,17 @@
     </row>
     <row r="95" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D95" s="75" t="s">
         <v>111</v>
       </c>
       <c r="E95" s="95" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F95" s="96"/>
       <c r="G95" s="97"/>
@@ -5526,11 +5553,11 @@
     </row>
     <row r="103" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B103" s="42"/>
       <c r="C103" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D103" s="75" t="s">
         <v>111</v>
@@ -5606,11 +5633,11 @@
     </row>
     <row r="111" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B111" s="42"/>
       <c r="C111" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D111" s="75" t="s">
         <v>111</v>
@@ -5684,11 +5711,11 @@
     </row>
     <row r="119" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B119" s="42"/>
       <c r="C119" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D119" s="63" t="s">
         <v>328</v>
@@ -5768,11 +5795,11 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B127" s="42"/>
       <c r="C127" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D127" s="63" t="s">
         <v>328</v>
@@ -5848,11 +5875,11 @@
     </row>
     <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B135" s="42"/>
       <c r="C135" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D135" s="75" t="s">
         <v>111</v>
@@ -5928,11 +5955,11 @@
     </row>
     <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B143" s="42"/>
       <c r="C143" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D143" s="75" t="s">
         <v>111</v>
@@ -6008,11 +6035,11 @@
     </row>
     <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B151" s="42"/>
       <c r="C151" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D151" s="63" t="s">
         <v>328</v>
@@ -6088,11 +6115,11 @@
     </row>
     <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B159" s="42"/>
       <c r="C159" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D159" s="75" t="s">
         <v>111</v>
@@ -6168,11 +6195,11 @@
     </row>
     <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B167" s="42"/>
       <c r="C167" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D167" s="75" t="s">
         <v>111</v>
@@ -6252,11 +6279,11 @@
     </row>
     <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B175" s="42"/>
       <c r="C175" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D175" s="63" t="s">
         <v>328</v>
@@ -6332,11 +6359,11 @@
     </row>
     <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B183" s="42"/>
       <c r="C183" s="77" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D183" s="75" t="s">
         <v>111</v>
@@ -6412,11 +6439,11 @@
     </row>
     <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B191" s="42"/>
       <c r="C191" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D191" s="75" t="s">
         <v>111</v>
@@ -6492,11 +6519,11 @@
     </row>
     <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B199" s="42"/>
       <c r="C199" s="78" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D199" s="75" t="s">
         <v>111</v>
@@ -6570,11 +6597,11 @@
     </row>
     <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B207" s="42"/>
       <c r="C207" s="78" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D207" s="75" t="s">
         <v>111</v>
@@ -6648,11 +6675,11 @@
     </row>
     <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B215" s="42"/>
       <c r="C215" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D215" s="63" t="s">
         <v>328</v>
@@ -6732,11 +6759,11 @@
     </row>
     <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B223" s="42"/>
       <c r="C223" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D223" s="75" t="s">
         <v>111</v>
@@ -6816,11 +6843,11 @@
     </row>
     <row r="231" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B231" s="42"/>
       <c r="C231" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D231" s="63" t="s">
         <v>328</v>
@@ -6900,11 +6927,11 @@
     </row>
     <row r="239" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B239" s="42"/>
       <c r="C239" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D239" s="63" t="s">
         <v>328</v>
@@ -6984,11 +7011,11 @@
     </row>
     <row r="247" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B247" s="42"/>
       <c r="C247" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D247" s="63" t="s">
         <v>328</v>
@@ -7205,12 +7232,51 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A240:A246"/>
+    <mergeCell ref="E247:G247"/>
+    <mergeCell ref="A248:A254"/>
+    <mergeCell ref="A216:A222"/>
+    <mergeCell ref="E223:G223"/>
+    <mergeCell ref="A224:A230"/>
+    <mergeCell ref="E231:G231"/>
+    <mergeCell ref="A232:A238"/>
+    <mergeCell ref="E239:G239"/>
+    <mergeCell ref="E215:G215"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="A176:A182"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="A184:A190"/>
+    <mergeCell ref="E191:G191"/>
+    <mergeCell ref="A192:A198"/>
+    <mergeCell ref="E199:G199"/>
+    <mergeCell ref="A200:A206"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="A208:A214"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="A144:A150"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="A160:A166"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="A112:A118"/>
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="E31:G31"/>
@@ -7223,51 +7289,12 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="E167:G167"/>
-    <mergeCell ref="A120:A126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="E135:G135"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="A144:A150"/>
-    <mergeCell ref="E151:G151"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="A160:A166"/>
-    <mergeCell ref="E215:G215"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="A176:A182"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="A184:A190"/>
-    <mergeCell ref="E191:G191"/>
-    <mergeCell ref="A192:A198"/>
-    <mergeCell ref="E199:G199"/>
-    <mergeCell ref="A200:A206"/>
-    <mergeCell ref="E207:G207"/>
-    <mergeCell ref="A208:A214"/>
-    <mergeCell ref="A240:A246"/>
-    <mergeCell ref="E247:G247"/>
-    <mergeCell ref="A248:A254"/>
-    <mergeCell ref="A216:A222"/>
-    <mergeCell ref="E223:G223"/>
-    <mergeCell ref="A224:A230"/>
-    <mergeCell ref="E231:G231"/>
-    <mergeCell ref="A232:A238"/>
-    <mergeCell ref="E239:G239"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7275,10 +7302,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7294,7 +7322,7 @@
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>4</v>
       </c>
@@ -7307,7 +7335,7 @@
       <c r="H1" s="79"/>
       <c r="I1" s="79"/>
     </row>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -7318,7 +7346,7 @@
       <c r="H2" s="79"/>
       <c r="I2" s="79"/>
     </row>
-    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
@@ -7329,7 +7357,7 @@
       <c r="H3" s="79"/>
       <c r="I3" s="79"/>
     </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -7340,7 +7368,7 @@
       <c r="H4" s="79"/>
       <c r="I4" s="79"/>
     </row>
-    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -7351,7 +7379,7 @@
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
     </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -7380,7 +7408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>6</v>
       </c>
@@ -7408,7 +7436,7 @@
         <v>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>130</v>
       </c>
@@ -7436,7 +7464,7 @@
         <v>06-09-2019 Se han presentado inconvenientes con la conexión de la db por arcgis ya solo hasta hoy fue posible realizar el archivo de configuración para dicha conexión</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
@@ -7449,8 +7477,8 @@
       <c r="D9" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="63" t="s">
-        <v>326</v>
+      <c r="E9" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="50">
@@ -7460,10 +7488,13 @@
         <v>139</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="J9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>134</v>
       </c>
@@ -7476,8 +7507,8 @@
       <c r="D10" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="63" t="s">
-        <v>328</v>
+      <c r="E10" s="22" t="s">
+        <v>511</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="51">
@@ -7487,10 +7518,10 @@
         <v>139</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
@@ -7515,7 +7546,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>140</v>
       </c>
@@ -7541,8 +7572,11 @@
       <c r="I12" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
@@ -7555,8 +7589,8 @@
       <c r="D13" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="63" t="s">
-        <v>328</v>
+      <c r="E13" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="51">
@@ -7565,9 +7599,11 @@
       <c r="H13" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="I13" s="28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>143</v>
       </c>
@@ -7580,8 +7616,8 @@
       <c r="D14" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="63" t="s">
-        <v>326</v>
+      <c r="E14" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="50">
@@ -7591,10 +7627,10 @@
         <v>139</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
@@ -7621,7 +7657,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>146</v>
       </c>
@@ -7648,7 +7684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
@@ -7675,7 +7711,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>13</v>
       </c>
@@ -7702,7 +7738,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>154</v>
       </c>
@@ -7729,7 +7765,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>14</v>
       </c>
@@ -7742,8 +7778,8 @@
       <c r="D20" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>111</v>
+      <c r="E20" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="52">
@@ -7752,9 +7788,11 @@
       <c r="H20" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>155</v>
       </c>
@@ -7777,9 +7815,11 @@
       <c r="H21" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
@@ -7806,7 +7846,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>158</v>
       </c>
@@ -7831,7 +7871,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>16</v>
       </c>
@@ -7856,7 +7896,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>159</v>
       </c>
@@ -7881,7 +7921,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>17</v>
       </c>
@@ -7904,7 +7944,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>18</v>
       </c>
@@ -7927,7 +7967,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>34</v>
       </c>
@@ -7954,7 +7994,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>166</v>
       </c>
@@ -7979,7 +8019,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>62</v>
       </c>
@@ -8006,7 +8046,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>63</v>
       </c>
@@ -8032,8 +8072,11 @@
       <c r="I31" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>64</v>
       </c>
@@ -8060,7 +8103,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>171</v>
       </c>
@@ -8087,7 +8130,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>66</v>
       </c>
@@ -8114,7 +8157,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>67</v>
       </c>
@@ -8127,8 +8170,8 @@
       <c r="D35" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>111</v>
+      <c r="E35" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="52">
@@ -8139,7 +8182,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>94</v>
       </c>
@@ -8165,8 +8208,11 @@
       <c r="I36" s="49" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>95</v>
       </c>
@@ -8179,8 +8225,8 @@
       <c r="D37" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E37" s="63" t="s">
-        <v>328</v>
+      <c r="E37" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="50">
@@ -8189,9 +8235,11 @@
       <c r="H37" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I37" s="28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>96</v>
       </c>
@@ -8214,9 +8262,11 @@
       <c r="H38" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>97</v>
       </c>
@@ -8243,7 +8293,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>282</v>
       </c>
@@ -8268,7 +8318,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>98</v>
       </c>
@@ -8281,8 +8331,8 @@
       <c r="D41" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>111</v>
+      <c r="E41" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="52">
@@ -8295,7 +8345,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>99</v>
       </c>
@@ -8308,8 +8358,8 @@
       <c r="D42" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>111</v>
+      <c r="E42" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="52">
@@ -8318,9 +8368,11 @@
       <c r="H42" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>100</v>
       </c>
@@ -8333,8 +8385,8 @@
       <c r="D43" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>111</v>
+      <c r="E43" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="52">
@@ -8343,9 +8395,11 @@
       <c r="H43" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>101</v>
       </c>
@@ -8370,7 +8424,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>102</v>
       </c>
@@ -8383,8 +8437,8 @@
       <c r="D45" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E45" s="63" t="s">
-        <v>328</v>
+      <c r="E45" s="22" t="s">
+        <v>511</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="52">
@@ -8394,10 +8448,10 @@
         <v>139</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>103</v>
       </c>
@@ -8424,7 +8478,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>104</v>
       </c>
@@ -8449,7 +8503,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>93</v>
       </c>
@@ -8474,7 +8528,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>105</v>
       </c>
@@ -8499,7 +8553,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>106</v>
       </c>
@@ -8524,7 +8578,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>107</v>
       </c>
@@ -8549,7 +8603,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>108</v>
       </c>
@@ -8574,7 +8628,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>92</v>
       </c>
@@ -8599,7 +8653,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>91</v>
       </c>
@@ -8624,7 +8678,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>90</v>
       </c>
@@ -8649,7 +8703,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>89</v>
       </c>
@@ -8685,8 +8739,8 @@
       <c r="D57" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E57" s="63" t="s">
-        <v>328</v>
+      <c r="E57" s="22" t="s">
+        <v>511</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="52">
@@ -8696,10 +8750,10 @@
         <v>139</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>340</v>
       </c>
@@ -8724,7 +8778,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>342</v>
       </c>
@@ -8751,19 +8805,19 @@
     </row>
     <row r="60" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B60" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="C60" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="D60" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E60" s="63" t="s">
-        <v>328</v>
+      <c r="E60" s="22" t="s">
+        <v>511</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="52">
@@ -8774,15 +8828,15 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D61" s="42" t="s">
         <v>248</v>
@@ -8798,15 +8852,15 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D62" s="42" t="s">
         <v>248</v>
@@ -8822,15 +8876,15 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D63" s="42" t="s">
         <v>248</v>
@@ -8846,15 +8900,15 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D64" s="42" t="s">
         <v>248</v>
@@ -8870,15 +8924,15 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>248</v>
@@ -8894,15 +8948,15 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B66" s="51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D66" s="42" t="s">
         <v>248</v>
@@ -8918,15 +8972,15 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B67" s="51" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D67" s="42" t="s">
         <v>248</v>
@@ -8942,15 +8996,15 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D68" s="42" t="s">
         <v>248</v>
@@ -8966,15 +9020,15 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D69" s="42" t="s">
         <v>248</v>
@@ -8990,15 +9044,15 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D70" s="42" t="s">
         <v>248</v>
@@ -9014,15 +9068,15 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B71" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D71" s="42" t="s">
         <v>248</v>
@@ -9038,15 +9092,15 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D72" s="42" t="s">
         <v>248</v>
@@ -9062,15 +9116,15 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D73" s="42" t="s">
         <v>248</v>
@@ -9086,15 +9140,15 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D74" s="42" t="s">
         <v>248</v>
@@ -9110,15 +9164,15 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B75" s="48" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D75" s="42" t="s">
         <v>248</v>
@@ -9134,15 +9188,15 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B76" s="48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D76" s="42" t="s">
         <v>248</v>
@@ -9158,15 +9212,15 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B77" s="48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D77" s="42" t="s">
         <v>248</v>
@@ -9182,15 +9236,15 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B78" s="48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D78" s="42" t="s">
         <v>248</v>
@@ -9206,15 +9260,15 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D79" s="42" t="s">
         <v>248</v>
@@ -9230,15 +9284,15 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D80" s="42" t="s">
         <v>248</v>
@@ -9254,15 +9308,15 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B81" s="48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D81" s="42" t="s">
         <v>248</v>
@@ -9278,15 +9332,15 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D82" s="42" t="s">
         <v>248</v>
@@ -9302,15 +9356,15 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B83" s="48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C83" s="77" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D83" s="42" t="s">
         <v>248</v>
@@ -9326,15 +9380,15 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B84" s="48" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C84" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D84" s="42" t="s">
         <v>248</v>
@@ -9350,15 +9404,15 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C85" s="78" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D85" s="42" t="s">
         <v>248</v>
@@ -9374,15 +9428,15 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C86" s="78" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D86" s="42" t="s">
         <v>248</v>
@@ -9398,15 +9452,15 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D87" s="42" t="s">
         <v>248</v>
@@ -9422,15 +9476,15 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D88" s="42" t="s">
         <v>248</v>
@@ -9446,15 +9500,15 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B89" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D89" s="42" t="s">
         <v>248</v>
@@ -9470,15 +9524,15 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>248</v>
@@ -9494,15 +9548,15 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D91" s="42" t="s">
         <v>248</v>
@@ -9519,7 +9573,13 @@
       <c r="I91" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:I60"/>
+  <autoFilter ref="A6:I91">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:I5"/>
   </mergeCells>
@@ -9756,7 +9816,7 @@
         <v>327</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -10002,12 +10062,12 @@
         <v>5</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="5" t="s">
         <v>115</v>
       </c>
@@ -10024,7 +10084,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="5" t="s">
         <v>116</v>
       </c>
@@ -10041,7 +10101,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="5" t="s">
         <v>117</v>
       </c>
@@ -10058,7 +10118,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="5" t="s">
         <v>118</v>
       </c>
@@ -10077,7 +10137,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
@@ -10086,7 +10146,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
@@ -10095,7 +10155,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="9"/>
       <c r="C14" s="19"/>
       <c r="D14" s="9"/>
@@ -10116,7 +10176,7 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="34" t="s">
         <v>115</v>
       </c>
@@ -10135,7 +10195,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="21"/>
       <c r="C17" s="1"/>
       <c r="D17" s="21"/>
@@ -10144,7 +10204,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="21"/>
       <c r="C18" s="1"/>
       <c r="D18" s="21"/>
@@ -10153,7 +10213,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="21"/>
       <c r="C19" s="1"/>
       <c r="D19" s="21"/>
@@ -10162,7 +10222,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="21"/>
       <c r="C20" s="1"/>
       <c r="D20" s="21"/>
@@ -10171,7 +10231,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="21"/>
       <c r="C21" s="1"/>
       <c r="D21" s="21"/>
@@ -10180,7 +10240,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="9"/>
       <c r="C22" s="19"/>
       <c r="D22" s="9"/>
@@ -10201,7 +10261,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="34" t="s">
         <v>115</v>
       </c>
@@ -10218,7 +10278,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="21"/>
       <c r="C25" s="1"/>
       <c r="D25" s="21"/>
@@ -10227,7 +10287,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="21"/>
       <c r="C26" s="1"/>
       <c r="D26" s="21"/>
@@ -10236,7 +10296,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="21"/>
       <c r="C27" s="1"/>
       <c r="D27" s="21"/>
@@ -10245,7 +10305,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="21"/>
       <c r="C28" s="1"/>
       <c r="D28" s="21"/>
@@ -10254,7 +10314,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="21"/>
       <c r="C29" s="1"/>
       <c r="D29" s="21"/>
@@ -10263,7 +10323,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="9"/>
       <c r="C30" s="19"/>
       <c r="D30" s="9"/>
@@ -10284,7 +10344,7 @@
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="34" t="s">
         <v>115</v>
       </c>
@@ -10301,7 +10361,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="34"/>
       <c r="C33" s="1"/>
       <c r="D33" s="34"/>
@@ -10310,7 +10370,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="34"/>
       <c r="C34" s="1"/>
       <c r="D34" s="34"/>
@@ -10319,7 +10379,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="34"/>
       <c r="C35" s="1"/>
       <c r="D35" s="34"/>
@@ -10328,7 +10388,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="34"/>
       <c r="C36" s="1"/>
       <c r="D36" s="34"/>
@@ -10337,7 +10397,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="34"/>
       <c r="C37" s="1"/>
       <c r="D37" s="34"/>
@@ -10346,7 +10406,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="9"/>
       <c r="C38" s="19"/>
       <c r="D38" s="9"/>
@@ -10368,7 +10428,7 @@
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="5" t="s">
         <v>115</v>
       </c>
@@ -10385,7 +10445,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="5" t="s">
         <v>116</v>
       </c>
@@ -10402,7 +10462,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
@@ -10411,7 +10471,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1"/>
       <c r="D43" s="5"/>
@@ -10420,7 +10480,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="5"/>
@@ -10429,7 +10489,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="5"/>
@@ -10438,7 +10498,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="9"/>
       <c r="C46" s="19"/>
       <c r="D46" s="9"/>
@@ -10459,7 +10519,7 @@
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
+      <c r="A48" s="82"/>
       <c r="B48" s="34" t="s">
         <v>115</v>
       </c>
@@ -10476,7 +10536,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
+      <c r="A49" s="83"/>
       <c r="B49" s="34"/>
       <c r="C49" s="1"/>
       <c r="D49" s="34"/>
@@ -10485,7 +10545,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="34"/>
       <c r="C50" s="1"/>
       <c r="D50" s="34"/>
@@ -10494,7 +10554,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="34"/>
       <c r="C51" s="1"/>
       <c r="D51" s="34"/>
@@ -10503,7 +10563,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="9"/>
       <c r="C52" s="19"/>
       <c r="D52" s="9"/>
@@ -10525,7 +10585,7 @@
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
+      <c r="A54" s="82"/>
       <c r="B54" s="47" t="s">
         <v>115</v>
       </c>
@@ -10542,7 +10602,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="84"/>
+      <c r="A55" s="83"/>
       <c r="B55" s="47" t="s">
         <v>116</v>
       </c>
@@ -10559,7 +10619,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
+      <c r="A56" s="83"/>
       <c r="B56" s="47" t="s">
         <v>117</v>
       </c>
@@ -10576,7 +10636,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
+      <c r="A57" s="83"/>
       <c r="B57" s="34"/>
       <c r="C57" s="1"/>
       <c r="D57" s="34"/>
@@ -10585,7 +10645,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
+      <c r="A58" s="83"/>
       <c r="B58" s="34"/>
       <c r="C58" s="1"/>
       <c r="D58" s="34"/>
@@ -10594,7 +10654,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
+      <c r="A59" s="83"/>
       <c r="B59" s="34"/>
       <c r="C59" s="1"/>
       <c r="D59" s="34"/>
@@ -10603,7 +10663,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="85"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="9"/>
       <c r="C60" s="19"/>
       <c r="D60" s="9"/>
@@ -10625,7 +10685,7 @@
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
+      <c r="A62" s="82"/>
       <c r="B62" s="47" t="s">
         <v>115</v>
       </c>
@@ -10642,7 +10702,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
+      <c r="A63" s="83"/>
       <c r="B63" s="47" t="s">
         <v>116</v>
       </c>
@@ -10659,7 +10719,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
+      <c r="A64" s="83"/>
       <c r="B64" s="47" t="s">
         <v>117</v>
       </c>
@@ -10676,7 +10736,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="34"/>
       <c r="C65" s="1"/>
       <c r="D65" s="34"/>
@@ -10685,7 +10745,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
+      <c r="A66" s="83"/>
       <c r="B66" s="34"/>
       <c r="C66" s="1"/>
       <c r="D66" s="34"/>
@@ -10694,7 +10754,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
+      <c r="A67" s="83"/>
       <c r="B67" s="34"/>
       <c r="C67" s="1"/>
       <c r="D67" s="34"/>
@@ -10703,7 +10763,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="85"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="9"/>
       <c r="C68" s="19"/>
       <c r="D68" s="9"/>
@@ -10721,7 +10781,7 @@
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
+      <c r="A70" s="82"/>
       <c r="B70" s="34"/>
       <c r="C70" s="1"/>
       <c r="D70" s="34"/>
@@ -10730,7 +10790,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
+      <c r="A71" s="83"/>
       <c r="B71" s="34"/>
       <c r="C71" s="1"/>
       <c r="D71" s="34"/>
@@ -10739,7 +10799,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="84"/>
+      <c r="A72" s="83"/>
       <c r="B72" s="34"/>
       <c r="C72" s="1"/>
       <c r="D72" s="34"/>
@@ -10748,7 +10808,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
+      <c r="A73" s="83"/>
       <c r="B73" s="34"/>
       <c r="C73" s="1"/>
       <c r="D73" s="34"/>
@@ -10757,7 +10817,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="84"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="34"/>
       <c r="C74" s="1"/>
       <c r="D74" s="34"/>
@@ -10766,7 +10826,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="84"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="34"/>
       <c r="C75" s="1"/>
       <c r="D75" s="34"/>
@@ -10775,7 +10835,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="85"/>
+      <c r="A76" s="84"/>
       <c r="B76" s="9"/>
       <c r="C76" s="19"/>
       <c r="D76" s="9"/>
@@ -10792,7 +10852,7 @@
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="83"/>
+      <c r="A78" s="82"/>
       <c r="B78" s="34"/>
       <c r="C78" s="1"/>
       <c r="D78" s="34"/>
@@ -10801,7 +10861,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="84"/>
+      <c r="A79" s="83"/>
       <c r="B79" s="34"/>
       <c r="C79" s="1"/>
       <c r="D79" s="34"/>
@@ -10810,7 +10870,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="84"/>
+      <c r="A80" s="83"/>
       <c r="B80" s="34"/>
       <c r="C80" s="1"/>
       <c r="D80" s="34"/>
@@ -10819,7 +10879,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="84"/>
+      <c r="A81" s="83"/>
       <c r="B81" s="34"/>
       <c r="C81" s="1"/>
       <c r="D81" s="34"/>
@@ -10828,7 +10888,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="84"/>
+      <c r="A82" s="83"/>
       <c r="B82" s="34"/>
       <c r="C82" s="1"/>
       <c r="D82" s="34"/>
@@ -10837,7 +10897,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="84"/>
+      <c r="A83" s="83"/>
       <c r="B83" s="34"/>
       <c r="C83" s="1"/>
       <c r="D83" s="34"/>
@@ -10846,7 +10906,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="85"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="9"/>
       <c r="C84" s="19"/>
       <c r="D84" s="9"/>
@@ -10863,7 +10923,7 @@
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="83"/>
+      <c r="A86" s="82"/>
       <c r="B86" s="34"/>
       <c r="C86" s="1"/>
       <c r="D86" s="34"/>
@@ -10872,7 +10932,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
+      <c r="A87" s="83"/>
       <c r="B87" s="34"/>
       <c r="C87" s="1"/>
       <c r="D87" s="34"/>
@@ -10881,7 +10941,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
+      <c r="A88" s="83"/>
       <c r="B88" s="34"/>
       <c r="C88" s="1"/>
       <c r="D88" s="34"/>
@@ -10890,7 +10950,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
+      <c r="A89" s="83"/>
       <c r="B89" s="34"/>
       <c r="C89" s="1"/>
       <c r="D89" s="34"/>
@@ -10899,7 +10959,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
+      <c r="A90" s="83"/>
       <c r="B90" s="34"/>
       <c r="C90" s="1"/>
       <c r="D90" s="34"/>
@@ -10908,7 +10968,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="34"/>
       <c r="C91" s="1"/>
       <c r="D91" s="34"/>
@@ -10917,7 +10977,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="85"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="9"/>
       <c r="C92" s="19"/>
       <c r="D92" s="9"/>
@@ -10934,7 +10994,7 @@
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
+      <c r="A94" s="82"/>
       <c r="B94" s="34"/>
       <c r="C94" s="1"/>
       <c r="D94" s="34"/>
@@ -10943,7 +11003,7 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="84"/>
+      <c r="A95" s="83"/>
       <c r="B95" s="34"/>
       <c r="C95" s="1"/>
       <c r="D95" s="34"/>
@@ -10952,7 +11012,7 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
+      <c r="A96" s="83"/>
       <c r="B96" s="34"/>
       <c r="C96" s="1"/>
       <c r="D96" s="34"/>
@@ -10961,7 +11021,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="84"/>
+      <c r="A97" s="83"/>
       <c r="B97" s="34"/>
       <c r="C97" s="1"/>
       <c r="D97" s="34"/>
@@ -10970,7 +11030,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
+      <c r="A98" s="83"/>
       <c r="B98" s="34"/>
       <c r="C98" s="1"/>
       <c r="D98" s="34"/>
@@ -10979,7 +11039,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
+      <c r="A99" s="83"/>
       <c r="B99" s="34"/>
       <c r="C99" s="1"/>
       <c r="D99" s="34"/>
@@ -10988,7 +11048,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="85"/>
+      <c r="A100" s="84"/>
       <c r="B100" s="9"/>
       <c r="C100" s="19"/>
       <c r="D100" s="9"/>
@@ -11006,7 +11066,7 @@
       <c r="G101" s="9"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="83"/>
+      <c r="A102" s="82"/>
       <c r="B102" s="34"/>
       <c r="C102" s="1"/>
       <c r="D102" s="34"/>
@@ -11015,7 +11075,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="84"/>
+      <c r="A103" s="83"/>
       <c r="B103" s="34"/>
       <c r="C103" s="1"/>
       <c r="D103" s="34"/>
@@ -11024,7 +11084,7 @@
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="84"/>
+      <c r="A104" s="83"/>
       <c r="B104" s="34"/>
       <c r="C104" s="1"/>
       <c r="D104" s="34"/>
@@ -11033,7 +11093,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="84"/>
+      <c r="A105" s="83"/>
       <c r="B105" s="34"/>
       <c r="C105" s="1"/>
       <c r="D105" s="34"/>
@@ -11042,7 +11102,7 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="84"/>
+      <c r="A106" s="83"/>
       <c r="B106" s="34"/>
       <c r="C106" s="1"/>
       <c r="D106" s="34"/>
@@ -11051,7 +11111,7 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="84"/>
+      <c r="A107" s="83"/>
       <c r="B107" s="34"/>
       <c r="C107" s="1"/>
       <c r="D107" s="34"/>
@@ -11060,7 +11120,7 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="85"/>
+      <c r="A108" s="84"/>
       <c r="B108" s="9"/>
       <c r="C108" s="19"/>
       <c r="D108" s="9"/>
@@ -11078,7 +11138,7 @@
       <c r="G109" s="9"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="83"/>
+      <c r="A110" s="82"/>
       <c r="B110" s="34"/>
       <c r="C110" s="1"/>
       <c r="D110" s="34"/>
@@ -11087,7 +11147,7 @@
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
+      <c r="A111" s="83"/>
       <c r="B111" s="34"/>
       <c r="C111" s="1"/>
       <c r="D111" s="34"/>
@@ -11096,7 +11156,7 @@
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
+      <c r="A112" s="83"/>
       <c r="B112" s="34"/>
       <c r="C112" s="1"/>
       <c r="D112" s="34"/>
@@ -11105,7 +11165,7 @@
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="84"/>
+      <c r="A113" s="83"/>
       <c r="B113" s="34"/>
       <c r="C113" s="1"/>
       <c r="D113" s="34"/>
@@ -11114,7 +11174,7 @@
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="84"/>
+      <c r="A114" s="83"/>
       <c r="B114" s="34"/>
       <c r="C114" s="1"/>
       <c r="D114" s="34"/>
@@ -11123,7 +11183,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="84"/>
+      <c r="A115" s="83"/>
       <c r="B115" s="34"/>
       <c r="C115" s="1"/>
       <c r="D115" s="34"/>
@@ -11132,7 +11192,7 @@
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="85"/>
+      <c r="A116" s="84"/>
       <c r="B116" s="9"/>
       <c r="C116" s="19"/>
       <c r="D116" s="9"/>
@@ -11150,7 +11210,7 @@
       <c r="G117" s="9"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="83"/>
+      <c r="A118" s="82"/>
       <c r="B118" s="34"/>
       <c r="C118" s="1"/>
       <c r="D118" s="34"/>
@@ -11159,7 +11219,7 @@
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="84"/>
+      <c r="A119" s="83"/>
       <c r="B119" s="34"/>
       <c r="C119" s="1"/>
       <c r="D119" s="34"/>
@@ -11168,7 +11228,7 @@
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="84"/>
+      <c r="A120" s="83"/>
       <c r="B120" s="34"/>
       <c r="C120" s="1"/>
       <c r="D120" s="34"/>
@@ -11177,7 +11237,7 @@
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="84"/>
+      <c r="A121" s="83"/>
       <c r="B121" s="34"/>
       <c r="C121" s="1"/>
       <c r="D121" s="34"/>
@@ -11186,7 +11246,7 @@
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="84"/>
+      <c r="A122" s="83"/>
       <c r="B122" s="34"/>
       <c r="C122" s="1"/>
       <c r="D122" s="34"/>
@@ -11195,7 +11255,7 @@
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="84"/>
+      <c r="A123" s="83"/>
       <c r="B123" s="34"/>
       <c r="C123" s="1"/>
       <c r="D123" s="34"/>
@@ -11204,7 +11264,7 @@
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="85"/>
+      <c r="A124" s="84"/>
       <c r="B124" s="9"/>
       <c r="C124" s="19"/>
       <c r="D124" s="9"/>
@@ -11222,7 +11282,7 @@
       <c r="G125" s="9"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="83"/>
+      <c r="A126" s="82"/>
       <c r="B126" s="34"/>
       <c r="C126" s="1"/>
       <c r="D126" s="34"/>
@@ -11231,7 +11291,7 @@
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="84"/>
+      <c r="A127" s="83"/>
       <c r="B127" s="34"/>
       <c r="C127" s="1"/>
       <c r="D127" s="34"/>
@@ -11240,7 +11300,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="84"/>
+      <c r="A128" s="83"/>
       <c r="B128" s="34"/>
       <c r="C128" s="1"/>
       <c r="D128" s="34"/>
@@ -11249,7 +11309,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="84"/>
+      <c r="A129" s="83"/>
       <c r="B129" s="34"/>
       <c r="C129" s="1"/>
       <c r="D129" s="34"/>
@@ -11258,7 +11318,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="84"/>
+      <c r="A130" s="83"/>
       <c r="B130" s="34"/>
       <c r="C130" s="1"/>
       <c r="D130" s="34"/>
@@ -11267,7 +11327,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="84"/>
+      <c r="A131" s="83"/>
       <c r="B131" s="34"/>
       <c r="C131" s="1"/>
       <c r="D131" s="34"/>
@@ -11276,7 +11336,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="85"/>
+      <c r="A132" s="84"/>
       <c r="B132" s="9"/>
       <c r="C132" s="19"/>
       <c r="D132" s="9"/>
@@ -11286,6 +11346,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A118:A124"/>
     <mergeCell ref="A126:A132"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A70:A76"/>
@@ -11294,16 +11364,6 @@
     <mergeCell ref="A94:A100"/>
     <mergeCell ref="A102:A108"/>
     <mergeCell ref="A110:A116"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A24:A30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11314,8 +11374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11409,13 +11469,13 @@
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="35" t="s">
         <v>115</v>
       </c>
@@ -11432,7 +11492,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="35" t="s">
         <v>116</v>
       </c>
@@ -11449,7 +11509,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="35" t="s">
         <v>117</v>
       </c>
@@ -11466,7 +11526,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="35" t="s">
         <v>118</v>
       </c>
@@ -11483,7 +11543,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="35" t="s">
         <v>189</v>
       </c>
@@ -11500,7 +11560,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="35" t="s">
         <v>190</v>
       </c>
@@ -11517,7 +11577,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="9"/>
       <c r="C14" s="19"/>
       <c r="D14" s="9"/>
@@ -11539,7 +11599,7 @@
       <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="5" t="s">
         <v>115</v>
       </c>
@@ -11556,7 +11616,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="5" t="s">
         <v>116</v>
       </c>
@@ -11573,7 +11633,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="5" t="s">
         <v>117</v>
       </c>
@@ -11590,7 +11650,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="5" t="s">
         <v>118</v>
       </c>
@@ -11607,7 +11667,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="5" t="s">
         <v>189</v>
       </c>
@@ -11624,7 +11684,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="5" t="s">
         <v>190</v>
       </c>
@@ -11641,7 +11701,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="9"/>
       <c r="C22" s="19"/>
       <c r="D22" s="9"/>
@@ -11746,7 +11806,7 @@
       <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="5" t="s">
         <v>115</v>
       </c>
@@ -11763,7 +11823,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="5" t="s">
         <v>116</v>
       </c>
@@ -11780,7 +11840,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="5"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
@@ -11789,7 +11849,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
@@ -11798,7 +11858,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="9"/>
       <c r="C35" s="19"/>
       <c r="D35" s="9"/>
@@ -11822,7 +11882,7 @@
       <c r="G36" s="91"/>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="5" t="s">
         <v>115</v>
       </c>
@@ -11839,7 +11899,7 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="5" t="s">
         <v>116</v>
       </c>
@@ -11856,7 +11916,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="5"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
@@ -11865,7 +11925,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
@@ -11874,7 +11934,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
@@ -11883,7 +11943,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
@@ -11892,7 +11952,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="85"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="9"/>
       <c r="C43" s="19"/>
       <c r="D43" s="9"/>
@@ -11910,13 +11970,13 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="89" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F44" s="90"/>
       <c r="G44" s="91"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
@@ -11933,7 +11993,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="83"/>
       <c r="B46" s="5" t="s">
         <v>116</v>
       </c>
@@ -11950,7 +12010,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="5"/>
@@ -11959,7 +12019,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
+      <c r="A48" s="83"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
@@ -11968,7 +12028,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
+      <c r="A49" s="83"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
@@ -11977,7 +12037,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="5"/>
@@ -11986,7 +12046,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="85"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="9"/>
       <c r="C51" s="19"/>
       <c r="D51" s="9"/>
@@ -12008,7 +12068,7 @@
       <c r="G52" s="94"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="82"/>
       <c r="B53" s="5" t="s">
         <v>115</v>
       </c>
@@ -12025,7 +12085,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
+      <c r="A54" s="83"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="5"/>
@@ -12034,7 +12094,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="84"/>
+      <c r="A55" s="83"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="5"/>
@@ -12043,7 +12103,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
+      <c r="A56" s="83"/>
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="5"/>
@@ -12052,7 +12112,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
+      <c r="A57" s="83"/>
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="5"/>
@@ -12061,7 +12121,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
+      <c r="A58" s="83"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="5"/>
@@ -12070,7 +12130,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="85"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="9"/>
       <c r="C59" s="19"/>
       <c r="D59" s="9"/>
@@ -12093,15 +12153,15 @@
       <c r="G60" s="88"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
+      <c r="A61" s="82"/>
       <c r="B61" s="35" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="D61" s="63" t="s">
-        <v>326</v>
+      <c r="D61" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="E61" s="58" t="s">
         <v>294</v>
@@ -12110,15 +12170,15 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
+      <c r="A62" s="83"/>
       <c r="B62" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D62" s="63" t="s">
-        <v>326</v>
+      <c r="D62" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="E62" s="58" t="s">
         <v>294</v>
@@ -12127,15 +12187,15 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
+      <c r="A63" s="83"/>
       <c r="B63" s="35" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="D63" s="63" t="s">
-        <v>326</v>
+      <c r="D63" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="E63" s="58" t="s">
         <v>294</v>
@@ -12144,15 +12204,15 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
+      <c r="A64" s="83"/>
       <c r="B64" s="35" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="D64" s="63" t="s">
-        <v>326</v>
+      <c r="D64" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="E64" s="58" t="s">
         <v>294</v>
@@ -12161,7 +12221,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="21"/>
       <c r="C65" s="1"/>
       <c r="D65" s="21"/>
@@ -12170,7 +12230,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
+      <c r="A66" s="83"/>
       <c r="B66" s="21"/>
       <c r="C66" s="1"/>
       <c r="D66" s="21"/>
@@ -12179,7 +12239,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="85"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -12200,7 +12260,7 @@
       <c r="G68" s="88"/>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
+      <c r="A69" s="82"/>
       <c r="B69" s="21"/>
       <c r="C69" s="1" t="s">
         <v>345</v>
@@ -12215,7 +12275,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
+      <c r="A70" s="83"/>
       <c r="B70" s="21"/>
       <c r="C70" s="1"/>
       <c r="D70" s="21"/>
@@ -12224,7 +12284,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
+      <c r="A71" s="83"/>
       <c r="B71" s="21"/>
       <c r="C71" s="1"/>
       <c r="D71" s="21"/>
@@ -12233,7 +12293,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="84"/>
+      <c r="A72" s="83"/>
       <c r="B72" s="21"/>
       <c r="C72" s="1"/>
       <c r="D72" s="21"/>
@@ -12242,7 +12302,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
+      <c r="A73" s="83"/>
       <c r="B73" s="21"/>
       <c r="C73" s="1"/>
       <c r="D73" s="21"/>
@@ -12251,7 +12311,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="84"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="21"/>
       <c r="C74" s="1"/>
       <c r="D74" s="21"/>
@@ -12260,7 +12320,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="85"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="9"/>
       <c r="C75" s="19"/>
       <c r="D75" s="9"/>
@@ -12283,7 +12343,7 @@
       <c r="G76" s="88"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="83"/>
+      <c r="A77" s="82"/>
       <c r="B77" s="34" t="s">
         <v>115</v>
       </c>
@@ -12300,7 +12360,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
+      <c r="A78" s="83"/>
       <c r="B78" s="34" t="s">
         <v>116</v>
       </c>
@@ -12317,7 +12377,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="84"/>
+      <c r="A79" s="83"/>
       <c r="B79" s="21"/>
       <c r="C79" s="1"/>
       <c r="D79" s="21"/>
@@ -12326,7 +12386,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="84"/>
+      <c r="A80" s="83"/>
       <c r="B80" s="21"/>
       <c r="C80" s="1"/>
       <c r="D80" s="21"/>
@@ -12335,7 +12395,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="84"/>
+      <c r="A81" s="83"/>
       <c r="B81" s="21"/>
       <c r="C81" s="1"/>
       <c r="D81" s="21"/>
@@ -12344,7 +12404,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="84"/>
+      <c r="A82" s="83"/>
       <c r="B82" s="21"/>
       <c r="C82" s="1"/>
       <c r="D82" s="21"/>
@@ -12353,7 +12413,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="85"/>
+      <c r="A83" s="84"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -12376,7 +12436,7 @@
       <c r="G84" s="88"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
+      <c r="A85" s="82"/>
       <c r="B85" s="35" t="s">
         <v>115</v>
       </c>
@@ -12393,7 +12453,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="84"/>
+      <c r="A86" s="83"/>
       <c r="B86" s="35" t="s">
         <v>116</v>
       </c>
@@ -12410,7 +12470,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
+      <c r="A87" s="83"/>
       <c r="B87" s="35"/>
       <c r="C87" s="1"/>
       <c r="D87" s="5"/>
@@ -12419,7 +12479,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
+      <c r="A88" s="83"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="5"/>
@@ -12428,7 +12488,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
+      <c r="A89" s="83"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="5"/>
@@ -12437,7 +12497,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
+      <c r="A90" s="83"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="5"/>
@@ -12446,7 +12506,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="85"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -12456,6 +12516,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E44:G44"/>
     <mergeCell ref="A85:A91"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A1:G5"/>
@@ -12472,12 +12538,6 @@
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="A77:A83"/>
     <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E44:G44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12489,8 +12549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103:G103"/>
+    <sheetView topLeftCell="A50" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12583,13 +12643,13 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="35" t="s">
         <v>115</v>
       </c>
@@ -12606,7 +12666,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="35" t="s">
         <v>116</v>
       </c>
@@ -12623,7 +12683,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="35" t="s">
         <v>117</v>
       </c>
@@ -12640,7 +12700,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
@@ -12649,7 +12709,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
@@ -12658,7 +12718,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
@@ -12667,7 +12727,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -12688,15 +12748,15 @@
       <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>328</v>
+      <c r="D16" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="E16" s="65" t="s">
         <v>297</v>
@@ -12705,15 +12765,15 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="26" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>328</v>
+      <c r="D17" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>297</v>
@@ -12722,7 +12782,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="26"/>
       <c r="C18" s="1"/>
       <c r="D18" s="21"/>
@@ -12731,7 +12791,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="21"/>
       <c r="C19" s="1"/>
       <c r="D19" s="21"/>
@@ -12740,7 +12800,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="21"/>
       <c r="C20" s="1"/>
       <c r="D20" s="21"/>
@@ -12749,7 +12809,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="21"/>
       <c r="C21" s="1"/>
       <c r="D21" s="21"/>
@@ -12758,7 +12818,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -12779,7 +12839,7 @@
       <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -12796,7 +12856,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="26"/>
       <c r="C25" s="1"/>
       <c r="D25" s="21"/>
@@ -12805,7 +12865,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="26"/>
       <c r="C26" s="1"/>
       <c r="D26" s="21"/>
@@ -12814,7 +12874,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="21"/>
       <c r="C27" s="1"/>
       <c r="D27" s="21"/>
@@ -12823,7 +12883,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="21"/>
       <c r="C28" s="1"/>
       <c r="D28" s="21"/>
@@ -12832,7 +12892,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="21"/>
       <c r="C29" s="1"/>
       <c r="D29" s="21"/>
@@ -12841,7 +12901,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -12862,7 +12922,7 @@
       <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="35" t="s">
         <v>115</v>
       </c>
@@ -12879,7 +12939,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="35" t="s">
         <v>116</v>
       </c>
@@ -12896,7 +12956,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="35" t="s">
         <v>117</v>
       </c>
@@ -12913,7 +12973,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="21"/>
       <c r="C35" s="1"/>
       <c r="D35" s="21"/>
@@ -12922,7 +12982,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="21"/>
       <c r="C36" s="1"/>
       <c r="D36" s="21"/>
@@ -12931,7 +12991,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="21"/>
       <c r="C37" s="1"/>
       <c r="D37" s="21"/>
@@ -12940,7 +13000,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -12961,7 +13021,7 @@
       <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="26" t="s">
         <v>115</v>
       </c>
@@ -12978,7 +13038,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="26" t="s">
         <v>116</v>
       </c>
@@ -12995,7 +13055,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="26" t="s">
         <v>117</v>
       </c>
@@ -13012,7 +13072,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="21"/>
@@ -13021,7 +13081,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="21"/>
@@ -13030,7 +13090,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="21"/>
@@ -13039,7 +13099,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -13060,7 +13120,7 @@
       <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
+      <c r="A48" s="82"/>
       <c r="B48" s="35" t="s">
         <v>115</v>
       </c>
@@ -13077,7 +13137,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
+      <c r="A49" s="83"/>
       <c r="B49" s="35" t="s">
         <v>116</v>
       </c>
@@ -13094,7 +13154,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="35" t="s">
         <v>117</v>
       </c>
@@ -13111,7 +13171,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="35" t="s">
         <v>118</v>
       </c>
@@ -13128,7 +13188,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
+      <c r="A52" s="83"/>
       <c r="B52" s="35" t="s">
         <v>189</v>
       </c>
@@ -13145,7 +13205,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
+      <c r="A53" s="83"/>
       <c r="B53" s="21"/>
       <c r="C53" s="1"/>
       <c r="D53" s="21"/>
@@ -13154,7 +13214,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -13175,7 +13235,7 @@
       <c r="G55" s="88"/>
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
+      <c r="A56" s="82"/>
       <c r="B56" s="26" t="s">
         <v>115</v>
       </c>
@@ -13194,7 +13254,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
+      <c r="A57" s="83"/>
       <c r="B57" s="26"/>
       <c r="C57" s="1"/>
       <c r="D57" s="21"/>
@@ -13203,7 +13263,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
+      <c r="A58" s="83"/>
       <c r="B58" s="26"/>
       <c r="C58" s="1"/>
       <c r="D58" s="21"/>
@@ -13212,7 +13272,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
+      <c r="A59" s="83"/>
       <c r="B59" s="21"/>
       <c r="C59" s="1"/>
       <c r="D59" s="21"/>
@@ -13221,7 +13281,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
+      <c r="A60" s="83"/>
       <c r="B60" s="21"/>
       <c r="C60" s="1"/>
       <c r="D60" s="21"/>
@@ -13230,7 +13290,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
+      <c r="A61" s="83"/>
       <c r="B61" s="21"/>
       <c r="C61" s="1"/>
       <c r="D61" s="21"/>
@@ -13239,7 +13299,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -13260,7 +13320,7 @@
       <c r="G63" s="88"/>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
+      <c r="A64" s="82"/>
       <c r="B64" s="26" t="s">
         <v>115</v>
       </c>
@@ -13277,7 +13337,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="26"/>
       <c r="C65" s="1"/>
       <c r="D65" s="21"/>
@@ -13286,7 +13346,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
+      <c r="A66" s="83"/>
       <c r="B66" s="26"/>
       <c r="C66" s="1"/>
       <c r="D66" s="21"/>
@@ -13295,7 +13355,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
+      <c r="A67" s="83"/>
       <c r="B67" s="21"/>
       <c r="C67" s="1"/>
       <c r="D67" s="21"/>
@@ -13304,7 +13364,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
+      <c r="A68" s="83"/>
       <c r="B68" s="21"/>
       <c r="C68" s="1"/>
       <c r="D68" s="21"/>
@@ -13313,7 +13373,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
+      <c r="A69" s="83"/>
       <c r="B69" s="21"/>
       <c r="C69" s="1"/>
       <c r="D69" s="21"/>
@@ -13322,7 +13382,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
+      <c r="A70" s="84"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -13343,7 +13403,7 @@
       <c r="G71" s="88"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
+      <c r="A72" s="82"/>
       <c r="B72" s="26" t="s">
         <v>115</v>
       </c>
@@ -13360,7 +13420,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
+      <c r="A73" s="83"/>
       <c r="B73" s="26" t="s">
         <v>116</v>
       </c>
@@ -13379,7 +13439,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="84"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="26"/>
       <c r="C74" s="1"/>
       <c r="D74" s="21"/>
@@ -13388,7 +13448,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="84"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="21"/>
       <c r="C75" s="1"/>
       <c r="D75" s="21"/>
@@ -13397,7 +13457,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="84"/>
+      <c r="A76" s="83"/>
       <c r="B76" s="21"/>
       <c r="C76" s="1"/>
       <c r="D76" s="21"/>
@@ -13406,7 +13466,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
+      <c r="A77" s="83"/>
       <c r="B77" s="21"/>
       <c r="C77" s="1"/>
       <c r="D77" s="21"/>
@@ -13415,7 +13475,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="85"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -13436,7 +13496,7 @@
       <c r="G79" s="88"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
+      <c r="A80" s="82"/>
       <c r="B80" s="26" t="s">
         <v>115</v>
       </c>
@@ -13453,7 +13513,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="84"/>
+      <c r="A81" s="83"/>
       <c r="B81" s="21"/>
       <c r="C81" s="1"/>
       <c r="D81" s="21"/>
@@ -13462,7 +13522,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="84"/>
+      <c r="A82" s="83"/>
       <c r="B82" s="21"/>
       <c r="C82" s="1"/>
       <c r="D82" s="21"/>
@@ -13471,7 +13531,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="84"/>
+      <c r="A83" s="83"/>
       <c r="B83" s="21"/>
       <c r="C83" s="1"/>
       <c r="D83" s="21"/>
@@ -13480,7 +13540,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="84"/>
+      <c r="A84" s="83"/>
       <c r="B84" s="21"/>
       <c r="C84" s="1"/>
       <c r="D84" s="21"/>
@@ -13489,7 +13549,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="84"/>
+      <c r="A85" s="83"/>
       <c r="B85" s="21"/>
       <c r="C85" s="1"/>
       <c r="D85" s="21"/>
@@ -13498,7 +13558,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -13515,13 +13575,13 @@
       </c>
       <c r="D87" s="59"/>
       <c r="E87" s="86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F87" s="87"/>
       <c r="G87" s="88"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
+      <c r="A88" s="82"/>
       <c r="B88" s="59" t="s">
         <v>115</v>
       </c>
@@ -13538,7 +13598,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
+      <c r="A89" s="83"/>
       <c r="B89" s="59"/>
       <c r="C89" s="1"/>
       <c r="D89" s="59"/>
@@ -13547,7 +13607,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
+      <c r="A90" s="83"/>
       <c r="B90" s="59"/>
       <c r="C90" s="1"/>
       <c r="D90" s="59"/>
@@ -13556,7 +13616,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="59"/>
       <c r="C91" s="1"/>
       <c r="D91" s="59"/>
@@ -13565,7 +13625,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
+      <c r="A92" s="83"/>
       <c r="B92" s="59"/>
       <c r="C92" s="1"/>
       <c r="D92" s="59"/>
@@ -13574,7 +13634,7 @@
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
+      <c r="A93" s="83"/>
       <c r="B93" s="59"/>
       <c r="C93" s="1"/>
       <c r="D93" s="59"/>
@@ -13583,7 +13643,7 @@
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="85"/>
+      <c r="A94" s="84"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -13600,13 +13660,13 @@
       </c>
       <c r="D95" s="65"/>
       <c r="E95" s="86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F95" s="87"/>
       <c r="G95" s="88"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
+      <c r="A96" s="82"/>
       <c r="B96" s="26" t="s">
         <v>115</v>
       </c>
@@ -13623,7 +13683,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="84"/>
+      <c r="A97" s="83"/>
       <c r="B97" s="26" t="s">
         <v>116</v>
       </c>
@@ -13640,7 +13700,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
+      <c r="A98" s="83"/>
       <c r="B98" s="26" t="s">
         <v>117</v>
       </c>
@@ -13657,7 +13717,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
+      <c r="A99" s="83"/>
       <c r="B99" s="21"/>
       <c r="C99" s="1"/>
       <c r="D99" s="21"/>
@@ -13666,7 +13726,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
+      <c r="A100" s="83"/>
       <c r="B100" s="21"/>
       <c r="C100" s="1"/>
       <c r="D100" s="21"/>
@@ -13675,7 +13735,7 @@
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="84"/>
+      <c r="A101" s="83"/>
       <c r="B101" s="21"/>
       <c r="C101" s="1"/>
       <c r="D101" s="21"/>
@@ -13684,7 +13744,7 @@
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="85"/>
+      <c r="A102" s="84"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -13694,38 +13754,38 @@
     </row>
     <row r="103" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B103" s="42"/>
       <c r="C103" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D103" s="72"/>
       <c r="E103" s="86" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F103" s="87"/>
       <c r="G103" s="88"/>
     </row>
     <row r="104" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="83"/>
+      <c r="A104" s="82"/>
       <c r="B104" s="72" t="s">
         <v>115</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E104" s="72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="84"/>
+      <c r="A105" s="83"/>
       <c r="B105" s="72"/>
       <c r="C105" s="1"/>
       <c r="D105" s="42"/>
@@ -13734,7 +13794,7 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="84"/>
+      <c r="A106" s="83"/>
       <c r="B106" s="72"/>
       <c r="C106" s="1"/>
       <c r="D106" s="42"/>
@@ -13743,7 +13803,7 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="84"/>
+      <c r="A107" s="83"/>
       <c r="B107" s="72"/>
       <c r="C107" s="1"/>
       <c r="D107" s="72"/>
@@ -13752,7 +13812,7 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="84"/>
+      <c r="A108" s="83"/>
       <c r="B108" s="72"/>
       <c r="C108" s="1"/>
       <c r="D108" s="72"/>
@@ -13761,7 +13821,7 @@
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="84"/>
+      <c r="A109" s="83"/>
       <c r="B109" s="72"/>
       <c r="C109" s="1"/>
       <c r="D109" s="72"/>
@@ -13770,7 +13830,7 @@
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="85"/>
+      <c r="A110" s="84"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -13780,17 +13840,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
     <mergeCell ref="E103:G103"/>
     <mergeCell ref="A104:A110"/>
     <mergeCell ref="E23:G23"/>
@@ -13807,6 +13856,17 @@
     <mergeCell ref="A96:A102"/>
     <mergeCell ref="A80:A86"/>
     <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E87:G87"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13914,7 +13974,7 @@
       <c r="G7" s="97"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="35" t="s">
         <v>115</v>
       </c>
@@ -13931,7 +13991,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="35" t="s">
         <v>116</v>
       </c>
@@ -13948,7 +14008,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
@@ -13957,7 +14017,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
@@ -13966,7 +14026,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
@@ -13975,7 +14035,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
@@ -13984,7 +14044,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -14005,7 +14065,7 @@
       <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="32" t="s">
         <v>115</v>
       </c>
@@ -14022,7 +14082,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="34" t="s">
         <v>116</v>
       </c>
@@ -14039,7 +14099,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="34" t="s">
         <v>117</v>
       </c>
@@ -14056,7 +14116,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="21"/>
       <c r="C19" s="13"/>
       <c r="D19" s="21"/>
@@ -14065,7 +14125,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="21"/>
       <c r="C20" s="13"/>
       <c r="D20" s="21"/>
@@ -14074,7 +14134,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="21"/>
       <c r="C21" s="13"/>
       <c r="D21" s="21"/>
@@ -14083,7 +14143,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="9"/>
       <c r="C22" s="41"/>
       <c r="D22" s="9"/>
@@ -14104,7 +14164,7 @@
       <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="21" t="s">
         <v>115</v>
       </c>
@@ -14121,7 +14181,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="32" t="s">
         <v>116</v>
       </c>
@@ -14138,7 +14198,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="32" t="s">
         <v>117</v>
       </c>
@@ -14155,7 +14215,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="21"/>
       <c r="C27" s="1"/>
       <c r="D27" s="21"/>
@@ -14164,7 +14224,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="21"/>
       <c r="C28" s="1"/>
       <c r="D28" s="21"/>
@@ -14173,7 +14233,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="21"/>
       <c r="C29" s="1"/>
       <c r="D29" s="21"/>
@@ -14182,7 +14242,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -14304,7 +14364,7 @@
       <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="26" t="s">
         <v>115</v>
       </c>
@@ -14322,7 +14382,7 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="26" t="s">
         <v>116</v>
       </c>
@@ -14339,7 +14399,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="26"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
@@ -14348,7 +14408,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
@@ -14357,7 +14417,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
@@ -14366,7 +14426,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
@@ -14375,7 +14435,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -14397,7 +14457,7 @@
       <c r="G15" s="97"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="35" t="s">
         <v>115</v>
       </c>
@@ -14414,7 +14474,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="35" t="s">
         <v>116</v>
       </c>
@@ -14431,7 +14491,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
@@ -14440,7 +14500,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
@@ -14449,7 +14509,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
@@ -14458,7 +14518,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
@@ -14467,7 +14527,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -14488,7 +14548,7 @@
       <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="30" t="s">
         <v>115</v>
       </c>
@@ -14505,7 +14565,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="30" t="s">
         <v>116</v>
       </c>
@@ -14522,7 +14582,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="30" t="s">
         <v>117</v>
       </c>
@@ -14539,7 +14599,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="21" t="s">
         <v>118</v>
       </c>
@@ -14556,7 +14616,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="21"/>
       <c r="C28" s="13"/>
       <c r="D28" s="21"/>
@@ -14565,7 +14625,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="21"/>
       <c r="C29" s="13"/>
       <c r="D29" s="21"/>
@@ -14574,7 +14634,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="9"/>
       <c r="C30" s="41"/>
       <c r="D30" s="9"/>
@@ -14595,7 +14655,7 @@
       <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="30" t="s">
         <v>115</v>
       </c>
@@ -14612,7 +14672,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="30" t="s">
         <v>116</v>
       </c>
@@ -14629,7 +14689,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="30" t="s">
         <v>117</v>
       </c>
@@ -14646,7 +14706,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="21" t="s">
         <v>118</v>
       </c>
@@ -14663,7 +14723,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="21"/>
       <c r="C36" s="13"/>
       <c r="D36" s="21"/>
@@ -14672,7 +14732,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="21"/>
       <c r="C37" s="13"/>
       <c r="D37" s="21"/>
@@ -14681,7 +14741,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="9"/>
       <c r="C38" s="41"/>
       <c r="D38" s="9"/>
@@ -14702,7 +14762,7 @@
       <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="32" t="s">
         <v>115</v>
       </c>
@@ -14719,7 +14779,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="32" t="s">
         <v>116</v>
       </c>
@@ -14736,7 +14796,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="32"/>
       <c r="C42" s="13"/>
       <c r="D42" s="21"/>
@@ -14745,7 +14805,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="32"/>
       <c r="C43" s="13"/>
       <c r="D43" s="21"/>
@@ -14754,7 +14814,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="21"/>
       <c r="C44" s="13"/>
       <c r="D44" s="21"/>
@@ -14763,7 +14823,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="21"/>
       <c r="C45" s="13"/>
       <c r="D45" s="21"/>
@@ -14772,7 +14832,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="9"/>
       <c r="C46" s="41"/>
       <c r="D46" s="9"/>
@@ -14793,7 +14853,7 @@
       <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
+      <c r="A48" s="82"/>
       <c r="B48" s="32" t="s">
         <v>115</v>
       </c>
@@ -14810,7 +14870,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
+      <c r="A49" s="83"/>
       <c r="B49" s="32" t="s">
         <v>116</v>
       </c>
@@ -14827,7 +14887,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="32"/>
       <c r="C50" s="13"/>
       <c r="D50" s="21"/>
@@ -14836,7 +14896,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="32"/>
       <c r="C51" s="13"/>
       <c r="D51" s="21"/>
@@ -14845,7 +14905,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
+      <c r="A52" s="83"/>
       <c r="B52" s="21"/>
       <c r="C52" s="13"/>
       <c r="D52" s="21"/>
@@ -14854,7 +14914,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
+      <c r="A53" s="83"/>
       <c r="B53" s="21"/>
       <c r="C53" s="13"/>
       <c r="D53" s="21"/>
@@ -14863,7 +14923,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="9"/>
       <c r="C54" s="41"/>
       <c r="D54" s="9"/>
@@ -14884,7 +14944,7 @@
       <c r="G55" s="88"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
+      <c r="A56" s="82"/>
       <c r="B56" s="38" t="s">
         <v>115</v>
       </c>
@@ -14901,7 +14961,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
+      <c r="A57" s="83"/>
       <c r="B57" s="38" t="s">
         <v>116</v>
       </c>
@@ -14918,7 +14978,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
+      <c r="A58" s="83"/>
       <c r="B58" s="38" t="s">
         <v>117</v>
       </c>
@@ -14935,7 +14995,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
+      <c r="A59" s="83"/>
       <c r="B59" s="32"/>
       <c r="C59" s="13"/>
       <c r="D59" s="21"/>
@@ -14944,7 +15004,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
+      <c r="A60" s="83"/>
       <c r="B60" s="21"/>
       <c r="C60" s="13"/>
       <c r="D60" s="21"/>
@@ -14953,7 +15013,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
+      <c r="A61" s="83"/>
       <c r="B61" s="21"/>
       <c r="C61" s="13"/>
       <c r="D61" s="21"/>
@@ -14962,7 +15022,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="9"/>
       <c r="C62" s="41"/>
       <c r="D62" s="9"/>
@@ -14983,7 +15043,7 @@
       <c r="G63" s="88"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
+      <c r="A64" s="82"/>
       <c r="B64" s="32" t="s">
         <v>115</v>
       </c>
@@ -15000,7 +15060,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="32" t="s">
         <v>116</v>
       </c>
@@ -15017,7 +15077,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
+      <c r="A66" s="83"/>
       <c r="B66" s="32"/>
       <c r="C66" s="1"/>
       <c r="D66" s="21"/>
@@ -15026,7 +15086,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
+      <c r="A67" s="83"/>
       <c r="B67" s="32"/>
       <c r="C67" s="1"/>
       <c r="D67" s="21"/>
@@ -15035,7 +15095,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
+      <c r="A68" s="83"/>
       <c r="B68" s="21"/>
       <c r="C68" s="1"/>
       <c r="D68" s="21"/>
@@ -15044,7 +15104,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
+      <c r="A69" s="83"/>
       <c r="B69" s="21"/>
       <c r="C69" s="1"/>
       <c r="D69" s="21"/>
@@ -15053,7 +15113,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
+      <c r="A70" s="84"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -15075,7 +15135,7 @@
       <c r="G71" s="97"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
+      <c r="A72" s="82"/>
       <c r="B72" s="38" t="s">
         <v>115</v>
       </c>
@@ -15092,7 +15152,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
+      <c r="A73" s="83"/>
       <c r="B73" s="38" t="s">
         <v>116</v>
       </c>
@@ -15109,7 +15169,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="84"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="21"/>
       <c r="C74" s="1"/>
       <c r="D74" s="21"/>
@@ -15118,7 +15178,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="84"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="21"/>
       <c r="C75" s="1"/>
       <c r="D75" s="21"/>
@@ -15127,7 +15187,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="84"/>
+      <c r="A76" s="83"/>
       <c r="B76" s="21"/>
       <c r="C76" s="1"/>
       <c r="D76" s="21"/>
@@ -15136,7 +15196,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
+      <c r="A77" s="83"/>
       <c r="B77" s="21"/>
       <c r="C77" s="1"/>
       <c r="D77" s="21"/>
@@ -15145,7 +15205,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="85"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -15155,6 +15215,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
@@ -15164,16 +15234,6 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:A62"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15281,7 +15341,7 @@
       <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="21" t="s">
         <v>115</v>
       </c>
@@ -15299,7 +15359,7 @@
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="32" t="s">
         <v>116</v>
       </c>
@@ -15316,7 +15376,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="32" t="s">
         <v>117</v>
       </c>
@@ -15333,7 +15393,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="21"/>
       <c r="C11" s="13"/>
       <c r="D11" s="21"/>
@@ -15342,7 +15402,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="21"/>
       <c r="C12" s="13"/>
       <c r="D12" s="21"/>
@@ -15351,7 +15411,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="21"/>
       <c r="C13" s="13"/>
       <c r="D13" s="21"/>
@@ -15360,7 +15420,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="9"/>
       <c r="C14" s="41"/>
       <c r="D14" s="9"/>
@@ -15382,7 +15442,7 @@
       <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="38" t="s">
         <v>115</v>
       </c>
@@ -15399,7 +15459,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="38" t="s">
         <v>116</v>
       </c>
@@ -15416,7 +15476,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="21"/>
       <c r="C18" s="13"/>
       <c r="D18" s="21"/>
@@ -15425,7 +15485,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="21"/>
       <c r="C19" s="13"/>
       <c r="D19" s="21"/>
@@ -15434,7 +15494,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="21"/>
       <c r="C20" s="13"/>
       <c r="D20" s="21"/>
@@ -15443,7 +15503,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="21"/>
       <c r="C21" s="13"/>
       <c r="D21" s="21"/>
@@ -15452,7 +15512,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="9"/>
       <c r="C22" s="41"/>
       <c r="D22" s="9"/>
@@ -15561,7 +15621,7 @@
       <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="26" t="s">
         <v>115</v>
       </c>
@@ -15578,7 +15638,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="26" t="s">
         <v>116</v>
       </c>
@@ -15595,7 +15655,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="26" t="s">
         <v>117</v>
       </c>
@@ -15612,7 +15672,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="21"/>
       <c r="C35" s="13"/>
       <c r="D35" s="21"/>
@@ -15621,7 +15681,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="21"/>
       <c r="C36" s="13"/>
       <c r="D36" s="21"/>
@@ -15630,7 +15690,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="21"/>
       <c r="C37" s="13"/>
       <c r="D37" s="21"/>
@@ -15639,7 +15699,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="9"/>
       <c r="C38" s="41"/>
       <c r="D38" s="9"/>
@@ -15661,7 +15721,7 @@
       <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="35" t="s">
         <v>115</v>
       </c>
@@ -15678,7 +15738,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="38" t="s">
         <v>116</v>
       </c>
@@ -15695,7 +15755,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="38" t="s">
         <v>117</v>
       </c>
@@ -15712,7 +15772,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="35" t="s">
         <v>118</v>
       </c>
@@ -15729,7 +15789,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="21"/>
       <c r="C44" s="13"/>
       <c r="D44" s="21"/>
@@ -15738,7 +15798,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="21"/>
       <c r="C45" s="13"/>
       <c r="D45" s="21"/>
@@ -15747,7 +15807,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="9"/>
       <c r="C46" s="41"/>
       <c r="D46" s="9"/>
@@ -16364,15 +16424,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="E31:G31"/>
@@ -16385,12 +16442,15 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="587">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -3483,6 +3483,198 @@
   </si>
   <si>
     <t>castillo lo esta revisando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla o CRUD de campos no va por qué se va a alimentar por base de datos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. El diseño de la plantilla del arcGIS debe ser igual a la que diseñó Wilmar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. El mapa tiene que ocupar toda la pantalla sin espacios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. El mensaje inicial que dice que “la totalidad de predios no está” debe ser igual al de la anterior aplicación. En el mismo nodal quitar el título de “advertencia” y poner “Apreciado Usuario”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Quitar el título que está pintado en el PHP puesto que ya lo tiene el arcGIS. Igual en los diseños. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Corregir el Mockup de Login. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. En el login quitar la palabra password y colocar contraseña. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Los header de los modales de color (azul o verde dependiendo del color que se seleccione para la plantilla del arcGIS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. El formulario de tablas No va…. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.Se debe agregar un Mockup de la funcionalidad de permisos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.Wilmar solicita que por usabilidad los permisos estén en el mismo formulario de los roles. </t>
+  </si>
+  <si>
+    <t>12.Hacer Mockups de las funcionalidades del arcGIS (los filtros)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.De entrada solo se muestra la capa de terrenos, las demás capas tienen que aparecer apagadas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.El relleno del color de los predios tiene que tener una transparencia igual como se muestra en la anterior aplicación. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.Las construcciones se definen en el mapa como negras pero debe tener un relleno con trasparencia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.La búsqueda de los predios debe hacerse a pedido para no traer todo de una vez. </t>
+  </si>
+  <si>
+    <t>17.Debe documentarse las rutas donde se van a guardar las imágenes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.Cuando se envíe objetos nuevos para creación en la base de datos enviar los permisos que se asignaran. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.El directorio activo no funciona con los usuarios de Ronny y Wilmar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.En la creación de usuarios agregar un campo más para la confirmación de la contraseña que se asignará. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.No aparece la dependencia de bienes y servicios, por favor agregarla para que aparezca en el listado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.La sesión no se está terminado pasados los 5 min. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.El los muckups deben definirse iconos de los botones del menú. </t>
+  </si>
+  <si>
+    <t>24.Módulo de permisos al campo no funciona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.Wilmar solicita que ascienda los errores de base de datos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.Permisología. No funciona. En las opciones del PHP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.Wilmar solicita que en la aplicación se le cree un usuario super Admin quemado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.No está funcionando la búsqueda por predio en el arcGIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.Corregir el orden de los filtros en el arcGIS primero el de predios del municipio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.La búsqueda de organismos en el arcGIS debe hacerse por nombre. </t>
+  </si>
+  <si>
+    <t>31.Todos los filtros que tiene para búsqueda reducirlo a uno y que busque en todas las capas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32.La búsqueda en el arcGIS del barrio que sea por nombre y no por código.</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>P48</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>P53</t>
   </si>
 </sst>
 </file>
@@ -3686,7 +3878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3786,12 +3978,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4011,6 +4214,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4020,6 +4226,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4027,9 +4236,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4075,6 +4281,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4392,10 +4604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4407,14 +4619,14 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:11" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>201</v>
       </c>
@@ -4424,8 +4636,14 @@
       <c r="C2" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -4436,7 +4654,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -4447,7 +4665,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -4457,8 +4675,15 @@
       <c r="C5" s="39">
         <v>43728</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="39">
+        <v>43717</v>
+      </c>
+      <c r="E5" s="39">
+        <v>43735</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -4468,8 +4693,14 @@
       <c r="C6" s="39">
         <v>43742</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="39">
+        <v>43737</v>
+      </c>
+      <c r="E6" s="39">
+        <v>43745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -4479,8 +4710,14 @@
       <c r="C7" s="39">
         <v>43756</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="39">
+        <v>43746</v>
+      </c>
+      <c r="E7" s="39">
+        <v>43756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
@@ -4490,8 +4727,27 @@
       <c r="C8" s="39">
         <v>43770</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="39">
+        <v>43759</v>
+      </c>
+      <c r="E8" s="39">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39">
+        <v>43770</v>
+      </c>
+      <c r="E9" s="39">
+        <v>43779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
     </row>
   </sheetData>
@@ -4499,6 +4755,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4506,7 +4763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
@@ -4522,51 +4779,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4602,12 +4859,12 @@
       <c r="D7" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
     </row>
     <row r="8" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="42"/>
       <c r="C8" s="13"/>
       <c r="D8" s="42"/>
@@ -4619,7 +4876,7 @@
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="42"/>
       <c r="C9" s="13"/>
       <c r="D9" s="42"/>
@@ -4628,7 +4885,7 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="42"/>
       <c r="C10" s="13"/>
       <c r="D10" s="42"/>
@@ -4637,7 +4894,7 @@
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="42"/>
       <c r="C11" s="13"/>
       <c r="D11" s="42"/>
@@ -4646,7 +4903,7 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="42"/>
       <c r="C12" s="13"/>
       <c r="D12" s="42"/>
@@ -4655,7 +4912,7 @@
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="42"/>
       <c r="C13" s="13"/>
       <c r="D13" s="42"/>
@@ -4664,7 +4921,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -4683,12 +4940,12 @@
       <c r="D15" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
     </row>
     <row r="16" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="46"/>
       <c r="C16" s="13"/>
       <c r="D16" s="42"/>
@@ -4699,7 +4956,7 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="46"/>
       <c r="C17" s="13"/>
       <c r="D17" s="42"/>
@@ -4708,7 +4965,7 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="42"/>
       <c r="C18" s="13"/>
       <c r="D18" s="42"/>
@@ -4717,7 +4974,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="42"/>
       <c r="C19" s="13"/>
       <c r="D19" s="42"/>
@@ -4726,7 +4983,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="42"/>
       <c r="C20" s="13"/>
       <c r="D20" s="42"/>
@@ -4735,7 +4992,7 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="42"/>
       <c r="C21" s="13"/>
       <c r="D21" s="42"/>
@@ -4744,7 +5001,7 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -4763,12 +5020,12 @@
       <c r="D23" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="98"/>
     </row>
     <row r="24" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="42"/>
       <c r="C24" s="13"/>
       <c r="D24" s="42"/>
@@ -4779,7 +5036,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="42"/>
       <c r="C25" s="13"/>
       <c r="D25" s="42"/>
@@ -4788,7 +5045,7 @@
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="42"/>
       <c r="C26" s="13"/>
       <c r="D26" s="42"/>
@@ -4797,7 +5054,7 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="42"/>
       <c r="C27" s="13"/>
       <c r="D27" s="42"/>
@@ -4806,7 +5063,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="42"/>
       <c r="C28" s="13"/>
       <c r="D28" s="42"/>
@@ -4815,7 +5072,7 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="42"/>
       <c r="C29" s="13"/>
       <c r="D29" s="42"/>
@@ -4824,7 +5081,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
@@ -4843,12 +5100,12 @@
       <c r="D31" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
     </row>
     <row r="32" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="42"/>
       <c r="C32" s="13"/>
       <c r="D32" s="42"/>
@@ -4859,7 +5116,7 @@
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="42"/>
       <c r="C33" s="13"/>
       <c r="D33" s="42"/>
@@ -4868,7 +5125,7 @@
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="42"/>
       <c r="C34" s="13"/>
       <c r="D34" s="42"/>
@@ -4877,7 +5134,7 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="42"/>
       <c r="C35" s="13"/>
       <c r="D35" s="42"/>
@@ -4886,7 +5143,7 @@
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="42"/>
       <c r="C36" s="13"/>
       <c r="D36" s="42"/>
@@ -4895,7 +5152,7 @@
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="99"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="42"/>
       <c r="C37" s="13"/>
       <c r="D37" s="42"/>
@@ -4904,7 +5161,7 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
@@ -4923,12 +5180,12 @@
       <c r="D39" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="97"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="98"/>
     </row>
     <row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="98"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="42"/>
       <c r="C40" s="13"/>
       <c r="D40" s="42"/>
@@ -4939,7 +5196,7 @@
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="46"/>
       <c r="C41" s="13"/>
       <c r="D41" s="42"/>
@@ -4948,7 +5205,7 @@
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="46"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -4956,7 +5213,7 @@
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="42"/>
       <c r="C43" s="74"/>
       <c r="D43" s="42"/>
@@ -4965,7 +5222,7 @@
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="99"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="42"/>
       <c r="C44" s="13"/>
       <c r="D44" s="42"/>
@@ -4974,7 +5231,7 @@
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="42"/>
       <c r="C45" s="13"/>
       <c r="D45" s="42"/>
@@ -4983,7 +5240,7 @@
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="100"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
@@ -5002,12 +5259,12 @@
       <c r="D47" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="95"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="97"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
+      <c r="A48" s="99"/>
       <c r="B48" s="42"/>
       <c r="C48" s="13"/>
       <c r="D48" s="42"/>
@@ -5018,7 +5275,7 @@
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="99"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="46"/>
       <c r="C49" s="13"/>
       <c r="D49" s="42"/>
@@ -5027,7 +5284,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="46"/>
       <c r="C50" s="13"/>
       <c r="D50" s="42"/>
@@ -5036,7 +5293,7 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="42"/>
       <c r="C51" s="13"/>
       <c r="D51" s="42"/>
@@ -5045,7 +5302,7 @@
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="99"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="42"/>
       <c r="C52" s="13"/>
       <c r="D52" s="42"/>
@@ -5054,7 +5311,7 @@
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="99"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="42"/>
       <c r="C53" s="13"/>
       <c r="D53" s="42"/>
@@ -5063,7 +5320,7 @@
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
+      <c r="A54" s="101"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
@@ -5082,12 +5339,12 @@
       <c r="D55" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="95"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="97"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="98"/>
     </row>
     <row r="56" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="98"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="42"/>
       <c r="C56" s="13"/>
       <c r="D56" s="42"/>
@@ -5098,7 +5355,7 @@
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="99"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="46"/>
       <c r="C57" s="13"/>
       <c r="D57" s="42"/>
@@ -5107,7 +5364,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="99"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="46"/>
       <c r="C58" s="13"/>
       <c r="D58" s="42"/>
@@ -5116,7 +5373,7 @@
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="99"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="42"/>
       <c r="C59" s="13"/>
       <c r="D59" s="42"/>
@@ -5125,7 +5382,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="42"/>
       <c r="C60" s="13"/>
       <c r="D60" s="42"/>
@@ -5134,7 +5391,7 @@
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="99"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="42"/>
       <c r="C61" s="13"/>
       <c r="D61" s="42"/>
@@ -5143,7 +5400,7 @@
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="100"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
@@ -5162,12 +5419,12 @@
       <c r="D63" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E63" s="95"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="97"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="98"/>
     </row>
     <row r="64" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="98"/>
+      <c r="A64" s="99"/>
       <c r="B64" s="42"/>
       <c r="C64" s="13"/>
       <c r="D64" s="42"/>
@@ -5178,7 +5435,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="99"/>
+      <c r="A65" s="100"/>
       <c r="B65" s="46"/>
       <c r="C65" s="13"/>
       <c r="D65" s="42"/>
@@ -5187,7 +5444,7 @@
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="99"/>
+      <c r="A66" s="100"/>
       <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="42"/>
@@ -5196,7 +5453,7 @@
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="99"/>
+      <c r="A67" s="100"/>
       <c r="B67" s="42"/>
       <c r="C67" s="13"/>
       <c r="D67" s="42"/>
@@ -5205,7 +5462,7 @@
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="99"/>
+      <c r="A68" s="100"/>
       <c r="B68" s="42"/>
       <c r="C68" s="13"/>
       <c r="D68" s="42"/>
@@ -5214,7 +5471,7 @@
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="99"/>
+      <c r="A69" s="100"/>
       <c r="B69" s="42"/>
       <c r="C69" s="13"/>
       <c r="D69" s="42"/>
@@ -5223,7 +5480,7 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="100"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
@@ -5242,12 +5499,12 @@
       <c r="D71" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E71" s="95"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="97"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="98"/>
     </row>
     <row r="72" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
+      <c r="A72" s="99"/>
       <c r="B72" s="46"/>
       <c r="C72" s="13"/>
       <c r="D72" s="42"/>
@@ -5258,7 +5515,7 @@
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="99"/>
+      <c r="A73" s="100"/>
       <c r="B73" s="46"/>
       <c r="C73" s="13"/>
       <c r="D73" s="42"/>
@@ -5267,7 +5524,7 @@
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="99"/>
+      <c r="A74" s="100"/>
       <c r="B74" s="42"/>
       <c r="C74" s="13"/>
       <c r="D74" s="42"/>
@@ -5276,7 +5533,7 @@
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="99"/>
+      <c r="A75" s="100"/>
       <c r="B75" s="42"/>
       <c r="C75" s="13"/>
       <c r="D75" s="42"/>
@@ -5285,7 +5542,7 @@
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="99"/>
+      <c r="A76" s="100"/>
       <c r="B76" s="42"/>
       <c r="C76" s="13"/>
       <c r="D76" s="42"/>
@@ -5294,7 +5551,7 @@
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="99"/>
+      <c r="A77" s="100"/>
       <c r="B77" s="42"/>
       <c r="C77" s="13"/>
       <c r="D77" s="42"/>
@@ -5303,7 +5560,7 @@
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="100"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
       <c r="D78" s="41"/>
@@ -5322,12 +5579,12 @@
       <c r="D79" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E79" s="95"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="97"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="98"/>
     </row>
     <row r="80" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="42"/>
       <c r="C80" s="13"/>
       <c r="D80" s="42"/>
@@ -5338,7 +5595,7 @@
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="99"/>
+      <c r="A81" s="100"/>
       <c r="B81" s="42"/>
       <c r="C81" s="13"/>
       <c r="D81" s="42"/>
@@ -5347,7 +5604,7 @@
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="99"/>
+      <c r="A82" s="100"/>
       <c r="B82" s="42"/>
       <c r="C82" s="13"/>
       <c r="D82" s="42"/>
@@ -5356,7 +5613,7 @@
       <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="99"/>
+      <c r="A83" s="100"/>
       <c r="B83" s="42"/>
       <c r="C83" s="13"/>
       <c r="D83" s="42"/>
@@ -5365,7 +5622,7 @@
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="99"/>
+      <c r="A84" s="100"/>
       <c r="B84" s="42"/>
       <c r="C84" s="13"/>
       <c r="D84" s="42"/>
@@ -5374,7 +5631,7 @@
       <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="99"/>
+      <c r="A85" s="100"/>
       <c r="B85" s="42"/>
       <c r="C85" s="13"/>
       <c r="D85" s="42"/>
@@ -5383,7 +5640,7 @@
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="100"/>
+      <c r="A86" s="101"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
       <c r="D86" s="41"/>
@@ -5402,12 +5659,12 @@
       <c r="D87" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E87" s="95"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="97"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="97"/>
+      <c r="G87" s="98"/>
     </row>
     <row r="88" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="98"/>
+      <c r="A88" s="99"/>
       <c r="B88" s="46"/>
       <c r="C88" s="13"/>
       <c r="D88" s="42"/>
@@ -5418,7 +5675,7 @@
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="99"/>
+      <c r="A89" s="100"/>
       <c r="B89" s="46"/>
       <c r="C89" s="13"/>
       <c r="D89" s="42"/>
@@ -5427,7 +5684,7 @@
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="99"/>
+      <c r="A90" s="100"/>
       <c r="B90" s="42"/>
       <c r="C90" s="13"/>
       <c r="D90" s="42"/>
@@ -5436,7 +5693,7 @@
       <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="99"/>
+      <c r="A91" s="100"/>
       <c r="B91" s="42"/>
       <c r="C91" s="13"/>
       <c r="D91" s="42"/>
@@ -5445,7 +5702,7 @@
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="99"/>
+      <c r="A92" s="100"/>
       <c r="B92" s="42"/>
       <c r="C92" s="13"/>
       <c r="D92" s="42"/>
@@ -5454,7 +5711,7 @@
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="99"/>
+      <c r="A93" s="100"/>
       <c r="B93" s="42"/>
       <c r="C93" s="13"/>
       <c r="D93" s="42"/>
@@ -5463,7 +5720,7 @@
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="100"/>
+      <c r="A94" s="101"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
       <c r="D94" s="41"/>
@@ -5482,14 +5739,14 @@
       <c r="D95" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E95" s="95" t="s">
+      <c r="E95" s="96" t="s">
         <v>510</v>
       </c>
-      <c r="F95" s="96"/>
-      <c r="G95" s="97"/>
+      <c r="F95" s="97"/>
+      <c r="G95" s="98"/>
     </row>
     <row r="96" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="98"/>
+      <c r="A96" s="99"/>
       <c r="B96" s="42"/>
       <c r="C96" s="13"/>
       <c r="D96" s="42"/>
@@ -5498,7 +5755,7 @@
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="99"/>
+      <c r="A97" s="100"/>
       <c r="B97" s="42"/>
       <c r="C97" s="13"/>
       <c r="D97" s="42"/>
@@ -5507,7 +5764,7 @@
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="99"/>
+      <c r="A98" s="100"/>
       <c r="B98" s="42"/>
       <c r="C98" s="13"/>
       <c r="D98" s="42"/>
@@ -5516,7 +5773,7 @@
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="99"/>
+      <c r="A99" s="100"/>
       <c r="B99" s="42"/>
       <c r="C99" s="13"/>
       <c r="D99" s="42"/>
@@ -5525,7 +5782,7 @@
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="99"/>
+      <c r="A100" s="100"/>
       <c r="B100" s="42"/>
       <c r="C100" s="13"/>
       <c r="D100" s="42"/>
@@ -5534,7 +5791,7 @@
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="99"/>
+      <c r="A101" s="100"/>
       <c r="B101" s="42"/>
       <c r="C101" s="13"/>
       <c r="D101" s="42"/>
@@ -5543,7 +5800,7 @@
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="100"/>
+      <c r="A102" s="101"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
       <c r="D102" s="41"/>
@@ -5562,12 +5819,12 @@
       <c r="D103" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E103" s="95"/>
-      <c r="F103" s="96"/>
-      <c r="G103" s="97"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="97"/>
+      <c r="G103" s="98"/>
     </row>
     <row r="104" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="98"/>
+      <c r="A104" s="99"/>
       <c r="B104" s="42"/>
       <c r="C104" s="13"/>
       <c r="D104" s="42"/>
@@ -5578,7 +5835,7 @@
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="99"/>
+      <c r="A105" s="100"/>
       <c r="B105" s="42"/>
       <c r="C105" s="13"/>
       <c r="D105" s="42"/>
@@ -5587,7 +5844,7 @@
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="99"/>
+      <c r="A106" s="100"/>
       <c r="B106" s="42"/>
       <c r="C106" s="13"/>
       <c r="D106" s="42"/>
@@ -5596,7 +5853,7 @@
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="99"/>
+      <c r="A107" s="100"/>
       <c r="B107" s="42"/>
       <c r="C107" s="13"/>
       <c r="D107" s="42"/>
@@ -5605,7 +5862,7 @@
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="99"/>
+      <c r="A108" s="100"/>
       <c r="B108" s="42"/>
       <c r="C108" s="13"/>
       <c r="D108" s="42"/>
@@ -5614,7 +5871,7 @@
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="99"/>
+      <c r="A109" s="100"/>
       <c r="B109" s="42"/>
       <c r="C109" s="13"/>
       <c r="D109" s="42"/>
@@ -5623,7 +5880,7 @@
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="100"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
       <c r="D110" s="41"/>
@@ -5642,12 +5899,12 @@
       <c r="D111" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E111" s="95"/>
-      <c r="F111" s="96"/>
-      <c r="G111" s="97"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="97"/>
+      <c r="G111" s="98"/>
     </row>
     <row r="112" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="98"/>
+      <c r="A112" s="99"/>
       <c r="B112" s="42"/>
       <c r="C112" s="13"/>
       <c r="D112" s="42"/>
@@ -5656,7 +5913,7 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="99"/>
+      <c r="A113" s="100"/>
       <c r="B113" s="42"/>
       <c r="C113" s="13"/>
       <c r="D113" s="42"/>
@@ -5665,7 +5922,7 @@
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="99"/>
+      <c r="A114" s="100"/>
       <c r="B114" s="42"/>
       <c r="C114" s="13"/>
       <c r="D114" s="42"/>
@@ -5674,7 +5931,7 @@
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="99"/>
+      <c r="A115" s="100"/>
       <c r="B115" s="42"/>
       <c r="C115" s="13"/>
       <c r="D115" s="42"/>
@@ -5683,7 +5940,7 @@
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="99"/>
+      <c r="A116" s="100"/>
       <c r="B116" s="42"/>
       <c r="C116" s="13"/>
       <c r="D116" s="42"/>
@@ -5692,7 +5949,7 @@
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="99"/>
+      <c r="A117" s="100"/>
       <c r="B117" s="42"/>
       <c r="C117" s="13"/>
       <c r="D117" s="42"/>
@@ -5701,7 +5958,7 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="100"/>
+      <c r="A118" s="101"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41"/>
       <c r="D118" s="41"/>
@@ -5720,12 +5977,12 @@
       <c r="D119" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E119" s="95"/>
-      <c r="F119" s="96"/>
-      <c r="G119" s="97"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="97"/>
+      <c r="G119" s="98"/>
     </row>
     <row r="120" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="98"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="42"/>
       <c r="C120" s="13"/>
       <c r="D120" s="42"/>
@@ -5736,7 +5993,7 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="99"/>
+      <c r="A121" s="100"/>
       <c r="B121" s="42"/>
       <c r="C121" s="13"/>
       <c r="D121" s="42"/>
@@ -5747,7 +6004,7 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="99"/>
+      <c r="A122" s="100"/>
       <c r="B122" s="42"/>
       <c r="C122" s="13"/>
       <c r="D122" s="42"/>
@@ -5758,7 +6015,7 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="99"/>
+      <c r="A123" s="100"/>
       <c r="B123" s="42"/>
       <c r="C123" s="13"/>
       <c r="D123" s="42"/>
@@ -5767,7 +6024,7 @@
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="99"/>
+      <c r="A124" s="100"/>
       <c r="B124" s="42"/>
       <c r="C124" s="13"/>
       <c r="D124" s="42"/>
@@ -5776,7 +6033,7 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="99"/>
+      <c r="A125" s="100"/>
       <c r="B125" s="42"/>
       <c r="C125" s="13"/>
       <c r="D125" s="42"/>
@@ -5785,7 +6042,7 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="100"/>
+      <c r="A126" s="101"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
       <c r="D126" s="41"/>
@@ -5804,12 +6061,12 @@
       <c r="D127" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E127" s="95"/>
-      <c r="F127" s="96"/>
-      <c r="G127" s="97"/>
+      <c r="E127" s="96"/>
+      <c r="F127" s="97"/>
+      <c r="G127" s="98"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="98"/>
+      <c r="A128" s="99"/>
       <c r="B128" s="42"/>
       <c r="C128" s="13"/>
       <c r="D128" s="42"/>
@@ -5820,7 +6077,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="99"/>
+      <c r="A129" s="100"/>
       <c r="B129" s="42"/>
       <c r="C129" s="13"/>
       <c r="D129" s="42"/>
@@ -5829,7 +6086,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="99"/>
+      <c r="A130" s="100"/>
       <c r="B130" s="42"/>
       <c r="C130" s="13"/>
       <c r="D130" s="42"/>
@@ -5838,7 +6095,7 @@
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="99"/>
+      <c r="A131" s="100"/>
       <c r="B131" s="42"/>
       <c r="C131" s="13"/>
       <c r="D131" s="42"/>
@@ -5847,7 +6104,7 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="99"/>
+      <c r="A132" s="100"/>
       <c r="B132" s="42"/>
       <c r="C132" s="13"/>
       <c r="D132" s="42"/>
@@ -5856,7 +6113,7 @@
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="99"/>
+      <c r="A133" s="100"/>
       <c r="B133" s="42"/>
       <c r="C133" s="13"/>
       <c r="D133" s="42"/>
@@ -5865,7 +6122,7 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="100"/>
+      <c r="A134" s="101"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
       <c r="D134" s="41"/>
@@ -5884,12 +6141,12 @@
       <c r="D135" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E135" s="95"/>
-      <c r="F135" s="96"/>
-      <c r="G135" s="97"/>
+      <c r="E135" s="96"/>
+      <c r="F135" s="97"/>
+      <c r="G135" s="98"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="98"/>
+      <c r="A136" s="99"/>
       <c r="B136" s="42"/>
       <c r="C136" s="13"/>
       <c r="D136" s="42"/>
@@ -5900,7 +6157,7 @@
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="99"/>
+      <c r="A137" s="100"/>
       <c r="B137" s="42"/>
       <c r="C137" s="13"/>
       <c r="D137" s="42"/>
@@ -5909,7 +6166,7 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="99"/>
+      <c r="A138" s="100"/>
       <c r="B138" s="42"/>
       <c r="C138" s="13"/>
       <c r="D138" s="42"/>
@@ -5918,7 +6175,7 @@
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="99"/>
+      <c r="A139" s="100"/>
       <c r="B139" s="42"/>
       <c r="C139" s="13"/>
       <c r="D139" s="42"/>
@@ -5927,7 +6184,7 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="99"/>
+      <c r="A140" s="100"/>
       <c r="B140" s="42"/>
       <c r="C140" s="13"/>
       <c r="D140" s="42"/>
@@ -5936,7 +6193,7 @@
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="99"/>
+      <c r="A141" s="100"/>
       <c r="B141" s="42"/>
       <c r="C141" s="13"/>
       <c r="D141" s="42"/>
@@ -5945,7 +6202,7 @@
       <c r="G141" s="13"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="100"/>
+      <c r="A142" s="101"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
       <c r="D142" s="41"/>
@@ -5964,12 +6221,12 @@
       <c r="D143" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E143" s="95"/>
-      <c r="F143" s="96"/>
-      <c r="G143" s="97"/>
+      <c r="E143" s="96"/>
+      <c r="F143" s="97"/>
+      <c r="G143" s="98"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="98"/>
+      <c r="A144" s="99"/>
       <c r="B144" s="42"/>
       <c r="C144" s="13"/>
       <c r="D144" s="42"/>
@@ -5980,7 +6237,7 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="99"/>
+      <c r="A145" s="100"/>
       <c r="B145" s="42"/>
       <c r="C145" s="13"/>
       <c r="D145" s="42"/>
@@ -5989,7 +6246,7 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="99"/>
+      <c r="A146" s="100"/>
       <c r="B146" s="42"/>
       <c r="C146" s="13"/>
       <c r="D146" s="42"/>
@@ -5998,7 +6255,7 @@
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="99"/>
+      <c r="A147" s="100"/>
       <c r="B147" s="42"/>
       <c r="C147" s="13"/>
       <c r="D147" s="42"/>
@@ -6007,7 +6264,7 @@
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="99"/>
+      <c r="A148" s="100"/>
       <c r="B148" s="42"/>
       <c r="C148" s="13"/>
       <c r="D148" s="42"/>
@@ -6016,7 +6273,7 @@
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="99"/>
+      <c r="A149" s="100"/>
       <c r="B149" s="42"/>
       <c r="C149" s="13"/>
       <c r="D149" s="42"/>
@@ -6025,7 +6282,7 @@
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="100"/>
+      <c r="A150" s="101"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
       <c r="D150" s="41"/>
@@ -6044,12 +6301,12 @@
       <c r="D151" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E151" s="95"/>
-      <c r="F151" s="96"/>
-      <c r="G151" s="97"/>
+      <c r="E151" s="96"/>
+      <c r="F151" s="97"/>
+      <c r="G151" s="98"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="98"/>
+      <c r="A152" s="99"/>
       <c r="B152" s="42"/>
       <c r="C152" s="13"/>
       <c r="D152" s="42"/>
@@ -6060,7 +6317,7 @@
       <c r="G152" s="13"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="99"/>
+      <c r="A153" s="100"/>
       <c r="B153" s="42"/>
       <c r="C153" s="13"/>
       <c r="D153" s="42"/>
@@ -6069,7 +6326,7 @@
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="99"/>
+      <c r="A154" s="100"/>
       <c r="B154" s="42"/>
       <c r="C154" s="13"/>
       <c r="D154" s="42"/>
@@ -6078,7 +6335,7 @@
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="99"/>
+      <c r="A155" s="100"/>
       <c r="B155" s="42"/>
       <c r="C155" s="13"/>
       <c r="D155" s="42"/>
@@ -6087,7 +6344,7 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="99"/>
+      <c r="A156" s="100"/>
       <c r="B156" s="42"/>
       <c r="C156" s="13"/>
       <c r="D156" s="42"/>
@@ -6096,7 +6353,7 @@
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="99"/>
+      <c r="A157" s="100"/>
       <c r="B157" s="42"/>
       <c r="C157" s="13"/>
       <c r="D157" s="42"/>
@@ -6105,7 +6362,7 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="100"/>
+      <c r="A158" s="101"/>
       <c r="B158" s="41"/>
       <c r="C158" s="41"/>
       <c r="D158" s="41"/>
@@ -6124,12 +6381,12 @@
       <c r="D159" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E159" s="95"/>
-      <c r="F159" s="96"/>
-      <c r="G159" s="97"/>
+      <c r="E159" s="96"/>
+      <c r="F159" s="97"/>
+      <c r="G159" s="98"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="98"/>
+      <c r="A160" s="99"/>
       <c r="B160" s="42"/>
       <c r="C160" s="13"/>
       <c r="D160" s="42"/>
@@ -6140,7 +6397,7 @@
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="99"/>
+      <c r="A161" s="100"/>
       <c r="B161" s="42"/>
       <c r="C161" s="13"/>
       <c r="D161" s="42"/>
@@ -6149,7 +6406,7 @@
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="99"/>
+      <c r="A162" s="100"/>
       <c r="B162" s="42"/>
       <c r="C162" s="13"/>
       <c r="D162" s="42"/>
@@ -6158,7 +6415,7 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="99"/>
+      <c r="A163" s="100"/>
       <c r="B163" s="42"/>
       <c r="C163" s="13"/>
       <c r="D163" s="42"/>
@@ -6167,7 +6424,7 @@
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="99"/>
+      <c r="A164" s="100"/>
       <c r="B164" s="42"/>
       <c r="C164" s="13"/>
       <c r="D164" s="42"/>
@@ -6176,7 +6433,7 @@
       <c r="G164" s="13"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="99"/>
+      <c r="A165" s="100"/>
       <c r="B165" s="42"/>
       <c r="C165" s="13"/>
       <c r="D165" s="42"/>
@@ -6185,7 +6442,7 @@
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="100"/>
+      <c r="A166" s="101"/>
       <c r="B166" s="41"/>
       <c r="C166" s="41"/>
       <c r="D166" s="41"/>
@@ -6204,12 +6461,12 @@
       <c r="D167" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E167" s="95"/>
-      <c r="F167" s="96"/>
-      <c r="G167" s="97"/>
+      <c r="E167" s="96"/>
+      <c r="F167" s="97"/>
+      <c r="G167" s="98"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="98"/>
+      <c r="A168" s="99"/>
       <c r="B168" s="42"/>
       <c r="C168" s="13"/>
       <c r="D168" s="42"/>
@@ -6220,7 +6477,7 @@
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="99"/>
+      <c r="A169" s="100"/>
       <c r="B169" s="42"/>
       <c r="C169" s="13"/>
       <c r="D169" s="42"/>
@@ -6231,7 +6488,7 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="99"/>
+      <c r="A170" s="100"/>
       <c r="B170" s="42"/>
       <c r="C170" s="13"/>
       <c r="D170" s="42"/>
@@ -6242,7 +6499,7 @@
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="99"/>
+      <c r="A171" s="100"/>
       <c r="B171" s="42"/>
       <c r="C171" s="13"/>
       <c r="D171" s="42"/>
@@ -6251,7 +6508,7 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="99"/>
+      <c r="A172" s="100"/>
       <c r="B172" s="42"/>
       <c r="C172" s="13"/>
       <c r="D172" s="42"/>
@@ -6260,7 +6517,7 @@
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="99"/>
+      <c r="A173" s="100"/>
       <c r="B173" s="42"/>
       <c r="C173" s="13"/>
       <c r="D173" s="42"/>
@@ -6269,7 +6526,7 @@
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="100"/>
+      <c r="A174" s="101"/>
       <c r="B174" s="41"/>
       <c r="C174" s="41"/>
       <c r="D174" s="41"/>
@@ -6288,12 +6545,12 @@
       <c r="D175" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E175" s="95"/>
-      <c r="F175" s="96"/>
-      <c r="G175" s="97"/>
+      <c r="E175" s="96"/>
+      <c r="F175" s="97"/>
+      <c r="G175" s="98"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="98"/>
+      <c r="A176" s="99"/>
       <c r="B176" s="42"/>
       <c r="C176" s="13"/>
       <c r="D176" s="42"/>
@@ -6304,7 +6561,7 @@
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="99"/>
+      <c r="A177" s="100"/>
       <c r="B177" s="42"/>
       <c r="C177" s="13"/>
       <c r="D177" s="42"/>
@@ -6313,7 +6570,7 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="99"/>
+      <c r="A178" s="100"/>
       <c r="B178" s="42"/>
       <c r="C178" s="13"/>
       <c r="D178" s="42"/>
@@ -6322,7 +6579,7 @@
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="99"/>
+      <c r="A179" s="100"/>
       <c r="B179" s="42"/>
       <c r="C179" s="13"/>
       <c r="D179" s="42"/>
@@ -6331,7 +6588,7 @@
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="99"/>
+      <c r="A180" s="100"/>
       <c r="B180" s="42"/>
       <c r="C180" s="13"/>
       <c r="D180" s="42"/>
@@ -6340,7 +6597,7 @@
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="99"/>
+      <c r="A181" s="100"/>
       <c r="B181" s="42"/>
       <c r="C181" s="13"/>
       <c r="D181" s="42"/>
@@ -6349,7 +6606,7 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="100"/>
+      <c r="A182" s="101"/>
       <c r="B182" s="41"/>
       <c r="C182" s="41"/>
       <c r="D182" s="41"/>
@@ -6368,12 +6625,12 @@
       <c r="D183" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E183" s="95"/>
-      <c r="F183" s="96"/>
-      <c r="G183" s="97"/>
+      <c r="E183" s="96"/>
+      <c r="F183" s="97"/>
+      <c r="G183" s="98"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="98"/>
+      <c r="A184" s="99"/>
       <c r="B184" s="42"/>
       <c r="C184" s="13"/>
       <c r="D184" s="42"/>
@@ -6384,7 +6641,7 @@
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="99"/>
+      <c r="A185" s="100"/>
       <c r="B185" s="42"/>
       <c r="C185" s="13"/>
       <c r="D185" s="42"/>
@@ -6393,7 +6650,7 @@
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="99"/>
+      <c r="A186" s="100"/>
       <c r="B186" s="42"/>
       <c r="C186" s="13"/>
       <c r="D186" s="42"/>
@@ -6402,7 +6659,7 @@
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="99"/>
+      <c r="A187" s="100"/>
       <c r="B187" s="42"/>
       <c r="C187" s="13"/>
       <c r="D187" s="42"/>
@@ -6411,7 +6668,7 @@
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="99"/>
+      <c r="A188" s="100"/>
       <c r="B188" s="42"/>
       <c r="C188" s="13"/>
       <c r="D188" s="42"/>
@@ -6420,7 +6677,7 @@
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="99"/>
+      <c r="A189" s="100"/>
       <c r="B189" s="42"/>
       <c r="C189" s="13"/>
       <c r="D189" s="42"/>
@@ -6429,7 +6686,7 @@
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="100"/>
+      <c r="A190" s="101"/>
       <c r="B190" s="41"/>
       <c r="C190" s="41"/>
       <c r="D190" s="41"/>
@@ -6448,12 +6705,12 @@
       <c r="D191" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E191" s="95"/>
-      <c r="F191" s="96"/>
-      <c r="G191" s="97"/>
+      <c r="E191" s="96"/>
+      <c r="F191" s="97"/>
+      <c r="G191" s="98"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="98"/>
+      <c r="A192" s="99"/>
       <c r="B192" s="42"/>
       <c r="C192" s="13"/>
       <c r="D192" s="42"/>
@@ -6464,7 +6721,7 @@
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="99"/>
+      <c r="A193" s="100"/>
       <c r="B193" s="42"/>
       <c r="C193" s="13"/>
       <c r="D193" s="42"/>
@@ -6473,7 +6730,7 @@
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="99"/>
+      <c r="A194" s="100"/>
       <c r="B194" s="42"/>
       <c r="C194" s="13"/>
       <c r="D194" s="42"/>
@@ -6482,7 +6739,7 @@
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="99"/>
+      <c r="A195" s="100"/>
       <c r="B195" s="42"/>
       <c r="C195" s="13"/>
       <c r="D195" s="42"/>
@@ -6491,7 +6748,7 @@
       <c r="G195" s="13"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="99"/>
+      <c r="A196" s="100"/>
       <c r="B196" s="42"/>
       <c r="C196" s="13"/>
       <c r="D196" s="42"/>
@@ -6500,7 +6757,7 @@
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="99"/>
+      <c r="A197" s="100"/>
       <c r="B197" s="42"/>
       <c r="C197" s="13"/>
       <c r="D197" s="42"/>
@@ -6509,7 +6766,7 @@
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="100"/>
+      <c r="A198" s="101"/>
       <c r="B198" s="41"/>
       <c r="C198" s="41"/>
       <c r="D198" s="41"/>
@@ -6528,12 +6785,12 @@
       <c r="D199" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E199" s="95"/>
-      <c r="F199" s="96"/>
-      <c r="G199" s="97"/>
+      <c r="E199" s="96"/>
+      <c r="F199" s="97"/>
+      <c r="G199" s="98"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="98"/>
+      <c r="A200" s="99"/>
       <c r="B200" s="42"/>
       <c r="C200" s="13"/>
       <c r="D200" s="42"/>
@@ -6542,7 +6799,7 @@
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="99"/>
+      <c r="A201" s="100"/>
       <c r="B201" s="42"/>
       <c r="C201" s="13"/>
       <c r="D201" s="42"/>
@@ -6551,7 +6808,7 @@
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="99"/>
+      <c r="A202" s="100"/>
       <c r="B202" s="42"/>
       <c r="C202" s="13"/>
       <c r="D202" s="42"/>
@@ -6560,7 +6817,7 @@
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="99"/>
+      <c r="A203" s="100"/>
       <c r="B203" s="42"/>
       <c r="C203" s="13"/>
       <c r="D203" s="42"/>
@@ -6569,7 +6826,7 @@
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="99"/>
+      <c r="A204" s="100"/>
       <c r="B204" s="42"/>
       <c r="C204" s="13"/>
       <c r="D204" s="42"/>
@@ -6578,7 +6835,7 @@
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="99"/>
+      <c r="A205" s="100"/>
       <c r="B205" s="42"/>
       <c r="C205" s="13"/>
       <c r="D205" s="42"/>
@@ -6587,7 +6844,7 @@
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="100"/>
+      <c r="A206" s="101"/>
       <c r="B206" s="41"/>
       <c r="C206" s="41"/>
       <c r="D206" s="41"/>
@@ -6606,12 +6863,12 @@
       <c r="D207" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E207" s="95"/>
-      <c r="F207" s="96"/>
-      <c r="G207" s="97"/>
+      <c r="E207" s="96"/>
+      <c r="F207" s="97"/>
+      <c r="G207" s="98"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="98"/>
+      <c r="A208" s="99"/>
       <c r="B208" s="42"/>
       <c r="C208" s="13"/>
       <c r="D208" s="42"/>
@@ -6620,7 +6877,7 @@
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="99"/>
+      <c r="A209" s="100"/>
       <c r="B209" s="42"/>
       <c r="C209" s="13"/>
       <c r="D209" s="42"/>
@@ -6629,7 +6886,7 @@
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="99"/>
+      <c r="A210" s="100"/>
       <c r="B210" s="42"/>
       <c r="C210" s="13"/>
       <c r="D210" s="42"/>
@@ -6638,7 +6895,7 @@
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="99"/>
+      <c r="A211" s="100"/>
       <c r="B211" s="42"/>
       <c r="C211" s="13"/>
       <c r="D211" s="42"/>
@@ -6647,7 +6904,7 @@
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="99"/>
+      <c r="A212" s="100"/>
       <c r="B212" s="42"/>
       <c r="C212" s="13"/>
       <c r="D212" s="42"/>
@@ -6656,7 +6913,7 @@
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="99"/>
+      <c r="A213" s="100"/>
       <c r="B213" s="42"/>
       <c r="C213" s="13"/>
       <c r="D213" s="42"/>
@@ -6665,7 +6922,7 @@
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="100"/>
+      <c r="A214" s="101"/>
       <c r="B214" s="41"/>
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
@@ -6684,12 +6941,12 @@
       <c r="D215" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E215" s="95"/>
-      <c r="F215" s="96"/>
-      <c r="G215" s="97"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="97"/>
+      <c r="G215" s="98"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="98"/>
+      <c r="A216" s="99"/>
       <c r="B216" s="42"/>
       <c r="C216" s="13"/>
       <c r="D216" s="42"/>
@@ -6700,7 +6957,7 @@
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="99"/>
+      <c r="A217" s="100"/>
       <c r="B217" s="42"/>
       <c r="C217" s="13"/>
       <c r="D217" s="42"/>
@@ -6711,7 +6968,7 @@
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="99"/>
+      <c r="A218" s="100"/>
       <c r="B218" s="42"/>
       <c r="C218" s="13"/>
       <c r="D218" s="42"/>
@@ -6722,7 +6979,7 @@
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="99"/>
+      <c r="A219" s="100"/>
       <c r="B219" s="42"/>
       <c r="C219" s="13"/>
       <c r="D219" s="42"/>
@@ -6731,7 +6988,7 @@
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="99"/>
+      <c r="A220" s="100"/>
       <c r="B220" s="42"/>
       <c r="C220" s="13"/>
       <c r="D220" s="42"/>
@@ -6740,7 +6997,7 @@
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="99"/>
+      <c r="A221" s="100"/>
       <c r="B221" s="42"/>
       <c r="C221" s="13"/>
       <c r="D221" s="42"/>
@@ -6749,7 +7006,7 @@
       <c r="G221" s="13"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="100"/>
+      <c r="A222" s="101"/>
       <c r="B222" s="41"/>
       <c r="C222" s="41"/>
       <c r="D222" s="41"/>
@@ -6768,12 +7025,12 @@
       <c r="D223" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E223" s="95"/>
-      <c r="F223" s="96"/>
-      <c r="G223" s="97"/>
+      <c r="E223" s="96"/>
+      <c r="F223" s="97"/>
+      <c r="G223" s="98"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="98"/>
+      <c r="A224" s="99"/>
       <c r="B224" s="42"/>
       <c r="C224" s="13"/>
       <c r="D224" s="42"/>
@@ -6784,7 +7041,7 @@
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="99"/>
+      <c r="A225" s="100"/>
       <c r="B225" s="42"/>
       <c r="C225" s="13"/>
       <c r="D225" s="42"/>
@@ -6795,7 +7052,7 @@
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="99"/>
+      <c r="A226" s="100"/>
       <c r="B226" s="42"/>
       <c r="C226" s="13"/>
       <c r="D226" s="42"/>
@@ -6806,7 +7063,7 @@
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="99"/>
+      <c r="A227" s="100"/>
       <c r="B227" s="42"/>
       <c r="C227" s="13"/>
       <c r="D227" s="42"/>
@@ -6815,7 +7072,7 @@
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="99"/>
+      <c r="A228" s="100"/>
       <c r="B228" s="42"/>
       <c r="C228" s="13"/>
       <c r="D228" s="42"/>
@@ -6824,7 +7081,7 @@
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="99"/>
+      <c r="A229" s="100"/>
       <c r="B229" s="42"/>
       <c r="C229" s="13"/>
       <c r="D229" s="42"/>
@@ -6833,7 +7090,7 @@
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="100"/>
+      <c r="A230" s="101"/>
       <c r="B230" s="41"/>
       <c r="C230" s="41"/>
       <c r="D230" s="41"/>
@@ -6852,12 +7109,12 @@
       <c r="D231" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E231" s="95"/>
-      <c r="F231" s="96"/>
-      <c r="G231" s="97"/>
+      <c r="E231" s="96"/>
+      <c r="F231" s="97"/>
+      <c r="G231" s="98"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="98"/>
+      <c r="A232" s="99"/>
       <c r="B232" s="42"/>
       <c r="C232" s="13"/>
       <c r="D232" s="42"/>
@@ -6868,7 +7125,7 @@
       <c r="G232" s="13"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="99"/>
+      <c r="A233" s="100"/>
       <c r="B233" s="42"/>
       <c r="C233" s="13"/>
       <c r="D233" s="42"/>
@@ -6879,7 +7136,7 @@
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="99"/>
+      <c r="A234" s="100"/>
       <c r="B234" s="42"/>
       <c r="C234" s="13"/>
       <c r="D234" s="42"/>
@@ -6890,7 +7147,7 @@
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="99"/>
+      <c r="A235" s="100"/>
       <c r="B235" s="42"/>
       <c r="C235" s="13"/>
       <c r="D235" s="42"/>
@@ -6899,7 +7156,7 @@
       <c r="G235" s="13"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="99"/>
+      <c r="A236" s="100"/>
       <c r="B236" s="42"/>
       <c r="C236" s="13"/>
       <c r="D236" s="42"/>
@@ -6908,7 +7165,7 @@
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="99"/>
+      <c r="A237" s="100"/>
       <c r="B237" s="42"/>
       <c r="C237" s="13"/>
       <c r="D237" s="42"/>
@@ -6917,7 +7174,7 @@
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="100"/>
+      <c r="A238" s="101"/>
       <c r="B238" s="41"/>
       <c r="C238" s="41"/>
       <c r="D238" s="41"/>
@@ -6936,12 +7193,12 @@
       <c r="D239" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E239" s="95"/>
-      <c r="F239" s="96"/>
-      <c r="G239" s="97"/>
+      <c r="E239" s="96"/>
+      <c r="F239" s="97"/>
+      <c r="G239" s="98"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="98"/>
+      <c r="A240" s="99"/>
       <c r="B240" s="42"/>
       <c r="C240" s="13"/>
       <c r="D240" s="42"/>
@@ -6952,7 +7209,7 @@
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="99"/>
+      <c r="A241" s="100"/>
       <c r="B241" s="42"/>
       <c r="C241" s="13"/>
       <c r="D241" s="42"/>
@@ -6963,7 +7220,7 @@
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="99"/>
+      <c r="A242" s="100"/>
       <c r="B242" s="42"/>
       <c r="C242" s="13"/>
       <c r="D242" s="42"/>
@@ -6974,7 +7231,7 @@
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="99"/>
+      <c r="A243" s="100"/>
       <c r="B243" s="42"/>
       <c r="C243" s="13"/>
       <c r="D243" s="42"/>
@@ -6983,7 +7240,7 @@
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="99"/>
+      <c r="A244" s="100"/>
       <c r="B244" s="42"/>
       <c r="C244" s="13"/>
       <c r="D244" s="42"/>
@@ -6992,7 +7249,7 @@
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="99"/>
+      <c r="A245" s="100"/>
       <c r="B245" s="42"/>
       <c r="C245" s="13"/>
       <c r="D245" s="42"/>
@@ -7001,7 +7258,7 @@
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="100"/>
+      <c r="A246" s="101"/>
       <c r="B246" s="41"/>
       <c r="C246" s="41"/>
       <c r="D246" s="41"/>
@@ -7020,12 +7277,12 @@
       <c r="D247" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E247" s="95"/>
-      <c r="F247" s="96"/>
-      <c r="G247" s="97"/>
+      <c r="E247" s="96"/>
+      <c r="F247" s="97"/>
+      <c r="G247" s="98"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="98"/>
+      <c r="A248" s="99"/>
       <c r="B248" s="42"/>
       <c r="C248" s="13"/>
       <c r="D248" s="42"/>
@@ -7036,7 +7293,7 @@
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="99"/>
+      <c r="A249" s="100"/>
       <c r="B249" s="42"/>
       <c r="C249" s="13"/>
       <c r="D249" s="42"/>
@@ -7045,7 +7302,7 @@
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="99"/>
+      <c r="A250" s="100"/>
       <c r="B250" s="42"/>
       <c r="C250" s="13"/>
       <c r="D250" s="42"/>
@@ -7054,7 +7311,7 @@
       <c r="G250" s="13"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="99"/>
+      <c r="A251" s="100"/>
       <c r="B251" s="42"/>
       <c r="C251" s="13"/>
       <c r="D251" s="42"/>
@@ -7063,7 +7320,7 @@
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="99"/>
+      <c r="A252" s="100"/>
       <c r="B252" s="42"/>
       <c r="C252" s="13"/>
       <c r="D252" s="42"/>
@@ -7072,7 +7329,7 @@
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="99"/>
+      <c r="A253" s="100"/>
       <c r="B253" s="42"/>
       <c r="C253" s="13"/>
       <c r="D253" s="42"/>
@@ -7081,7 +7338,7 @@
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="100"/>
+      <c r="A254" s="101"/>
       <c r="B254" s="41"/>
       <c r="C254" s="41"/>
       <c r="D254" s="41"/>
@@ -7232,15 +7489,48 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A240:A246"/>
-    <mergeCell ref="E247:G247"/>
-    <mergeCell ref="A248:A254"/>
-    <mergeCell ref="A216:A222"/>
-    <mergeCell ref="E223:G223"/>
-    <mergeCell ref="A224:A230"/>
-    <mergeCell ref="E231:G231"/>
-    <mergeCell ref="A232:A238"/>
-    <mergeCell ref="E239:G239"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="A144:A150"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="A160:A166"/>
     <mergeCell ref="E215:G215"/>
     <mergeCell ref="A168:A174"/>
     <mergeCell ref="E175:G175"/>
@@ -7253,48 +7543,15 @@
     <mergeCell ref="A200:A206"/>
     <mergeCell ref="E207:G207"/>
     <mergeCell ref="A208:A214"/>
-    <mergeCell ref="E167:G167"/>
-    <mergeCell ref="A120:A126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="E135:G135"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="A144:A150"/>
-    <mergeCell ref="E151:G151"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="A160:A166"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A240:A246"/>
+    <mergeCell ref="E247:G247"/>
+    <mergeCell ref="A248:A254"/>
+    <mergeCell ref="A216:A222"/>
+    <mergeCell ref="E223:G223"/>
+    <mergeCell ref="A224:A230"/>
+    <mergeCell ref="E231:G231"/>
+    <mergeCell ref="A232:A238"/>
+    <mergeCell ref="E239:G239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7305,8 +7562,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="81.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7323,61 +7580,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -9591,10 +9848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9607,18 +9864,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -9955,6 +10212,486 @@
         <v>328</v>
       </c>
       <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
+        <v>555</v>
+      </c>
+      <c r="B25" t="s">
+        <v>523</v>
+      </c>
+      <c r="C25" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>524</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
+        <v>558</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="C29" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="68" t="s">
+        <v>560</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>528</v>
+      </c>
+      <c r="C30" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
+        <v>561</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>529</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="68" t="s">
+        <v>562</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>531</v>
+      </c>
+      <c r="C33" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
+        <v>564</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>532</v>
+      </c>
+      <c r="C34" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="68" t="s">
+        <v>565</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>533</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="68" t="s">
+        <v>566</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="68" t="s">
+        <v>567</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>535</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="68" t="s">
+        <v>568</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>536</v>
+      </c>
+      <c r="C38" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>537</v>
+      </c>
+      <c r="C39" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="68" t="s">
+        <v>570</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="C40" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="68" t="s">
+        <v>571</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>539</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>541</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="68" t="s">
+        <v>574</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="68" t="s">
+        <v>575</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="C45" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="68" t="s">
+        <v>576</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>545</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="68" t="s">
+        <v>578</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="C48" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="68" t="s">
+        <v>579</v>
+      </c>
+      <c r="B49" s="76" t="s">
+        <v>547</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="68" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" s="76" t="s">
+        <v>548</v>
+      </c>
+      <c r="C50" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="68" t="s">
+        <v>581</v>
+      </c>
+      <c r="B51" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="C51" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="68" t="s">
+        <v>582</v>
+      </c>
+      <c r="B52" s="76" t="s">
+        <v>550</v>
+      </c>
+      <c r="C52" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="68" t="s">
+        <v>583</v>
+      </c>
+      <c r="B53" s="76" t="s">
+        <v>551</v>
+      </c>
+      <c r="C53" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="68" t="s">
+        <v>584</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>552</v>
+      </c>
+      <c r="C54" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="68" t="s">
+        <v>585</v>
+      </c>
+      <c r="B55" s="76" t="s">
+        <v>553</v>
+      </c>
+      <c r="C55" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B56" s="76" t="s">
+        <v>554</v>
+      </c>
+      <c r="C56" s="102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9984,51 +10721,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -10062,12 +10799,12 @@
         <v>5</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="5" t="s">
         <v>115</v>
       </c>
@@ -10084,7 +10821,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="5" t="s">
         <v>116</v>
       </c>
@@ -10101,7 +10838,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="5" t="s">
         <v>117</v>
       </c>
@@ -10118,7 +10855,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="5" t="s">
         <v>118</v>
       </c>
@@ -10137,7 +10874,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
@@ -10146,7 +10883,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
@@ -10155,7 +10892,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="9"/>
       <c r="C14" s="19"/>
       <c r="D14" s="9"/>
@@ -10176,7 +10913,7 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="34" t="s">
         <v>115</v>
       </c>
@@ -10195,7 +10932,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="21"/>
       <c r="C17" s="1"/>
       <c r="D17" s="21"/>
@@ -10204,7 +10941,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="21"/>
       <c r="C18" s="1"/>
       <c r="D18" s="21"/>
@@ -10213,7 +10950,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="21"/>
       <c r="C19" s="1"/>
       <c r="D19" s="21"/>
@@ -10222,7 +10959,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="21"/>
       <c r="C20" s="1"/>
       <c r="D20" s="21"/>
@@ -10231,7 +10968,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="21"/>
       <c r="C21" s="1"/>
       <c r="D21" s="21"/>
@@ -10240,7 +10977,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="9"/>
       <c r="C22" s="19"/>
       <c r="D22" s="9"/>
@@ -10261,7 +10998,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="34" t="s">
         <v>115</v>
       </c>
@@ -10278,7 +11015,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="21"/>
       <c r="C25" s="1"/>
       <c r="D25" s="21"/>
@@ -10287,7 +11024,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="21"/>
       <c r="C26" s="1"/>
       <c r="D26" s="21"/>
@@ -10296,7 +11033,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="21"/>
       <c r="C27" s="1"/>
       <c r="D27" s="21"/>
@@ -10305,7 +11042,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="21"/>
       <c r="C28" s="1"/>
       <c r="D28" s="21"/>
@@ -10314,7 +11051,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="21"/>
       <c r="C29" s="1"/>
       <c r="D29" s="21"/>
@@ -10323,7 +11060,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="9"/>
       <c r="C30" s="19"/>
       <c r="D30" s="9"/>
@@ -10344,7 +11081,7 @@
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="34" t="s">
         <v>115</v>
       </c>
@@ -10361,7 +11098,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="34"/>
       <c r="C33" s="1"/>
       <c r="D33" s="34"/>
@@ -10370,7 +11107,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="34"/>
       <c r="C34" s="1"/>
       <c r="D34" s="34"/>
@@ -10379,7 +11116,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="34"/>
       <c r="C35" s="1"/>
       <c r="D35" s="34"/>
@@ -10388,7 +11125,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="34"/>
       <c r="C36" s="1"/>
       <c r="D36" s="34"/>
@@ -10397,7 +11134,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="34"/>
       <c r="C37" s="1"/>
       <c r="D37" s="34"/>
@@ -10406,7 +11143,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="9"/>
       <c r="C38" s="19"/>
       <c r="D38" s="9"/>
@@ -10428,7 +11165,7 @@
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="5" t="s">
         <v>115</v>
       </c>
@@ -10445,7 +11182,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="5" t="s">
         <v>116</v>
       </c>
@@ -10462,7 +11199,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
@@ -10471,7 +11208,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1"/>
       <c r="D43" s="5"/>
@@ -10480,7 +11217,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="5"/>
@@ -10489,7 +11226,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="5"/>
@@ -10498,7 +11235,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="9"/>
       <c r="C46" s="19"/>
       <c r="D46" s="9"/>
@@ -10519,7 +11256,7 @@
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="34" t="s">
         <v>115</v>
       </c>
@@ -10536,7 +11273,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="34"/>
       <c r="C49" s="1"/>
       <c r="D49" s="34"/>
@@ -10545,7 +11282,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="34"/>
       <c r="C50" s="1"/>
       <c r="D50" s="34"/>
@@ -10554,7 +11291,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="34"/>
       <c r="C51" s="1"/>
       <c r="D51" s="34"/>
@@ -10563,7 +11300,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="9"/>
       <c r="C52" s="19"/>
       <c r="D52" s="9"/>
@@ -10585,7 +11322,7 @@
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="47" t="s">
         <v>115</v>
       </c>
@@ -10602,7 +11339,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="47" t="s">
         <v>116</v>
       </c>
@@ -10619,7 +11356,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
+      <c r="A56" s="85"/>
       <c r="B56" s="47" t="s">
         <v>117</v>
       </c>
@@ -10636,7 +11373,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="34"/>
       <c r="C57" s="1"/>
       <c r="D57" s="34"/>
@@ -10645,7 +11382,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="34"/>
       <c r="C58" s="1"/>
       <c r="D58" s="34"/>
@@ -10654,7 +11391,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="34"/>
       <c r="C59" s="1"/>
       <c r="D59" s="34"/>
@@ -10663,7 +11400,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="9"/>
       <c r="C60" s="19"/>
       <c r="D60" s="9"/>
@@ -10685,7 +11422,7 @@
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="82"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="47" t="s">
         <v>115</v>
       </c>
@@ -10702,7 +11439,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="47" t="s">
         <v>116</v>
       </c>
@@ -10719,7 +11456,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="47" t="s">
         <v>117</v>
       </c>
@@ -10736,7 +11473,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="34"/>
       <c r="C65" s="1"/>
       <c r="D65" s="34"/>
@@ -10745,7 +11482,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="34"/>
       <c r="C66" s="1"/>
       <c r="D66" s="34"/>
@@ -10754,7 +11491,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
+      <c r="A67" s="85"/>
       <c r="B67" s="34"/>
       <c r="C67" s="1"/>
       <c r="D67" s="34"/>
@@ -10763,7 +11500,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="9"/>
       <c r="C68" s="19"/>
       <c r="D68" s="9"/>
@@ -10781,7 +11518,7 @@
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="82"/>
+      <c r="A70" s="84"/>
       <c r="B70" s="34"/>
       <c r="C70" s="1"/>
       <c r="D70" s="34"/>
@@ -10790,7 +11527,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="34"/>
       <c r="C71" s="1"/>
       <c r="D71" s="34"/>
@@ -10799,7 +11536,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="34"/>
       <c r="C72" s="1"/>
       <c r="D72" s="34"/>
@@ -10808,7 +11545,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="34"/>
       <c r="C73" s="1"/>
       <c r="D73" s="34"/>
@@ -10817,7 +11554,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="34"/>
       <c r="C74" s="1"/>
       <c r="D74" s="34"/>
@@ -10826,7 +11563,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="34"/>
       <c r="C75" s="1"/>
       <c r="D75" s="34"/>
@@ -10835,7 +11572,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="84"/>
+      <c r="A76" s="86"/>
       <c r="B76" s="9"/>
       <c r="C76" s="19"/>
       <c r="D76" s="9"/>
@@ -10852,7 +11589,7 @@
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="82"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="34"/>
       <c r="C78" s="1"/>
       <c r="D78" s="34"/>
@@ -10861,7 +11598,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="83"/>
+      <c r="A79" s="85"/>
       <c r="B79" s="34"/>
       <c r="C79" s="1"/>
       <c r="D79" s="34"/>
@@ -10870,7 +11607,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
+      <c r="A80" s="85"/>
       <c r="B80" s="34"/>
       <c r="C80" s="1"/>
       <c r="D80" s="34"/>
@@ -10879,7 +11616,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="83"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="34"/>
       <c r="C81" s="1"/>
       <c r="D81" s="34"/>
@@ -10888,7 +11625,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="83"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="34"/>
       <c r="C82" s="1"/>
       <c r="D82" s="34"/>
@@ -10897,7 +11634,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="83"/>
+      <c r="A83" s="85"/>
       <c r="B83" s="34"/>
       <c r="C83" s="1"/>
       <c r="D83" s="34"/>
@@ -10906,7 +11643,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="84"/>
+      <c r="A84" s="86"/>
       <c r="B84" s="9"/>
       <c r="C84" s="19"/>
       <c r="D84" s="9"/>
@@ -10923,7 +11660,7 @@
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="82"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="34"/>
       <c r="C86" s="1"/>
       <c r="D86" s="34"/>
@@ -10932,7 +11669,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="83"/>
+      <c r="A87" s="85"/>
       <c r="B87" s="34"/>
       <c r="C87" s="1"/>
       <c r="D87" s="34"/>
@@ -10941,7 +11678,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="34"/>
       <c r="C88" s="1"/>
       <c r="D88" s="34"/>
@@ -10950,7 +11687,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
+      <c r="A89" s="85"/>
       <c r="B89" s="34"/>
       <c r="C89" s="1"/>
       <c r="D89" s="34"/>
@@ -10959,7 +11696,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="34"/>
       <c r="C90" s="1"/>
       <c r="D90" s="34"/>
@@ -10968,7 +11705,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="83"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="34"/>
       <c r="C91" s="1"/>
       <c r="D91" s="34"/>
@@ -10977,7 +11714,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
+      <c r="A92" s="86"/>
       <c r="B92" s="9"/>
       <c r="C92" s="19"/>
       <c r="D92" s="9"/>
@@ -10994,7 +11731,7 @@
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="82"/>
+      <c r="A94" s="84"/>
       <c r="B94" s="34"/>
       <c r="C94" s="1"/>
       <c r="D94" s="34"/>
@@ -11003,7 +11740,7 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="83"/>
+      <c r="A95" s="85"/>
       <c r="B95" s="34"/>
       <c r="C95" s="1"/>
       <c r="D95" s="34"/>
@@ -11012,7 +11749,7 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
+      <c r="A96" s="85"/>
       <c r="B96" s="34"/>
       <c r="C96" s="1"/>
       <c r="D96" s="34"/>
@@ -11021,7 +11758,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
+      <c r="A97" s="85"/>
       <c r="B97" s="34"/>
       <c r="C97" s="1"/>
       <c r="D97" s="34"/>
@@ -11030,7 +11767,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="83"/>
+      <c r="A98" s="85"/>
       <c r="B98" s="34"/>
       <c r="C98" s="1"/>
       <c r="D98" s="34"/>
@@ -11039,7 +11776,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="83"/>
+      <c r="A99" s="85"/>
       <c r="B99" s="34"/>
       <c r="C99" s="1"/>
       <c r="D99" s="34"/>
@@ -11048,7 +11785,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
+      <c r="A100" s="86"/>
       <c r="B100" s="9"/>
       <c r="C100" s="19"/>
       <c r="D100" s="9"/>
@@ -11066,7 +11803,7 @@
       <c r="G101" s="9"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="82"/>
+      <c r="A102" s="84"/>
       <c r="B102" s="34"/>
       <c r="C102" s="1"/>
       <c r="D102" s="34"/>
@@ -11075,7 +11812,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="83"/>
+      <c r="A103" s="85"/>
       <c r="B103" s="34"/>
       <c r="C103" s="1"/>
       <c r="D103" s="34"/>
@@ -11084,7 +11821,7 @@
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="83"/>
+      <c r="A104" s="85"/>
       <c r="B104" s="34"/>
       <c r="C104" s="1"/>
       <c r="D104" s="34"/>
@@ -11093,7 +11830,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="83"/>
+      <c r="A105" s="85"/>
       <c r="B105" s="34"/>
       <c r="C105" s="1"/>
       <c r="D105" s="34"/>
@@ -11102,7 +11839,7 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
+      <c r="A106" s="85"/>
       <c r="B106" s="34"/>
       <c r="C106" s="1"/>
       <c r="D106" s="34"/>
@@ -11111,7 +11848,7 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="83"/>
+      <c r="A107" s="85"/>
       <c r="B107" s="34"/>
       <c r="C107" s="1"/>
       <c r="D107" s="34"/>
@@ -11120,7 +11857,7 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="84"/>
+      <c r="A108" s="86"/>
       <c r="B108" s="9"/>
       <c r="C108" s="19"/>
       <c r="D108" s="9"/>
@@ -11138,7 +11875,7 @@
       <c r="G109" s="9"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="82"/>
+      <c r="A110" s="84"/>
       <c r="B110" s="34"/>
       <c r="C110" s="1"/>
       <c r="D110" s="34"/>
@@ -11147,7 +11884,7 @@
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="83"/>
+      <c r="A111" s="85"/>
       <c r="B111" s="34"/>
       <c r="C111" s="1"/>
       <c r="D111" s="34"/>
@@ -11156,7 +11893,7 @@
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="83"/>
+      <c r="A112" s="85"/>
       <c r="B112" s="34"/>
       <c r="C112" s="1"/>
       <c r="D112" s="34"/>
@@ -11165,7 +11902,7 @@
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="83"/>
+      <c r="A113" s="85"/>
       <c r="B113" s="34"/>
       <c r="C113" s="1"/>
       <c r="D113" s="34"/>
@@ -11174,7 +11911,7 @@
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="83"/>
+      <c r="A114" s="85"/>
       <c r="B114" s="34"/>
       <c r="C114" s="1"/>
       <c r="D114" s="34"/>
@@ -11183,7 +11920,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="83"/>
+      <c r="A115" s="85"/>
       <c r="B115" s="34"/>
       <c r="C115" s="1"/>
       <c r="D115" s="34"/>
@@ -11192,7 +11929,7 @@
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="84"/>
+      <c r="A116" s="86"/>
       <c r="B116" s="9"/>
       <c r="C116" s="19"/>
       <c r="D116" s="9"/>
@@ -11210,7 +11947,7 @@
       <c r="G117" s="9"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="82"/>
+      <c r="A118" s="84"/>
       <c r="B118" s="34"/>
       <c r="C118" s="1"/>
       <c r="D118" s="34"/>
@@ -11219,7 +11956,7 @@
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="83"/>
+      <c r="A119" s="85"/>
       <c r="B119" s="34"/>
       <c r="C119" s="1"/>
       <c r="D119" s="34"/>
@@ -11228,7 +11965,7 @@
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="83"/>
+      <c r="A120" s="85"/>
       <c r="B120" s="34"/>
       <c r="C120" s="1"/>
       <c r="D120" s="34"/>
@@ -11237,7 +11974,7 @@
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="83"/>
+      <c r="A121" s="85"/>
       <c r="B121" s="34"/>
       <c r="C121" s="1"/>
       <c r="D121" s="34"/>
@@ -11246,7 +11983,7 @@
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="83"/>
+      <c r="A122" s="85"/>
       <c r="B122" s="34"/>
       <c r="C122" s="1"/>
       <c r="D122" s="34"/>
@@ -11255,7 +11992,7 @@
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="83"/>
+      <c r="A123" s="85"/>
       <c r="B123" s="34"/>
       <c r="C123" s="1"/>
       <c r="D123" s="34"/>
@@ -11264,7 +12001,7 @@
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="84"/>
+      <c r="A124" s="86"/>
       <c r="B124" s="9"/>
       <c r="C124" s="19"/>
       <c r="D124" s="9"/>
@@ -11282,7 +12019,7 @@
       <c r="G125" s="9"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="82"/>
+      <c r="A126" s="84"/>
       <c r="B126" s="34"/>
       <c r="C126" s="1"/>
       <c r="D126" s="34"/>
@@ -11291,7 +12028,7 @@
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="83"/>
+      <c r="A127" s="85"/>
       <c r="B127" s="34"/>
       <c r="C127" s="1"/>
       <c r="D127" s="34"/>
@@ -11300,7 +12037,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="83"/>
+      <c r="A128" s="85"/>
       <c r="B128" s="34"/>
       <c r="C128" s="1"/>
       <c r="D128" s="34"/>
@@ -11309,7 +12046,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="83"/>
+      <c r="A129" s="85"/>
       <c r="B129" s="34"/>
       <c r="C129" s="1"/>
       <c r="D129" s="34"/>
@@ -11318,7 +12055,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="83"/>
+      <c r="A130" s="85"/>
       <c r="B130" s="34"/>
       <c r="C130" s="1"/>
       <c r="D130" s="34"/>
@@ -11327,7 +12064,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="83"/>
+      <c r="A131" s="85"/>
       <c r="B131" s="34"/>
       <c r="C131" s="1"/>
       <c r="D131" s="34"/>
@@ -11336,7 +12073,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="84"/>
+      <c r="A132" s="86"/>
       <c r="B132" s="9"/>
       <c r="C132" s="19"/>
       <c r="D132" s="9"/>
@@ -11346,16 +12083,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A118:A124"/>
     <mergeCell ref="A126:A132"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A70:A76"/>
@@ -11364,6 +12091,16 @@
     <mergeCell ref="A94:A100"/>
     <mergeCell ref="A102:A108"/>
     <mergeCell ref="A110:A116"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A24:A30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11390,51 +12127,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -11468,14 +12205,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="64"/>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="87" t="s">
         <v>445</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="35" t="s">
         <v>115</v>
       </c>
@@ -11492,7 +12229,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="35" t="s">
         <v>116</v>
       </c>
@@ -11509,7 +12246,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="35" t="s">
         <v>117</v>
       </c>
@@ -11526,7 +12263,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="35" t="s">
         <v>118</v>
       </c>
@@ -11543,7 +12280,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="35" t="s">
         <v>189</v>
       </c>
@@ -11560,7 +12297,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="35" t="s">
         <v>190</v>
       </c>
@@ -11577,7 +12314,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="9"/>
       <c r="C14" s="19"/>
       <c r="D14" s="9"/>
@@ -11594,12 +12331,12 @@
         <v>165</v>
       </c>
       <c r="D15" s="64"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="5" t="s">
         <v>115</v>
       </c>
@@ -11616,7 +12353,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="5" t="s">
         <v>116</v>
       </c>
@@ -11633,7 +12370,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="5" t="s">
         <v>117</v>
       </c>
@@ -11650,7 +12387,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="5" t="s">
         <v>118</v>
       </c>
@@ -11667,7 +12404,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="5" t="s">
         <v>189</v>
       </c>
@@ -11684,7 +12421,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="5" t="s">
         <v>190</v>
       </c>
@@ -11701,7 +12438,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="9"/>
       <c r="C22" s="19"/>
       <c r="D22" s="9"/>
@@ -11718,9 +12455,9 @@
         <v>178</v>
       </c>
       <c r="D23" s="64"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
@@ -11801,12 +12538,12 @@
         <v>179</v>
       </c>
       <c r="D30" s="64"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="5" t="s">
         <v>115</v>
       </c>
@@ -11823,7 +12560,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="5" t="s">
         <v>116</v>
       </c>
@@ -11840,7 +12577,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="5"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
@@ -11849,7 +12586,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
@@ -11858,7 +12595,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="9"/>
       <c r="C35" s="19"/>
       <c r="D35" s="9"/>
@@ -11875,14 +12612,14 @@
         <v>180</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="89" t="s">
+      <c r="E36" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="F36" s="90"/>
-      <c r="G36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="92"/>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="5" t="s">
         <v>115</v>
       </c>
@@ -11899,7 +12636,7 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="5" t="s">
         <v>116</v>
       </c>
@@ -11916,7 +12653,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="5"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
@@ -11925,7 +12662,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="5"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
@@ -11934,7 +12671,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="5"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
@@ -11943,7 +12680,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
@@ -11952,7 +12689,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="9"/>
       <c r="C43" s="19"/>
       <c r="D43" s="9"/>
@@ -11969,14 +12706,14 @@
         <v>69</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="89" t="s">
+      <c r="E44" s="90" t="s">
         <v>509</v>
       </c>
-      <c r="F44" s="90"/>
-      <c r="G44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="92"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
@@ -11993,7 +12730,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="5" t="s">
         <v>116</v>
       </c>
@@ -12010,7 +12747,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
+      <c r="A47" s="85"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="5"/>
@@ -12019,7 +12756,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
@@ -12028,7 +12765,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
@@ -12037,7 +12774,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="5"/>
@@ -12046,7 +12783,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="9"/>
       <c r="C51" s="19"/>
       <c r="D51" s="9"/>
@@ -12063,12 +12800,12 @@
         <v>181</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="95"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="5" t="s">
         <v>115</v>
       </c>
@@ -12085,7 +12822,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="5"/>
@@ -12094,7 +12831,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="5"/>
@@ -12103,7 +12840,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
+      <c r="A56" s="85"/>
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="5"/>
@@ -12112,7 +12849,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="5"/>
@@ -12121,7 +12858,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="5"/>
@@ -12130,7 +12867,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
+      <c r="A59" s="86"/>
       <c r="B59" s="9"/>
       <c r="C59" s="19"/>
       <c r="D59" s="9"/>
@@ -12146,14 +12883,14 @@
         <v>145</v>
       </c>
       <c r="D60" s="21"/>
-      <c r="E60" s="86" t="s">
+      <c r="E60" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="F60" s="87"/>
-      <c r="G60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="89"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="82"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="35" t="s">
         <v>115</v>
       </c>
@@ -12170,7 +12907,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="35" t="s">
         <v>116</v>
       </c>
@@ -12187,7 +12924,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="35" t="s">
         <v>117</v>
       </c>
@@ -12204,7 +12941,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="35" t="s">
         <v>118</v>
       </c>
@@ -12221,7 +12958,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="21"/>
       <c r="C65" s="1"/>
       <c r="D65" s="21"/>
@@ -12230,7 +12967,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="21"/>
       <c r="C66" s="1"/>
       <c r="D66" s="21"/>
@@ -12239,7 +12976,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -12255,12 +12992,12 @@
         <v>164</v>
       </c>
       <c r="D68" s="64"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="88"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="89"/>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="82"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="21"/>
       <c r="C69" s="1" t="s">
         <v>345</v>
@@ -12275,7 +13012,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="21"/>
       <c r="C70" s="1"/>
       <c r="D70" s="21"/>
@@ -12284,7 +13021,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="21"/>
       <c r="C71" s="1"/>
       <c r="D71" s="21"/>
@@ -12293,7 +13030,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="21"/>
       <c r="C72" s="1"/>
       <c r="D72" s="21"/>
@@ -12302,7 +13039,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="21"/>
       <c r="C73" s="1"/>
       <c r="D73" s="21"/>
@@ -12311,7 +13048,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="21"/>
       <c r="C74" s="1"/>
       <c r="D74" s="21"/>
@@ -12320,7 +13057,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="84"/>
+      <c r="A75" s="86"/>
       <c r="B75" s="9"/>
       <c r="C75" s="19"/>
       <c r="D75" s="9"/>
@@ -12336,14 +13073,14 @@
         <v>151</v>
       </c>
       <c r="D76" s="21"/>
-      <c r="E76" s="86" t="s">
+      <c r="E76" s="87" t="s">
         <v>348</v>
       </c>
-      <c r="F76" s="87"/>
-      <c r="G76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="89"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="82"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="34" t="s">
         <v>115</v>
       </c>
@@ -12360,7 +13097,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="83"/>
+      <c r="A78" s="85"/>
       <c r="B78" s="34" t="s">
         <v>116</v>
       </c>
@@ -12377,7 +13114,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="83"/>
+      <c r="A79" s="85"/>
       <c r="B79" s="21"/>
       <c r="C79" s="1"/>
       <c r="D79" s="21"/>
@@ -12386,7 +13123,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
+      <c r="A80" s="85"/>
       <c r="B80" s="21"/>
       <c r="C80" s="1"/>
       <c r="D80" s="21"/>
@@ -12395,7 +13132,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="83"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="21"/>
       <c r="C81" s="1"/>
       <c r="D81" s="21"/>
@@ -12404,7 +13141,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="83"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="21"/>
       <c r="C82" s="1"/>
       <c r="D82" s="21"/>
@@ -12413,7 +13150,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="84"/>
+      <c r="A83" s="86"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -12429,14 +13166,14 @@
         <v>141</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="86" t="s">
+      <c r="E84" s="87" t="s">
         <v>350</v>
       </c>
-      <c r="F84" s="87"/>
-      <c r="G84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="89"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="82"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="35" t="s">
         <v>115</v>
       </c>
@@ -12453,7 +13190,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="83"/>
+      <c r="A86" s="85"/>
       <c r="B86" s="35" t="s">
         <v>116</v>
       </c>
@@ -12470,7 +13207,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="83"/>
+      <c r="A87" s="85"/>
       <c r="B87" s="35"/>
       <c r="C87" s="1"/>
       <c r="D87" s="5"/>
@@ -12479,7 +13216,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="5"/>
@@ -12488,7 +13225,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
+      <c r="A89" s="85"/>
       <c r="B89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="5"/>
@@ -12497,7 +13234,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="5"/>
@@ -12506,7 +13243,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
+      <c r="A91" s="86"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -12516,12 +13253,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E44:G44"/>
     <mergeCell ref="A85:A91"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A1:G5"/>
@@ -12538,6 +13269,12 @@
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="A77:A83"/>
     <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E44:G44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12549,7 +13286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -12565,51 +13302,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -12642,14 +13379,14 @@
         <v>136</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="87" t="s">
         <v>406</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="35" t="s">
         <v>115</v>
       </c>
@@ -12666,7 +13403,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="35" t="s">
         <v>116</v>
       </c>
@@ -12683,7 +13420,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="35" t="s">
         <v>117</v>
       </c>
@@ -12700,7 +13437,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
@@ -12709,7 +13446,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
@@ -12718,7 +13455,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
@@ -12727,7 +13464,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -12743,12 +13480,12 @@
         <v>144</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="26" t="s">
         <v>115</v>
       </c>
@@ -12765,7 +13502,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="26" t="s">
         <v>116</v>
       </c>
@@ -12782,7 +13519,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="26"/>
       <c r="C18" s="1"/>
       <c r="D18" s="21"/>
@@ -12791,7 +13528,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="21"/>
       <c r="C19" s="1"/>
       <c r="D19" s="21"/>
@@ -12800,7 +13537,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="21"/>
       <c r="C20" s="1"/>
       <c r="D20" s="21"/>
@@ -12809,7 +13546,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="21"/>
       <c r="C21" s="1"/>
       <c r="D21" s="21"/>
@@ -12818,7 +13555,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -12834,12 +13571,12 @@
         <v>152</v>
       </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -12856,7 +13593,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="26"/>
       <c r="C25" s="1"/>
       <c r="D25" s="21"/>
@@ -12865,7 +13602,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="26"/>
       <c r="C26" s="1"/>
       <c r="D26" s="21"/>
@@ -12874,7 +13611,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="21"/>
       <c r="C27" s="1"/>
       <c r="D27" s="21"/>
@@ -12883,7 +13620,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="21"/>
       <c r="C28" s="1"/>
       <c r="D28" s="21"/>
@@ -12892,7 +13629,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="21"/>
       <c r="C29" s="1"/>
       <c r="D29" s="21"/>
@@ -12901,7 +13638,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -12917,12 +13654,12 @@
         <v>153</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="88"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="35" t="s">
         <v>115</v>
       </c>
@@ -12939,7 +13676,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="35" t="s">
         <v>116</v>
       </c>
@@ -12956,7 +13693,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="35" t="s">
         <v>117</v>
       </c>
@@ -12973,7 +13710,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="21"/>
       <c r="C35" s="1"/>
       <c r="D35" s="21"/>
@@ -12982,7 +13719,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="21"/>
       <c r="C36" s="1"/>
       <c r="D36" s="21"/>
@@ -12991,7 +13728,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="21"/>
       <c r="C37" s="1"/>
       <c r="D37" s="21"/>
@@ -13000,7 +13737,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -13016,12 +13753,12 @@
         <v>157</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="88"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="26" t="s">
         <v>115</v>
       </c>
@@ -13038,7 +13775,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="26" t="s">
         <v>116</v>
       </c>
@@ -13055,7 +13792,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="26" t="s">
         <v>117</v>
       </c>
@@ -13072,7 +13809,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="21"/>
@@ -13081,7 +13818,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="21"/>
@@ -13090,7 +13827,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="21"/>
@@ -13099,7 +13836,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -13115,12 +13852,12 @@
         <v>156</v>
       </c>
       <c r="D47" s="21"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="89"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="35" t="s">
         <v>115</v>
       </c>
@@ -13137,7 +13874,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="35" t="s">
         <v>116</v>
       </c>
@@ -13154,7 +13891,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="35" t="s">
         <v>117</v>
       </c>
@@ -13171,7 +13908,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="35" t="s">
         <v>118</v>
       </c>
@@ -13188,7 +13925,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="35" t="s">
         <v>189</v>
       </c>
@@ -13205,7 +13942,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="21"/>
       <c r="C53" s="1"/>
       <c r="D53" s="21"/>
@@ -13214,7 +13951,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
+      <c r="A54" s="86"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -13230,12 +13967,12 @@
         <v>397</v>
       </c>
       <c r="D55" s="21"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="88"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="89"/>
     </row>
     <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
+      <c r="A56" s="84"/>
       <c r="B56" s="26" t="s">
         <v>115</v>
       </c>
@@ -13254,7 +13991,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="26"/>
       <c r="C57" s="1"/>
       <c r="D57" s="21"/>
@@ -13263,7 +14000,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="26"/>
       <c r="C58" s="1"/>
       <c r="D58" s="21"/>
@@ -13272,7 +14009,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="21"/>
       <c r="C59" s="1"/>
       <c r="D59" s="21"/>
@@ -13281,7 +14018,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
+      <c r="A60" s="85"/>
       <c r="B60" s="21"/>
       <c r="C60" s="1"/>
       <c r="D60" s="21"/>
@@ -13290,7 +14027,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="21"/>
       <c r="C61" s="1"/>
       <c r="D61" s="21"/>
@@ -13299,7 +14036,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
+      <c r="A62" s="86"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -13315,12 +14052,12 @@
         <v>72</v>
       </c>
       <c r="D63" s="21"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="88"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="89"/>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
+      <c r="A64" s="84"/>
       <c r="B64" s="26" t="s">
         <v>115</v>
       </c>
@@ -13337,7 +14074,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="26"/>
       <c r="C65" s="1"/>
       <c r="D65" s="21"/>
@@ -13346,7 +14083,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="26"/>
       <c r="C66" s="1"/>
       <c r="D66" s="21"/>
@@ -13355,7 +14092,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
+      <c r="A67" s="85"/>
       <c r="B67" s="21"/>
       <c r="C67" s="1"/>
       <c r="D67" s="21"/>
@@ -13364,7 +14101,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
+      <c r="A68" s="85"/>
       <c r="B68" s="21"/>
       <c r="C68" s="1"/>
       <c r="D68" s="21"/>
@@ -13373,7 +14110,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
+      <c r="A69" s="85"/>
       <c r="B69" s="21"/>
       <c r="C69" s="1"/>
       <c r="D69" s="21"/>
@@ -13382,7 +14119,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -13398,12 +14135,12 @@
         <v>73</v>
       </c>
       <c r="D71" s="21"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="88"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="89"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="82"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="26" t="s">
         <v>115</v>
       </c>
@@ -13420,7 +14157,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="26" t="s">
         <v>116</v>
       </c>
@@ -13439,7 +14176,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="26"/>
       <c r="C74" s="1"/>
       <c r="D74" s="21"/>
@@ -13448,7 +14185,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="21"/>
       <c r="C75" s="1"/>
       <c r="D75" s="21"/>
@@ -13457,7 +14194,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="83"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="21"/>
       <c r="C76" s="1"/>
       <c r="D76" s="21"/>
@@ -13466,7 +14203,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="83"/>
+      <c r="A77" s="85"/>
       <c r="B77" s="21"/>
       <c r="C77" s="1"/>
       <c r="D77" s="21"/>
@@ -13475,7 +14212,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -13491,12 +14228,12 @@
         <v>172</v>
       </c>
       <c r="D79" s="21"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="88"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="89"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="82"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="26" t="s">
         <v>115</v>
       </c>
@@ -13513,7 +14250,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="83"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="21"/>
       <c r="C81" s="1"/>
       <c r="D81" s="21"/>
@@ -13522,7 +14259,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="83"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="21"/>
       <c r="C82" s="1"/>
       <c r="D82" s="21"/>
@@ -13531,7 +14268,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="83"/>
+      <c r="A83" s="85"/>
       <c r="B83" s="21"/>
       <c r="C83" s="1"/>
       <c r="D83" s="21"/>
@@ -13540,7 +14277,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="83"/>
+      <c r="A84" s="85"/>
       <c r="B84" s="21"/>
       <c r="C84" s="1"/>
       <c r="D84" s="21"/>
@@ -13549,7 +14286,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
+      <c r="A85" s="85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="1"/>
       <c r="D85" s="21"/>
@@ -13558,7 +14295,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="84"/>
+      <c r="A86" s="86"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -13574,14 +14311,14 @@
         <v>87</v>
       </c>
       <c r="D87" s="59"/>
-      <c r="E87" s="86" t="s">
+      <c r="E87" s="87" t="s">
         <v>406</v>
       </c>
-      <c r="F87" s="87"/>
-      <c r="G87" s="88"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="89"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="82"/>
+      <c r="A88" s="84"/>
       <c r="B88" s="59" t="s">
         <v>115</v>
       </c>
@@ -13598,7 +14335,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
+      <c r="A89" s="85"/>
       <c r="B89" s="59"/>
       <c r="C89" s="1"/>
       <c r="D89" s="59"/>
@@ -13607,7 +14344,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="59"/>
       <c r="C90" s="1"/>
       <c r="D90" s="59"/>
@@ -13616,7 +14353,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="83"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="59"/>
       <c r="C91" s="1"/>
       <c r="D91" s="59"/>
@@ -13625,7 +14362,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="83"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="59"/>
       <c r="C92" s="1"/>
       <c r="D92" s="59"/>
@@ -13634,7 +14371,7 @@
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="83"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="59"/>
       <c r="C93" s="1"/>
       <c r="D93" s="59"/>
@@ -13643,7 +14380,7 @@
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
+      <c r="A94" s="86"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -13659,14 +14396,14 @@
         <v>75</v>
       </c>
       <c r="D95" s="65"/>
-      <c r="E95" s="86" t="s">
+      <c r="E95" s="87" t="s">
         <v>406</v>
       </c>
-      <c r="F95" s="87"/>
-      <c r="G95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="89"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="82"/>
+      <c r="A96" s="84"/>
       <c r="B96" s="26" t="s">
         <v>115</v>
       </c>
@@ -13683,7 +14420,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
+      <c r="A97" s="85"/>
       <c r="B97" s="26" t="s">
         <v>116</v>
       </c>
@@ -13700,7 +14437,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="83"/>
+      <c r="A98" s="85"/>
       <c r="B98" s="26" t="s">
         <v>117</v>
       </c>
@@ -13717,7 +14454,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="83"/>
+      <c r="A99" s="85"/>
       <c r="B99" s="21"/>
       <c r="C99" s="1"/>
       <c r="D99" s="21"/>
@@ -13726,7 +14463,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="83"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="21"/>
       <c r="C100" s="1"/>
       <c r="D100" s="21"/>
@@ -13735,7 +14472,7 @@
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="83"/>
+      <c r="A101" s="85"/>
       <c r="B101" s="21"/>
       <c r="C101" s="1"/>
       <c r="D101" s="21"/>
@@ -13744,7 +14481,7 @@
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="84"/>
+      <c r="A102" s="86"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -13761,14 +14498,14 @@
         <v>413</v>
       </c>
       <c r="D103" s="72"/>
-      <c r="E103" s="86" t="s">
+      <c r="E103" s="87" t="s">
         <v>512</v>
       </c>
-      <c r="F103" s="87"/>
-      <c r="G103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="89"/>
     </row>
     <row r="104" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="82"/>
+      <c r="A104" s="84"/>
       <c r="B104" s="72" t="s">
         <v>115</v>
       </c>
@@ -13785,7 +14522,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="83"/>
+      <c r="A105" s="85"/>
       <c r="B105" s="72"/>
       <c r="C105" s="1"/>
       <c r="D105" s="42"/>
@@ -13794,7 +14531,7 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
+      <c r="A106" s="85"/>
       <c r="B106" s="72"/>
       <c r="C106" s="1"/>
       <c r="D106" s="42"/>
@@ -13803,7 +14540,7 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="83"/>
+      <c r="A107" s="85"/>
       <c r="B107" s="72"/>
       <c r="C107" s="1"/>
       <c r="D107" s="72"/>
@@ -13812,7 +14549,7 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="83"/>
+      <c r="A108" s="85"/>
       <c r="B108" s="72"/>
       <c r="C108" s="1"/>
       <c r="D108" s="72"/>
@@ -13821,7 +14558,7 @@
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="83"/>
+      <c r="A109" s="85"/>
       <c r="B109" s="72"/>
       <c r="C109" s="1"/>
       <c r="D109" s="72"/>
@@ -13830,7 +14567,7 @@
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="84"/>
+      <c r="A110" s="86"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -13840,6 +14577,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="E103:G103"/>
     <mergeCell ref="A104:A110"/>
     <mergeCell ref="E23:G23"/>
@@ -13856,17 +14604,6 @@
     <mergeCell ref="A96:A102"/>
     <mergeCell ref="A80:A86"/>
     <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E87:G87"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13878,7 +14615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:C23"/>
     </sheetView>
   </sheetViews>
@@ -13891,51 +14628,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -13969,12 +14706,12 @@
         <v>142</v>
       </c>
       <c r="D7" s="42"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="35" t="s">
         <v>115</v>
       </c>
@@ -13991,7 +14728,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="35" t="s">
         <v>116</v>
       </c>
@@ -14008,7 +14745,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
@@ -14017,7 +14754,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
@@ -14026,7 +14763,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
@@ -14035,7 +14772,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
@@ -14044,7 +14781,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -14060,12 +14797,12 @@
         <v>76</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="32" t="s">
         <v>115</v>
       </c>
@@ -14082,7 +14819,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="34" t="s">
         <v>116</v>
       </c>
@@ -14099,7 +14836,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="34" t="s">
         <v>117</v>
       </c>
@@ -14116,7 +14853,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="21"/>
       <c r="C19" s="13"/>
       <c r="D19" s="21"/>
@@ -14125,7 +14862,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="21"/>
       <c r="C20" s="13"/>
       <c r="D20" s="21"/>
@@ -14134,7 +14871,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="21"/>
       <c r="C21" s="13"/>
       <c r="D21" s="21"/>
@@ -14143,7 +14880,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="9"/>
       <c r="C22" s="41"/>
       <c r="D22" s="9"/>
@@ -14159,12 +14896,12 @@
         <v>77</v>
       </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="21" t="s">
         <v>115</v>
       </c>
@@ -14181,7 +14918,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="32" t="s">
         <v>116</v>
       </c>
@@ -14198,7 +14935,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="32" t="s">
         <v>117</v>
       </c>
@@ -14215,7 +14952,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="21"/>
       <c r="C27" s="1"/>
       <c r="D27" s="21"/>
@@ -14224,7 +14961,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="21"/>
       <c r="C28" s="1"/>
       <c r="D28" s="21"/>
@@ -14233,7 +14970,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="21"/>
       <c r="C29" s="1"/>
       <c r="D29" s="21"/>
@@ -14242,7 +14979,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -14269,7 +15006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -14282,51 +15019,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -14359,12 +15096,12 @@
         <v>302</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="26" t="s">
         <v>115</v>
       </c>
@@ -14382,7 +15119,7 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="26" t="s">
         <v>116</v>
       </c>
@@ -14399,7 +15136,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="26"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
@@ -14408,7 +15145,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
@@ -14417,7 +15154,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
@@ -14426,7 +15163,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
@@ -14435,7 +15172,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -14452,12 +15189,12 @@
         <v>301</v>
       </c>
       <c r="D15" s="42"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="35" t="s">
         <v>115</v>
       </c>
@@ -14474,7 +15211,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="35" t="s">
         <v>116</v>
       </c>
@@ -14491,7 +15228,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
@@ -14500,7 +15237,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
@@ -14509,7 +15246,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
@@ -14518,7 +15255,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
@@ -14527,7 +15264,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -14543,12 +15280,12 @@
         <v>70</v>
       </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="30" t="s">
         <v>115</v>
       </c>
@@ -14565,7 +15302,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="30" t="s">
         <v>116</v>
       </c>
@@ -14582,7 +15319,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="30" t="s">
         <v>117</v>
       </c>
@@ -14599,7 +15336,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="21" t="s">
         <v>118</v>
       </c>
@@ -14616,7 +15353,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="21"/>
       <c r="C28" s="13"/>
       <c r="D28" s="21"/>
@@ -14625,7 +15362,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="21"/>
       <c r="C29" s="13"/>
       <c r="D29" s="21"/>
@@ -14634,7 +15371,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="9"/>
       <c r="C30" s="41"/>
       <c r="D30" s="9"/>
@@ -14650,12 +15387,12 @@
         <v>78</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="88"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="30" t="s">
         <v>115</v>
       </c>
@@ -14672,7 +15409,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="30" t="s">
         <v>116</v>
       </c>
@@ -14689,7 +15426,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="30" t="s">
         <v>117</v>
       </c>
@@ -14706,7 +15443,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="21" t="s">
         <v>118</v>
       </c>
@@ -14723,7 +15460,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="21"/>
       <c r="C36" s="13"/>
       <c r="D36" s="21"/>
@@ -14732,7 +15469,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="21"/>
       <c r="C37" s="13"/>
       <c r="D37" s="21"/>
@@ -14741,7 +15478,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="9"/>
       <c r="C38" s="41"/>
       <c r="D38" s="9"/>
@@ -14757,12 +15494,12 @@
         <v>79</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="88"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="32" t="s">
         <v>115</v>
       </c>
@@ -14779,7 +15516,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="32" t="s">
         <v>116</v>
       </c>
@@ -14796,7 +15533,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="32"/>
       <c r="C42" s="13"/>
       <c r="D42" s="21"/>
@@ -14805,7 +15542,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="32"/>
       <c r="C43" s="13"/>
       <c r="D43" s="21"/>
@@ -14814,7 +15551,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="21"/>
       <c r="C44" s="13"/>
       <c r="D44" s="21"/>
@@ -14823,7 +15560,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="21"/>
       <c r="C45" s="13"/>
       <c r="D45" s="21"/>
@@ -14832,7 +15569,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="9"/>
       <c r="C46" s="41"/>
       <c r="D46" s="9"/>
@@ -14848,12 +15585,12 @@
         <v>80</v>
       </c>
       <c r="D47" s="21"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="89"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="32" t="s">
         <v>115</v>
       </c>
@@ -14870,7 +15607,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="32" t="s">
         <v>116</v>
       </c>
@@ -14887,7 +15624,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="32"/>
       <c r="C50" s="13"/>
       <c r="D50" s="21"/>
@@ -14896,7 +15633,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="32"/>
       <c r="C51" s="13"/>
       <c r="D51" s="21"/>
@@ -14905,7 +15642,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="21"/>
       <c r="C52" s="13"/>
       <c r="D52" s="21"/>
@@ -14914,7 +15651,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="21"/>
       <c r="C53" s="13"/>
       <c r="D53" s="21"/>
@@ -14923,7 +15660,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
+      <c r="A54" s="86"/>
       <c r="B54" s="9"/>
       <c r="C54" s="41"/>
       <c r="D54" s="9"/>
@@ -14939,12 +15676,12 @@
         <v>81</v>
       </c>
       <c r="D55" s="21"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="88"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="89"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
+      <c r="A56" s="84"/>
       <c r="B56" s="38" t="s">
         <v>115</v>
       </c>
@@ -14961,7 +15698,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="38" t="s">
         <v>116</v>
       </c>
@@ -14978,7 +15715,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="38" t="s">
         <v>117</v>
       </c>
@@ -14995,7 +15732,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="32"/>
       <c r="C59" s="13"/>
       <c r="D59" s="21"/>
@@ -15004,7 +15741,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
+      <c r="A60" s="85"/>
       <c r="B60" s="21"/>
       <c r="C60" s="13"/>
       <c r="D60" s="21"/>
@@ -15013,7 +15750,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="21"/>
       <c r="C61" s="13"/>
       <c r="D61" s="21"/>
@@ -15022,7 +15759,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
+      <c r="A62" s="86"/>
       <c r="B62" s="9"/>
       <c r="C62" s="41"/>
       <c r="D62" s="9"/>
@@ -15038,12 +15775,12 @@
         <v>82</v>
       </c>
       <c r="D63" s="21"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="88"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="89"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
+      <c r="A64" s="84"/>
       <c r="B64" s="32" t="s">
         <v>115</v>
       </c>
@@ -15060,7 +15797,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="32" t="s">
         <v>116</v>
       </c>
@@ -15077,7 +15814,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="32"/>
       <c r="C66" s="1"/>
       <c r="D66" s="21"/>
@@ -15086,7 +15823,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
+      <c r="A67" s="85"/>
       <c r="B67" s="32"/>
       <c r="C67" s="1"/>
       <c r="D67" s="21"/>
@@ -15095,7 +15832,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
+      <c r="A68" s="85"/>
       <c r="B68" s="21"/>
       <c r="C68" s="1"/>
       <c r="D68" s="21"/>
@@ -15104,7 +15841,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
+      <c r="A69" s="85"/>
       <c r="B69" s="21"/>
       <c r="C69" s="1"/>
       <c r="D69" s="21"/>
@@ -15113,7 +15850,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -15130,12 +15867,12 @@
         <v>170</v>
       </c>
       <c r="D71" s="42"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="97"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="98"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="82"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="38" t="s">
         <v>115</v>
       </c>
@@ -15152,7 +15889,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="38" t="s">
         <v>116</v>
       </c>
@@ -15169,7 +15906,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="21"/>
       <c r="C74" s="1"/>
       <c r="D74" s="21"/>
@@ -15178,7 +15915,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="21"/>
       <c r="C75" s="1"/>
       <c r="D75" s="21"/>
@@ -15187,7 +15924,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="83"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="21"/>
       <c r="C76" s="1"/>
       <c r="D76" s="21"/>
@@ -15196,7 +15933,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="83"/>
+      <c r="A77" s="85"/>
       <c r="B77" s="21"/>
       <c r="C77" s="1"/>
       <c r="D77" s="21"/>
@@ -15205,7 +15942,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -15215,16 +15952,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
@@ -15234,6 +15961,16 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15245,7 +15982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15258,51 +15995,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -15336,12 +16073,12 @@
         <v>74</v>
       </c>
       <c r="D7" s="21"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="21" t="s">
         <v>115</v>
       </c>
@@ -15359,7 +16096,7 @@
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="32" t="s">
         <v>116</v>
       </c>
@@ -15376,7 +16113,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="32" t="s">
         <v>117</v>
       </c>
@@ -15393,7 +16130,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="21"/>
       <c r="C11" s="13"/>
       <c r="D11" s="21"/>
@@ -15402,7 +16139,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="21"/>
       <c r="C12" s="13"/>
       <c r="D12" s="21"/>
@@ -15411,7 +16148,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="21"/>
       <c r="C13" s="13"/>
       <c r="D13" s="21"/>
@@ -15420,7 +16157,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="9"/>
       <c r="C14" s="41"/>
       <c r="D14" s="9"/>
@@ -15437,12 +16174,12 @@
         <v>283</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
     </row>
     <row r="16" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="38" t="s">
         <v>115</v>
       </c>
@@ -15459,7 +16196,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="38" t="s">
         <v>116</v>
       </c>
@@ -15476,7 +16213,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="21"/>
       <c r="C18" s="13"/>
       <c r="D18" s="21"/>
@@ -15485,7 +16222,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="21"/>
       <c r="C19" s="13"/>
       <c r="D19" s="21"/>
@@ -15494,7 +16231,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="21"/>
       <c r="C20" s="13"/>
       <c r="D20" s="21"/>
@@ -15503,7 +16240,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="21"/>
       <c r="C21" s="13"/>
       <c r="D21" s="21"/>
@@ -15512,7 +16249,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="9"/>
       <c r="C22" s="41"/>
       <c r="D22" s="9"/>
@@ -15528,12 +16265,12 @@
         <v>306</v>
       </c>
       <c r="D23" s="42"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="98"/>
     </row>
     <row r="24" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="42"/>
       <c r="C24" s="13" t="s">
         <v>307</v>
@@ -15548,7 +16285,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="42"/>
       <c r="C25" s="13" t="s">
         <v>310</v>
@@ -15563,7 +16300,7 @@
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="42"/>
       <c r="C26" s="13"/>
       <c r="D26" s="42"/>
@@ -15572,7 +16309,7 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="42"/>
       <c r="C27" s="13"/>
       <c r="D27" s="42"/>
@@ -15581,7 +16318,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="42"/>
       <c r="C28" s="13"/>
       <c r="D28" s="42"/>
@@ -15590,7 +16327,7 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="42"/>
       <c r="C29" s="13"/>
       <c r="D29" s="42"/>
@@ -15599,7 +16336,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
@@ -15616,12 +16353,12 @@
         <v>147</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="88"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
     </row>
     <row r="32" spans="1:7" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="26" t="s">
         <v>115</v>
       </c>
@@ -15638,7 +16375,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="26" t="s">
         <v>116</v>
       </c>
@@ -15655,7 +16392,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="26" t="s">
         <v>117</v>
       </c>
@@ -15672,7 +16409,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="21"/>
       <c r="C35" s="13"/>
       <c r="D35" s="21"/>
@@ -15681,7 +16418,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="21"/>
       <c r="C36" s="13"/>
       <c r="D36" s="21"/>
@@ -15690,7 +16427,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="21"/>
       <c r="C37" s="13"/>
       <c r="D37" s="21"/>
@@ -15699,7 +16436,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="9"/>
       <c r="C38" s="41"/>
       <c r="D38" s="9"/>
@@ -15716,12 +16453,12 @@
         <v>148</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="88"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
     </row>
     <row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="35" t="s">
         <v>115</v>
       </c>
@@ -15738,7 +16475,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="38" t="s">
         <v>116</v>
       </c>
@@ -15755,7 +16492,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="38" t="s">
         <v>117</v>
       </c>
@@ -15772,7 +16509,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="35" t="s">
         <v>118</v>
       </c>
@@ -15789,7 +16526,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="21"/>
       <c r="C44" s="13"/>
       <c r="D44" s="21"/>
@@ -15798,7 +16535,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="21"/>
       <c r="C45" s="13"/>
       <c r="D45" s="21"/>
@@ -15807,7 +16544,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="9"/>
       <c r="C46" s="41"/>
       <c r="D46" s="9"/>
@@ -15824,12 +16561,12 @@
         <v>83</v>
       </c>
       <c r="D47" s="42"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="97"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
+      <c r="A48" s="99"/>
       <c r="B48" s="42" t="s">
         <v>115</v>
       </c>
@@ -15840,7 +16577,7 @@
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="99"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="46" t="s">
         <v>116</v>
       </c>
@@ -15851,7 +16588,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="46" t="s">
         <v>117</v>
       </c>
@@ -15862,7 +16599,7 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="42" t="s">
         <v>118</v>
       </c>
@@ -15873,7 +16610,7 @@
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="99"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="42"/>
       <c r="C52" s="13"/>
       <c r="D52" s="42"/>
@@ -15882,7 +16619,7 @@
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="99"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="42"/>
       <c r="C53" s="13"/>
       <c r="D53" s="42"/>
@@ -15891,7 +16628,7 @@
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
+      <c r="A54" s="101"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
@@ -15908,12 +16645,12 @@
         <v>84</v>
       </c>
       <c r="D55" s="42"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="97"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="98"/>
     </row>
     <row r="56" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="98"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="42" t="s">
         <v>115</v>
       </c>
@@ -15924,7 +16661,7 @@
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="99"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="46" t="s">
         <v>116</v>
       </c>
@@ -15935,7 +16672,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="99"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="46" t="s">
         <v>117</v>
       </c>
@@ -15946,7 +16683,7 @@
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="99"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="42" t="s">
         <v>118</v>
       </c>
@@ -15957,7 +16694,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="42"/>
       <c r="C60" s="13"/>
       <c r="D60" s="42"/>
@@ -15966,7 +16703,7 @@
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="99"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="42"/>
       <c r="C61" s="13"/>
       <c r="D61" s="42"/>
@@ -15975,7 +16712,7 @@
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="100"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
@@ -15992,12 +16729,12 @@
         <v>85</v>
       </c>
       <c r="D63" s="42"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="97"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="98"/>
     </row>
     <row r="64" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="98"/>
+      <c r="A64" s="99"/>
       <c r="B64" s="42" t="s">
         <v>115</v>
       </c>
@@ -16008,7 +16745,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="99"/>
+      <c r="A65" s="100"/>
       <c r="B65" s="46" t="s">
         <v>116</v>
       </c>
@@ -16019,7 +16756,7 @@
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="99"/>
+      <c r="A66" s="100"/>
       <c r="B66" s="46" t="s">
         <v>117</v>
       </c>
@@ -16030,7 +16767,7 @@
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="99"/>
+      <c r="A67" s="100"/>
       <c r="B67" s="42" t="s">
         <v>118</v>
       </c>
@@ -16041,7 +16778,7 @@
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="99"/>
+      <c r="A68" s="100"/>
       <c r="B68" s="42"/>
       <c r="C68" s="13"/>
       <c r="D68" s="42"/>
@@ -16050,7 +16787,7 @@
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="99"/>
+      <c r="A69" s="100"/>
       <c r="B69" s="42"/>
       <c r="C69" s="13"/>
       <c r="D69" s="42"/>
@@ -16059,7 +16796,7 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="100"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
@@ -16071,12 +16808,12 @@
       <c r="A71" s="42"/>
       <c r="C71" s="14"/>
       <c r="D71" s="42"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="97"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="98"/>
     </row>
     <row r="72" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
+      <c r="A72" s="99"/>
       <c r="B72" s="46"/>
       <c r="C72" s="13"/>
       <c r="D72" s="42"/>
@@ -16085,7 +16822,7 @@
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="99"/>
+      <c r="A73" s="100"/>
       <c r="B73" s="46"/>
       <c r="C73" s="13"/>
       <c r="D73" s="42"/>
@@ -16094,7 +16831,7 @@
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="99"/>
+      <c r="A74" s="100"/>
       <c r="B74" s="42"/>
       <c r="C74" s="13"/>
       <c r="D74" s="42"/>
@@ -16103,7 +16840,7 @@
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="99"/>
+      <c r="A75" s="100"/>
       <c r="B75" s="42"/>
       <c r="C75" s="13"/>
       <c r="D75" s="42"/>
@@ -16112,7 +16849,7 @@
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="99"/>
+      <c r="A76" s="100"/>
       <c r="B76" s="42"/>
       <c r="C76" s="13"/>
       <c r="D76" s="42"/>
@@ -16121,7 +16858,7 @@
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="99"/>
+      <c r="A77" s="100"/>
       <c r="B77" s="42"/>
       <c r="C77" s="13"/>
       <c r="D77" s="42"/>
@@ -16130,7 +16867,7 @@
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="100"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
       <c r="D78" s="41"/>
@@ -16142,12 +16879,12 @@
       <c r="A79" s="42"/>
       <c r="C79" s="14"/>
       <c r="D79" s="42"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="97"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="98"/>
     </row>
     <row r="80" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="42"/>
       <c r="C80" s="13"/>
       <c r="D80" s="42"/>
@@ -16156,7 +16893,7 @@
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="99"/>
+      <c r="A81" s="100"/>
       <c r="B81" s="42"/>
       <c r="C81" s="13"/>
       <c r="D81" s="42"/>
@@ -16165,7 +16902,7 @@
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="99"/>
+      <c r="A82" s="100"/>
       <c r="B82" s="42"/>
       <c r="C82" s="13"/>
       <c r="D82" s="42"/>
@@ -16174,7 +16911,7 @@
       <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="99"/>
+      <c r="A83" s="100"/>
       <c r="B83" s="42"/>
       <c r="C83" s="13"/>
       <c r="D83" s="42"/>
@@ -16183,7 +16920,7 @@
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="99"/>
+      <c r="A84" s="100"/>
       <c r="B84" s="42"/>
       <c r="C84" s="13"/>
       <c r="D84" s="42"/>
@@ -16192,7 +16929,7 @@
       <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="99"/>
+      <c r="A85" s="100"/>
       <c r="B85" s="42"/>
       <c r="C85" s="13"/>
       <c r="D85" s="42"/>
@@ -16201,7 +16938,7 @@
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="100"/>
+      <c r="A86" s="101"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
       <c r="D86" s="41"/>
@@ -16213,12 +16950,12 @@
       <c r="A87" s="42"/>
       <c r="C87" s="14"/>
       <c r="D87" s="42"/>
-      <c r="E87" s="95"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="97"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="97"/>
+      <c r="G87" s="98"/>
     </row>
     <row r="88" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="98"/>
+      <c r="A88" s="99"/>
       <c r="B88" s="46"/>
       <c r="C88" s="13"/>
       <c r="D88" s="42"/>
@@ -16227,7 +16964,7 @@
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="99"/>
+      <c r="A89" s="100"/>
       <c r="B89" s="46"/>
       <c r="C89" s="13"/>
       <c r="D89" s="42"/>
@@ -16236,7 +16973,7 @@
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="99"/>
+      <c r="A90" s="100"/>
       <c r="B90" s="42"/>
       <c r="C90" s="13"/>
       <c r="D90" s="42"/>
@@ -16245,7 +16982,7 @@
       <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="99"/>
+      <c r="A91" s="100"/>
       <c r="B91" s="42"/>
       <c r="C91" s="13"/>
       <c r="D91" s="42"/>
@@ -16254,7 +16991,7 @@
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="99"/>
+      <c r="A92" s="100"/>
       <c r="B92" s="42"/>
       <c r="C92" s="13"/>
       <c r="D92" s="42"/>
@@ -16263,7 +17000,7 @@
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="99"/>
+      <c r="A93" s="100"/>
       <c r="B93" s="42"/>
       <c r="C93" s="13"/>
       <c r="D93" s="42"/>
@@ -16272,7 +17009,7 @@
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="100"/>
+      <c r="A94" s="101"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
       <c r="D94" s="41"/>
@@ -16284,12 +17021,12 @@
       <c r="A95" s="42"/>
       <c r="C95" s="14"/>
       <c r="D95" s="42"/>
-      <c r="E95" s="95"/>
-      <c r="F95" s="96"/>
-      <c r="G95" s="97"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="97"/>
+      <c r="G95" s="98"/>
     </row>
     <row r="96" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="98"/>
+      <c r="A96" s="99"/>
       <c r="B96" s="42"/>
       <c r="C96" s="13"/>
       <c r="D96" s="42"/>
@@ -16298,7 +17035,7 @@
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="99"/>
+      <c r="A97" s="100"/>
       <c r="B97" s="42"/>
       <c r="C97" s="13"/>
       <c r="D97" s="42"/>
@@ -16307,7 +17044,7 @@
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="99"/>
+      <c r="A98" s="100"/>
       <c r="B98" s="42"/>
       <c r="C98" s="13"/>
       <c r="D98" s="42"/>
@@ -16316,7 +17053,7 @@
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="99"/>
+      <c r="A99" s="100"/>
       <c r="B99" s="42"/>
       <c r="C99" s="13"/>
       <c r="D99" s="42"/>
@@ -16325,7 +17062,7 @@
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="99"/>
+      <c r="A100" s="100"/>
       <c r="B100" s="42"/>
       <c r="C100" s="13"/>
       <c r="D100" s="42"/>
@@ -16334,7 +17071,7 @@
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="99"/>
+      <c r="A101" s="100"/>
       <c r="B101" s="42"/>
       <c r="C101" s="13"/>
       <c r="D101" s="42"/>
@@ -16343,7 +17080,7 @@
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="100"/>
+      <c r="A102" s="101"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
       <c r="D102" s="41"/>
@@ -16355,12 +17092,12 @@
       <c r="A103" s="42"/>
       <c r="C103" s="14"/>
       <c r="D103" s="42"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="96"/>
-      <c r="G103" s="97"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="97"/>
+      <c r="G103" s="98"/>
     </row>
     <row r="104" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="98"/>
+      <c r="A104" s="99"/>
       <c r="B104" s="42"/>
       <c r="C104" s="13"/>
       <c r="D104" s="42"/>
@@ -16369,7 +17106,7 @@
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="99"/>
+      <c r="A105" s="100"/>
       <c r="B105" s="42"/>
       <c r="C105" s="13"/>
       <c r="D105" s="42"/>
@@ -16378,7 +17115,7 @@
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="99"/>
+      <c r="A106" s="100"/>
       <c r="B106" s="42"/>
       <c r="C106" s="13"/>
       <c r="D106" s="42"/>
@@ -16387,7 +17124,7 @@
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="99"/>
+      <c r="A107" s="100"/>
       <c r="B107" s="42"/>
       <c r="C107" s="13"/>
       <c r="D107" s="42"/>
@@ -16396,7 +17133,7 @@
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="99"/>
+      <c r="A108" s="100"/>
       <c r="B108" s="42"/>
       <c r="C108" s="13"/>
       <c r="D108" s="42"/>
@@ -16405,7 +17142,7 @@
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="99"/>
+      <c r="A109" s="100"/>
       <c r="B109" s="42"/>
       <c r="C109" s="13"/>
       <c r="D109" s="42"/>
@@ -16414,7 +17151,7 @@
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="100"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
       <c r="D110" s="41"/>
@@ -16424,12 +17161,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="E31:G31"/>
@@ -16442,15 +17182,12 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeg76\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F6FFCB-2AC0-44C4-8639-572B1EDC319E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFD0FE9-FD35-4498-8CE3-122D47B276E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="607">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -3678,10 +3678,64 @@
     <t>P53</t>
   </si>
   <si>
-    <t>El ArcGis no me permite esto en la busqueda normal</t>
-  </si>
-  <si>
     <t>Cuando relaciono la tabla barrios y comuna el ArcGis saca un error</t>
+  </si>
+  <si>
+    <t>Sigue en proceso porque se estan desarrollando funcionalidades nuevas</t>
+  </si>
+  <si>
+    <t>Dejar los nombres y plantillas que se esten utilizando en el ArcGis</t>
+  </si>
+  <si>
+    <t>Banner interactivo</t>
+  </si>
+  <si>
+    <t>Debe dejarse parametrizado como es</t>
+  </si>
+  <si>
+    <t>Agregar version final de los permisos</t>
+  </si>
+  <si>
+    <t>Investigar tarea</t>
+  </si>
+  <si>
+    <t>Mas que una tarea es una recomendación</t>
+  </si>
+  <si>
+    <t>Agregar filtros a las dependencias</t>
+  </si>
+  <si>
+    <t>Luis Miguel desglosara este pendiente</t>
+  </si>
+  <si>
+    <t>El ArcGis no me permite esto en la busqueda normal reunirme con Wilmar y definir</t>
+  </si>
+  <si>
+    <t>P54</t>
+  </si>
+  <si>
+    <t>Error en el mensaje inicial de la aplicación</t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t>Que el punto inicial sea el cam</t>
+  </si>
+  <si>
+    <t>P56</t>
+  </si>
+  <si>
+    <t>Guardar consultas que se manjen</t>
+  </si>
+  <si>
+    <t>Revisar filtros de las consultas anteriores como activo y demas</t>
+  </si>
+  <si>
+    <t>P57</t>
+  </si>
+  <si>
+    <t>Reunion panorama de riesgos</t>
   </si>
 </sst>
 </file>
@@ -3885,7 +3939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3983,17 +4037,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -4221,13 +4264,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4239,6 +4279,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4246,9 +4289,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4296,7 +4336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4630,11 +4673,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4646,10 +4689,10 @@
       <c r="C2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="79" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4773,7 +4816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
@@ -4789,51 +4832,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -4869,12 +4912,12 @@
       <c r="D7" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
     </row>
     <row r="8" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="101"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="42"/>
       <c r="C8" s="13"/>
       <c r="D8" s="42"/>
@@ -4886,7 +4929,7 @@
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="102"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="42"/>
       <c r="C9" s="13"/>
       <c r="D9" s="42"/>
@@ -4895,7 +4938,7 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="102"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="42"/>
       <c r="C10" s="13"/>
       <c r="D10" s="42"/>
@@ -4904,7 +4947,7 @@
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="102"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="42"/>
       <c r="C11" s="13"/>
       <c r="D11" s="42"/>
@@ -4913,7 +4956,7 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="102"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="42"/>
       <c r="C12" s="13"/>
       <c r="D12" s="42"/>
@@ -4922,7 +4965,7 @@
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="102"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="42"/>
       <c r="C13" s="13"/>
       <c r="D13" s="42"/>
@@ -4931,7 +4974,7 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="103"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -4950,12 +4993,12 @@
       <c r="D15" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
     </row>
     <row r="16" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="101"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="46"/>
       <c r="C16" s="13"/>
       <c r="D16" s="42"/>
@@ -4966,7 +5009,7 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="102"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="46"/>
       <c r="C17" s="13"/>
       <c r="D17" s="42"/>
@@ -4975,7 +5018,7 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="102"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="42"/>
       <c r="C18" s="13"/>
       <c r="D18" s="42"/>
@@ -4984,7 +5027,7 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="102"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="42"/>
       <c r="C19" s="13"/>
       <c r="D19" s="42"/>
@@ -4993,7 +5036,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="102"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="42"/>
       <c r="C20" s="13"/>
       <c r="D20" s="42"/>
@@ -5002,7 +5045,7 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="102"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="42"/>
       <c r="C21" s="13"/>
       <c r="D21" s="42"/>
@@ -5011,7 +5054,7 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="103"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -5030,12 +5073,12 @@
       <c r="D23" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="42"/>
       <c r="C24" s="13"/>
       <c r="D24" s="42"/>
@@ -5046,7 +5089,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="102"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="42"/>
       <c r="C25" s="13"/>
       <c r="D25" s="42"/>
@@ -5055,7 +5098,7 @@
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="102"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="42"/>
       <c r="C26" s="13"/>
       <c r="D26" s="42"/>
@@ -5064,7 +5107,7 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="102"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="42"/>
       <c r="C27" s="13"/>
       <c r="D27" s="42"/>
@@ -5073,7 +5116,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="102"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="42"/>
       <c r="C28" s="13"/>
       <c r="D28" s="42"/>
@@ -5082,7 +5125,7 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="102"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="42"/>
       <c r="C29" s="13"/>
       <c r="D29" s="42"/>
@@ -5091,7 +5134,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="103"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
@@ -5110,12 +5153,12 @@
       <c r="D31" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="98"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="100"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="99"/>
     </row>
     <row r="32" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="101"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="42"/>
       <c r="C32" s="13"/>
       <c r="D32" s="42"/>
@@ -5126,7 +5169,7 @@
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="102"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="42"/>
       <c r="C33" s="13"/>
       <c r="D33" s="42"/>
@@ -5135,7 +5178,7 @@
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="102"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="42"/>
       <c r="C34" s="13"/>
       <c r="D34" s="42"/>
@@ -5144,7 +5187,7 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="102"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="42"/>
       <c r="C35" s="13"/>
       <c r="D35" s="42"/>
@@ -5153,7 +5196,7 @@
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="102"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="42"/>
       <c r="C36" s="13"/>
       <c r="D36" s="42"/>
@@ -5162,7 +5205,7 @@
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="102"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="42"/>
       <c r="C37" s="13"/>
       <c r="D37" s="42"/>
@@ -5171,7 +5214,7 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="103"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
@@ -5190,12 +5233,12 @@
       <c r="D39" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="98"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="100"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="99"/>
     </row>
     <row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="101"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="42"/>
       <c r="C40" s="13"/>
       <c r="D40" s="42"/>
@@ -5206,7 +5249,7 @@
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="102"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="46"/>
       <c r="C41" s="13"/>
       <c r="D41" s="42"/>
@@ -5215,7 +5258,7 @@
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="102"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="46"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -5223,7 +5266,7 @@
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="102"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="42"/>
       <c r="C43" s="74"/>
       <c r="D43" s="42"/>
@@ -5232,7 +5275,7 @@
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="102"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="42"/>
       <c r="C44" s="13"/>
       <c r="D44" s="42"/>
@@ -5241,7 +5284,7 @@
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="102"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="42"/>
       <c r="C45" s="13"/>
       <c r="D45" s="42"/>
@@ -5250,7 +5293,7 @@
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="103"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
@@ -5269,12 +5312,12 @@
       <c r="D47" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="98"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="99"/>
     </row>
     <row r="48" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="101"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="42"/>
       <c r="C48" s="13"/>
       <c r="D48" s="42"/>
@@ -5285,7 +5328,7 @@
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="102"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="46"/>
       <c r="C49" s="13"/>
       <c r="D49" s="42"/>
@@ -5294,7 +5337,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="102"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="46"/>
       <c r="C50" s="13"/>
       <c r="D50" s="42"/>
@@ -5303,7 +5346,7 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="102"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="42"/>
       <c r="C51" s="13"/>
       <c r="D51" s="42"/>
@@ -5312,7 +5355,7 @@
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="102"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="42"/>
       <c r="C52" s="13"/>
       <c r="D52" s="42"/>
@@ -5321,7 +5364,7 @@
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="102"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="42"/>
       <c r="C53" s="13"/>
       <c r="D53" s="42"/>
@@ -5330,7 +5373,7 @@
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="103"/>
+      <c r="A54" s="102"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
@@ -5349,12 +5392,12 @@
       <c r="D55" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="98"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="100"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="99"/>
     </row>
     <row r="56" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="101"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="42"/>
       <c r="C56" s="13"/>
       <c r="D56" s="42"/>
@@ -5365,7 +5408,7 @@
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="102"/>
+      <c r="A57" s="101"/>
       <c r="B57" s="46"/>
       <c r="C57" s="13"/>
       <c r="D57" s="42"/>
@@ -5374,7 +5417,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="102"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="46"/>
       <c r="C58" s="13"/>
       <c r="D58" s="42"/>
@@ -5383,7 +5426,7 @@
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="102"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="42"/>
       <c r="C59" s="13"/>
       <c r="D59" s="42"/>
@@ -5392,7 +5435,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="102"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="42"/>
       <c r="C60" s="13"/>
       <c r="D60" s="42"/>
@@ -5401,7 +5444,7 @@
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="102"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="42"/>
       <c r="C61" s="13"/>
       <c r="D61" s="42"/>
@@ -5410,7 +5453,7 @@
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="103"/>
+      <c r="A62" s="102"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
@@ -5429,12 +5472,12 @@
       <c r="D63" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E63" s="98"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="100"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="99"/>
     </row>
     <row r="64" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="42"/>
       <c r="C64" s="13"/>
       <c r="D64" s="42"/>
@@ -5445,7 +5488,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="102"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="46"/>
       <c r="C65" s="13"/>
       <c r="D65" s="42"/>
@@ -5454,7 +5497,7 @@
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="102"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="42"/>
@@ -5463,7 +5506,7 @@
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="102"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="42"/>
       <c r="C67" s="13"/>
       <c r="D67" s="42"/>
@@ -5472,7 +5515,7 @@
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="102"/>
+      <c r="A68" s="101"/>
       <c r="B68" s="42"/>
       <c r="C68" s="13"/>
       <c r="D68" s="42"/>
@@ -5481,7 +5524,7 @@
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="102"/>
+      <c r="A69" s="101"/>
       <c r="B69" s="42"/>
       <c r="C69" s="13"/>
       <c r="D69" s="42"/>
@@ -5490,7 +5533,7 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="103"/>
+      <c r="A70" s="102"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
@@ -5509,12 +5552,12 @@
       <c r="D71" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E71" s="98"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="100"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="99"/>
     </row>
     <row r="72" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="101"/>
+      <c r="A72" s="100"/>
       <c r="B72" s="46"/>
       <c r="C72" s="13"/>
       <c r="D72" s="42"/>
@@ -5525,7 +5568,7 @@
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="102"/>
+      <c r="A73" s="101"/>
       <c r="B73" s="46"/>
       <c r="C73" s="13"/>
       <c r="D73" s="42"/>
@@ -5534,7 +5577,7 @@
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="102"/>
+      <c r="A74" s="101"/>
       <c r="B74" s="42"/>
       <c r="C74" s="13"/>
       <c r="D74" s="42"/>
@@ -5543,7 +5586,7 @@
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="102"/>
+      <c r="A75" s="101"/>
       <c r="B75" s="42"/>
       <c r="C75" s="13"/>
       <c r="D75" s="42"/>
@@ -5552,7 +5595,7 @@
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="102"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="42"/>
       <c r="C76" s="13"/>
       <c r="D76" s="42"/>
@@ -5561,7 +5604,7 @@
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="102"/>
+      <c r="A77" s="101"/>
       <c r="B77" s="42"/>
       <c r="C77" s="13"/>
       <c r="D77" s="42"/>
@@ -5570,7 +5613,7 @@
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="103"/>
+      <c r="A78" s="102"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
       <c r="D78" s="41"/>
@@ -5589,12 +5632,12 @@
       <c r="D79" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E79" s="98"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="100"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="99"/>
     </row>
     <row r="80" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="101"/>
+      <c r="A80" s="100"/>
       <c r="B80" s="42"/>
       <c r="C80" s="13"/>
       <c r="D80" s="42"/>
@@ -5605,7 +5648,7 @@
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="102"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="42"/>
       <c r="C81" s="13"/>
       <c r="D81" s="42"/>
@@ -5614,7 +5657,7 @@
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="102"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="42"/>
       <c r="C82" s="13"/>
       <c r="D82" s="42"/>
@@ -5623,7 +5666,7 @@
       <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="102"/>
+      <c r="A83" s="101"/>
       <c r="B83" s="42"/>
       <c r="C83" s="13"/>
       <c r="D83" s="42"/>
@@ -5632,7 +5675,7 @@
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="102"/>
+      <c r="A84" s="101"/>
       <c r="B84" s="42"/>
       <c r="C84" s="13"/>
       <c r="D84" s="42"/>
@@ -5641,7 +5684,7 @@
       <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="102"/>
+      <c r="A85" s="101"/>
       <c r="B85" s="42"/>
       <c r="C85" s="13"/>
       <c r="D85" s="42"/>
@@ -5650,7 +5693,7 @@
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="103"/>
+      <c r="A86" s="102"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
       <c r="D86" s="41"/>
@@ -5669,12 +5712,12 @@
       <c r="D87" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E87" s="98"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="100"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="99"/>
     </row>
     <row r="88" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="101"/>
+      <c r="A88" s="100"/>
       <c r="B88" s="46"/>
       <c r="C88" s="13"/>
       <c r="D88" s="42"/>
@@ -5685,7 +5728,7 @@
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="102"/>
+      <c r="A89" s="101"/>
       <c r="B89" s="46"/>
       <c r="C89" s="13"/>
       <c r="D89" s="42"/>
@@ -5694,7 +5737,7 @@
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="102"/>
+      <c r="A90" s="101"/>
       <c r="B90" s="42"/>
       <c r="C90" s="13"/>
       <c r="D90" s="42"/>
@@ -5703,7 +5746,7 @@
       <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="102"/>
+      <c r="A91" s="101"/>
       <c r="B91" s="42"/>
       <c r="C91" s="13"/>
       <c r="D91" s="42"/>
@@ -5712,7 +5755,7 @@
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="102"/>
+      <c r="A92" s="101"/>
       <c r="B92" s="42"/>
       <c r="C92" s="13"/>
       <c r="D92" s="42"/>
@@ -5721,7 +5764,7 @@
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="102"/>
+      <c r="A93" s="101"/>
       <c r="B93" s="42"/>
       <c r="C93" s="13"/>
       <c r="D93" s="42"/>
@@ -5730,7 +5773,7 @@
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="103"/>
+      <c r="A94" s="102"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
       <c r="D94" s="41"/>
@@ -5749,14 +5792,14 @@
       <c r="D95" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E95" s="98" t="s">
+      <c r="E95" s="97" t="s">
         <v>510</v>
       </c>
-      <c r="F95" s="99"/>
-      <c r="G95" s="100"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="99"/>
     </row>
     <row r="96" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="101"/>
+      <c r="A96" s="100"/>
       <c r="B96" s="42"/>
       <c r="C96" s="13"/>
       <c r="D96" s="42"/>
@@ -5765,7 +5808,7 @@
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="102"/>
+      <c r="A97" s="101"/>
       <c r="B97" s="42"/>
       <c r="C97" s="13"/>
       <c r="D97" s="42"/>
@@ -5774,7 +5817,7 @@
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="102"/>
+      <c r="A98" s="101"/>
       <c r="B98" s="42"/>
       <c r="C98" s="13"/>
       <c r="D98" s="42"/>
@@ -5783,7 +5826,7 @@
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="102"/>
+      <c r="A99" s="101"/>
       <c r="B99" s="42"/>
       <c r="C99" s="13"/>
       <c r="D99" s="42"/>
@@ -5792,7 +5835,7 @@
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="102"/>
+      <c r="A100" s="101"/>
       <c r="B100" s="42"/>
       <c r="C100" s="13"/>
       <c r="D100" s="42"/>
@@ -5801,7 +5844,7 @@
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="102"/>
+      <c r="A101" s="101"/>
       <c r="B101" s="42"/>
       <c r="C101" s="13"/>
       <c r="D101" s="42"/>
@@ -5810,7 +5853,7 @@
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="103"/>
+      <c r="A102" s="102"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
       <c r="D102" s="41"/>
@@ -5829,12 +5872,12 @@
       <c r="D103" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E103" s="98"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="100"/>
+      <c r="E103" s="97"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="99"/>
     </row>
     <row r="104" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="101"/>
+      <c r="A104" s="100"/>
       <c r="B104" s="42"/>
       <c r="C104" s="13"/>
       <c r="D104" s="42"/>
@@ -5845,7 +5888,7 @@
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="102"/>
+      <c r="A105" s="101"/>
       <c r="B105" s="42"/>
       <c r="C105" s="13"/>
       <c r="D105" s="42"/>
@@ -5854,7 +5897,7 @@
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="102"/>
+      <c r="A106" s="101"/>
       <c r="B106" s="42"/>
       <c r="C106" s="13"/>
       <c r="D106" s="42"/>
@@ -5863,7 +5906,7 @@
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="102"/>
+      <c r="A107" s="101"/>
       <c r="B107" s="42"/>
       <c r="C107" s="13"/>
       <c r="D107" s="42"/>
@@ -5872,7 +5915,7 @@
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="102"/>
+      <c r="A108" s="101"/>
       <c r="B108" s="42"/>
       <c r="C108" s="13"/>
       <c r="D108" s="42"/>
@@ -5881,7 +5924,7 @@
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="102"/>
+      <c r="A109" s="101"/>
       <c r="B109" s="42"/>
       <c r="C109" s="13"/>
       <c r="D109" s="42"/>
@@ -5890,7 +5933,7 @@
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="103"/>
+      <c r="A110" s="102"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
       <c r="D110" s="41"/>
@@ -5909,12 +5952,12 @@
       <c r="D111" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E111" s="98"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="100"/>
+      <c r="E111" s="97"/>
+      <c r="F111" s="98"/>
+      <c r="G111" s="99"/>
     </row>
     <row r="112" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="101"/>
+      <c r="A112" s="100"/>
       <c r="B112" s="42"/>
       <c r="C112" s="13"/>
       <c r="D112" s="42"/>
@@ -5923,7 +5966,7 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="102"/>
+      <c r="A113" s="101"/>
       <c r="B113" s="42"/>
       <c r="C113" s="13"/>
       <c r="D113" s="42"/>
@@ -5932,7 +5975,7 @@
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="102"/>
+      <c r="A114" s="101"/>
       <c r="B114" s="42"/>
       <c r="C114" s="13"/>
       <c r="D114" s="42"/>
@@ -5941,7 +5984,7 @@
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="102"/>
+      <c r="A115" s="101"/>
       <c r="B115" s="42"/>
       <c r="C115" s="13"/>
       <c r="D115" s="42"/>
@@ -5950,7 +5993,7 @@
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="102"/>
+      <c r="A116" s="101"/>
       <c r="B116" s="42"/>
       <c r="C116" s="13"/>
       <c r="D116" s="42"/>
@@ -5959,7 +6002,7 @@
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="102"/>
+      <c r="A117" s="101"/>
       <c r="B117" s="42"/>
       <c r="C117" s="13"/>
       <c r="D117" s="42"/>
@@ -5968,7 +6011,7 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="103"/>
+      <c r="A118" s="102"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41"/>
       <c r="D118" s="41"/>
@@ -5987,12 +6030,12 @@
       <c r="D119" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E119" s="98"/>
-      <c r="F119" s="99"/>
-      <c r="G119" s="100"/>
+      <c r="E119" s="97"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="99"/>
     </row>
     <row r="120" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="101"/>
+      <c r="A120" s="100"/>
       <c r="B120" s="42"/>
       <c r="C120" s="13"/>
       <c r="D120" s="42"/>
@@ -6003,7 +6046,7 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="102"/>
+      <c r="A121" s="101"/>
       <c r="B121" s="42"/>
       <c r="C121" s="13"/>
       <c r="D121" s="42"/>
@@ -6014,7 +6057,7 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="102"/>
+      <c r="A122" s="101"/>
       <c r="B122" s="42"/>
       <c r="C122" s="13"/>
       <c r="D122" s="42"/>
@@ -6025,7 +6068,7 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="102"/>
+      <c r="A123" s="101"/>
       <c r="B123" s="42"/>
       <c r="C123" s="13"/>
       <c r="D123" s="42"/>
@@ -6034,7 +6077,7 @@
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="102"/>
+      <c r="A124" s="101"/>
       <c r="B124" s="42"/>
       <c r="C124" s="13"/>
       <c r="D124" s="42"/>
@@ -6043,7 +6086,7 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="102"/>
+      <c r="A125" s="101"/>
       <c r="B125" s="42"/>
       <c r="C125" s="13"/>
       <c r="D125" s="42"/>
@@ -6052,7 +6095,7 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="103"/>
+      <c r="A126" s="102"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
       <c r="D126" s="41"/>
@@ -6071,12 +6114,12 @@
       <c r="D127" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E127" s="98"/>
-      <c r="F127" s="99"/>
-      <c r="G127" s="100"/>
+      <c r="E127" s="97"/>
+      <c r="F127" s="98"/>
+      <c r="G127" s="99"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="101"/>
+      <c r="A128" s="100"/>
       <c r="B128" s="42"/>
       <c r="C128" s="13"/>
       <c r="D128" s="42"/>
@@ -6087,7 +6130,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="102"/>
+      <c r="A129" s="101"/>
       <c r="B129" s="42"/>
       <c r="C129" s="13"/>
       <c r="D129" s="42"/>
@@ -6096,7 +6139,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="102"/>
+      <c r="A130" s="101"/>
       <c r="B130" s="42"/>
       <c r="C130" s="13"/>
       <c r="D130" s="42"/>
@@ -6105,7 +6148,7 @@
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="102"/>
+      <c r="A131" s="101"/>
       <c r="B131" s="42"/>
       <c r="C131" s="13"/>
       <c r="D131" s="42"/>
@@ -6114,7 +6157,7 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="102"/>
+      <c r="A132" s="101"/>
       <c r="B132" s="42"/>
       <c r="C132" s="13"/>
       <c r="D132" s="42"/>
@@ -6123,7 +6166,7 @@
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="102"/>
+      <c r="A133" s="101"/>
       <c r="B133" s="42"/>
       <c r="C133" s="13"/>
       <c r="D133" s="42"/>
@@ -6132,7 +6175,7 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="103"/>
+      <c r="A134" s="102"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
       <c r="D134" s="41"/>
@@ -6151,12 +6194,12 @@
       <c r="D135" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E135" s="98"/>
-      <c r="F135" s="99"/>
-      <c r="G135" s="100"/>
+      <c r="E135" s="97"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="99"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="101"/>
+      <c r="A136" s="100"/>
       <c r="B136" s="42"/>
       <c r="C136" s="13"/>
       <c r="D136" s="42"/>
@@ -6167,7 +6210,7 @@
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="102"/>
+      <c r="A137" s="101"/>
       <c r="B137" s="42"/>
       <c r="C137" s="13"/>
       <c r="D137" s="42"/>
@@ -6176,7 +6219,7 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="102"/>
+      <c r="A138" s="101"/>
       <c r="B138" s="42"/>
       <c r="C138" s="13"/>
       <c r="D138" s="42"/>
@@ -6185,7 +6228,7 @@
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="102"/>
+      <c r="A139" s="101"/>
       <c r="B139" s="42"/>
       <c r="C139" s="13"/>
       <c r="D139" s="42"/>
@@ -6194,7 +6237,7 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="102"/>
+      <c r="A140" s="101"/>
       <c r="B140" s="42"/>
       <c r="C140" s="13"/>
       <c r="D140" s="42"/>
@@ -6203,7 +6246,7 @@
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="102"/>
+      <c r="A141" s="101"/>
       <c r="B141" s="42"/>
       <c r="C141" s="13"/>
       <c r="D141" s="42"/>
@@ -6212,7 +6255,7 @@
       <c r="G141" s="13"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="103"/>
+      <c r="A142" s="102"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
       <c r="D142" s="41"/>
@@ -6231,12 +6274,12 @@
       <c r="D143" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E143" s="98"/>
-      <c r="F143" s="99"/>
-      <c r="G143" s="100"/>
+      <c r="E143" s="97"/>
+      <c r="F143" s="98"/>
+      <c r="G143" s="99"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="101"/>
+      <c r="A144" s="100"/>
       <c r="B144" s="42"/>
       <c r="C144" s="13"/>
       <c r="D144" s="42"/>
@@ -6247,7 +6290,7 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="102"/>
+      <c r="A145" s="101"/>
       <c r="B145" s="42"/>
       <c r="C145" s="13"/>
       <c r="D145" s="42"/>
@@ -6256,7 +6299,7 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="102"/>
+      <c r="A146" s="101"/>
       <c r="B146" s="42"/>
       <c r="C146" s="13"/>
       <c r="D146" s="42"/>
@@ -6265,7 +6308,7 @@
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="102"/>
+      <c r="A147" s="101"/>
       <c r="B147" s="42"/>
       <c r="C147" s="13"/>
       <c r="D147" s="42"/>
@@ -6274,7 +6317,7 @@
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="102"/>
+      <c r="A148" s="101"/>
       <c r="B148" s="42"/>
       <c r="C148" s="13"/>
       <c r="D148" s="42"/>
@@ -6283,7 +6326,7 @@
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="102"/>
+      <c r="A149" s="101"/>
       <c r="B149" s="42"/>
       <c r="C149" s="13"/>
       <c r="D149" s="42"/>
@@ -6292,7 +6335,7 @@
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="103"/>
+      <c r="A150" s="102"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
       <c r="D150" s="41"/>
@@ -6311,12 +6354,12 @@
       <c r="D151" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E151" s="98"/>
-      <c r="F151" s="99"/>
-      <c r="G151" s="100"/>
+      <c r="E151" s="97"/>
+      <c r="F151" s="98"/>
+      <c r="G151" s="99"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="101"/>
+      <c r="A152" s="100"/>
       <c r="B152" s="42"/>
       <c r="C152" s="13"/>
       <c r="D152" s="42"/>
@@ -6327,7 +6370,7 @@
       <c r="G152" s="13"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="102"/>
+      <c r="A153" s="101"/>
       <c r="B153" s="42"/>
       <c r="C153" s="13"/>
       <c r="D153" s="42"/>
@@ -6336,7 +6379,7 @@
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="102"/>
+      <c r="A154" s="101"/>
       <c r="B154" s="42"/>
       <c r="C154" s="13"/>
       <c r="D154" s="42"/>
@@ -6345,7 +6388,7 @@
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="102"/>
+      <c r="A155" s="101"/>
       <c r="B155" s="42"/>
       <c r="C155" s="13"/>
       <c r="D155" s="42"/>
@@ -6354,7 +6397,7 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="102"/>
+      <c r="A156" s="101"/>
       <c r="B156" s="42"/>
       <c r="C156" s="13"/>
       <c r="D156" s="42"/>
@@ -6363,7 +6406,7 @@
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="102"/>
+      <c r="A157" s="101"/>
       <c r="B157" s="42"/>
       <c r="C157" s="13"/>
       <c r="D157" s="42"/>
@@ -6372,7 +6415,7 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="103"/>
+      <c r="A158" s="102"/>
       <c r="B158" s="41"/>
       <c r="C158" s="41"/>
       <c r="D158" s="41"/>
@@ -6391,12 +6434,12 @@
       <c r="D159" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E159" s="98"/>
-      <c r="F159" s="99"/>
-      <c r="G159" s="100"/>
+      <c r="E159" s="97"/>
+      <c r="F159" s="98"/>
+      <c r="G159" s="99"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="101"/>
+      <c r="A160" s="100"/>
       <c r="B160" s="42"/>
       <c r="C160" s="13"/>
       <c r="D160" s="42"/>
@@ -6407,7 +6450,7 @@
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="102"/>
+      <c r="A161" s="101"/>
       <c r="B161" s="42"/>
       <c r="C161" s="13"/>
       <c r="D161" s="42"/>
@@ -6416,7 +6459,7 @@
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="102"/>
+      <c r="A162" s="101"/>
       <c r="B162" s="42"/>
       <c r="C162" s="13"/>
       <c r="D162" s="42"/>
@@ -6425,7 +6468,7 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="102"/>
+      <c r="A163" s="101"/>
       <c r="B163" s="42"/>
       <c r="C163" s="13"/>
       <c r="D163" s="42"/>
@@ -6434,7 +6477,7 @@
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="102"/>
+      <c r="A164" s="101"/>
       <c r="B164" s="42"/>
       <c r="C164" s="13"/>
       <c r="D164" s="42"/>
@@ -6443,7 +6486,7 @@
       <c r="G164" s="13"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="102"/>
+      <c r="A165" s="101"/>
       <c r="B165" s="42"/>
       <c r="C165" s="13"/>
       <c r="D165" s="42"/>
@@ -6452,7 +6495,7 @@
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="103"/>
+      <c r="A166" s="102"/>
       <c r="B166" s="41"/>
       <c r="C166" s="41"/>
       <c r="D166" s="41"/>
@@ -6471,12 +6514,12 @@
       <c r="D167" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E167" s="98"/>
-      <c r="F167" s="99"/>
-      <c r="G167" s="100"/>
+      <c r="E167" s="97"/>
+      <c r="F167" s="98"/>
+      <c r="G167" s="99"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="101"/>
+      <c r="A168" s="100"/>
       <c r="B168" s="42"/>
       <c r="C168" s="13"/>
       <c r="D168" s="42"/>
@@ -6487,7 +6530,7 @@
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="102"/>
+      <c r="A169" s="101"/>
       <c r="B169" s="42"/>
       <c r="C169" s="13"/>
       <c r="D169" s="42"/>
@@ -6498,7 +6541,7 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="102"/>
+      <c r="A170" s="101"/>
       <c r="B170" s="42"/>
       <c r="C170" s="13"/>
       <c r="D170" s="42"/>
@@ -6509,7 +6552,7 @@
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="102"/>
+      <c r="A171" s="101"/>
       <c r="B171" s="42"/>
       <c r="C171" s="13"/>
       <c r="D171" s="42"/>
@@ -6518,7 +6561,7 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="102"/>
+      <c r="A172" s="101"/>
       <c r="B172" s="42"/>
       <c r="C172" s="13"/>
       <c r="D172" s="42"/>
@@ -6527,7 +6570,7 @@
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="102"/>
+      <c r="A173" s="101"/>
       <c r="B173" s="42"/>
       <c r="C173" s="13"/>
       <c r="D173" s="42"/>
@@ -6536,7 +6579,7 @@
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="103"/>
+      <c r="A174" s="102"/>
       <c r="B174" s="41"/>
       <c r="C174" s="41"/>
       <c r="D174" s="41"/>
@@ -6555,12 +6598,12 @@
       <c r="D175" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E175" s="98"/>
-      <c r="F175" s="99"/>
-      <c r="G175" s="100"/>
+      <c r="E175" s="97"/>
+      <c r="F175" s="98"/>
+      <c r="G175" s="99"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="101"/>
+      <c r="A176" s="100"/>
       <c r="B176" s="42"/>
       <c r="C176" s="13"/>
       <c r="D176" s="42"/>
@@ -6571,7 +6614,7 @@
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="102"/>
+      <c r="A177" s="101"/>
       <c r="B177" s="42"/>
       <c r="C177" s="13"/>
       <c r="D177" s="42"/>
@@ -6580,7 +6623,7 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="102"/>
+      <c r="A178" s="101"/>
       <c r="B178" s="42"/>
       <c r="C178" s="13"/>
       <c r="D178" s="42"/>
@@ -6589,7 +6632,7 @@
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="102"/>
+      <c r="A179" s="101"/>
       <c r="B179" s="42"/>
       <c r="C179" s="13"/>
       <c r="D179" s="42"/>
@@ -6598,7 +6641,7 @@
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="102"/>
+      <c r="A180" s="101"/>
       <c r="B180" s="42"/>
       <c r="C180" s="13"/>
       <c r="D180" s="42"/>
@@ -6607,7 +6650,7 @@
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="102"/>
+      <c r="A181" s="101"/>
       <c r="B181" s="42"/>
       <c r="C181" s="13"/>
       <c r="D181" s="42"/>
@@ -6616,7 +6659,7 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="103"/>
+      <c r="A182" s="102"/>
       <c r="B182" s="41"/>
       <c r="C182" s="41"/>
       <c r="D182" s="41"/>
@@ -6635,12 +6678,12 @@
       <c r="D183" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E183" s="98"/>
-      <c r="F183" s="99"/>
-      <c r="G183" s="100"/>
+      <c r="E183" s="97"/>
+      <c r="F183" s="98"/>
+      <c r="G183" s="99"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="101"/>
+      <c r="A184" s="100"/>
       <c r="B184" s="42"/>
       <c r="C184" s="13"/>
       <c r="D184" s="42"/>
@@ -6651,7 +6694,7 @@
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="102"/>
+      <c r="A185" s="101"/>
       <c r="B185" s="42"/>
       <c r="C185" s="13"/>
       <c r="D185" s="42"/>
@@ -6660,7 +6703,7 @@
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="102"/>
+      <c r="A186" s="101"/>
       <c r="B186" s="42"/>
       <c r="C186" s="13"/>
       <c r="D186" s="42"/>
@@ -6669,7 +6712,7 @@
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="102"/>
+      <c r="A187" s="101"/>
       <c r="B187" s="42"/>
       <c r="C187" s="13"/>
       <c r="D187" s="42"/>
@@ -6678,7 +6721,7 @@
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="102"/>
+      <c r="A188" s="101"/>
       <c r="B188" s="42"/>
       <c r="C188" s="13"/>
       <c r="D188" s="42"/>
@@ -6687,7 +6730,7 @@
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="102"/>
+      <c r="A189" s="101"/>
       <c r="B189" s="42"/>
       <c r="C189" s="13"/>
       <c r="D189" s="42"/>
@@ -6696,7 +6739,7 @@
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="103"/>
+      <c r="A190" s="102"/>
       <c r="B190" s="41"/>
       <c r="C190" s="41"/>
       <c r="D190" s="41"/>
@@ -6715,12 +6758,12 @@
       <c r="D191" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E191" s="98"/>
-      <c r="F191" s="99"/>
-      <c r="G191" s="100"/>
+      <c r="E191" s="97"/>
+      <c r="F191" s="98"/>
+      <c r="G191" s="99"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="101"/>
+      <c r="A192" s="100"/>
       <c r="B192" s="42"/>
       <c r="C192" s="13"/>
       <c r="D192" s="42"/>
@@ -6731,7 +6774,7 @@
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" s="102"/>
+      <c r="A193" s="101"/>
       <c r="B193" s="42"/>
       <c r="C193" s="13"/>
       <c r="D193" s="42"/>
@@ -6740,7 +6783,7 @@
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="102"/>
+      <c r="A194" s="101"/>
       <c r="B194" s="42"/>
       <c r="C194" s="13"/>
       <c r="D194" s="42"/>
@@ -6749,7 +6792,7 @@
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="102"/>
+      <c r="A195" s="101"/>
       <c r="B195" s="42"/>
       <c r="C195" s="13"/>
       <c r="D195" s="42"/>
@@ -6758,7 +6801,7 @@
       <c r="G195" s="13"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="102"/>
+      <c r="A196" s="101"/>
       <c r="B196" s="42"/>
       <c r="C196" s="13"/>
       <c r="D196" s="42"/>
@@ -6767,7 +6810,7 @@
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" s="102"/>
+      <c r="A197" s="101"/>
       <c r="B197" s="42"/>
       <c r="C197" s="13"/>
       <c r="D197" s="42"/>
@@ -6776,7 +6819,7 @@
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" s="103"/>
+      <c r="A198" s="102"/>
       <c r="B198" s="41"/>
       <c r="C198" s="41"/>
       <c r="D198" s="41"/>
@@ -6795,12 +6838,12 @@
       <c r="D199" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E199" s="98"/>
-      <c r="F199" s="99"/>
-      <c r="G199" s="100"/>
+      <c r="E199" s="97"/>
+      <c r="F199" s="98"/>
+      <c r="G199" s="99"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="101"/>
+      <c r="A200" s="100"/>
       <c r="B200" s="42"/>
       <c r="C200" s="13"/>
       <c r="D200" s="42"/>
@@ -6809,7 +6852,7 @@
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="102"/>
+      <c r="A201" s="101"/>
       <c r="B201" s="42"/>
       <c r="C201" s="13"/>
       <c r="D201" s="42"/>
@@ -6818,7 +6861,7 @@
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="102"/>
+      <c r="A202" s="101"/>
       <c r="B202" s="42"/>
       <c r="C202" s="13"/>
       <c r="D202" s="42"/>
@@ -6827,7 +6870,7 @@
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" s="102"/>
+      <c r="A203" s="101"/>
       <c r="B203" s="42"/>
       <c r="C203" s="13"/>
       <c r="D203" s="42"/>
@@ -6836,7 +6879,7 @@
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" s="102"/>
+      <c r="A204" s="101"/>
       <c r="B204" s="42"/>
       <c r="C204" s="13"/>
       <c r="D204" s="42"/>
@@ -6845,7 +6888,7 @@
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" s="102"/>
+      <c r="A205" s="101"/>
       <c r="B205" s="42"/>
       <c r="C205" s="13"/>
       <c r="D205" s="42"/>
@@ -6854,7 +6897,7 @@
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="103"/>
+      <c r="A206" s="102"/>
       <c r="B206" s="41"/>
       <c r="C206" s="41"/>
       <c r="D206" s="41"/>
@@ -6873,12 +6916,12 @@
       <c r="D207" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E207" s="98"/>
-      <c r="F207" s="99"/>
-      <c r="G207" s="100"/>
+      <c r="E207" s="97"/>
+      <c r="F207" s="98"/>
+      <c r="G207" s="99"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" s="101"/>
+      <c r="A208" s="100"/>
       <c r="B208" s="42"/>
       <c r="C208" s="13"/>
       <c r="D208" s="42"/>
@@ -6887,7 +6930,7 @@
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209" s="102"/>
+      <c r="A209" s="101"/>
       <c r="B209" s="42"/>
       <c r="C209" s="13"/>
       <c r="D209" s="42"/>
@@ -6896,7 +6939,7 @@
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" s="102"/>
+      <c r="A210" s="101"/>
       <c r="B210" s="42"/>
       <c r="C210" s="13"/>
       <c r="D210" s="42"/>
@@ -6905,7 +6948,7 @@
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" s="102"/>
+      <c r="A211" s="101"/>
       <c r="B211" s="42"/>
       <c r="C211" s="13"/>
       <c r="D211" s="42"/>
@@ -6914,7 +6957,7 @@
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A212" s="102"/>
+      <c r="A212" s="101"/>
       <c r="B212" s="42"/>
       <c r="C212" s="13"/>
       <c r="D212" s="42"/>
@@ -6923,7 +6966,7 @@
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A213" s="102"/>
+      <c r="A213" s="101"/>
       <c r="B213" s="42"/>
       <c r="C213" s="13"/>
       <c r="D213" s="42"/>
@@ -6932,7 +6975,7 @@
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" s="103"/>
+      <c r="A214" s="102"/>
       <c r="B214" s="41"/>
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
@@ -6951,12 +6994,12 @@
       <c r="D215" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E215" s="98"/>
-      <c r="F215" s="99"/>
-      <c r="G215" s="100"/>
+      <c r="E215" s="97"/>
+      <c r="F215" s="98"/>
+      <c r="G215" s="99"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A216" s="101"/>
+      <c r="A216" s="100"/>
       <c r="B216" s="42"/>
       <c r="C216" s="13"/>
       <c r="D216" s="42"/>
@@ -6967,7 +7010,7 @@
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" s="102"/>
+      <c r="A217" s="101"/>
       <c r="B217" s="42"/>
       <c r="C217" s="13"/>
       <c r="D217" s="42"/>
@@ -6978,7 +7021,7 @@
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" s="102"/>
+      <c r="A218" s="101"/>
       <c r="B218" s="42"/>
       <c r="C218" s="13"/>
       <c r="D218" s="42"/>
@@ -6989,7 +7032,7 @@
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" s="102"/>
+      <c r="A219" s="101"/>
       <c r="B219" s="42"/>
       <c r="C219" s="13"/>
       <c r="D219" s="42"/>
@@ -6998,7 +7041,7 @@
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A220" s="102"/>
+      <c r="A220" s="101"/>
       <c r="B220" s="42"/>
       <c r="C220" s="13"/>
       <c r="D220" s="42"/>
@@ -7007,7 +7050,7 @@
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" s="102"/>
+      <c r="A221" s="101"/>
       <c r="B221" s="42"/>
       <c r="C221" s="13"/>
       <c r="D221" s="42"/>
@@ -7016,7 +7059,7 @@
       <c r="G221" s="13"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A222" s="103"/>
+      <c r="A222" s="102"/>
       <c r="B222" s="41"/>
       <c r="C222" s="41"/>
       <c r="D222" s="41"/>
@@ -7035,12 +7078,12 @@
       <c r="D223" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E223" s="98"/>
-      <c r="F223" s="99"/>
-      <c r="G223" s="100"/>
+      <c r="E223" s="97"/>
+      <c r="F223" s="98"/>
+      <c r="G223" s="99"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" s="101"/>
+      <c r="A224" s="100"/>
       <c r="B224" s="42"/>
       <c r="C224" s="13"/>
       <c r="D224" s="42"/>
@@ -7051,7 +7094,7 @@
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" s="102"/>
+      <c r="A225" s="101"/>
       <c r="B225" s="42"/>
       <c r="C225" s="13"/>
       <c r="D225" s="42"/>
@@ -7062,7 +7105,7 @@
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226" s="102"/>
+      <c r="A226" s="101"/>
       <c r="B226" s="42"/>
       <c r="C226" s="13"/>
       <c r="D226" s="42"/>
@@ -7073,7 +7116,7 @@
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A227" s="102"/>
+      <c r="A227" s="101"/>
       <c r="B227" s="42"/>
       <c r="C227" s="13"/>
       <c r="D227" s="42"/>
@@ -7082,7 +7125,7 @@
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A228" s="102"/>
+      <c r="A228" s="101"/>
       <c r="B228" s="42"/>
       <c r="C228" s="13"/>
       <c r="D228" s="42"/>
@@ -7091,7 +7134,7 @@
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A229" s="102"/>
+      <c r="A229" s="101"/>
       <c r="B229" s="42"/>
       <c r="C229" s="13"/>
       <c r="D229" s="42"/>
@@ -7100,7 +7143,7 @@
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" s="103"/>
+      <c r="A230" s="102"/>
       <c r="B230" s="41"/>
       <c r="C230" s="41"/>
       <c r="D230" s="41"/>
@@ -7119,12 +7162,12 @@
       <c r="D231" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E231" s="98"/>
-      <c r="F231" s="99"/>
-      <c r="G231" s="100"/>
+      <c r="E231" s="97"/>
+      <c r="F231" s="98"/>
+      <c r="G231" s="99"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" s="101"/>
+      <c r="A232" s="100"/>
       <c r="B232" s="42"/>
       <c r="C232" s="13"/>
       <c r="D232" s="42"/>
@@ -7135,7 +7178,7 @@
       <c r="G232" s="13"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A233" s="102"/>
+      <c r="A233" s="101"/>
       <c r="B233" s="42"/>
       <c r="C233" s="13"/>
       <c r="D233" s="42"/>
@@ -7146,7 +7189,7 @@
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" s="102"/>
+      <c r="A234" s="101"/>
       <c r="B234" s="42"/>
       <c r="C234" s="13"/>
       <c r="D234" s="42"/>
@@ -7157,7 +7200,7 @@
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" s="102"/>
+      <c r="A235" s="101"/>
       <c r="B235" s="42"/>
       <c r="C235" s="13"/>
       <c r="D235" s="42"/>
@@ -7166,7 +7209,7 @@
       <c r="G235" s="13"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" s="102"/>
+      <c r="A236" s="101"/>
       <c r="B236" s="42"/>
       <c r="C236" s="13"/>
       <c r="D236" s="42"/>
@@ -7175,7 +7218,7 @@
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A237" s="102"/>
+      <c r="A237" s="101"/>
       <c r="B237" s="42"/>
       <c r="C237" s="13"/>
       <c r="D237" s="42"/>
@@ -7184,7 +7227,7 @@
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" s="103"/>
+      <c r="A238" s="102"/>
       <c r="B238" s="41"/>
       <c r="C238" s="41"/>
       <c r="D238" s="41"/>
@@ -7203,12 +7246,12 @@
       <c r="D239" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E239" s="98"/>
-      <c r="F239" s="99"/>
-      <c r="G239" s="100"/>
+      <c r="E239" s="97"/>
+      <c r="F239" s="98"/>
+      <c r="G239" s="99"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" s="101"/>
+      <c r="A240" s="100"/>
       <c r="B240" s="42"/>
       <c r="C240" s="13"/>
       <c r="D240" s="42"/>
@@ -7219,7 +7262,7 @@
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" s="102"/>
+      <c r="A241" s="101"/>
       <c r="B241" s="42"/>
       <c r="C241" s="13"/>
       <c r="D241" s="42"/>
@@ -7230,7 +7273,7 @@
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" s="102"/>
+      <c r="A242" s="101"/>
       <c r="B242" s="42"/>
       <c r="C242" s="13"/>
       <c r="D242" s="42"/>
@@ -7241,7 +7284,7 @@
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" s="102"/>
+      <c r="A243" s="101"/>
       <c r="B243" s="42"/>
       <c r="C243" s="13"/>
       <c r="D243" s="42"/>
@@ -7250,7 +7293,7 @@
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" s="102"/>
+      <c r="A244" s="101"/>
       <c r="B244" s="42"/>
       <c r="C244" s="13"/>
       <c r="D244" s="42"/>
@@ -7259,7 +7302,7 @@
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" s="102"/>
+      <c r="A245" s="101"/>
       <c r="B245" s="42"/>
       <c r="C245" s="13"/>
       <c r="D245" s="42"/>
@@ -7268,7 +7311,7 @@
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" s="103"/>
+      <c r="A246" s="102"/>
       <c r="B246" s="41"/>
       <c r="C246" s="41"/>
       <c r="D246" s="41"/>
@@ -7287,12 +7330,12 @@
       <c r="D247" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E247" s="98"/>
-      <c r="F247" s="99"/>
-      <c r="G247" s="100"/>
+      <c r="E247" s="97"/>
+      <c r="F247" s="98"/>
+      <c r="G247" s="99"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" s="101"/>
+      <c r="A248" s="100"/>
       <c r="B248" s="42"/>
       <c r="C248" s="13"/>
       <c r="D248" s="42"/>
@@ -7303,7 +7346,7 @@
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249" s="102"/>
+      <c r="A249" s="101"/>
       <c r="B249" s="42"/>
       <c r="C249" s="13"/>
       <c r="D249" s="42"/>
@@ -7312,7 +7355,7 @@
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A250" s="102"/>
+      <c r="A250" s="101"/>
       <c r="B250" s="42"/>
       <c r="C250" s="13"/>
       <c r="D250" s="42"/>
@@ -7321,7 +7364,7 @@
       <c r="G250" s="13"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" s="102"/>
+      <c r="A251" s="101"/>
       <c r="B251" s="42"/>
       <c r="C251" s="13"/>
       <c r="D251" s="42"/>
@@ -7330,7 +7373,7 @@
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A252" s="102"/>
+      <c r="A252" s="101"/>
       <c r="B252" s="42"/>
       <c r="C252" s="13"/>
       <c r="D252" s="42"/>
@@ -7339,7 +7382,7 @@
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A253" s="102"/>
+      <c r="A253" s="101"/>
       <c r="B253" s="42"/>
       <c r="C253" s="13"/>
       <c r="D253" s="42"/>
@@ -7348,7 +7391,7 @@
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A254" s="103"/>
+      <c r="A254" s="102"/>
       <c r="B254" s="41"/>
       <c r="C254" s="41"/>
       <c r="D254" s="41"/>
@@ -7499,15 +7542,48 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A240:A246"/>
-    <mergeCell ref="E247:G247"/>
-    <mergeCell ref="A248:A254"/>
-    <mergeCell ref="A216:A222"/>
-    <mergeCell ref="E223:G223"/>
-    <mergeCell ref="A224:A230"/>
-    <mergeCell ref="E231:G231"/>
-    <mergeCell ref="A232:A238"/>
-    <mergeCell ref="E239:G239"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="A144:A150"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="A160:A166"/>
     <mergeCell ref="E215:G215"/>
     <mergeCell ref="A168:A174"/>
     <mergeCell ref="E175:G175"/>
@@ -7520,48 +7596,15 @@
     <mergeCell ref="A200:A206"/>
     <mergeCell ref="E207:G207"/>
     <mergeCell ref="A208:A214"/>
-    <mergeCell ref="E167:G167"/>
-    <mergeCell ref="A120:A126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="E135:G135"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="A144:A150"/>
-    <mergeCell ref="E151:G151"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="A160:A166"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A240:A246"/>
+    <mergeCell ref="E247:G247"/>
+    <mergeCell ref="A248:A254"/>
+    <mergeCell ref="A216:A222"/>
+    <mergeCell ref="E223:G223"/>
+    <mergeCell ref="A224:A230"/>
+    <mergeCell ref="E231:G231"/>
+    <mergeCell ref="A232:A238"/>
+    <mergeCell ref="E239:G239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7572,7 +7615,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
@@ -7590,61 +7633,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -9858,34 +9901,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.7265625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7265625" customWidth="1"/>
     <col min="5" max="5" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -10051,7 +10094,7 @@
       <c r="C13" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E13" s="9"/>
@@ -10126,7 +10169,7 @@
       <c r="C18" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -10203,8 +10246,8 @@
       <c r="C23" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="D23" s="66" t="s">
-        <v>111</v>
+      <c r="D23" s="62" t="s">
+        <v>327</v>
       </c>
       <c r="E23" s="9"/>
     </row>
@@ -10221,19 +10264,21 @@
       <c r="D24" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="68" t="s">
         <v>555</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E25" s="9"/>
@@ -10242,28 +10287,30 @@
       <c r="A26" s="68" t="s">
         <v>556</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="D26" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="E26" s="9"/>
+      <c r="D26" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="68" t="s">
         <v>557</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E27" s="9"/>
@@ -10272,13 +10319,13 @@
       <c r="A28" s="68" t="s">
         <v>558</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E28" s="9"/>
@@ -10287,25 +10334,27 @@
       <c r="A29" s="68" t="s">
         <v>559</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D29" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="9"/>
+      <c r="D29" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="68" t="s">
         <v>560</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="103" t="s">
         <v>373</v>
       </c>
       <c r="D30" s="62" t="s">
@@ -10317,13 +10366,13 @@
       <c r="A31" s="68" t="s">
         <v>561</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E31" s="9"/>
@@ -10332,13 +10381,13 @@
       <c r="A32" s="68" t="s">
         <v>562</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="9"/>
@@ -10347,25 +10396,27 @@
       <c r="A33" s="68" t="s">
         <v>563</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D33" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="9"/>
+      <c r="D33" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="68" t="s">
         <v>564</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="103" t="s">
         <v>373</v>
       </c>
       <c r="D34" s="62" t="s">
@@ -10377,13 +10428,13 @@
       <c r="A35" s="68" t="s">
         <v>565</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E35" s="9"/>
@@ -10392,22 +10443,24 @@
       <c r="A36" s="68" t="s">
         <v>566</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="D36" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="9"/>
+      <c r="D36" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="68" t="s">
         <v>567</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="41" t="s">
         <v>535</v>
       </c>
       <c r="C37" s="104" t="s">
@@ -10422,7 +10475,7 @@
       <c r="A38" s="68" t="s">
         <v>568</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="41" t="s">
         <v>536</v>
       </c>
       <c r="C38" s="104" t="s">
@@ -10437,7 +10490,7 @@
       <c r="A39" s="68" t="s">
         <v>569</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="41" t="s">
         <v>537</v>
       </c>
       <c r="C39" s="104" t="s">
@@ -10452,28 +10505,30 @@
       <c r="A40" s="68" t="s">
         <v>570</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="D40" s="79" t="s">
+      <c r="D40" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="68" t="s">
         <v>571</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C41" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="79" t="s">
+      <c r="C41" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="D41" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E41" s="9"/>
@@ -10482,29 +10537,31 @@
       <c r="A42" s="68" t="s">
         <v>572</v>
       </c>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D42" s="79" t="s">
+      <c r="D42" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="68" t="s">
         <v>573</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D43" s="79" t="s">
-        <v>111</v>
+      <c r="D43" s="62" t="s">
+        <v>327</v>
       </c>
       <c r="E43" s="9"/>
     </row>
@@ -10512,13 +10569,13 @@
       <c r="A44" s="68" t="s">
         <v>574</v>
       </c>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D44" s="79" t="s">
+      <c r="D44" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E44" s="9"/>
@@ -10527,28 +10584,30 @@
       <c r="A45" s="68" t="s">
         <v>575</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D45" s="79" t="s">
+      <c r="D45" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D46" s="79" t="s">
+      <c r="D46" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E46" s="9"/>
@@ -10557,13 +10616,13 @@
       <c r="A47" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C47" s="80" t="s">
-        <v>293</v>
-      </c>
-      <c r="D47" s="79" t="s">
+      <c r="C47" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E47" s="9"/>
@@ -10572,14 +10631,14 @@
       <c r="A48" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="C48" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="D48" s="79" t="s">
-        <v>111</v>
+      <c r="C48" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="E48" s="9"/>
     </row>
@@ -10587,13 +10646,13 @@
       <c r="A49" s="68" t="s">
         <v>579</v>
       </c>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D49" s="79" t="s">
+      <c r="D49" s="80" t="s">
         <v>111</v>
       </c>
       <c r="E49" s="9"/>
@@ -10602,14 +10661,14 @@
       <c r="A50" s="68" t="s">
         <v>580</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C50" s="80" t="s">
+      <c r="C50" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="D50" s="79" t="s">
-        <v>111</v>
+      <c r="D50" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="E50" s="9"/>
     </row>
@@ -10617,37 +10676,41 @@
       <c r="A51" s="68" t="s">
         <v>581</v>
       </c>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C51" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D51" s="79" t="s">
+      <c r="D51" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="68" t="s">
         <v>582</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="41" t="s">
         <v>550</v>
       </c>
       <c r="C52" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="D52" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="E52" s="9"/>
+      <c r="D52" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="41" t="s">
         <v>551</v>
       </c>
       <c r="C53" s="104" t="s">
@@ -10662,7 +10725,7 @@
       <c r="A54" s="68" t="s">
         <v>584</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="41" t="s">
         <v>552</v>
       </c>
       <c r="C54" s="104" t="s">
@@ -10677,7 +10740,7 @@
       <c r="A55" s="68" t="s">
         <v>585</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="41" t="s">
         <v>553</v>
       </c>
       <c r="C55" s="104" t="s">
@@ -10687,14 +10750,14 @@
         <v>111</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="68" t="s">
         <v>586</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="41" t="s">
         <v>554</v>
       </c>
       <c r="C56" s="104" t="s">
@@ -10704,8 +10767,68 @@
         <v>111</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>588</v>
-      </c>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="68" t="s">
+        <v>598</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="C57" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="68" t="s">
+        <v>600</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="C58" s="104" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="68" t="s">
+        <v>602</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>603</v>
+      </c>
+      <c r="C59" s="104" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>606</v>
+      </c>
+      <c r="C60" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10735,51 +10858,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -10813,9 +10936,9 @@
         <v>5</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="85"/>
@@ -12097,16 +12220,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A118:A124"/>
     <mergeCell ref="A126:A132"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A70:A76"/>
@@ -12115,6 +12228,16 @@
     <mergeCell ref="A94:A100"/>
     <mergeCell ref="A102:A108"/>
     <mergeCell ref="A110:A116"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A24:A30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12125,8 +12248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12141,51 +12264,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -12219,11 +12342,11 @@
         <v>7</v>
       </c>
       <c r="D7" s="64"/>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="88" t="s">
         <v>445</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="85"/>
@@ -12345,9 +12468,9 @@
         <v>165</v>
       </c>
       <c r="D15" s="64"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="85"/>
@@ -12469,9 +12592,9 @@
         <v>178</v>
       </c>
       <c r="D23" s="64"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
@@ -12552,9 +12675,9 @@
         <v>179</v>
       </c>
       <c r="D30" s="64"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="90"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="85"/>
@@ -12626,11 +12749,11 @@
         <v>180</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="92" t="s">
+      <c r="E36" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="93"/>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="85"/>
@@ -12720,11 +12843,11 @@
         <v>69</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="92" t="s">
+      <c r="E44" s="91" t="s">
         <v>509</v>
       </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="94"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="93"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="85"/>
@@ -12814,9 +12937,9 @@
         <v>181</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="97"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="96"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="85"/>
@@ -12897,11 +13020,11 @@
         <v>145</v>
       </c>
       <c r="D60" s="21"/>
-      <c r="E60" s="89" t="s">
+      <c r="E60" s="88" t="s">
         <v>351</v>
       </c>
-      <c r="F60" s="90"/>
-      <c r="G60" s="91"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="90"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="85"/>
@@ -13006,9 +13129,9 @@
         <v>164</v>
       </c>
       <c r="D68" s="64"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="91"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="90"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="85"/>
@@ -13087,11 +13210,11 @@
         <v>151</v>
       </c>
       <c r="D76" s="21"/>
-      <c r="E76" s="89" t="s">
+      <c r="E76" s="88" t="s">
         <v>348</v>
       </c>
-      <c r="F76" s="90"/>
-      <c r="G76" s="91"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="90"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="85"/>
@@ -13180,11 +13303,11 @@
         <v>141</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="89" t="s">
+      <c r="E84" s="88" t="s">
         <v>350</v>
       </c>
-      <c r="F84" s="90"/>
-      <c r="G84" s="91"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="90"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="85"/>
@@ -13194,8 +13317,8 @@
       <c r="C85" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D85" s="62" t="s">
-        <v>327</v>
+      <c r="D85" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E85" s="34" t="s">
         <v>294</v>
@@ -13211,8 +13334,8 @@
       <c r="C86" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D86" s="62" t="s">
-        <v>327</v>
+      <c r="D86" s="63" t="s">
+        <v>328</v>
       </c>
       <c r="E86" s="34" t="s">
         <v>294</v>
@@ -13267,12 +13390,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E44:G44"/>
     <mergeCell ref="A85:A91"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A1:G5"/>
@@ -13289,6 +13406,12 @@
     <mergeCell ref="A53:A59"/>
     <mergeCell ref="A77:A83"/>
     <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E44:G44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13300,8 +13423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13316,51 +13439,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -13393,11 +13516,11 @@
         <v>136</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="88" t="s">
         <v>406</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="85"/>
@@ -13494,9 +13617,9 @@
         <v>144</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="85"/>
@@ -13585,9 +13708,9 @@
         <v>152</v>
       </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="85"/>
@@ -13668,9 +13791,9 @@
         <v>153</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="85"/>
@@ -13767,9 +13890,9 @@
         <v>157</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="85"/>
@@ -13866,9 +13989,9 @@
         <v>156</v>
       </c>
       <c r="D47" s="21"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="91"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="85"/>
@@ -13981,9 +14104,9 @@
         <v>397</v>
       </c>
       <c r="D55" s="21"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="91"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
     </row>
     <row r="56" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="85"/>
@@ -14066,9 +14189,9 @@
         <v>72</v>
       </c>
       <c r="D63" s="21"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="91"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="90"/>
     </row>
     <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="85"/>
@@ -14149,9 +14272,9 @@
         <v>73</v>
       </c>
       <c r="D71" s="21"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="91"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="90"/>
     </row>
     <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="85"/>
@@ -14242,9 +14365,9 @@
         <v>172</v>
       </c>
       <c r="D79" s="21"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="91"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="90"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="85"/>
@@ -14325,11 +14448,11 @@
         <v>87</v>
       </c>
       <c r="D87" s="59"/>
-      <c r="E87" s="89" t="s">
+      <c r="E87" s="88" t="s">
         <v>406</v>
       </c>
-      <c r="F87" s="90"/>
-      <c r="G87" s="91"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="90"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="85"/>
@@ -14410,11 +14533,11 @@
         <v>75</v>
       </c>
       <c r="D95" s="65"/>
-      <c r="E95" s="89" t="s">
+      <c r="E95" s="88" t="s">
         <v>406</v>
       </c>
-      <c r="F95" s="90"/>
-      <c r="G95" s="91"/>
+      <c r="F95" s="89"/>
+      <c r="G95" s="90"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="85"/>
@@ -14512,11 +14635,11 @@
         <v>413</v>
       </c>
       <c r="D103" s="72"/>
-      <c r="E103" s="89" t="s">
+      <c r="E103" s="88" t="s">
         <v>512</v>
       </c>
-      <c r="F103" s="90"/>
-      <c r="G103" s="91"/>
+      <c r="F103" s="89"/>
+      <c r="G103" s="90"/>
     </row>
     <row r="104" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="85"/>
@@ -14591,6 +14714,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="E103:G103"/>
     <mergeCell ref="A104:A110"/>
     <mergeCell ref="E23:G23"/>
@@ -14607,17 +14741,6 @@
     <mergeCell ref="A96:A102"/>
     <mergeCell ref="A80:A86"/>
     <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E87:G87"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14629,8 +14752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C23"/>
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14642,51 +14765,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -14720,9 +14843,9 @@
         <v>142</v>
       </c>
       <c r="D7" s="42"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="85"/>
@@ -14811,9 +14934,9 @@
         <v>76</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="85"/>
@@ -14910,9 +15033,9 @@
         <v>77</v>
       </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="85"/>
@@ -15020,7 +15143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -15033,51 +15156,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -15110,9 +15233,9 @@
         <v>302</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="85"/>
@@ -15203,9 +15326,9 @@
         <v>301</v>
       </c>
       <c r="D15" s="42"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="85"/>
@@ -15294,9 +15417,9 @@
         <v>70</v>
       </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="85"/>
@@ -15401,9 +15524,9 @@
         <v>78</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="85"/>
@@ -15508,9 +15631,9 @@
         <v>79</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
     </row>
     <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="85"/>
@@ -15599,9 +15722,9 @@
         <v>80</v>
       </c>
       <c r="D47" s="21"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="91"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="85"/>
@@ -15690,9 +15813,9 @@
         <v>81</v>
       </c>
       <c r="D55" s="21"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="91"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="85"/>
@@ -15789,9 +15912,9 @@
         <v>82</v>
       </c>
       <c r="D63" s="21"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="91"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="90"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="85"/>
@@ -15881,9 +16004,9 @@
         <v>170</v>
       </c>
       <c r="D71" s="42"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="100"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="99"/>
     </row>
     <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="85"/>
@@ -15966,16 +16089,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
@@ -15985,6 +16098,16 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15996,8 +16119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16009,51 +16132,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -16087,9 +16210,9 @@
         <v>74</v>
       </c>
       <c r="D7" s="21"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
     </row>
     <row r="8" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="85"/>
@@ -16188,9 +16311,9 @@
         <v>283</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="85"/>
@@ -16279,12 +16402,12 @@
         <v>306</v>
       </c>
       <c r="D23" s="42"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="42"/>
       <c r="C24" s="13" t="s">
         <v>307</v>
@@ -16299,7 +16422,7 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="102"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="42"/>
       <c r="C25" s="13" t="s">
         <v>310</v>
@@ -16314,7 +16437,7 @@
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="102"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="42"/>
       <c r="C26" s="13"/>
       <c r="D26" s="42"/>
@@ -16323,7 +16446,7 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="102"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="42"/>
       <c r="C27" s="13"/>
       <c r="D27" s="42"/>
@@ -16332,7 +16455,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="102"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="42"/>
       <c r="C28" s="13"/>
       <c r="D28" s="42"/>
@@ -16341,7 +16464,7 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="102"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="42"/>
       <c r="C29" s="13"/>
       <c r="D29" s="42"/>
@@ -16350,7 +16473,7 @@
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="103"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
@@ -16367,9 +16490,9 @@
         <v>147</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="1:7" s="43" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="85"/>
@@ -16467,9 +16590,9 @@
         <v>148</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
     </row>
     <row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="85"/>
@@ -16575,12 +16698,12 @@
         <v>83</v>
       </c>
       <c r="D47" s="42"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="99"/>
     </row>
     <row r="48" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="101"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="42" t="s">
         <v>115</v>
       </c>
@@ -16591,7 +16714,7 @@
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="102"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="46" t="s">
         <v>116</v>
       </c>
@@ -16602,7 +16725,7 @@
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="102"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="46" t="s">
         <v>117</v>
       </c>
@@ -16613,7 +16736,7 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="102"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="42" t="s">
         <v>118</v>
       </c>
@@ -16624,7 +16747,7 @@
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="102"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="42"/>
       <c r="C52" s="13"/>
       <c r="D52" s="42"/>
@@ -16633,7 +16756,7 @@
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="102"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="42"/>
       <c r="C53" s="13"/>
       <c r="D53" s="42"/>
@@ -16642,7 +16765,7 @@
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="103"/>
+      <c r="A54" s="102"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
@@ -16659,12 +16782,12 @@
         <v>84</v>
       </c>
       <c r="D55" s="42"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="100"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="99"/>
     </row>
     <row r="56" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="101"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="42" t="s">
         <v>115</v>
       </c>
@@ -16675,7 +16798,7 @@
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="102"/>
+      <c r="A57" s="101"/>
       <c r="B57" s="46" t="s">
         <v>116</v>
       </c>
@@ -16686,7 +16809,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="102"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="46" t="s">
         <v>117</v>
       </c>
@@ -16697,7 +16820,7 @@
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="102"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="42" t="s">
         <v>118</v>
       </c>
@@ -16708,7 +16831,7 @@
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="102"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="42"/>
       <c r="C60" s="13"/>
       <c r="D60" s="42"/>
@@ -16717,7 +16840,7 @@
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="102"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="42"/>
       <c r="C61" s="13"/>
       <c r="D61" s="42"/>
@@ -16726,7 +16849,7 @@
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="103"/>
+      <c r="A62" s="102"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
@@ -16743,12 +16866,12 @@
         <v>85</v>
       </c>
       <c r="D63" s="42"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="100"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="99"/>
     </row>
     <row r="64" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="42" t="s">
         <v>115</v>
       </c>
@@ -16759,7 +16882,7 @@
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="102"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="46" t="s">
         <v>116</v>
       </c>
@@ -16770,7 +16893,7 @@
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="102"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="46" t="s">
         <v>117</v>
       </c>
@@ -16781,7 +16904,7 @@
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="102"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="42" t="s">
         <v>118</v>
       </c>
@@ -16792,7 +16915,7 @@
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="102"/>
+      <c r="A68" s="101"/>
       <c r="B68" s="42"/>
       <c r="C68" s="13"/>
       <c r="D68" s="42"/>
@@ -16801,7 +16924,7 @@
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="102"/>
+      <c r="A69" s="101"/>
       <c r="B69" s="42"/>
       <c r="C69" s="13"/>
       <c r="D69" s="42"/>
@@ -16810,7 +16933,7 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="103"/>
+      <c r="A70" s="102"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
@@ -16822,12 +16945,12 @@
       <c r="A71" s="42"/>
       <c r="C71" s="14"/>
       <c r="D71" s="42"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="100"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="99"/>
     </row>
     <row r="72" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="101"/>
+      <c r="A72" s="100"/>
       <c r="B72" s="46"/>
       <c r="C72" s="13"/>
       <c r="D72" s="42"/>
@@ -16836,7 +16959,7 @@
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="102"/>
+      <c r="A73" s="101"/>
       <c r="B73" s="46"/>
       <c r="C73" s="13"/>
       <c r="D73" s="42"/>
@@ -16845,7 +16968,7 @@
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="102"/>
+      <c r="A74" s="101"/>
       <c r="B74" s="42"/>
       <c r="C74" s="13"/>
       <c r="D74" s="42"/>
@@ -16854,7 +16977,7 @@
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="102"/>
+      <c r="A75" s="101"/>
       <c r="B75" s="42"/>
       <c r="C75" s="13"/>
       <c r="D75" s="42"/>
@@ -16863,7 +16986,7 @@
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="102"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="42"/>
       <c r="C76" s="13"/>
       <c r="D76" s="42"/>
@@ -16872,7 +16995,7 @@
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="102"/>
+      <c r="A77" s="101"/>
       <c r="B77" s="42"/>
       <c r="C77" s="13"/>
       <c r="D77" s="42"/>
@@ -16881,7 +17004,7 @@
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="103"/>
+      <c r="A78" s="102"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
       <c r="D78" s="41"/>
@@ -16893,12 +17016,12 @@
       <c r="A79" s="42"/>
       <c r="C79" s="14"/>
       <c r="D79" s="42"/>
-      <c r="E79" s="98"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="100"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="99"/>
     </row>
     <row r="80" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="101"/>
+      <c r="A80" s="100"/>
       <c r="B80" s="42"/>
       <c r="C80" s="13"/>
       <c r="D80" s="42"/>
@@ -16907,7 +17030,7 @@
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="102"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="42"/>
       <c r="C81" s="13"/>
       <c r="D81" s="42"/>
@@ -16916,7 +17039,7 @@
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="102"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="42"/>
       <c r="C82" s="13"/>
       <c r="D82" s="42"/>
@@ -16925,7 +17048,7 @@
       <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="102"/>
+      <c r="A83" s="101"/>
       <c r="B83" s="42"/>
       <c r="C83" s="13"/>
       <c r="D83" s="42"/>
@@ -16934,7 +17057,7 @@
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="102"/>
+      <c r="A84" s="101"/>
       <c r="B84" s="42"/>
       <c r="C84" s="13"/>
       <c r="D84" s="42"/>
@@ -16943,7 +17066,7 @@
       <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="102"/>
+      <c r="A85" s="101"/>
       <c r="B85" s="42"/>
       <c r="C85" s="13"/>
       <c r="D85" s="42"/>
@@ -16952,7 +17075,7 @@
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="103"/>
+      <c r="A86" s="102"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
       <c r="D86" s="41"/>
@@ -16964,12 +17087,12 @@
       <c r="A87" s="42"/>
       <c r="C87" s="14"/>
       <c r="D87" s="42"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="100"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="99"/>
     </row>
     <row r="88" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="101"/>
+      <c r="A88" s="100"/>
       <c r="B88" s="46"/>
       <c r="C88" s="13"/>
       <c r="D88" s="42"/>
@@ -16978,7 +17101,7 @@
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="102"/>
+      <c r="A89" s="101"/>
       <c r="B89" s="46"/>
       <c r="C89" s="13"/>
       <c r="D89" s="42"/>
@@ -16987,7 +17110,7 @@
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="102"/>
+      <c r="A90" s="101"/>
       <c r="B90" s="42"/>
       <c r="C90" s="13"/>
       <c r="D90" s="42"/>
@@ -16996,7 +17119,7 @@
       <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="102"/>
+      <c r="A91" s="101"/>
       <c r="B91" s="42"/>
       <c r="C91" s="13"/>
       <c r="D91" s="42"/>
@@ -17005,7 +17128,7 @@
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="102"/>
+      <c r="A92" s="101"/>
       <c r="B92" s="42"/>
       <c r="C92" s="13"/>
       <c r="D92" s="42"/>
@@ -17014,7 +17137,7 @@
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="102"/>
+      <c r="A93" s="101"/>
       <c r="B93" s="42"/>
       <c r="C93" s="13"/>
       <c r="D93" s="42"/>
@@ -17023,7 +17146,7 @@
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="103"/>
+      <c r="A94" s="102"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
       <c r="D94" s="41"/>
@@ -17035,12 +17158,12 @@
       <c r="A95" s="42"/>
       <c r="C95" s="14"/>
       <c r="D95" s="42"/>
-      <c r="E95" s="98"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="100"/>
+      <c r="E95" s="97"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="99"/>
     </row>
     <row r="96" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="101"/>
+      <c r="A96" s="100"/>
       <c r="B96" s="42"/>
       <c r="C96" s="13"/>
       <c r="D96" s="42"/>
@@ -17049,7 +17172,7 @@
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="102"/>
+      <c r="A97" s="101"/>
       <c r="B97" s="42"/>
       <c r="C97" s="13"/>
       <c r="D97" s="42"/>
@@ -17058,7 +17181,7 @@
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="102"/>
+      <c r="A98" s="101"/>
       <c r="B98" s="42"/>
       <c r="C98" s="13"/>
       <c r="D98" s="42"/>
@@ -17067,7 +17190,7 @@
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="102"/>
+      <c r="A99" s="101"/>
       <c r="B99" s="42"/>
       <c r="C99" s="13"/>
       <c r="D99" s="42"/>
@@ -17076,7 +17199,7 @@
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="102"/>
+      <c r="A100" s="101"/>
       <c r="B100" s="42"/>
       <c r="C100" s="13"/>
       <c r="D100" s="42"/>
@@ -17085,7 +17208,7 @@
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="102"/>
+      <c r="A101" s="101"/>
       <c r="B101" s="42"/>
       <c r="C101" s="13"/>
       <c r="D101" s="42"/>
@@ -17094,7 +17217,7 @@
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="103"/>
+      <c r="A102" s="102"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
       <c r="D102" s="41"/>
@@ -17106,12 +17229,12 @@
       <c r="A103" s="42"/>
       <c r="C103" s="14"/>
       <c r="D103" s="42"/>
-      <c r="E103" s="98"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="100"/>
+      <c r="E103" s="97"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="99"/>
     </row>
     <row r="104" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="101"/>
+      <c r="A104" s="100"/>
       <c r="B104" s="42"/>
       <c r="C104" s="13"/>
       <c r="D104" s="42"/>
@@ -17120,7 +17243,7 @@
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="102"/>
+      <c r="A105" s="101"/>
       <c r="B105" s="42"/>
       <c r="C105" s="13"/>
       <c r="D105" s="42"/>
@@ -17129,7 +17252,7 @@
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="102"/>
+      <c r="A106" s="101"/>
       <c r="B106" s="42"/>
       <c r="C106" s="13"/>
       <c r="D106" s="42"/>
@@ -17138,7 +17261,7 @@
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="102"/>
+      <c r="A107" s="101"/>
       <c r="B107" s="42"/>
       <c r="C107" s="13"/>
       <c r="D107" s="42"/>
@@ -17147,7 +17270,7 @@
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="102"/>
+      <c r="A108" s="101"/>
       <c r="B108" s="42"/>
       <c r="C108" s="13"/>
       <c r="D108" s="42"/>
@@ -17156,7 +17279,7 @@
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="102"/>
+      <c r="A109" s="101"/>
       <c r="B109" s="42"/>
       <c r="C109" s="13"/>
       <c r="D109" s="42"/>
@@ -17165,7 +17288,7 @@
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="103"/>
+      <c r="A110" s="102"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
       <c r="D110" s="41"/>
@@ -17175,12 +17298,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="E95:G95"/>
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="E31:G31"/>
@@ -17193,15 +17319,12 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A96:A102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -14631,10 +14631,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A56" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15359,10 +15359,212 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
     </row>
+    <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="92"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="86"/>
+      <c r="B64" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="87"/>
+      <c r="B65" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="87"/>
+      <c r="B66" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="87"/>
+      <c r="B67" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="87"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="87"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="88"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="92"/>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="86"/>
+      <c r="B72" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="87"/>
+      <c r="B73" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="87"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="87"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="87"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="87"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="88"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A72:A78"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:A62"/>
+    <mergeCell ref="E63:G63"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="E31:G31"/>
@@ -15386,8 +15588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15759,12 +15961,12 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="90"/>
@@ -15773,69 +15975,53 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="86"/>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="38" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>303</v>
+        <v>284</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="87"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="38" t="s">
         <v>116</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>303</v>
+        <v>285</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="87"/>
-      <c r="B34" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>303</v>
-      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="87"/>
-      <c r="B35" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>303</v>
-      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
@@ -15866,188 +16052,6 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="92"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="87"/>
-      <c r="B41" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="87"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="87"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="87"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="87"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="88"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="92"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="87"/>
-      <c r="B49" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="87"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="87"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="87"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="87"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="88"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-    </row>
     <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="105" t="s">
         <v>103</v>
@@ -16148,7 +16152,7 @@
       <c r="G86" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="11">
     <mergeCell ref="E79:G79"/>
     <mergeCell ref="A80:A86"/>
     <mergeCell ref="A1:G5"/>
@@ -16160,10 +16164,6 @@
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="A32:A38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A48:A54"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16175,8 +16175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
+++ b/documentacion/desarrollo/cronograma/Product Backlog Sibica.xlsx
@@ -27,6 +27,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PB!$A$6:$I$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pendientes!$A$1:$F$60</definedName>
     <definedName name="_ftn1" localSheetId="1">PB!$C$17</definedName>
     <definedName name="_ftnref1" localSheetId="1">PB!$C$11</definedName>
   </definedNames>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="633">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -3806,6 +3807,9 @@
   </si>
   <si>
     <t>Al momento de guardar un tipo de amoclamiento, muestra mensaje de error</t>
+  </si>
+  <si>
+    <t>se le envia correo a wilmar para que habilite los permisos</t>
   </si>
 </sst>
 </file>
@@ -4158,7 +4162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4502,6 +4506,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8691,25 +8698,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>612</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>613</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="125" t="s">
         <v>614</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="125" t="s">
         <v>615</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="125" t="s">
         <v>616</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="125" t="s">
         <v>617</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="125" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8717,19 +8724,19 @@
       <c r="A2" s="122">
         <v>1</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="126" t="s">
         <v>619</v>
       </c>
-      <c r="C2" s="123">
+      <c r="C2" s="124">
         <v>43734</v>
       </c>
-      <c r="D2" s="123">
+      <c r="D2" s="124">
         <v>43736</v>
       </c>
       <c r="E2" s="122" t="s">
         <v>620</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="127" t="s">
         <v>621</v>
       </c>
       <c r="G2" s="122"/>
@@ -8741,7 +8748,7 @@
       <c r="B3" s="122" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="124">
         <v>43734</v>
       </c>
       <c r="D3" s="122"/>
@@ -8760,7 +8767,7 @@
       <c r="B4" s="122" t="s">
         <v>624</v>
       </c>
-      <c r="C4" s="123">
+      <c r="C4" s="124">
         <v>43734</v>
       </c>
       <c r="D4" s="122"/>
@@ -8779,16 +8786,16 @@
       <c r="B5" s="122" t="s">
         <v>625</v>
       </c>
-      <c r="C5" s="123">
+      <c r="C5" s="124">
         <v>43734</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="124">
         <v>43736</v>
       </c>
       <c r="E5" s="122" t="s">
         <v>620</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="127" t="s">
         <v>621</v>
       </c>
       <c r="G5" s="122"/>
@@ -8800,7 +8807,7 @@
       <c r="B6" s="122" t="s">
         <v>626</v>
       </c>
-      <c r="C6" s="123">
+      <c r="C6" s="124">
         <v>43734</v>
       </c>
       <c r="D6" s="122"/>
@@ -8819,16 +8826,16 @@
       <c r="B7" s="122" t="s">
         <v>628</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="124">
         <v>43734</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="124">
         <v>43736</v>
       </c>
       <c r="E7" s="122" t="s">
         <v>627</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="127" t="s">
         <v>621</v>
       </c>
       <c r="G7" s="122"/>
@@ -8840,7 +8847,7 @@
       <c r="B8" s="122" t="s">
         <v>629</v>
       </c>
-      <c r="C8" s="123">
+      <c r="C8" s="124">
         <v>43734</v>
       </c>
       <c r="D8" s="122"/>
@@ -8859,7 +8866,7 @@
       <c r="B9" s="122" t="s">
         <v>630</v>
       </c>
-      <c r="C9" s="123">
+      <c r="C9" s="124">
         <v>43737</v>
       </c>
       <c r="D9" s="122"/>
@@ -8878,7 +8885,7 @@
       <c r="B10" s="122" t="s">
         <v>631</v>
       </c>
-      <c r="C10" s="123">
+      <c r="C10" s="124">
         <v>43737</v>
       </c>
       <c r="D10" s="122"/>
@@ -11307,10 +11314,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11332,7 +11340,7 @@
       <c r="E1" s="102"/>
       <c r="F1" s="102"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -11340,7 +11348,7 @@
       <c r="E2" s="102"/>
       <c r="F2" s="102"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
         <v>400</v>
       </c>
@@ -11360,7 +11368,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="112" t="s">
         <v>362</v>
       </c>
@@ -11378,7 +11386,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="112" t="s">
         <v>363</v>
       </c>
@@ -11394,7 +11402,7 @@
       <c r="E5" s="105"/>
       <c r="F5" s="119"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="112" t="s">
         <v>364</v>
       </c>
@@ -11412,7 +11420,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
         <v>365</v>
       </c>
@@ -11430,7 +11438,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="112" t="s">
         <v>366</v>
       </c>
@@ -11446,7 +11454,7 @@
       <c r="E8" s="105"/>
       <c r="F8" s="119"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="112" t="s">
         <v>367</v>
       </c>
@@ -11464,7 +11472,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="112" t="s">
         <v>368</v>
       </c>
@@ -11480,7 +11488,7 @@
       <c r="E10" s="105"/>
       <c r="F10" s="119"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="112" t="s">
         <v>369</v>
       </c>
@@ -11498,7 +11506,7 @@
       </c>
       <c r="F11" s="119"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="112" t="s">
         <v>370</v>
       </c>
@@ -11524,13 +11532,15 @@
       <c r="C13" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="D13" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="105"/>
+      <c r="D13" s="123" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>611</v>
+      </c>
       <c r="F13" s="119"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="112" t="s">
         <v>372</v>
       </c>
@@ -11544,7 +11554,7 @@
       </c>
       <c r="F14" s="119"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="112" t="s">
         <v>384</v>
       </c>
@@ -11562,7 +11572,7 @@
       </c>
       <c r="F15" s="119"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112" t="s">
         <v>385</v>
       </c>
@@ -11576,7 +11586,7 @@
       </c>
       <c r="F16" s="119"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="112" t="s">
         <v>386</v>
       </c>
@@ -11594,7 +11604,7 @@
       </c>
       <c r="F17" s="119"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="112" t="s">
         <v>387</v>
       </c>
@@ -11612,7 +11622,7 @@
       </c>
       <c r="F18" s="119"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="112" t="s">
         <v>388</v>
       </c>
@@ -11628,7 +11638,7 @@
       <c r="E19" s="105"/>
       <c r="F19" s="119"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112" t="s">
         <v>389</v>
       </c>
@@ -11644,7 +11654,7 @@
       <c r="E20" s="105"/>
       <c r="F20" s="119"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="112" t="s">
         <v>390</v>
       </c>
@@ -11660,7 +11670,7 @@
       <c r="E21" s="105"/>
       <c r="F21" s="119"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="112" t="s">
         <v>391</v>
       </c>
@@ -11676,7 +11686,7 @@
       <c r="E22" s="105"/>
       <c r="F22" s="119"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="112" t="s">
         <v>392</v>
       </c>
@@ -11710,7 +11720,7 @@
       </c>
       <c r="F24" s="119"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="112" t="s">
         <v>555</v>
       </c>
@@ -11728,7 +11738,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112" t="s">
         <v>556</v>
       </c>
@@ -11746,7 +11756,7 @@
       </c>
       <c r="F26" s="119"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="112" t="s">
         <v>557</v>
       </c>
@@ -11762,7 +11772,7 @@
       <c r="E27" s="105"/>
       <c r="F27" s="119"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="112" t="s">
         <v>558</v>
       </c>
@@ -11778,7 +11788,7 @@
       <c r="E28" s="105"/>
       <c 